--- a/tp2/exemple/src/result.xlsx
+++ b/tp2/exemple/src/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\01.Travaux.Poly\09.A2018\INF4705.algo\swagnalyse\tp2\exemple\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96FD40AB-3727-487F-AB49-2B12B67FBDA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C6463BF-2461-4A3C-B138-131644CA880A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="78" yWindow="462" windowWidth="25440" windowHeight="14502" xr2:uid="{5E1C5933-FED9-854C-841B-467E1B961C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t>glouton</t>
   </si>
@@ -838,6 +838,9 @@
   </si>
   <si>
     <t>WC-500-1000-10.txt</t>
+  </si>
+  <si>
+    <t>recuit</t>
   </si>
 </sst>
 </file>
@@ -879,10 +882,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,1372 +1201,5048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D3A866-B3F1-5D4F-A126-3B73E31B27BE}">
-  <dimension ref="A1:B270"/>
+  <dimension ref="A1:P270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="12.34765625" customWidth="1"/>
+    <col min="5" max="5" width="11.6484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.7">
+    <row r="1" spans="1:16" ht="17.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.7">
+      <c r="E1">
+        <v>1.1610984802246001E-3</v>
+      </c>
+      <c r="F1">
+        <v>4055</v>
+      </c>
+      <c r="G1">
+        <v>4000</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(E1:E10)</f>
+        <v>8.849620819091781E-4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M1">
+        <v>4.43935394287109E-4</v>
+      </c>
+      <c r="N1">
+        <v>4021</v>
+      </c>
+      <c r="O1">
+        <v>4000</v>
+      </c>
+      <c r="P1">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.7">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.7">
+      <c r="E2">
+        <v>8.8381767272949197E-4</v>
+      </c>
+      <c r="F2">
+        <v>3995</v>
+      </c>
+      <c r="M2">
+        <v>3.7789344787597602E-4</v>
+      </c>
+      <c r="N2">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.7">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.7">
+      <c r="E3">
+        <v>1.01995468139648E-3</v>
+      </c>
+      <c r="F3">
+        <v>4013</v>
+      </c>
+      <c r="M3">
+        <v>4.3797492980956999E-4</v>
+      </c>
+      <c r="N3">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.7">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.7">
+      <c r="E4">
+        <v>8.2492828369140603E-4</v>
+      </c>
+      <c r="F4">
+        <v>4055</v>
+      </c>
+      <c r="M4">
+        <v>4.4202804565429601E-4</v>
+      </c>
+      <c r="N4">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17.7">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.7">
+      <c r="E5">
+        <v>8.1920623779296799E-4</v>
+      </c>
+      <c r="F5">
+        <v>4019</v>
+      </c>
+      <c r="M5">
+        <v>4.3797492980956999E-4</v>
+      </c>
+      <c r="N5">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17.7">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.7">
+      <c r="E6">
+        <v>8.7761878967285102E-4</v>
+      </c>
+      <c r="F6">
+        <v>4186</v>
+      </c>
+      <c r="M6">
+        <v>3.2281875610351497E-4</v>
+      </c>
+      <c r="N6">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17.7">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.7">
+      <c r="E7">
+        <v>8.1896781921386697E-4</v>
+      </c>
+      <c r="F7">
+        <v>4186</v>
+      </c>
+      <c r="M7">
+        <v>3.9911270141601497E-4</v>
+      </c>
+      <c r="N7">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17.7">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.7">
+      <c r="E8">
+        <v>8.04901123046875E-4</v>
+      </c>
+      <c r="F8">
+        <v>4089</v>
+      </c>
+      <c r="M8">
+        <v>3.56197357177734E-4</v>
+      </c>
+      <c r="N8">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17.7">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.7">
+      <c r="E9">
+        <v>8.0609321594238205E-4</v>
+      </c>
+      <c r="F9">
+        <v>4023</v>
+      </c>
+      <c r="M9">
+        <v>3.3593177795410102E-4</v>
+      </c>
+      <c r="N9">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17.7">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.7">
+      <c r="E10">
+        <v>8.3303451538085905E-4</v>
+      </c>
+      <c r="F10">
+        <v>3995</v>
+      </c>
+      <c r="M10">
+        <v>3.2830238342285102E-4</v>
+      </c>
+      <c r="N10">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17.7">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.7">
+      <c r="E11">
+        <v>1.14917755126953E-4</v>
+      </c>
+      <c r="F11">
+        <v>402</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H2:H65" si="0">AVERAGE(E11:E20)</f>
+        <v>1.0101795196533188E-4</v>
+      </c>
+      <c r="M11">
+        <v>1.6808509826660099E-4</v>
+      </c>
+      <c r="N11">
+        <v>370</v>
+      </c>
+      <c r="O11">
+        <v>400</v>
+      </c>
+      <c r="P11">
+        <f>AVERAGE(M11:M20)</f>
+        <v>1.6970634460449169E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17.7">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.7">
+      <c r="E12" s="3">
+        <v>9.2267990112304606E-5</v>
+      </c>
+      <c r="F12">
+        <v>402</v>
+      </c>
+      <c r="M12">
+        <v>1.7118453979492101E-4</v>
+      </c>
+      <c r="N12">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.7">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.7">
+      <c r="E13" s="3">
+        <v>9.2983245849609294E-5</v>
+      </c>
+      <c r="F13">
+        <v>433</v>
+      </c>
+      <c r="M13">
+        <v>1.82867050170898E-4</v>
+      </c>
+      <c r="N13">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17.7">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.7">
+      <c r="E14">
+        <v>1.09672546386718E-4</v>
+      </c>
+      <c r="F14">
+        <v>421</v>
+      </c>
+      <c r="M14">
+        <v>1.57833099365234E-4</v>
+      </c>
+      <c r="N14">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17.7">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.7">
+      <c r="E15">
+        <v>1.17063522338867E-4</v>
+      </c>
+      <c r="F15">
+        <v>415</v>
+      </c>
+      <c r="M15">
+        <v>1.4400482177734299E-4</v>
+      </c>
+      <c r="N15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17.7">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" ht="17.7">
+      <c r="E16" s="3">
+        <v>9.0837478637695299E-5</v>
+      </c>
+      <c r="F16">
+        <v>455</v>
+      </c>
+      <c r="M16">
+        <v>1.5830993652343701E-4</v>
+      </c>
+      <c r="N16">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="17.7">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="17.7">
+      <c r="E17">
+        <v>1.0895729064941399E-4</v>
+      </c>
+      <c r="F17">
+        <v>402</v>
+      </c>
+      <c r="M17">
+        <v>1.7404556274414E-4</v>
+      </c>
+      <c r="N17">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="17.7">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="17.7">
+      <c r="E18" s="3">
+        <v>9.4890594482421794E-5</v>
+      </c>
+      <c r="F18">
+        <v>443</v>
+      </c>
+      <c r="M18">
+        <v>1.85728073120117E-4</v>
+      </c>
+      <c r="N18">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="17.7">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" ht="17.7">
+      <c r="E19" s="3">
+        <v>9.8943710327148397E-5</v>
+      </c>
+      <c r="F19">
+        <v>402</v>
+      </c>
+      <c r="M19">
+        <v>1.78098678588867E-4</v>
+      </c>
+      <c r="N19">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="17.7">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" ht="17.7">
+      <c r="E20" s="3">
+        <v>8.96453857421875E-5</v>
+      </c>
+      <c r="F20">
+        <v>402</v>
+      </c>
+      <c r="M20">
+        <v>1.76906585693359E-4</v>
+      </c>
+      <c r="N20">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="17.7">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" ht="17.7">
+      <c r="E21">
+        <v>4.4417381286621002E-4</v>
+      </c>
+      <c r="F21">
+        <v>2046</v>
+      </c>
+      <c r="G21">
+        <v>2000</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>4.5180320739746023E-4</v>
+      </c>
+      <c r="M21">
+        <v>2.3198127746581999E-4</v>
+      </c>
+      <c r="N21">
+        <v>2019</v>
+      </c>
+      <c r="O21">
+        <v>2000</v>
+      </c>
+      <c r="P21">
+        <f>AVERAGE(M21:M30)</f>
+        <v>2.3531913757324181E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="17.7">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" ht="17.7">
+      <c r="E22">
+        <v>5.6409835815429601E-4</v>
+      </c>
+      <c r="F22">
+        <v>2026</v>
+      </c>
+      <c r="M22">
+        <v>2.25067138671875E-4</v>
+      </c>
+      <c r="N22">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="17.7">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" ht="17.7">
+      <c r="E23">
+        <v>4.1604042053222602E-4</v>
+      </c>
+      <c r="F23">
+        <v>2040</v>
+      </c>
+      <c r="M23">
+        <v>2.288818359375E-4</v>
+      </c>
+      <c r="N23">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="17.7">
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" ht="17.7">
+      <c r="E24">
+        <v>3.92913818359375E-4</v>
+      </c>
+      <c r="F24">
+        <v>2010</v>
+      </c>
+      <c r="M24">
+        <v>2.3674964904785099E-4</v>
+      </c>
+      <c r="N24">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="17.7">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" ht="17.7">
+      <c r="E25">
+        <v>4.6992301940917898E-4</v>
+      </c>
+      <c r="F25">
+        <v>2008</v>
+      </c>
+      <c r="M25">
+        <v>2.2196769714355401E-4</v>
+      </c>
+      <c r="N25">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="17.7">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" ht="17.7">
+      <c r="E26">
+        <v>4.4417381286621002E-4</v>
+      </c>
+      <c r="F26">
+        <v>2086</v>
+      </c>
+      <c r="M26">
+        <v>2.86102294921875E-4</v>
+      </c>
+      <c r="N26">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="17.7">
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" ht="17.7">
+      <c r="E27">
+        <v>4.16994094848632E-4</v>
+      </c>
+      <c r="F27">
+        <v>2064</v>
+      </c>
+      <c r="M27">
+        <v>2.3603439331054601E-4</v>
+      </c>
+      <c r="N27">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="17.7">
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" ht="17.7">
+      <c r="E28">
+        <v>4.7588348388671799E-4</v>
+      </c>
+      <c r="F28">
+        <v>2046</v>
+      </c>
+      <c r="M28">
+        <v>2.2792816162109299E-4</v>
+      </c>
+      <c r="N28">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="17.7">
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" ht="17.7">
+      <c r="E29">
+        <v>4.1675567626953098E-4</v>
+      </c>
+      <c r="F29">
+        <v>2016</v>
+      </c>
+      <c r="M29">
+        <v>2.30312347412109E-4</v>
+      </c>
+      <c r="N29">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="17.7">
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" ht="17.7">
+      <c r="E30">
+        <v>4.7707557678222602E-4</v>
+      </c>
+      <c r="F30">
+        <v>2068</v>
+      </c>
+      <c r="M30">
+        <v>2.2816658020019499E-4</v>
+      </c>
+      <c r="N30">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="17.7">
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" ht="17.7">
+      <c r="E31" s="3">
+        <v>2.4080276489257799E-5</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
+        <f>AVERAGE(E31:E40)</f>
+        <v>2.7060508728027323E-5</v>
+      </c>
+      <c r="M31">
+        <v>1.18017196655273E-4</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <f>AVERAGE(M31:M40)</f>
+        <v>1.0411739349365206E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="17.7">
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" ht="17.7">
+      <c r="E32" s="3">
+        <v>2.2172927856445299E-5</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="M32" s="3">
+        <v>9.6082687377929606E-5</v>
+      </c>
+      <c r="N32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="17.7">
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" ht="17.7">
+      <c r="E33" s="3">
+        <v>2.3841857910156199E-5</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>1.18017196655273E-4</v>
+      </c>
+      <c r="N33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="17.7">
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" ht="17.7">
+      <c r="E34" s="3">
+        <v>3.0994415283203098E-5</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>1.20162963867187E-4</v>
+      </c>
+      <c r="N34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="17.7">
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" ht="17.7">
+      <c r="E35" s="3">
+        <v>2.9802322387695299E-5</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3">
+        <v>8.7738037109375E-5</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="17.7">
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" ht="17.7">
+      <c r="E36" s="3">
+        <v>2.7894973754882799E-5</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>1.0013580322265601E-4</v>
+      </c>
+      <c r="N36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="17.7">
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" ht="17.7">
+      <c r="E37" s="3">
+        <v>3.2901763916015598E-5</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>1.04904174804687E-4</v>
+      </c>
+      <c r="N37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="17.7">
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" ht="17.7">
+      <c r="E38" s="3">
+        <v>2.47955322265625E-5</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="M38" s="3">
+        <v>9.8228454589843696E-5</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="17.7">
       <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" ht="17.7">
+      <c r="E39" s="3">
+        <v>2.3126602172851502E-5</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="M39" s="3">
+        <v>8.58306884765625E-5</v>
+      </c>
+      <c r="N39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="17.7">
       <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" ht="17.7">
+      <c r="E40" s="3">
+        <v>3.0994415283203098E-5</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>1.12056732177734E-4</v>
+      </c>
+      <c r="N40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="17.7">
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" ht="17.7">
+      <c r="E41" s="3">
+        <v>3.19480895996093E-5</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>2.5939941406249962E-5</v>
+      </c>
+      <c r="M41" s="3">
+        <v>7.8916549682617106E-5</v>
+      </c>
+      <c r="N41">
+        <v>25</v>
+      </c>
+      <c r="O41">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <f>AVERAGE(M41:M50)</f>
+        <v>9.93728637695309E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="17.7">
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" ht="17.7">
+      <c r="E42" s="3">
+        <v>2.288818359375E-5</v>
+      </c>
+      <c r="F42">
+        <v>96</v>
+      </c>
+      <c r="M42" s="3">
+        <v>7.9870223999023397E-5</v>
+      </c>
+      <c r="N42">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="17.7">
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" ht="17.7">
+      <c r="E43" s="3">
+        <v>2.3126602172851502E-5</v>
+      </c>
+      <c r="F43">
+        <v>96</v>
+      </c>
+      <c r="M43" s="3">
+        <v>8.20159912109375E-5</v>
+      </c>
+      <c r="N43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="17.7">
       <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" ht="17.7">
+      <c r="E44" s="3">
+        <v>2.47955322265625E-5</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="M44">
+        <v>1.12295150756835E-4</v>
+      </c>
+      <c r="N44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="17.7">
       <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" ht="17.7">
+      <c r="E45" s="3">
+        <v>2.47955322265625E-5</v>
+      </c>
+      <c r="F45">
+        <v>97</v>
+      </c>
+      <c r="M45" s="3">
+        <v>9.3221664428710897E-5</v>
+      </c>
+      <c r="N45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="17.7">
       <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" ht="17.7">
+      <c r="E46" s="3">
+        <v>2.62260437011718E-5</v>
+      </c>
+      <c r="F46">
+        <v>95</v>
+      </c>
+      <c r="M46">
+        <v>1.11818313598632E-4</v>
+      </c>
+      <c r="N46">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="17.7">
       <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" ht="17.7">
+      <c r="E47" s="3">
+        <v>2.62260437011718E-5</v>
+      </c>
+      <c r="F47">
+        <v>98</v>
+      </c>
+      <c r="M47">
+        <v>1.08718872070312E-4</v>
+      </c>
+      <c r="N47">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="17.7">
       <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" ht="17.7">
+      <c r="E48" s="3">
+        <v>2.5272369384765601E-5</v>
+      </c>
+      <c r="F48">
+        <v>98</v>
+      </c>
+      <c r="M48">
+        <v>1.25885009765625E-4</v>
+      </c>
+      <c r="N48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="17.7">
       <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" ht="17.7">
+      <c r="E49" s="3">
+        <v>2.4080276489257799E-5</v>
+      </c>
+      <c r="F49">
+        <v>94</v>
+      </c>
+      <c r="M49">
+        <v>1.12295150756835E-4</v>
+      </c>
+      <c r="N49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="17.7">
       <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" ht="17.7">
+      <c r="E50" s="3">
+        <v>3.00407409667968E-5</v>
+      </c>
+      <c r="F50">
+        <v>98</v>
+      </c>
+      <c r="M50" s="3">
+        <v>8.8691711425781196E-5</v>
+      </c>
+      <c r="N50">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="17.7">
       <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" ht="17.7">
+      <c r="E51" s="3">
+        <v>2.4080276489257799E-5</v>
+      </c>
+      <c r="F51">
+        <v>906</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>3.0422210693359336E-5</v>
+      </c>
+      <c r="M51" s="3">
+        <v>7.8916549682617106E-5</v>
+      </c>
+      <c r="N51">
+        <v>939</v>
+      </c>
+      <c r="O51">
+        <v>1000</v>
+      </c>
+      <c r="P51">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" ht="17.7">
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" ht="17.7">
+      <c r="E52" s="3">
+        <v>2.7894973754882799E-5</v>
+      </c>
+      <c r="F52">
+        <v>996</v>
+      </c>
+      <c r="M52">
+        <v>1.08003616333007E-4</v>
+      </c>
+      <c r="N52">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" ht="17.7">
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" ht="17.7">
+      <c r="E53" s="3">
+        <v>2.7894973754882799E-5</v>
+      </c>
+      <c r="F53">
+        <v>991</v>
+      </c>
+      <c r="M53">
+        <v>1.31130218505859E-4</v>
+      </c>
+      <c r="N53">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="17.7">
       <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" ht="17.7">
+      <c r="E54" s="3">
+        <v>2.9087066650390601E-5</v>
+      </c>
+      <c r="F54">
+        <v>904</v>
+      </c>
+      <c r="M54" s="3">
+        <v>8.0108642578125E-5</v>
+      </c>
+      <c r="N54">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="17.7">
       <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" ht="17.7">
+      <c r="E55" s="3">
+        <v>2.9325485229492099E-5</v>
+      </c>
+      <c r="F55">
+        <v>928</v>
+      </c>
+      <c r="M55">
+        <v>1.1610984802246E-4</v>
+      </c>
+      <c r="N55">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" ht="17.7">
       <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" ht="17.7">
+      <c r="E56" s="3">
+        <v>2.9087066650390601E-5</v>
+      </c>
+      <c r="F56">
+        <v>985</v>
+      </c>
+      <c r="M56" s="3">
+        <v>9.5844268798828098E-5</v>
+      </c>
+      <c r="N56">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="17.7">
       <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" ht="17.7">
+      <c r="E57" s="3">
+        <v>2.6941299438476502E-5</v>
+      </c>
+      <c r="F57">
+        <v>944</v>
+      </c>
+      <c r="M57">
+        <v>1.1610984802246E-4</v>
+      </c>
+      <c r="N57">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" ht="17.7">
       <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" ht="17.7">
+      <c r="E58" s="3">
+        <v>4.8875808715820299E-5</v>
+      </c>
+      <c r="F58">
+        <v>972</v>
+      </c>
+      <c r="M58" s="3">
+        <v>9.0837478637695299E-5</v>
+      </c>
+      <c r="N58">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" ht="17.7">
       <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" ht="17.7">
+      <c r="E59" s="3">
+        <v>2.7894973754882799E-5</v>
+      </c>
+      <c r="F59">
+        <v>889</v>
+      </c>
+      <c r="M59" s="3">
+        <v>8.1062316894531196E-5</v>
+      </c>
+      <c r="N59">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="17.7">
       <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" ht="17.7">
+      <c r="E60" s="3">
+        <v>3.3140182495117099E-5</v>
+      </c>
+      <c r="F60">
+        <v>913</v>
+      </c>
+      <c r="M60" s="3">
+        <v>9.4890594482421794E-5</v>
+      </c>
+      <c r="N60">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" ht="17.7">
       <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" ht="17.7">
+      <c r="E61" s="3">
+        <v>9.6082687377929606E-5</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>1.0538101196289019E-4</v>
+      </c>
+      <c r="M61">
+        <v>1.05857849121093E-4</v>
+      </c>
+      <c r="N61">
+        <v>11</v>
+      </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
+      <c r="P61">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" ht="17.7">
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" ht="17.7">
+      <c r="E62">
+        <v>1.0704994201660099E-4</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="M62" s="3">
+        <v>9.0837478637695299E-5</v>
+      </c>
+      <c r="N62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" ht="17.7">
       <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" ht="17.7">
+      <c r="E63" s="3">
+        <v>9.7990036010742106E-5</v>
+      </c>
+      <c r="F63">
+        <v>14</v>
+      </c>
+      <c r="M63">
+        <v>1.12056732177734E-4</v>
+      </c>
+      <c r="N63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" ht="17.7">
       <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" ht="17.7">
+      <c r="E64" s="3">
+        <v>9.2029571533203098E-5</v>
+      </c>
+      <c r="F64">
+        <v>21</v>
+      </c>
+      <c r="M64">
+        <v>1.01804733276367E-4</v>
+      </c>
+      <c r="N64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" ht="17.7">
       <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" ht="17.7">
+      <c r="E65">
+        <v>1.0704994201660099E-4</v>
+      </c>
+      <c r="F65">
+        <v>31</v>
+      </c>
+      <c r="M65">
+        <v>1.4495849609375E-4</v>
+      </c>
+      <c r="N65">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" ht="17.7">
       <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" ht="17.7">
+      <c r="E66">
+        <v>1.21831893920898E-4</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="M66">
+        <v>1.0228157043457E-4</v>
+      </c>
+      <c r="N66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" ht="17.7">
       <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" ht="17.7">
+      <c r="E67">
+        <v>1.19924545288085E-4</v>
+      </c>
+      <c r="F67">
+        <v>37</v>
+      </c>
+      <c r="M67">
+        <v>1.15871429443359E-4</v>
+      </c>
+      <c r="N67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" ht="17.7">
       <c r="B68" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" ht="17.7">
+      <c r="E68">
+        <v>1.23262405395507E-4</v>
+      </c>
+      <c r="F68">
+        <v>42</v>
+      </c>
+      <c r="M68">
+        <v>1.1396408081054599E-4</v>
+      </c>
+      <c r="N68">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" ht="17.7">
       <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" ht="17.7">
+      <c r="E69">
+        <v>1.0085105895996E-4</v>
+      </c>
+      <c r="F69">
+        <v>54</v>
+      </c>
+      <c r="M69">
+        <v>1.34944915771484E-4</v>
+      </c>
+      <c r="N69">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" ht="17.7">
       <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" ht="17.7">
+      <c r="E70" s="3">
+        <v>8.7738037109375E-5</v>
+      </c>
+      <c r="F70">
+        <v>55</v>
+      </c>
+      <c r="M70">
+        <v>2.2292137145995999E-4</v>
+      </c>
+      <c r="N70">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" ht="17.7">
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" ht="17.7">
+      <c r="E71">
+        <v>1.2302398681640601E-4</v>
+      </c>
+      <c r="F71">
+        <v>106</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ref="H66:H129" si="1">AVERAGE(E71:E80)</f>
+        <v>1.2631416320800745E-4</v>
+      </c>
+      <c r="M71">
+        <v>1.02996826171875E-4</v>
+      </c>
+      <c r="N71">
+        <v>57</v>
+      </c>
+      <c r="O71">
+        <v>100</v>
+      </c>
+      <c r="P71">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="17.7">
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" ht="17.7">
+      <c r="E72" s="3">
+        <v>9.0122222900390598E-5</v>
+      </c>
+      <c r="F72">
+        <v>106</v>
+      </c>
+      <c r="M72">
+        <v>1.34944915771484E-4</v>
+      </c>
+      <c r="N72">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" ht="17.7">
       <c r="B73" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" ht="17.7">
+      <c r="E73">
+        <v>1.2516975402831999E-4</v>
+      </c>
+      <c r="F73">
+        <v>146</v>
+      </c>
+      <c r="M73">
+        <v>1.0013580322265601E-4</v>
+      </c>
+      <c r="N73">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" ht="17.7">
       <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" ht="17.7">
+      <c r="E74" s="3">
+        <v>9.4890594482421794E-5</v>
+      </c>
+      <c r="F74">
+        <v>183</v>
+      </c>
+      <c r="M74">
+        <v>1.04188919067382E-4</v>
+      </c>
+      <c r="N74">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" ht="17.7">
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" ht="17.7">
+      <c r="E75">
+        <v>1.14917755126953E-4</v>
+      </c>
+      <c r="F75">
+        <v>267</v>
+      </c>
+      <c r="M75">
+        <v>1.77860260009765E-4</v>
+      </c>
+      <c r="N75">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="17.7">
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" ht="17.7">
+      <c r="E76">
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="F76">
+        <v>309</v>
+      </c>
+      <c r="M76">
+        <v>1.2493133544921799E-4</v>
+      </c>
+      <c r="N76">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" ht="17.7">
       <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" ht="17.7">
+      <c r="E77">
+        <v>1.2397766113281201E-4</v>
+      </c>
+      <c r="F77">
+        <v>346</v>
+      </c>
+      <c r="M77">
+        <v>1.2278556823730401E-4</v>
+      </c>
+      <c r="N77">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" ht="17.7">
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" ht="17.7">
+      <c r="E78">
+        <v>1.2493133544921799E-4</v>
+      </c>
+      <c r="F78">
+        <v>442</v>
+      </c>
+      <c r="M78">
+        <v>1.6307830810546799E-4</v>
+      </c>
+      <c r="N78">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" ht="17.7">
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" ht="17.7">
+      <c r="E79">
+        <v>1.6307830810546799E-4</v>
+      </c>
+      <c r="F79">
+        <v>454</v>
+      </c>
+      <c r="M79">
+        <v>1.59025192260742E-4</v>
+      </c>
+      <c r="N79">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" ht="17.7">
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" ht="17.7">
+      <c r="E80">
+        <v>1.8095970153808499E-4</v>
+      </c>
+      <c r="F80">
+        <v>524</v>
+      </c>
+      <c r="M80">
+        <v>1.8000602722167901E-4</v>
+      </c>
+      <c r="N80">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" ht="17.7">
       <c r="B81" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" ht="17.7">
+      <c r="E81">
+        <v>1.2683868408203101E-4</v>
+      </c>
+      <c r="F81">
+        <v>1000</v>
+      </c>
+      <c r="G81">
+        <v>1000</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>1.209259033203122E-4</v>
+      </c>
+      <c r="M81" s="3">
+        <v>9.6797943115234294E-5</v>
+      </c>
+      <c r="N81">
+        <v>949</v>
+      </c>
+      <c r="O81">
+        <v>1000</v>
+      </c>
+      <c r="P81">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" ht="17.7">
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" ht="17.7">
+      <c r="E82" s="3">
+        <v>9.9897384643554606E-5</v>
+      </c>
+      <c r="F82">
+        <v>1089</v>
+      </c>
+      <c r="M82">
+        <v>1.05857849121093E-4</v>
+      </c>
+      <c r="N82">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" ht="17.7">
       <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" ht="17.7">
+      <c r="E83">
+        <v>1.1301040649414E-4</v>
+      </c>
+      <c r="F83">
+        <v>1551</v>
+      </c>
+      <c r="M83" s="3">
+        <v>9.7990036010742106E-5</v>
+      </c>
+      <c r="N83">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" ht="17.7">
       <c r="B84" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" ht="17.7">
+      <c r="E84" s="3">
+        <v>9.8705291748046794E-5</v>
+      </c>
+      <c r="F84">
+        <v>2077</v>
+      </c>
+      <c r="M84">
+        <v>3.3092498779296799E-4</v>
+      </c>
+      <c r="N84">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" ht="17.7">
       <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" ht="17.7">
+      <c r="E85" s="3">
+        <v>9.9897384643554606E-5</v>
+      </c>
+      <c r="F85">
+        <v>2220</v>
+      </c>
+      <c r="M85">
+        <v>1.2230873107910099E-4</v>
+      </c>
+      <c r="N85">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" ht="17.7">
       <c r="B86" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" ht="17.7">
+      <c r="E86">
+        <v>1.6498565673828101E-4</v>
+      </c>
+      <c r="F86">
+        <v>3034</v>
+      </c>
+      <c r="M86">
+        <v>1.25885009765625E-4</v>
+      </c>
+      <c r="N86">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" ht="17.7">
       <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" ht="17.7">
+      <c r="E87">
+        <v>1.7189979553222599E-4</v>
+      </c>
+      <c r="F87">
+        <v>3269</v>
+      </c>
+      <c r="M87">
+        <v>1.30891799926757E-4</v>
+      </c>
+      <c r="N87">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" ht="17.7">
       <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" ht="17.7">
+      <c r="E88">
+        <v>1.0013580322265601E-4</v>
+      </c>
+      <c r="F88">
+        <v>3733</v>
+      </c>
+      <c r="M88">
+        <v>1.9526481628417901E-4</v>
+      </c>
+      <c r="N88">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" ht="17.7">
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" ht="17.7">
+      <c r="E89">
+        <v>1.25885009765625E-4</v>
+      </c>
+      <c r="F89">
+        <v>4731</v>
+      </c>
+      <c r="M89">
+        <v>1.64031982421875E-4</v>
+      </c>
+      <c r="N89">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" ht="17.7">
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" ht="17.7">
+      <c r="E90">
+        <v>1.08003616333007E-4</v>
+      </c>
+      <c r="F90">
+        <v>5232</v>
+      </c>
+      <c r="M90">
+        <v>1.2898445129394499E-4</v>
+      </c>
+      <c r="N90">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" ht="17.7">
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" ht="17.7">
+      <c r="E91">
+        <v>1.36327743530273E-3</v>
+      </c>
+      <c r="F91">
+        <v>53</v>
+      </c>
+      <c r="G91">
+        <v>10</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>8.6641311645507726E-4</v>
+      </c>
+      <c r="M91">
+        <v>2.38895416259765E-4</v>
+      </c>
+      <c r="N91">
+        <v>53</v>
+      </c>
+      <c r="O91">
+        <v>10</v>
+      </c>
+      <c r="P91">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" ht="17.7">
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" ht="17.7">
+      <c r="E92">
+        <v>7.9512596130370996E-4</v>
+      </c>
+      <c r="F92">
+        <v>110</v>
+      </c>
+      <c r="M92">
+        <v>2.7894973754882802E-4</v>
+      </c>
+      <c r="N92">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" ht="17.7">
       <c r="B93" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="2:2" ht="17.7">
+      <c r="E93">
+        <v>8.65936279296875E-4</v>
+      </c>
+      <c r="F93">
+        <v>162</v>
+      </c>
+      <c r="M93">
+        <v>2.8800964355468701E-4</v>
+      </c>
+      <c r="N93">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" ht="17.7">
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" ht="17.7">
+      <c r="E94">
+        <v>7.7009201049804601E-4</v>
+      </c>
+      <c r="F94">
+        <v>217</v>
+      </c>
+      <c r="M94">
+        <v>4.2581558227538997E-4</v>
+      </c>
+      <c r="N94">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" ht="17.7">
       <c r="B95" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="2:2" ht="17.7">
+      <c r="E95">
+        <v>8.4996223449706999E-4</v>
+      </c>
+      <c r="F95">
+        <v>274</v>
+      </c>
+      <c r="M95">
+        <v>5.3191184997558496E-4</v>
+      </c>
+      <c r="N95">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" ht="17.7">
       <c r="B96" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" ht="17.7">
+      <c r="E96">
+        <v>7.62701034545898E-4</v>
+      </c>
+      <c r="F96">
+        <v>323</v>
+      </c>
+      <c r="M96">
+        <v>4.0507316589355398E-4</v>
+      </c>
+      <c r="N96">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" ht="17.7">
       <c r="B97" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" ht="17.7">
+      <c r="E97">
+        <v>7.5984001159667904E-4</v>
+      </c>
+      <c r="F97">
+        <v>378</v>
+      </c>
+      <c r="M97">
+        <v>4.5013427734375E-4</v>
+      </c>
+      <c r="N97">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" ht="17.7">
       <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" ht="17.7">
+      <c r="E98">
+        <v>7.3385238647460905E-4</v>
+      </c>
+      <c r="F98">
+        <v>444</v>
+      </c>
+      <c r="M98">
+        <v>6.8402290344238205E-4</v>
+      </c>
+      <c r="N98">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" ht="17.7">
       <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" ht="17.7">
+      <c r="E99">
+        <v>7.8225135803222602E-4</v>
+      </c>
+      <c r="F99">
+        <v>493</v>
+      </c>
+      <c r="M99">
+        <v>5.4407119750976497E-4</v>
+      </c>
+      <c r="N99">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" ht="17.7">
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" ht="17.7">
+      <c r="E100">
+        <v>9.8109245300292904E-4</v>
+      </c>
+      <c r="F100">
+        <v>556</v>
+      </c>
+      <c r="M100">
+        <v>7.1406364440917904E-4</v>
+      </c>
+      <c r="N100">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" ht="17.7">
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" ht="17.7">
+      <c r="E101">
+        <v>1.00302696228027E-3</v>
+      </c>
+      <c r="F101">
+        <v>495</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>1.0592937469482392E-3</v>
+      </c>
+      <c r="M101">
+        <v>2.288818359375E-4</v>
+      </c>
+      <c r="N101">
+        <v>444</v>
+      </c>
+      <c r="O101">
+        <v>100</v>
+      </c>
+      <c r="P101">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" ht="17.7">
       <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" ht="17.7">
+      <c r="E102">
+        <v>1.2059211730957001E-3</v>
+      </c>
+      <c r="F102">
+        <v>1026</v>
+      </c>
+      <c r="M102">
+        <v>3.9887428283691401E-4</v>
+      </c>
+      <c r="N102">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" ht="17.7">
       <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" ht="17.7">
+      <c r="E103">
+        <v>1.1041164398193301E-3</v>
+      </c>
+      <c r="F103">
+        <v>1487</v>
+      </c>
+      <c r="M103">
+        <v>4.4894218444824202E-4</v>
+      </c>
+      <c r="N103">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" ht="17.7">
       <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" ht="17.7">
+      <c r="E104">
+        <v>9.7393989562988205E-4</v>
+      </c>
+      <c r="F104">
+        <v>2003</v>
+      </c>
+      <c r="M104">
+        <v>4.4965744018554601E-4</v>
+      </c>
+      <c r="N104">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" ht="17.7">
       <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" ht="17.7">
+      <c r="E105">
+        <v>1.28006935119628E-3</v>
+      </c>
+      <c r="F105">
+        <v>2563</v>
+      </c>
+      <c r="M105">
+        <v>3.7193298339843701E-4</v>
+      </c>
+      <c r="N105">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" ht="17.7">
       <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" ht="17.7">
+      <c r="E106">
+        <v>1.01304054260253E-3</v>
+      </c>
+      <c r="F106">
+        <v>3063</v>
+      </c>
+      <c r="M106">
+        <v>5.0997734069824197E-4</v>
+      </c>
+      <c r="N106">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" ht="17.7">
       <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" ht="17.7">
+      <c r="E107">
+        <v>9.8586082458496094E-4</v>
+      </c>
+      <c r="F107">
+        <v>3430</v>
+      </c>
+      <c r="M107">
+        <v>4.9424171447753895E-4</v>
+      </c>
+      <c r="N107">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" ht="17.7">
       <c r="B108" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" ht="17.7">
+      <c r="E108">
+        <v>9.26971435546875E-4</v>
+      </c>
+      <c r="F108">
+        <v>4079</v>
+      </c>
+      <c r="M108">
+        <v>4.6777725219726497E-4</v>
+      </c>
+      <c r="N108">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" ht="17.7">
       <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" ht="17.7">
+      <c r="E109">
+        <v>8.9907646179199197E-4</v>
+      </c>
+      <c r="F109">
+        <v>4524</v>
+      </c>
+      <c r="M109">
+        <v>1.12009048461914E-3</v>
+      </c>
+      <c r="N109">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" ht="17.7">
       <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" ht="17.7">
+      <c r="E110">
+        <v>1.2009143829345701E-3</v>
+      </c>
+      <c r="F110">
+        <v>5120</v>
+      </c>
+      <c r="M110">
+        <v>8.1110000610351497E-4</v>
+      </c>
+      <c r="N110">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" ht="17.7">
       <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" ht="17.7">
+      <c r="E111">
+        <v>9.65118408203125E-4</v>
+      </c>
+      <c r="F111">
+        <v>4959</v>
+      </c>
+      <c r="G111">
+        <v>1000</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="1"/>
+        <v>9.1073513031005753E-4</v>
+      </c>
+      <c r="M111">
+        <v>2.3484230041503901E-4</v>
+      </c>
+      <c r="N111">
+        <v>4072</v>
+      </c>
+      <c r="O111">
+        <v>1000</v>
+      </c>
+      <c r="P111">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" ht="17.7">
       <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" ht="17.7">
+      <c r="E112">
+        <v>1.1179447174072201E-3</v>
+      </c>
+      <c r="F112">
+        <v>9947</v>
+      </c>
+      <c r="M112">
+        <v>3.6692619323730398E-4</v>
+      </c>
+      <c r="N112">
+        <v>9577</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" ht="17.7">
       <c r="B113" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" ht="17.7">
+      <c r="E113">
+        <v>8.0323219299316395E-4</v>
+      </c>
+      <c r="F113">
+        <v>14446</v>
+      </c>
+      <c r="M113">
+        <v>2.9993057250976497E-4</v>
+      </c>
+      <c r="N113">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" ht="17.7">
       <c r="B114" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" ht="17.7">
+      <c r="E114">
+        <v>1.02090835571289E-3</v>
+      </c>
+      <c r="F114">
+        <v>20305</v>
+      </c>
+      <c r="M114">
+        <v>8.8310241699218696E-4</v>
+      </c>
+      <c r="N114">
+        <v>19625</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" ht="17.7">
       <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" ht="17.7">
+      <c r="E115">
+        <v>8.7404251098632802E-4</v>
+      </c>
+      <c r="F115">
+        <v>24861</v>
+      </c>
+      <c r="M115">
+        <v>3.7288665771484299E-4</v>
+      </c>
+      <c r="N115">
+        <v>24620</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" ht="17.7">
       <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" ht="17.7">
+      <c r="E116">
+        <v>8.2707405090331999E-4</v>
+      </c>
+      <c r="F116">
+        <v>29881</v>
+      </c>
+      <c r="M116">
+        <v>4.3797492980956999E-4</v>
+      </c>
+      <c r="N116">
+        <v>28998</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" ht="17.7">
       <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" ht="17.7">
+      <c r="E117">
+        <v>8.5020065307617101E-4</v>
+      </c>
+      <c r="F117">
+        <v>33968</v>
+      </c>
+      <c r="M117">
+        <v>4.7016143798828098E-4</v>
+      </c>
+      <c r="N117">
+        <v>33174</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" ht="17.7">
       <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" ht="17.7">
+      <c r="E118">
+        <v>8.4018707275390603E-4</v>
+      </c>
+      <c r="F118">
+        <v>38203</v>
+      </c>
+      <c r="M118">
+        <v>6.36816024780273E-4</v>
+      </c>
+      <c r="N118">
+        <v>37858</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" ht="17.7">
       <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" ht="17.7">
+      <c r="E119">
+        <v>8.8977813720703103E-4</v>
+      </c>
+      <c r="F119">
+        <v>45352</v>
+      </c>
+      <c r="M119">
+        <v>5.2404403686523405E-4</v>
+      </c>
+      <c r="N119">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" ht="17.7">
       <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" spans="2:2" ht="17.7">
+      <c r="E120">
+        <v>9.1886520385742101E-4</v>
+      </c>
+      <c r="F120">
+        <v>49096</v>
+      </c>
+      <c r="M120">
+        <v>8.35180282592773E-4</v>
+      </c>
+      <c r="N120">
+        <v>48294</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" ht="17.7">
       <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" ht="17.7">
+      <c r="E121" s="3">
+        <v>3.0755996704101502E-5</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121">
+        <v>10</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="1"/>
+        <v>3.3354759216308548E-5</v>
+      </c>
+      <c r="M121" s="3">
+        <v>8.3208084106445299E-5</v>
+      </c>
+      <c r="N121">
+        <v>9</v>
+      </c>
+      <c r="O121">
+        <v>10</v>
+      </c>
+      <c r="P121">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" ht="17.7">
       <c r="B122" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" ht="17.7">
+      <c r="E122" s="3">
+        <v>3.4093856811523397E-5</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="M122">
+        <v>1.17063522338867E-4</v>
+      </c>
+      <c r="N122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" ht="17.7">
       <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="124" spans="2:2" ht="17.7">
+      <c r="E123" s="3">
+        <v>2.8848648071289002E-5</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="M123" s="3">
+        <v>8.4877014160156196E-5</v>
+      </c>
+      <c r="N123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" ht="17.7">
       <c r="B124" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" ht="17.7">
+      <c r="E124" s="3">
+        <v>3.7908554077148397E-5</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="M124">
+        <v>1.0776519775390601E-4</v>
+      </c>
+      <c r="N124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" ht="17.7">
       <c r="B125" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="126" spans="2:2" ht="17.7">
+      <c r="E125" s="3">
+        <v>3.7908554077148397E-5</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="M125">
+        <v>1.0895729064941399E-4</v>
+      </c>
+      <c r="N125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" ht="17.7">
       <c r="B126" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="127" spans="2:2" ht="17.7">
+      <c r="E126" s="3">
+        <v>3.0994415283203098E-5</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="M126">
+        <v>1.12295150756835E-4</v>
+      </c>
+      <c r="N126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" ht="17.7">
       <c r="B127" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" ht="17.7">
+      <c r="E127" s="3">
+        <v>3.0994415283203098E-5</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="M127" s="3">
+        <v>8.2969665527343696E-5</v>
+      </c>
+      <c r="N127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16" ht="17.7">
       <c r="B128" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="129" spans="2:2" ht="17.7">
+      <c r="E128" s="3">
+        <v>3.7908554077148397E-5</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="M128" s="3">
+        <v>9.7036361694335897E-5</v>
+      </c>
+      <c r="N128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" ht="17.7">
       <c r="B129" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="2:2" ht="17.7">
+      <c r="E129" s="3">
+        <v>3.00407409667968E-5</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="M129" s="3">
+        <v>8.1062316894531196E-5</v>
+      </c>
+      <c r="N129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" ht="17.7">
       <c r="B130" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="2:2" ht="17.7">
+      <c r="E130" s="3">
+        <v>3.4093856811523397E-5</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="M130">
+        <v>1.4686584472656201E-4</v>
+      </c>
+      <c r="N130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" ht="17.7">
       <c r="B131" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="132" spans="2:2" ht="17.7">
+      <c r="E131" s="3">
+        <v>9.2267990112304606E-5</v>
+      </c>
+      <c r="F131">
+        <v>100</v>
+      </c>
+      <c r="G131">
+        <v>100</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H130:H193" si="2">AVERAGE(E131:E140)</f>
+        <v>4.9018859863281194E-5</v>
+      </c>
+      <c r="M131">
+        <v>1.03712081909179E-4</v>
+      </c>
+      <c r="N131">
+        <v>79</v>
+      </c>
+      <c r="O131">
+        <v>100</v>
+      </c>
+      <c r="P131">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" ht="17.7">
       <c r="B132" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="133" spans="2:2" ht="17.7">
+      <c r="E132" s="3">
+        <v>3.4809112548828098E-5</v>
+      </c>
+      <c r="F132">
+        <v>98</v>
+      </c>
+      <c r="M132" s="3">
+        <v>8.7022781372070299E-5</v>
+      </c>
+      <c r="N132">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" ht="17.7">
       <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="134" spans="2:2" ht="17.7">
+      <c r="E133" s="3">
+        <v>4.1961669921875E-5</v>
+      </c>
+      <c r="F133">
+        <v>100</v>
+      </c>
+      <c r="M133" s="3">
+        <v>9.3221664428710897E-5</v>
+      </c>
+      <c r="N133">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16" ht="17.7">
       <c r="B134" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="135" spans="2:2" ht="17.7">
+      <c r="E134" s="3">
+        <v>3.19480895996093E-5</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="M134">
+        <v>1.12056732177734E-4</v>
+      </c>
+      <c r="N134">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" ht="17.7">
       <c r="B135" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="136" spans="2:2" ht="17.7">
+      <c r="E135" s="3">
+        <v>3.19480895996093E-5</v>
+      </c>
+      <c r="F135">
+        <v>100</v>
+      </c>
+      <c r="M135" s="3">
+        <v>9.0122222900390598E-5</v>
+      </c>
+      <c r="N135">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" ht="17.7">
       <c r="B136" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="137" spans="2:2" ht="17.7">
+      <c r="E136" s="3">
+        <v>6.4134597778320299E-5</v>
+      </c>
+      <c r="F136">
+        <v>95</v>
+      </c>
+      <c r="M136">
+        <v>2.8395652770996002E-4</v>
+      </c>
+      <c r="N136">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" ht="17.7">
       <c r="B137" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" spans="2:2" ht="17.7">
+      <c r="E137" s="3">
+        <v>3.2901763916015598E-5</v>
+      </c>
+      <c r="F137">
+        <v>98</v>
+      </c>
+      <c r="M137" s="3">
+        <v>8.6784362792968696E-5</v>
+      </c>
+      <c r="N137">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" ht="17.7">
       <c r="B138" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="2:2" ht="17.7">
+      <c r="E138" s="3">
+        <v>5.4121017456054599E-5</v>
+      </c>
+      <c r="F138">
+        <v>99</v>
+      </c>
+      <c r="M138">
+        <v>1.2898445129394499E-4</v>
+      </c>
+      <c r="N138">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" ht="17.7">
       <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="140" spans="2:2" ht="17.7">
+      <c r="E139" s="3">
+        <v>5.3167343139648397E-5</v>
+      </c>
+      <c r="F139">
+        <v>114</v>
+      </c>
+      <c r="M139" s="3">
+        <v>9.2744827270507799E-5</v>
+      </c>
+      <c r="N139">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" ht="17.7">
       <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="141" spans="2:2" ht="17.7">
+      <c r="E140" s="3">
+        <v>5.29289245605468E-5</v>
+      </c>
+      <c r="F140">
+        <v>105</v>
+      </c>
+      <c r="M140" s="3">
+        <v>8.7976455688476495E-5</v>
+      </c>
+      <c r="N140">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" ht="17.7">
       <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="2:2" ht="17.7">
+      <c r="E141" s="3">
+        <v>3.6954879760742099E-5</v>
+      </c>
+      <c r="F141">
+        <v>970</v>
+      </c>
+      <c r="G141">
+        <v>1000</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="2"/>
+        <v>3.7264823913574154E-5</v>
+      </c>
+      <c r="M141">
+        <v>1.20878219604492E-4</v>
+      </c>
+      <c r="N141">
+        <v>970</v>
+      </c>
+      <c r="O141">
+        <v>1000</v>
+      </c>
+      <c r="P141">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" ht="17.7">
       <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="143" spans="2:2" ht="17.7">
+      <c r="E142" s="3">
+        <v>3.9339065551757799E-5</v>
+      </c>
+      <c r="F142">
+        <v>998</v>
+      </c>
+      <c r="M142">
+        <v>1.1301040649414E-4</v>
+      </c>
+      <c r="N142">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" ht="17.7">
       <c r="B143" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="144" spans="2:2" ht="17.7">
+      <c r="E143" s="3">
+        <v>3.8862228393554599E-5</v>
+      </c>
+      <c r="F143">
+        <v>997</v>
+      </c>
+      <c r="M143">
+        <v>1.9502639770507799E-4</v>
+      </c>
+      <c r="N143">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" ht="17.7">
       <c r="B144" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" ht="17.7">
+      <c r="E144" s="3">
+        <v>3.2901763916015598E-5</v>
+      </c>
+      <c r="F144">
+        <v>934</v>
+      </c>
+      <c r="M144">
+        <v>1.5306472778320299E-4</v>
+      </c>
+      <c r="N144">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16" ht="17.7">
       <c r="B145" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="146" spans="2:2" ht="17.7">
+      <c r="E145" s="3">
+        <v>3.7193298339843703E-5</v>
+      </c>
+      <c r="F145">
+        <v>928</v>
+      </c>
+      <c r="M145" s="3">
+        <v>8.0823898315429606E-5</v>
+      </c>
+      <c r="N145">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16" ht="17.7">
       <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="147" spans="2:2" ht="17.7">
+      <c r="E146" s="3">
+        <v>3.1232833862304599E-5</v>
+      </c>
+      <c r="F146">
+        <v>993</v>
+      </c>
+      <c r="M146" s="3">
+        <v>8.2969665527343696E-5</v>
+      </c>
+      <c r="N146">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16" ht="17.7">
       <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="148" spans="2:2" ht="17.7">
+      <c r="E147" s="3">
+        <v>3.7908554077148397E-5</v>
+      </c>
+      <c r="F147">
+        <v>983</v>
+      </c>
+      <c r="M147" s="3">
+        <v>8.7976455688476495E-5</v>
+      </c>
+      <c r="N147">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" ht="17.7">
       <c r="B148" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="149" spans="2:2" ht="17.7">
+      <c r="E148" s="3">
+        <v>3.3140182495117099E-5</v>
+      </c>
+      <c r="F148">
+        <v>977</v>
+      </c>
+      <c r="M148">
+        <v>1.04188919067382E-4</v>
+      </c>
+      <c r="N148">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="149" spans="2:16" ht="17.7">
       <c r="B149" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="150" spans="2:2" ht="17.7">
+      <c r="E149" s="3">
+        <v>5.4121017456054599E-5</v>
+      </c>
+      <c r="F149">
+        <v>994</v>
+      </c>
+      <c r="M149" s="3">
+        <v>8.1777572631835897E-5</v>
+      </c>
+      <c r="N149">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16" ht="17.7">
       <c r="B150" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="151" spans="2:2" ht="17.7">
+      <c r="E150" s="3">
+        <v>3.0994415283203098E-5</v>
+      </c>
+      <c r="F150">
+        <v>1040</v>
+      </c>
+      <c r="M150">
+        <v>1.0228157043457E-4</v>
+      </c>
+      <c r="N150">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="151" spans="2:16" ht="17.7">
       <c r="B151" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="152" spans="2:2" ht="17.7">
+      <c r="E151">
+        <v>1.9502639770507799E-4</v>
+      </c>
+      <c r="F151">
+        <v>10</v>
+      </c>
+      <c r="G151">
+        <v>10</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="2"/>
+        <v>1.811504364013668E-4</v>
+      </c>
+      <c r="M151" s="3">
+        <v>9.9897384643554606E-5</v>
+      </c>
+      <c r="N151">
+        <v>10</v>
+      </c>
+      <c r="O151">
+        <v>10</v>
+      </c>
+      <c r="P151">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="2:16" ht="17.7">
       <c r="B152" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="153" spans="2:2" ht="17.7">
+      <c r="E152">
+        <v>1.63793563842773E-4</v>
+      </c>
+      <c r="F152">
+        <v>20</v>
+      </c>
+      <c r="M152">
+        <v>1.0323524475097599E-4</v>
+      </c>
+      <c r="N152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="2:16" ht="17.7">
       <c r="B153" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="154" spans="2:2" ht="17.7">
+      <c r="E153">
+        <v>1.6999244689941401E-4</v>
+      </c>
+      <c r="F153">
+        <v>31</v>
+      </c>
+      <c r="M153">
+        <v>1.6093254089355401E-4</v>
+      </c>
+      <c r="N153">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="2:16" ht="17.7">
       <c r="B154" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="155" spans="2:2" ht="17.7">
+      <c r="E154">
+        <v>1.64031982421875E-4</v>
+      </c>
+      <c r="F154">
+        <v>45</v>
+      </c>
+      <c r="M154">
+        <v>1.4805793762206999E-4</v>
+      </c>
+      <c r="N154">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="2:16" ht="17.7">
       <c r="B155" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="2:2" ht="17.7">
+      <c r="E155">
+        <v>2.2912025451660099E-4</v>
+      </c>
+      <c r="F155">
+        <v>53</v>
+      </c>
+      <c r="M155">
+        <v>2.3293495178222599E-4</v>
+      </c>
+      <c r="N155">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="2:16" ht="17.7">
       <c r="B156" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="2:2" ht="17.7">
+      <c r="E156">
+        <v>1.7714500427245999E-4</v>
+      </c>
+      <c r="F156">
+        <v>63</v>
+      </c>
+      <c r="M156">
+        <v>1.36137008666992E-4</v>
+      </c>
+      <c r="N156">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16" ht="17.7">
       <c r="B157" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="158" spans="2:2" ht="17.7">
+      <c r="E157">
+        <v>1.7213821411132799E-4</v>
+      </c>
+      <c r="F157">
+        <v>72</v>
+      </c>
+      <c r="M157">
+        <v>1.5187263488769499E-4</v>
+      </c>
+      <c r="N157">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="2:16" ht="17.7">
       <c r="B158" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="159" spans="2:2" ht="17.7">
+      <c r="E158">
+        <v>1.59978866577148E-4</v>
+      </c>
+      <c r="F158">
+        <v>85</v>
+      </c>
+      <c r="M158">
+        <v>1.57833099365234E-4</v>
+      </c>
+      <c r="N158">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="2:16" ht="17.7">
       <c r="B159" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="160" spans="2:2" ht="17.7">
+      <c r="E159">
+        <v>1.8501281738281201E-4</v>
+      </c>
+      <c r="F159">
+        <v>103</v>
+      </c>
+      <c r="M159">
+        <v>1.59978866577148E-4</v>
+      </c>
+      <c r="N159">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="160" spans="2:16" ht="17.7">
       <c r="B160" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="161" spans="2:2" ht="17.7">
+      <c r="E160">
+        <v>1.9526481628417901E-4</v>
+      </c>
+      <c r="F160">
+        <v>111</v>
+      </c>
+      <c r="M160">
+        <v>2.3221969604492101E-4</v>
+      </c>
+      <c r="N160">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="161" spans="2:16" ht="17.7">
       <c r="B161" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="162" spans="2:2" ht="17.7">
+      <c r="E161">
+        <v>1.6617774963378901E-4</v>
+      </c>
+      <c r="F161">
+        <v>100</v>
+      </c>
+      <c r="G161">
+        <v>100</v>
+      </c>
+      <c r="H161">
+        <f>AVERAGE(E161:E170)</f>
+        <v>1.9950866699218697E-4</v>
+      </c>
+      <c r="M161">
+        <v>1.11103057861328E-4</v>
+      </c>
+      <c r="N161">
+        <v>99</v>
+      </c>
+      <c r="O161">
+        <v>100</v>
+      </c>
+      <c r="P161">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:16" ht="17.7">
       <c r="B162" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="163" spans="2:2" ht="17.7">
+      <c r="E162">
+        <v>1.95980072021484E-4</v>
+      </c>
+      <c r="F162">
+        <v>202</v>
+      </c>
+      <c r="M162">
+        <v>1.9407272338867101E-4</v>
+      </c>
+      <c r="N162">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="2:16" ht="17.7">
       <c r="B163" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="164" spans="2:2" ht="17.7">
+      <c r="E163">
+        <v>1.65224075317382E-4</v>
+      </c>
+      <c r="F163">
+        <v>297</v>
+      </c>
+      <c r="M163">
+        <v>1.11818313598632E-4</v>
+      </c>
+      <c r="N163">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="164" spans="2:16" ht="17.7">
       <c r="B164" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="165" spans="2:2" ht="17.7">
+      <c r="E164">
+        <v>1.7881393432617101E-4</v>
+      </c>
+      <c r="F164">
+        <v>424</v>
+      </c>
+      <c r="M164">
+        <v>1.6093254089355401E-4</v>
+      </c>
+      <c r="N164">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="165" spans="2:16" ht="17.7">
       <c r="B165" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="166" spans="2:2" ht="17.7">
+      <c r="E165">
+        <v>1.6999244689941401E-4</v>
+      </c>
+      <c r="F165">
+        <v>523</v>
+      </c>
+      <c r="M165">
+        <v>1.31130218505859E-4</v>
+      </c>
+      <c r="N165">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="166" spans="2:16" ht="17.7">
       <c r="B166" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="167" spans="2:2" ht="17.7">
+      <c r="E166">
+        <v>2.7489662170410102E-4</v>
+      </c>
+      <c r="F166">
+        <v>598</v>
+      </c>
+      <c r="M166">
+        <v>1.3804435729980401E-4</v>
+      </c>
+      <c r="N166">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="167" spans="2:16" ht="17.7">
       <c r="B167" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="168" spans="2:2" ht="17.7">
+      <c r="E167">
+        <v>1.73091888427734E-4</v>
+      </c>
+      <c r="F167">
+        <v>695</v>
+      </c>
+      <c r="M167">
+        <v>1.4591217041015601E-4</v>
+      </c>
+      <c r="N167">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16" ht="17.7">
       <c r="B168" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="169" spans="2:2" ht="17.7">
+      <c r="E168">
+        <v>1.7881393432617101E-4</v>
+      </c>
+      <c r="F168">
+        <v>849</v>
+      </c>
+      <c r="M168">
+        <v>1.59978866577148E-4</v>
+      </c>
+      <c r="N168">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="169" spans="2:16" ht="17.7">
       <c r="B169" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" ht="17.7">
+      <c r="E169">
+        <v>1.8715858459472599E-4</v>
+      </c>
+      <c r="F169">
+        <v>868</v>
+      </c>
+      <c r="M169">
+        <v>1.54018402099609E-4</v>
+      </c>
+      <c r="N169">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="170" spans="2:16" ht="17.7">
       <c r="B170" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="171" spans="2:2" ht="17.7">
+      <c r="E170">
+        <v>3.04937362670898E-4</v>
+      </c>
+      <c r="F170">
+        <v>1053</v>
+      </c>
+      <c r="M170">
+        <v>2.6702880859375E-4</v>
+      </c>
+      <c r="N170">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="171" spans="2:16" ht="17.7">
       <c r="B171" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="172" spans="2:2" ht="17.7">
+      <c r="E171">
+        <v>1.8596649169921799E-4</v>
+      </c>
+      <c r="F171">
+        <v>1000</v>
+      </c>
+      <c r="G171">
+        <v>1000</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="2"/>
+        <v>2.1052360534667917E-4</v>
+      </c>
+      <c r="M171">
+        <v>1.8095970153808499E-4</v>
+      </c>
+      <c r="N171">
+        <v>924</v>
+      </c>
+      <c r="O171">
+        <v>1000</v>
+      </c>
+      <c r="P171">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="2:16" ht="17.7">
       <c r="B172" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="173" spans="2:2" ht="17.7">
+      <c r="E172">
+        <v>1.7094612121581999E-4</v>
+      </c>
+      <c r="F172">
+        <v>2133</v>
+      </c>
+      <c r="M172">
+        <v>1.6689300537109299E-4</v>
+      </c>
+      <c r="N172">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="173" spans="2:16" ht="17.7">
       <c r="B173" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="174" spans="2:2" ht="17.7">
+      <c r="E173">
+        <v>3.2281875610351497E-4</v>
+      </c>
+      <c r="F173">
+        <v>4203</v>
+      </c>
+      <c r="M173">
+        <v>1.9288063049316401E-4</v>
+      </c>
+      <c r="N173">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="174" spans="2:16" ht="17.7">
       <c r="B174" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="175" spans="2:2" ht="17.7">
+      <c r="E174">
+        <v>2.11000442504882E-4</v>
+      </c>
+      <c r="F174">
+        <v>4014</v>
+      </c>
+      <c r="M174">
+        <v>1.30891799926757E-4</v>
+      </c>
+      <c r="N174">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="175" spans="2:16" ht="17.7">
       <c r="B175" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="176" spans="2:2" ht="17.7">
+      <c r="E175">
+        <v>1.7476081848144499E-4</v>
+      </c>
+      <c r="F175">
+        <v>4822</v>
+      </c>
+      <c r="M175">
+        <v>1.25885009765625E-4</v>
+      </c>
+      <c r="N175">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="176" spans="2:16" ht="17.7">
       <c r="B176" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="177" spans="2:2" ht="17.7">
+      <c r="E176">
+        <v>1.78098678588867E-4</v>
+      </c>
+      <c r="F176">
+        <v>5847</v>
+      </c>
+      <c r="M176">
+        <v>1.9621849060058499E-4</v>
+      </c>
+      <c r="N176">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="177" spans="2:16" ht="17.7">
       <c r="B177" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="178" spans="2:2" ht="17.7">
+      <c r="E177">
+        <v>2.15053558349609E-4</v>
+      </c>
+      <c r="F177">
+        <v>6917</v>
+      </c>
+      <c r="M177">
+        <v>1.4829635620117101E-4</v>
+      </c>
+      <c r="N177">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="178" spans="2:16" ht="17.7">
       <c r="B178" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="179" spans="2:2" ht="17.7">
+      <c r="E178">
+        <v>2.5510787963867101E-4</v>
+      </c>
+      <c r="F178">
+        <v>7674</v>
+      </c>
+      <c r="M178">
+        <v>1.49965286254882E-4</v>
+      </c>
+      <c r="N178">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="179" spans="2:16" ht="17.7">
       <c r="B179" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="180" spans="2:2" ht="17.7">
+      <c r="E179">
+        <v>1.77860260009765E-4</v>
+      </c>
+      <c r="F179">
+        <v>9309</v>
+      </c>
+      <c r="M179">
+        <v>1.82867050170898E-4</v>
+      </c>
+      <c r="N179">
+        <v>9233</v>
+      </c>
+    </row>
+    <row r="180" spans="2:16" ht="17.7">
       <c r="B180" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="181" spans="2:2" ht="17.7">
+      <c r="E180">
+        <v>2.13623046875E-4</v>
+      </c>
+      <c r="F180">
+        <v>9664</v>
+      </c>
+      <c r="M180">
+        <v>1.6307830810546799E-4</v>
+      </c>
+      <c r="N180">
+        <v>9071</v>
+      </c>
+    </row>
+    <row r="181" spans="2:16" ht="17.7">
       <c r="B181" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="182" spans="2:2" ht="17.7">
+      <c r="E181">
+        <v>1.51705741882324E-3</v>
+      </c>
+      <c r="F181">
+        <v>107</v>
+      </c>
+      <c r="G181">
+        <v>10</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="2"/>
+        <v>1.7978429794311477E-3</v>
+      </c>
+      <c r="M181">
+        <v>3.5715103149413997E-4</v>
+      </c>
+      <c r="N181">
+        <v>104</v>
+      </c>
+      <c r="O181">
+        <v>10</v>
+      </c>
+      <c r="P181">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:16" ht="17.7">
       <c r="B182" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="183" spans="2:2" ht="17.7">
+      <c r="E182">
+        <v>1.8851757049560499E-3</v>
+      </c>
+      <c r="F182">
+        <v>220</v>
+      </c>
+      <c r="M182">
+        <v>4.7087669372558502E-4</v>
+      </c>
+      <c r="N182">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="2:16" ht="17.7">
       <c r="B183" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="184" spans="2:2" ht="17.7">
+      <c r="E183">
+        <v>1.6918182373046799E-3</v>
+      </c>
+      <c r="F183">
+        <v>328</v>
+      </c>
+      <c r="M183">
+        <v>7.8892707824706999E-4</v>
+      </c>
+      <c r="N183">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="184" spans="2:16" ht="17.7">
       <c r="B184" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="185" spans="2:2" ht="17.7">
+      <c r="E184">
+        <v>1.62386894226074E-3</v>
+      </c>
+      <c r="F184">
+        <v>439</v>
+      </c>
+      <c r="M184">
+        <v>7.8392028808593696E-4</v>
+      </c>
+      <c r="N184">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="185" spans="2:16" ht="17.7">
       <c r="B185" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="186" spans="2:2" ht="17.7">
+      <c r="E185">
+        <v>1.55377388000488E-3</v>
+      </c>
+      <c r="F185">
+        <v>547</v>
+      </c>
+      <c r="M185">
+        <v>1.33895874023437E-3</v>
+      </c>
+      <c r="N185">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="186" spans="2:16" ht="17.7">
       <c r="B186" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="187" spans="2:2" ht="17.7">
+      <c r="E186">
+        <v>1.5580654144287101E-3</v>
+      </c>
+      <c r="F186">
+        <v>654</v>
+      </c>
+      <c r="M186">
+        <v>7.8988075256347602E-4</v>
+      </c>
+      <c r="N186">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="187" spans="2:16" ht="17.7">
       <c r="B187" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="188" spans="2:2" ht="17.7">
+      <c r="E187">
+        <v>2.1328926086425699E-3</v>
+      </c>
+      <c r="F187">
+        <v>884</v>
+      </c>
+      <c r="M187">
+        <v>9.8490715026855404E-4</v>
+      </c>
+      <c r="N187">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="188" spans="2:16" ht="17.7">
       <c r="B188" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="189" spans="2:2" ht="17.7">
+      <c r="E188">
+        <v>2.0682811737060499E-3</v>
+      </c>
+      <c r="F188">
+        <v>874</v>
+      </c>
+      <c r="M188">
+        <v>9.6821784973144499E-4</v>
+      </c>
+      <c r="N188">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="189" spans="2:16" ht="17.7">
       <c r="B189" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="190" spans="2:2" ht="17.7">
+      <c r="E189">
+        <v>2.0122528076171801E-3</v>
+      </c>
+      <c r="F189">
+        <v>969</v>
+      </c>
+      <c r="M189">
+        <v>1.53088569641113E-3</v>
+      </c>
+      <c r="N189">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="190" spans="2:16" ht="17.7">
       <c r="B190" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="191" spans="2:2" ht="17.7">
+      <c r="E190">
+        <v>1.93524360656738E-3</v>
+      </c>
+      <c r="F190">
+        <v>1106</v>
+      </c>
+      <c r="M190">
+        <v>1.09076499938964E-3</v>
+      </c>
+      <c r="N190">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="191" spans="2:16" ht="17.7">
       <c r="B191" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="192" spans="2:2" ht="17.7">
+      <c r="E191">
+        <v>1.62005424499511E-3</v>
+      </c>
+      <c r="F191">
+        <v>993</v>
+      </c>
+      <c r="G191">
+        <v>100</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="2"/>
+        <v>1.863837242126459E-3</v>
+      </c>
+      <c r="M191">
+        <v>3.8385391235351497E-4</v>
+      </c>
+      <c r="N191">
+        <v>985</v>
+      </c>
+      <c r="O191">
+        <v>100</v>
+      </c>
+      <c r="P191">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:16" ht="17.7">
       <c r="B192" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="193" spans="2:2" ht="17.7">
+      <c r="E192">
+        <v>1.66702270507812E-3</v>
+      </c>
+      <c r="F192">
+        <v>2026</v>
+      </c>
+      <c r="M192">
+        <v>5.1689147949218696E-4</v>
+      </c>
+      <c r="N192">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16" ht="17.7">
       <c r="B193" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="194" spans="2:2" ht="17.7">
+      <c r="E193">
+        <v>2.4669170379638598E-3</v>
+      </c>
+      <c r="F193">
+        <v>2971</v>
+      </c>
+      <c r="M193">
+        <v>5.2118301391601497E-4</v>
+      </c>
+      <c r="N193">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="194" spans="2:16" ht="17.7">
       <c r="B194" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="195" spans="2:2" ht="17.7">
+      <c r="E194">
+        <v>1.70874595642089E-3</v>
+      </c>
+      <c r="F194">
+        <v>4000</v>
+      </c>
+      <c r="M194">
+        <v>6.0105323791503895E-4</v>
+      </c>
+      <c r="N194">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16" ht="17.7">
       <c r="B195" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="196" spans="2:2" ht="17.7">
+      <c r="E195">
+        <v>2.0518302917480399E-3</v>
+      </c>
+      <c r="F195">
+        <v>5063</v>
+      </c>
+      <c r="M195">
+        <v>9.6011161804199197E-4</v>
+      </c>
+      <c r="N195">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="196" spans="2:16" ht="17.7">
       <c r="B196" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="197" spans="2:2" ht="17.7">
+      <c r="E196">
+        <v>1.7769336700439401E-3</v>
+      </c>
+      <c r="F196">
+        <v>6065</v>
+      </c>
+      <c r="M196">
+        <v>7.20977783203125E-4</v>
+      </c>
+      <c r="N196">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16" ht="17.7">
       <c r="B197" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="198" spans="2:2" ht="17.7">
+      <c r="E197">
+        <v>1.7390251159667899E-3</v>
+      </c>
+      <c r="F197">
+        <v>6876</v>
+      </c>
+      <c r="M197">
+        <v>1.1281967163085901E-3</v>
+      </c>
+      <c r="N197">
+        <v>6805</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16" ht="17.7">
       <c r="B198" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="199" spans="2:2" ht="17.7">
+      <c r="E198">
+        <v>1.7499923706054601E-3</v>
+      </c>
+      <c r="F198">
+        <v>8165</v>
+      </c>
+      <c r="M198">
+        <v>1.13296508789062E-3</v>
+      </c>
+      <c r="N198">
+        <v>8134</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16" ht="17.7">
       <c r="B199" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="200" spans="2:2" ht="17.7">
+      <c r="E199">
+        <v>2.2430419921875E-3</v>
+      </c>
+      <c r="F199">
+        <v>9236</v>
+      </c>
+      <c r="M199">
+        <v>1.1000633239746001E-3</v>
+      </c>
+      <c r="N199">
+        <v>9202</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16" ht="17.7">
       <c r="B200" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="201" spans="2:2" ht="17.7">
+      <c r="E200">
+        <v>1.61480903625488E-3</v>
+      </c>
+      <c r="F200">
+        <v>10237</v>
+      </c>
+      <c r="M200">
+        <v>1.1410713195800701E-3</v>
+      </c>
+      <c r="N200">
+        <v>10202</v>
+      </c>
+    </row>
+    <row r="201" spans="2:16" ht="17.7">
       <c r="B201" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="202" spans="2:2" ht="17.7">
+      <c r="E201">
+        <v>1.7249584197997999E-3</v>
+      </c>
+      <c r="F201">
+        <v>9910</v>
+      </c>
+      <c r="G201">
+        <v>1000</v>
+      </c>
+      <c r="H201">
+        <f t="shared" ref="H194:H211" si="3">AVERAGE(E201:E210)</f>
+        <v>2.1454572677612259E-3</v>
+      </c>
+      <c r="M201">
+        <v>3.9577484130859299E-4</v>
+      </c>
+      <c r="N201">
+        <v>9322</v>
+      </c>
+      <c r="O201">
+        <v>1000</v>
+      </c>
+      <c r="P201">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16" ht="17.7">
       <c r="B202" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="203" spans="2:2" ht="17.7">
+      <c r="E202">
+        <v>2.1009445190429601E-3</v>
+      </c>
+      <c r="F202">
+        <v>19754</v>
+      </c>
+      <c r="M202">
+        <v>4.5418739318847602E-4</v>
+      </c>
+      <c r="N202">
+        <v>19291</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16" ht="17.7">
       <c r="B203" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="204" spans="2:2" ht="17.7">
+      <c r="E203">
+        <v>1.89185142517089E-3</v>
+      </c>
+      <c r="F203">
+        <v>29249</v>
+      </c>
+      <c r="M203">
+        <v>5.2189826965331999E-4</v>
+      </c>
+      <c r="N203">
+        <v>28788</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16" ht="17.7">
       <c r="B204" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="205" spans="2:2" ht="17.7">
+      <c r="E204">
+        <v>2.3012161254882799E-3</v>
+      </c>
+      <c r="F204">
+        <v>39800</v>
+      </c>
+      <c r="M204">
+        <v>6.6995620727538997E-4</v>
+      </c>
+      <c r="N204">
+        <v>38854</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16" ht="17.7">
       <c r="B205" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="206" spans="2:2" ht="17.7">
+      <c r="E205">
+        <v>2.5260448455810499E-3</v>
+      </c>
+      <c r="F205">
+        <v>50013</v>
+      </c>
+      <c r="M205">
+        <v>9.2220306396484299E-4</v>
+      </c>
+      <c r="N205">
+        <v>49957</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16" ht="17.7">
       <c r="B206" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="207" spans="2:2" ht="17.7">
+      <c r="E206">
+        <v>2.8269290924072201E-3</v>
+      </c>
+      <c r="F206">
+        <v>59651</v>
+      </c>
+      <c r="M206">
+        <v>8.0418586730956999E-4</v>
+      </c>
+      <c r="N206">
+        <v>59308</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16" ht="17.7">
       <c r="B207" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="208" spans="2:2" ht="17.7">
+      <c r="E207">
+        <v>1.7108917236328099E-3</v>
+      </c>
+      <c r="F207">
+        <v>69785</v>
+      </c>
+      <c r="M207">
+        <v>1.1131763458251901E-3</v>
+      </c>
+      <c r="N207">
+        <v>69155</v>
+      </c>
+    </row>
+    <row r="208" spans="2:16" ht="17.7">
       <c r="B208" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="209" spans="2:2" ht="17.7">
+      <c r="E208">
+        <v>2.13384628295898E-3</v>
+      </c>
+      <c r="F208">
+        <v>78311</v>
+      </c>
+      <c r="M208">
+        <v>1.3329982757568301E-3</v>
+      </c>
+      <c r="N208">
+        <v>77716</v>
+      </c>
+    </row>
+    <row r="209" spans="2:16" ht="17.7">
       <c r="B209" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="210" spans="2:2" ht="17.7">
+      <c r="E209">
+        <v>2.0539760589599601E-3</v>
+      </c>
+      <c r="F209">
+        <v>90128</v>
+      </c>
+      <c r="M209">
+        <v>1.03592872619628E-3</v>
+      </c>
+      <c r="N209">
+        <v>89704</v>
+      </c>
+    </row>
+    <row r="210" spans="2:16" ht="17.7">
       <c r="B210" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="211" spans="2:2" ht="17.7">
+      <c r="E210">
+        <v>2.1839141845703099E-3</v>
+      </c>
+      <c r="F210">
+        <v>99288</v>
+      </c>
+      <c r="M210">
+        <v>1.4009475708007799E-3</v>
+      </c>
+      <c r="N210">
+        <v>99220</v>
+      </c>
+    </row>
+    <row r="211" spans="2:16" ht="17.7">
       <c r="B211" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="212" spans="2:2" ht="17.7">
+      <c r="E211" s="3">
+        <v>7.1048736572265598E-5</v>
+      </c>
+      <c r="F211">
+        <v>10</v>
+      </c>
+      <c r="G211">
+        <v>10</v>
+      </c>
+      <c r="H211" s="3">
+        <f>AVERAGE(E211:E220)</f>
+        <v>5.7888031005859344E-5</v>
+      </c>
+      <c r="M211" s="3">
+        <v>9.3936920166015598E-5</v>
+      </c>
+      <c r="N211">
+        <v>8</v>
+      </c>
+      <c r="O211">
+        <v>10</v>
+      </c>
+      <c r="P211">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="212" spans="2:16" ht="17.7">
       <c r="B212" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="213" spans="2:2" ht="17.7">
+      <c r="E212" s="3">
+        <v>5.7220458984375E-5</v>
+      </c>
+      <c r="F212">
+        <v>10</v>
+      </c>
+      <c r="H212" s="3"/>
+      <c r="M212">
+        <v>1.1301040649414E-4</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="2:16" ht="17.7">
       <c r="B213" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="214" spans="2:2" ht="17.7">
+      <c r="E213" s="3">
+        <v>5.0783157348632799E-5</v>
+      </c>
+      <c r="F213">
+        <v>10</v>
+      </c>
+      <c r="H213" s="3"/>
+      <c r="M213" s="3">
+        <v>9.2029571533203098E-5</v>
+      </c>
+      <c r="N213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="2:16" ht="17.7">
       <c r="B214" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="215" spans="2:2" ht="17.7">
+      <c r="E214" s="3">
+        <v>5.91278076171875E-5</v>
+      </c>
+      <c r="F214">
+        <v>10</v>
+      </c>
+      <c r="H214" s="3"/>
+      <c r="M214" s="3">
+        <v>9.918212890625E-5</v>
+      </c>
+      <c r="N214">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="2:16" ht="17.7">
       <c r="B215" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="216" spans="2:2" ht="17.7">
+      <c r="E215" s="3">
+        <v>6.1988830566406196E-5</v>
+      </c>
+      <c r="F215">
+        <v>13</v>
+      </c>
+      <c r="H215" s="3"/>
+      <c r="M215" s="3">
+        <v>8.7022781372070299E-5</v>
+      </c>
+      <c r="N215">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="2:16" ht="17.7">
       <c r="B216" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="217" spans="2:2" ht="17.7">
+      <c r="E216" s="3">
+        <v>5.1975250244140598E-5</v>
+      </c>
+      <c r="F216">
+        <v>14</v>
+      </c>
+      <c r="H216" s="3"/>
+      <c r="M216">
+        <v>1.8310546875E-4</v>
+      </c>
+      <c r="N216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="2:16" ht="17.7">
       <c r="B217" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="218" spans="2:2" ht="17.7">
+      <c r="E217" s="3">
+        <v>4.9829483032226502E-5</v>
+      </c>
+      <c r="F217">
+        <v>15</v>
+      </c>
+      <c r="H217" s="3"/>
+      <c r="M217">
+        <v>1.04188919067382E-4</v>
+      </c>
+      <c r="N217">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="2:16" ht="17.7">
       <c r="B218" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="219" spans="2:2" ht="17.7">
+      <c r="E218" s="3">
+        <v>6.2227249145507799E-5</v>
+      </c>
+      <c r="F218">
+        <v>21</v>
+      </c>
+      <c r="H218" s="3"/>
+      <c r="M218" s="3">
+        <v>9.3936920166015598E-5</v>
+      </c>
+      <c r="N218">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="2:16" ht="17.7">
       <c r="B219" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="220" spans="2:2" ht="17.7">
+      <c r="E219" s="3">
+        <v>5.9843063354492099E-5</v>
+      </c>
+      <c r="F219">
+        <v>28</v>
+      </c>
+      <c r="H219" s="3"/>
+      <c r="M219">
+        <v>1.3279914855956999E-4</v>
+      </c>
+      <c r="N219">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="2:16" ht="17.7">
       <c r="B220" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="221" spans="2:2" ht="17.7">
+      <c r="E220" s="3">
+        <v>5.48362731933593E-5</v>
+      </c>
+      <c r="F220">
+        <v>26</v>
+      </c>
+      <c r="H220" s="3"/>
+      <c r="M220" s="3">
+        <v>9.8705291748046794E-5</v>
+      </c>
+      <c r="N220">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="2:16" ht="17.7">
       <c r="B221" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="222" spans="2:2" ht="17.7">
+      <c r="E221" s="3">
+        <v>5.7220458984375E-5</v>
+      </c>
+      <c r="F221">
+        <v>100</v>
+      </c>
+      <c r="G221">
+        <v>100</v>
+      </c>
+      <c r="H221" s="3">
+        <f t="shared" ref="H212:H270" si="4">AVERAGE(E221:E230)</f>
+        <v>6.480216979980465E-5</v>
+      </c>
+      <c r="M221" s="3">
+        <v>7.9870223999023397E-5</v>
+      </c>
+      <c r="N221">
+        <v>84</v>
+      </c>
+      <c r="O221">
+        <v>100</v>
+      </c>
+      <c r="P221">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="222" spans="2:16" ht="17.7">
       <c r="B222" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="223" spans="2:2" ht="17.7">
+      <c r="E222" s="3">
+        <v>5.67436218261718E-5</v>
+      </c>
+      <c r="F222">
+        <v>99</v>
+      </c>
+      <c r="H222" s="3"/>
+      <c r="M222" s="3">
+        <v>9.0122222900390598E-5</v>
+      </c>
+      <c r="N222">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="223" spans="2:16" ht="17.7">
       <c r="B223" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="224" spans="2:2" ht="17.7">
+      <c r="E223" s="3">
+        <v>6.1750411987304606E-5</v>
+      </c>
+      <c r="F223">
+        <v>100</v>
+      </c>
+      <c r="H223" s="3"/>
+      <c r="M223">
+        <v>1.2397766113281201E-4</v>
+      </c>
+      <c r="N223">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="224" spans="2:16" ht="17.7">
       <c r="B224" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="225" spans="2:2" ht="17.7">
+      <c r="E224" s="3">
+        <v>6.8902969360351495E-5</v>
+      </c>
+      <c r="F224">
+        <v>100</v>
+      </c>
+      <c r="H224" s="3"/>
+      <c r="M224" s="3">
+        <v>9.1791152954101495E-5</v>
+      </c>
+      <c r="N224">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="225" spans="2:16" ht="17.7">
       <c r="B225" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="226" spans="2:2" ht="17.7">
+      <c r="E225" s="3">
+        <v>6.5088272094726495E-5</v>
+      </c>
+      <c r="F225">
+        <v>129</v>
+      </c>
+      <c r="H225" s="3"/>
+      <c r="M225">
+        <v>1.2898445129394499E-4</v>
+      </c>
+      <c r="N225">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="226" spans="2:16" ht="17.7">
       <c r="B226" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="227" spans="2:2" ht="17.7">
+      <c r="E226" s="3">
+        <v>7.2956085205078098E-5</v>
+      </c>
+      <c r="F226">
+        <v>161</v>
+      </c>
+      <c r="H226" s="3"/>
+      <c r="M226">
+        <v>1.2373924255370999E-4</v>
+      </c>
+      <c r="N226">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="227" spans="2:16" ht="17.7">
       <c r="B227" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="228" spans="2:2" ht="17.7">
+      <c r="E227" s="3">
+        <v>5.8174133300781203E-5</v>
+      </c>
+      <c r="F227">
+        <v>178</v>
+      </c>
+      <c r="H227" s="3"/>
+      <c r="M227" s="3">
+        <v>9.3936920166015598E-5</v>
+      </c>
+      <c r="N227">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="228" spans="2:16" ht="17.7">
       <c r="B228" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="229" spans="2:2" ht="17.7">
+      <c r="E228" s="3">
+        <v>7.2956085205078098E-5</v>
+      </c>
+      <c r="F228">
+        <v>213</v>
+      </c>
+      <c r="H228" s="3"/>
+      <c r="M228">
+        <v>1.0704994201660099E-4</v>
+      </c>
+      <c r="N228">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="229" spans="2:16" ht="17.7">
       <c r="B229" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="230" spans="2:2" ht="17.7">
+      <c r="E229" s="3">
+        <v>7.2240829467773397E-5</v>
+      </c>
+      <c r="F229">
+        <v>261</v>
+      </c>
+      <c r="H229" s="3"/>
+      <c r="M229">
+        <v>1.3518333435058499E-4</v>
+      </c>
+      <c r="N229">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="230" spans="2:16" ht="17.7">
       <c r="B230" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="231" spans="2:2" ht="17.7">
+      <c r="E230" s="3">
+        <v>6.1988830566406196E-5</v>
+      </c>
+      <c r="F230">
+        <v>244</v>
+      </c>
+      <c r="H230" s="3"/>
+      <c r="M230">
+        <v>1.3017654418945299E-4</v>
+      </c>
+      <c r="N230">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="231" spans="2:16" ht="17.7">
       <c r="B231" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="232" spans="2:2" ht="17.7">
+      <c r="E231" s="3">
+        <v>5.29289245605468E-5</v>
+      </c>
+      <c r="F231">
+        <v>974</v>
+      </c>
+      <c r="G231">
+        <v>1000</v>
+      </c>
+      <c r="H231" s="3">
+        <f t="shared" si="4"/>
+        <v>6.0510635375976518E-5</v>
+      </c>
+      <c r="M231" s="3">
+        <v>8.5115432739257799E-5</v>
+      </c>
+      <c r="N231">
+        <v>997</v>
+      </c>
+      <c r="O231">
+        <v>1000</v>
+      </c>
+      <c r="P231">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="232" spans="2:16" ht="17.7">
       <c r="B232" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="233" spans="2:2" ht="17.7">
+      <c r="E232" s="3">
+        <v>5.10215759277343E-5</v>
+      </c>
+      <c r="F232">
+        <v>998</v>
+      </c>
+      <c r="H232" s="3"/>
+      <c r="M232" s="3">
+        <v>9.4890594482421794E-5</v>
+      </c>
+      <c r="N232">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="233" spans="2:16" ht="17.7">
       <c r="B233" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="234" spans="2:2" ht="17.7">
+      <c r="E233" s="3">
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="F233">
+        <v>976</v>
+      </c>
+      <c r="H233" s="3"/>
+      <c r="M233" s="3">
+        <v>9.7036361694335897E-5</v>
+      </c>
+      <c r="N233">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="234" spans="2:16" ht="17.7">
       <c r="B234" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="235" spans="2:2" ht="17.7">
+      <c r="E234" s="3">
+        <v>5.3167343139648397E-5</v>
+      </c>
+      <c r="F234">
+        <v>997</v>
+      </c>
+      <c r="H234" s="3"/>
+      <c r="M234" s="3">
+        <v>9.2983245849609294E-5</v>
+      </c>
+      <c r="N234">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="235" spans="2:16" ht="17.7">
       <c r="B235" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="236" spans="2:2" ht="17.7">
+      <c r="E235" s="3">
+        <v>5.91278076171875E-5</v>
+      </c>
+      <c r="F235">
+        <v>996</v>
+      </c>
+      <c r="H235" s="3"/>
+      <c r="M235" s="3">
+        <v>9.6082687377929606E-5</v>
+      </c>
+      <c r="N235">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="2:16" ht="17.7">
       <c r="B236" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="237" spans="2:2" ht="17.7">
+      <c r="E236" s="3">
+        <v>8.0823898315429606E-5</v>
+      </c>
+      <c r="F236">
+        <v>1409</v>
+      </c>
+      <c r="H236" s="3"/>
+      <c r="M236">
+        <v>1.37090682983398E-4</v>
+      </c>
+      <c r="N236">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="237" spans="2:16" ht="17.7">
       <c r="B237" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="238" spans="2:2" ht="17.7">
+      <c r="E237" s="3">
+        <v>5.1975250244140598E-5</v>
+      </c>
+      <c r="F237">
+        <v>1850</v>
+      </c>
+      <c r="H237" s="3"/>
+      <c r="M237">
+        <v>1.2278556823730401E-4</v>
+      </c>
+      <c r="N237">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="238" spans="2:16" ht="17.7">
       <c r="B238" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="239" spans="2:2" ht="17.7">
+      <c r="E238" s="3">
+        <v>6.6041946411132799E-5</v>
+      </c>
+      <c r="F238">
+        <v>1923</v>
+      </c>
+      <c r="H238" s="3"/>
+      <c r="M238">
+        <v>1.2493133544921799E-4</v>
+      </c>
+      <c r="N238">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="239" spans="2:16" ht="17.7">
       <c r="B239" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="240" spans="2:2" ht="17.7">
+      <c r="E239" s="3">
+        <v>5.5074691772460897E-5</v>
+      </c>
+      <c r="F239">
+        <v>2393</v>
+      </c>
+      <c r="H239" s="3"/>
+      <c r="M239" s="3">
+        <v>9.4890594482421794E-5</v>
+      </c>
+      <c r="N239">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="240" spans="2:16" ht="17.7">
       <c r="B240" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="241" spans="2:2" ht="17.7">
+      <c r="E240">
+        <v>7.3909759521484294E-5</v>
+      </c>
+      <c r="F240">
+        <v>2435</v>
+      </c>
+      <c r="H240" s="3"/>
+      <c r="M240">
+        <v>1.57833099365234E-4</v>
+      </c>
+      <c r="N240">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="241" spans="2:16" ht="17.7">
       <c r="B241" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="242" spans="2:2" ht="17.7">
+      <c r="E241">
+        <v>5.3501129150390603E-4</v>
+      </c>
+      <c r="F241">
+        <v>26</v>
+      </c>
+      <c r="G241">
+        <v>10</v>
+      </c>
+      <c r="H241" s="3">
+        <f t="shared" si="4"/>
+        <v>5.1259994506835905E-4</v>
+      </c>
+      <c r="M241">
+        <v>4.0698051452636702E-4</v>
+      </c>
+      <c r="N241">
+        <v>26</v>
+      </c>
+      <c r="O241">
+        <v>10</v>
+      </c>
+      <c r="P241">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="242" spans="2:16" ht="17.7">
       <c r="B242" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="243" spans="2:2" ht="17.7">
+      <c r="E242">
+        <v>3.8623809814453098E-4</v>
+      </c>
+      <c r="F242">
+        <v>55</v>
+      </c>
+      <c r="H242" s="3"/>
+      <c r="M242">
+        <v>2.3722648620605401E-4</v>
+      </c>
+      <c r="N242">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="243" spans="2:16" ht="17.7">
       <c r="B243" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="244" spans="2:2" ht="17.7">
+      <c r="E243">
+        <v>5.5384635925292904E-4</v>
+      </c>
+      <c r="F243">
+        <v>81</v>
+      </c>
+      <c r="H243" s="3"/>
+      <c r="M243">
+        <v>2.7012825012206999E-4</v>
+      </c>
+      <c r="N243">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="244" spans="2:16" ht="17.7">
       <c r="B244" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="245" spans="2:2" ht="17.7">
+      <c r="E244">
+        <v>4.0388107299804601E-4</v>
+      </c>
+      <c r="F244">
+        <v>112</v>
+      </c>
+      <c r="H244" s="3"/>
+      <c r="M244">
+        <v>2.0790100097656201E-4</v>
+      </c>
+      <c r="N244">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16" ht="17.7">
       <c r="B245" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="246" spans="2:2" ht="17.7">
+      <c r="E245">
+        <v>4.15802001953125E-4</v>
+      </c>
+      <c r="F245">
+        <v>134</v>
+      </c>
+      <c r="H245" s="3"/>
+      <c r="M245">
+        <v>2.25067138671875E-4</v>
+      </c>
+      <c r="N245">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="246" spans="2:16" ht="17.7">
       <c r="B246" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="247" spans="2:2" ht="17.7">
+      <c r="E246">
+        <v>4.0292739868163997E-4</v>
+      </c>
+      <c r="F246">
+        <v>162</v>
+      </c>
+      <c r="H246" s="3"/>
+      <c r="M246">
+        <v>2.4223327636718701E-4</v>
+      </c>
+      <c r="N246">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="247" spans="2:16" ht="17.7">
       <c r="B247" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="248" spans="2:2" ht="17.7">
+      <c r="E247">
+        <v>4.6205520629882802E-4</v>
+      </c>
+      <c r="F247">
+        <v>181</v>
+      </c>
+      <c r="H247" s="3"/>
+      <c r="M247">
+        <v>2.4700164794921799E-4</v>
+      </c>
+      <c r="N247">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="248" spans="2:16" ht="17.7">
       <c r="B248" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="249" spans="2:2" ht="17.7">
+      <c r="E248">
+        <v>8.6498260498046799E-4</v>
+      </c>
+      <c r="F248">
+        <v>221</v>
+      </c>
+      <c r="H248" s="3"/>
+      <c r="M248">
+        <v>3.43084335327148E-4</v>
+      </c>
+      <c r="N248">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="249" spans="2:16" ht="17.7">
       <c r="B249" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="250" spans="2:2" ht="17.7">
+      <c r="E249">
+        <v>3.9720535278320302E-4</v>
+      </c>
+      <c r="F249">
+        <v>246</v>
+      </c>
+      <c r="H249" s="3"/>
+      <c r="M249">
+        <v>2.9063224792480398E-4</v>
+      </c>
+      <c r="N249">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="250" spans="2:16" ht="17.7">
       <c r="B250" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="251" spans="2:2" ht="17.7">
+      <c r="E250">
+        <v>7.0405006408691395E-4</v>
+      </c>
+      <c r="F250">
+        <v>274</v>
+      </c>
+      <c r="H250" s="3"/>
+      <c r="M250">
+        <v>3.2210350036621002E-4</v>
+      </c>
+      <c r="N250">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="251" spans="2:16" ht="17.7">
       <c r="B251" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="252" spans="2:2" ht="17.7">
+      <c r="E251">
+        <v>4.3010711669921799E-4</v>
+      </c>
+      <c r="F251">
+        <v>247</v>
+      </c>
+      <c r="G251">
+        <v>100</v>
+      </c>
+      <c r="H251" s="3">
+        <f t="shared" si="4"/>
+        <v>4.7664642333984338E-4</v>
+      </c>
+      <c r="M251">
+        <v>2.0885467529296799E-4</v>
+      </c>
+      <c r="N251">
+        <v>182</v>
+      </c>
+      <c r="O251">
+        <v>100</v>
+      </c>
+      <c r="P251">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="2:16" ht="17.7">
       <c r="B252" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="253" spans="2:2" ht="17.7">
+      <c r="E252">
+        <v>4.3535232543945302E-4</v>
+      </c>
+      <c r="F252">
+        <v>509</v>
+      </c>
+      <c r="H252" s="3"/>
+      <c r="M252">
+        <v>2.3818016052245999E-4</v>
+      </c>
+      <c r="N252">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="253" spans="2:16" ht="17.7">
       <c r="B253" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="254" spans="2:2" ht="17.7">
+      <c r="E253">
+        <v>4.7016143798828098E-4</v>
+      </c>
+      <c r="F253">
+        <v>709</v>
+      </c>
+      <c r="H253" s="3"/>
+      <c r="M253">
+        <v>1.9502639770507799E-4</v>
+      </c>
+      <c r="N253">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="254" spans="2:16" ht="17.7">
       <c r="B254" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="255" spans="2:2" ht="17.7">
+      <c r="E254">
+        <v>4.3416023254394499E-4</v>
+      </c>
+      <c r="F254">
+        <v>1004</v>
+      </c>
+      <c r="H254" s="3"/>
+      <c r="M254">
+        <v>2.57015228271484E-4</v>
+      </c>
+      <c r="N254">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="255" spans="2:16" ht="17.7">
       <c r="B255" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="256" spans="2:2" ht="17.7">
+      <c r="E255">
+        <v>4.20808792114257E-4</v>
+      </c>
+      <c r="F255">
+        <v>1266</v>
+      </c>
+      <c r="H255" s="3"/>
+      <c r="M255">
+        <v>2.30312347412109E-4</v>
+      </c>
+      <c r="N255">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="256" spans="2:16" ht="17.7">
       <c r="B256" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="257" spans="2:2" ht="17.7">
+      <c r="E256">
+        <v>5.2189826965331999E-4</v>
+      </c>
+      <c r="F256">
+        <v>1532</v>
+      </c>
+      <c r="H256" s="3"/>
+      <c r="M256">
+        <v>3.4594535827636702E-4</v>
+      </c>
+      <c r="N256">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="257" spans="2:16" ht="17.7">
       <c r="B257" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="258" spans="2:2" ht="17.7">
+      <c r="E257">
+        <v>4.1389465332031201E-4</v>
+      </c>
+      <c r="F257">
+        <v>1695</v>
+      </c>
+      <c r="H257" s="3"/>
+      <c r="M257">
+        <v>3.5405158996581999E-4</v>
+      </c>
+      <c r="N257">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="258" spans="2:16" ht="17.7">
       <c r="B258" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="259" spans="2:2" ht="17.7">
+      <c r="E258">
+        <v>6.8497657775878895E-4</v>
+      </c>
+      <c r="F258">
+        <v>2104</v>
+      </c>
+      <c r="H258" s="3"/>
+      <c r="M258">
+        <v>3.8981437683105398E-4</v>
+      </c>
+      <c r="N258">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="259" spans="2:16" ht="17.7">
       <c r="B259" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="260" spans="2:2" ht="17.7">
+      <c r="E259">
+        <v>4.2819976806640598E-4</v>
+      </c>
+      <c r="F259">
+        <v>2224</v>
+      </c>
+      <c r="H259" s="3"/>
+      <c r="M259">
+        <v>2.94923782348632E-4</v>
+      </c>
+      <c r="N259">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="260" spans="2:16" ht="17.7">
       <c r="B260" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="261" spans="2:2" ht="17.7">
+      <c r="E260">
+        <v>5.2690505981445302E-4</v>
+      </c>
+      <c r="F260">
+        <v>2582</v>
+      </c>
+      <c r="H260" s="3"/>
+      <c r="M260">
+        <v>4.4894218444824202E-4</v>
+      </c>
+      <c r="N260">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="261" spans="2:16" ht="17.7">
       <c r="B261" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="262" spans="2:2" ht="17.7">
+      <c r="E261">
+        <v>4.46081161499023E-4</v>
+      </c>
+      <c r="F261">
+        <v>2522</v>
+      </c>
+      <c r="G261">
+        <v>1000</v>
+      </c>
+      <c r="H261" s="3">
+        <f t="shared" si="4"/>
+        <v>4.4062137603759731E-4</v>
+      </c>
+      <c r="M261">
+        <v>1.5687942504882799E-4</v>
+      </c>
+      <c r="N261">
+        <v>2482</v>
+      </c>
+      <c r="O261">
+        <v>1000</v>
+      </c>
+      <c r="P261">
+        <f>AVERAGE(M1:M10)</f>
+        <v>3.8821697235107367E-4</v>
+      </c>
+    </row>
+    <row r="262" spans="2:16" ht="17.7">
       <c r="B262" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="263" spans="2:2" ht="17.7">
+      <c r="E262">
+        <v>4.2796134948730398E-4</v>
+      </c>
+      <c r="F262">
+        <v>5113</v>
+      </c>
+      <c r="H262" s="3"/>
+      <c r="M262">
+        <v>2.23875045776367E-4</v>
+      </c>
+      <c r="N262">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="263" spans="2:16" ht="17.7">
       <c r="B263" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="264" spans="2:2" ht="17.7">
+      <c r="E263">
+        <v>4.6372413635253901E-4</v>
+      </c>
+      <c r="F263">
+        <v>7181</v>
+      </c>
+      <c r="H263" s="3"/>
+      <c r="M263">
+        <v>1.8596649169921799E-4</v>
+      </c>
+      <c r="N263">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="264" spans="2:16" ht="17.7">
       <c r="B264" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="265" spans="2:2" ht="17.7">
+      <c r="E264">
+        <v>4.46319580078125E-4</v>
+      </c>
+      <c r="F264">
+        <v>9987</v>
+      </c>
+      <c r="H264" s="3"/>
+      <c r="M264">
+        <v>2.11000442504882E-4</v>
+      </c>
+      <c r="N264">
+        <v>9147</v>
+      </c>
+    </row>
+    <row r="265" spans="2:16" ht="17.7">
       <c r="B265" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="266" spans="2:2" ht="17.7">
+      <c r="E265">
+        <v>4.36067581176757E-4</v>
+      </c>
+      <c r="F265">
+        <v>12095</v>
+      </c>
+      <c r="H265" s="3"/>
+      <c r="M265">
+        <v>2.2029876708984299E-4</v>
+      </c>
+      <c r="N265">
+        <v>11469</v>
+      </c>
+    </row>
+    <row r="266" spans="2:16" ht="17.7">
       <c r="B266" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="267" spans="2:2" ht="17.7">
+      <c r="E266">
+        <v>4.3487548828125E-4</v>
+      </c>
+      <c r="F266">
+        <v>14575</v>
+      </c>
+      <c r="H266" s="3"/>
+      <c r="M266">
+        <v>3.33070755004882E-4</v>
+      </c>
+      <c r="N266">
+        <v>14334</v>
+      </c>
+    </row>
+    <row r="267" spans="2:16" ht="17.7">
       <c r="B267" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="268" spans="2:2" ht="17.7">
+      <c r="E267">
+        <v>4.49895858764648E-4</v>
+      </c>
+      <c r="F267">
+        <v>16884</v>
+      </c>
+      <c r="H267" s="3"/>
+      <c r="M267">
+        <v>2.5892257690429601E-4</v>
+      </c>
+      <c r="N267">
+        <v>16053</v>
+      </c>
+    </row>
+    <row r="268" spans="2:16" ht="17.7">
       <c r="B268" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="269" spans="2:2" ht="17.7">
+      <c r="E268">
+        <v>4.40120697021484E-4</v>
+      </c>
+      <c r="F268">
+        <v>18837</v>
+      </c>
+      <c r="H268" s="3"/>
+      <c r="M268">
+        <v>2.5987625122070302E-4</v>
+      </c>
+      <c r="N268">
+        <v>18055</v>
+      </c>
+    </row>
+    <row r="269" spans="2:16" ht="17.7">
       <c r="B269" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="270" spans="2:2" ht="17.7">
+      <c r="E269">
+        <v>4.27007675170898E-4</v>
+      </c>
+      <c r="F269">
+        <v>22264</v>
+      </c>
+      <c r="H269" s="3"/>
+      <c r="M269">
+        <v>3.0326843261718701E-4</v>
+      </c>
+      <c r="N269">
+        <v>21815</v>
+      </c>
+    </row>
+    <row r="270" spans="2:16" ht="17.7">
       <c r="B270" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="E270">
+        <v>4.3416023254394499E-4</v>
+      </c>
+      <c r="F270">
+        <v>24200</v>
+      </c>
+      <c r="H270" s="3"/>
+      <c r="M270">
+        <v>3.27825546264648E-4</v>
+      </c>
+      <c r="N270">
+        <v>24176</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tp2/exemple/src/result.xlsx
+++ b/tp2/exemple/src/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\01.Travaux.Poly\09.A2018\INF4705.algo\swagnalyse\tp2\exemple\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C6463BF-2461-4A3C-B138-131644CA880A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A9C5CD35-20B5-409B-9B0D-ECB82215439E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="78" yWindow="462" windowWidth="25440" windowHeight="14502" xr2:uid="{5E1C5933-FED9-854C-841B-467E1B961C4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="278">
   <si>
     <t>glouton</t>
   </si>
@@ -841,6 +841,24 @@
   </si>
   <si>
     <t>recuit</t>
+  </si>
+  <si>
+    <t>progdyn1</t>
+  </si>
+  <si>
+    <t>progdyn2</t>
+  </si>
+  <si>
+    <t>0.953125</t>
+  </si>
+  <si>
+    <t>1.1875</t>
+  </si>
+  <si>
+    <t>1.046875</t>
+  </si>
+  <si>
+    <t>1.359375</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D3A866-B3F1-5D4F-A126-3B73E31B27BE}">
-  <dimension ref="A1:P270"/>
+  <dimension ref="A1:AC270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1213,7 +1231,7 @@
     <col min="5" max="5" width="11.6484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.7">
+    <row r="1" spans="1:29" ht="17.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1267,36 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="17.7">
+      <c r="R1" t="s">
+        <v>272</v>
+      </c>
+      <c r="S1">
+        <v>1999.09375</v>
+      </c>
+      <c r="T1">
+        <v>4059</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z1">
+        <v>475.75</v>
+      </c>
+      <c r="AA1">
+        <v>4059</v>
+      </c>
+      <c r="AB1">
+        <v>4000</v>
+      </c>
+      <c r="AC1">
+        <f>AVERAGE(Z1:Z10)</f>
+        <v>878.21406249999995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="17.7">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1266,8 +1312,23 @@
       <c r="N2">
         <v>3932</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.7">
+      <c r="S2">
+        <v>2299.53125</v>
+      </c>
+      <c r="T2">
+        <v>4004</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>968.71875</v>
+      </c>
+      <c r="AA2">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="17.7">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1283,8 +1344,23 @@
       <c r="N3">
         <v>3819</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="17.7">
+      <c r="S3">
+        <v>2013.078125</v>
+      </c>
+      <c r="T3">
+        <v>4017</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>760.421875</v>
+      </c>
+      <c r="AA3">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17.7">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1300,8 +1376,23 @@
       <c r="N4">
         <v>3951</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="17.7">
+      <c r="S4">
+        <v>2217.4375</v>
+      </c>
+      <c r="T4">
+        <v>4064</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>2098.5625</v>
+      </c>
+      <c r="AA4">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="17.7">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1317,8 +1408,23 @@
       <c r="N5">
         <v>3795</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="17.7">
+      <c r="S5">
+        <v>2130.359375</v>
+      </c>
+      <c r="T5">
+        <v>4022</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>716.734375</v>
+      </c>
+      <c r="AA5">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="17.7">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1334,8 +1440,23 @@
       <c r="N6">
         <v>4090</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="17.7">
+      <c r="S6">
+        <v>2318.5625</v>
+      </c>
+      <c r="T6">
+        <v>4190</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <v>773.609375</v>
+      </c>
+      <c r="AA6">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="17.7">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1351,8 +1472,17 @@
       <c r="N7">
         <v>4050</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="17.7">
+      <c r="V7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>842.25</v>
+      </c>
+      <c r="AA7">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="17.7">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1368,8 +1498,17 @@
       <c r="N8">
         <v>3878</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="17.7">
+      <c r="V8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>358.640625</v>
+      </c>
+      <c r="AA8">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="17.7">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1385,8 +1524,17 @@
       <c r="N9">
         <v>3948</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="17.7">
+      <c r="V9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9">
+        <v>718.5</v>
+      </c>
+      <c r="AA9">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="17.7">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1402,8 +1550,17 @@
       <c r="N10">
         <v>3879</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="17.7">
+      <c r="V10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>1068.953125</v>
+      </c>
+      <c r="AA10">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="17.7">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1574,7 @@
         <v>400</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H2:H65" si="0">AVERAGE(E11:E20)</f>
+        <f t="shared" ref="H11:H61" si="0">AVERAGE(E11:E20)</f>
         <v>1.0101795196533188E-4</v>
       </c>
       <c r="M11">
@@ -1433,8 +1590,30 @@
         <f>AVERAGE(M11:M20)</f>
         <v>1.6970634460449169E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="17.7">
+      <c r="S11" t="s">
+        <v>274</v>
+      </c>
+      <c r="T11">
+        <v>403</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z11">
+        <v>2.40625</v>
+      </c>
+      <c r="AA11">
+        <v>402</v>
+      </c>
+      <c r="AB11">
+        <v>400</v>
+      </c>
+      <c r="AC11">
+        <f>AVERAGE(Z11:Z20)</f>
+        <v>3.0328124999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="17.7">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1450,8 +1629,23 @@
       <c r="N12">
         <v>391</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="17.7">
+      <c r="S12" t="s">
+        <v>275</v>
+      </c>
+      <c r="T12">
+        <v>438</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12">
+        <v>3.125</v>
+      </c>
+      <c r="AA12">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="17.7">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1467,8 +1661,23 @@
       <c r="N13">
         <v>382</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="17.7">
+      <c r="S13" t="s">
+        <v>276</v>
+      </c>
+      <c r="T13">
+        <v>423</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13">
+        <v>2.734375</v>
+      </c>
+      <c r="AA13">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="17.7">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1484,8 +1693,23 @@
       <c r="N14">
         <v>404</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="17.7">
+      <c r="S14" t="s">
+        <v>276</v>
+      </c>
+      <c r="T14">
+        <v>417</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z14">
+        <v>3.515625</v>
+      </c>
+      <c r="AA14">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="17.7">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1501,8 +1725,23 @@
       <c r="N15">
         <v>397</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="17.7">
+      <c r="S15" t="s">
+        <v>277</v>
+      </c>
+      <c r="T15">
+        <v>458</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z15">
+        <v>2.53125</v>
+      </c>
+      <c r="AA15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="17.7">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1518,8 +1757,17 @@
       <c r="N16">
         <v>452</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" ht="17.7">
+      <c r="V16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z16">
+        <v>4.109375</v>
+      </c>
+      <c r="AA16">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="17.7">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1535,8 +1783,17 @@
       <c r="N17">
         <v>399</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" ht="17.7">
+      <c r="V17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z17">
+        <v>2.71875</v>
+      </c>
+      <c r="AA17">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="17.7">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1552,8 +1809,17 @@
       <c r="N18">
         <v>425</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" ht="17.7">
+      <c r="V18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z18">
+        <v>2.484375</v>
+      </c>
+      <c r="AA18">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="17.7">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1569,8 +1835,17 @@
       <c r="N19">
         <v>401</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" ht="17.7">
+      <c r="V19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z19">
+        <v>3.078125</v>
+      </c>
+      <c r="AA19">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="17.7">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1586,8 +1861,17 @@
       <c r="N20">
         <v>369</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" ht="17.7">
+      <c r="V20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z20">
+        <v>3.625</v>
+      </c>
+      <c r="AA20">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="17.7">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1617,8 +1901,24 @@
         <f>AVERAGE(M21:M30)</f>
         <v>2.3531913757324181E-4</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" ht="17.7">
+      <c r="V21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z21">
+        <v>95.796875</v>
+      </c>
+      <c r="AA21">
+        <v>2050</v>
+      </c>
+      <c r="AB21">
+        <v>2000</v>
+      </c>
+      <c r="AC21">
+        <f>AVERAGE(Z21:Z30)</f>
+        <v>145.95156249999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="17.7">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1634,8 +1934,17 @@
       <c r="N22">
         <v>2029</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" ht="17.7">
+      <c r="V22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z22">
+        <v>298.5625</v>
+      </c>
+      <c r="AA22">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" ht="17.7">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1651,8 +1960,17 @@
       <c r="N23">
         <v>1927</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" ht="17.7">
+      <c r="V23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z23">
+        <v>94.234375</v>
+      </c>
+      <c r="AA23">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" ht="17.7">
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1668,8 +1986,17 @@
       <c r="N24">
         <v>1991</v>
       </c>
-    </row>
-    <row r="25" spans="2:16" ht="17.7">
+      <c r="V24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z24">
+        <v>125.953125</v>
+      </c>
+      <c r="AA24">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" ht="17.7">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1685,8 +2012,17 @@
       <c r="N25">
         <v>1951</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" ht="17.7">
+      <c r="V25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z25">
+        <v>275.203125</v>
+      </c>
+      <c r="AA25">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" ht="17.7">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1702,8 +2038,17 @@
       <c r="N26">
         <v>1988</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" ht="17.7">
+      <c r="V26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z26">
+        <v>156.59375</v>
+      </c>
+      <c r="AA26">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" ht="17.7">
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1719,8 +2064,17 @@
       <c r="N27">
         <v>2056</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" ht="17.7">
+      <c r="V27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z27">
+        <v>70.265625</v>
+      </c>
+      <c r="AA27">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="17.7">
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1736,8 +2090,17 @@
       <c r="N28">
         <v>1961</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" ht="17.7">
+      <c r="V28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z28">
+        <v>128.453125</v>
+      </c>
+      <c r="AA28">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" ht="17.7">
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1753,8 +2116,17 @@
       <c r="N29">
         <v>2010</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" ht="17.7">
+      <c r="V29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z29">
+        <v>69.328125</v>
+      </c>
+      <c r="AA29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" ht="17.7">
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1770,8 +2142,17 @@
       <c r="N30">
         <v>1989</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" ht="17.7">
+      <c r="V30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30">
+        <v>145.125</v>
+      </c>
+      <c r="AA30">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" ht="17.7">
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1801,8 +2182,24 @@
         <f>AVERAGE(M31:M40)</f>
         <v>1.0411739349365206E-4</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" ht="17.7">
+      <c r="V31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>11</v>
+      </c>
+      <c r="AB31">
+        <v>10</v>
+      </c>
+      <c r="AC31">
+        <f>AVERAGE(Z31:Z40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" ht="17.7">
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1818,8 +2215,17 @@
       <c r="N32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" ht="17.7">
+      <c r="V32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" ht="17.7">
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1835,8 +2241,17 @@
       <c r="N33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" ht="17.7">
+      <c r="V33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" ht="17.7">
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1852,8 +2267,17 @@
       <c r="N34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" ht="17.7">
+      <c r="V34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" ht="17.7">
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +2293,17 @@
       <c r="N35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" ht="17.7">
+      <c r="V35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" ht="17.7">
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1886,8 +2319,17 @@
       <c r="N36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" ht="17.7">
+      <c r="V36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" ht="17.7">
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1903,8 +2345,17 @@
       <c r="N37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="2:16" ht="17.7">
+      <c r="V37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" ht="17.7">
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1920,8 +2371,17 @@
       <c r="N38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" ht="17.7">
+      <c r="V38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" ht="17.7">
       <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1937,8 +2397,17 @@
       <c r="N39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="2:16" ht="17.7">
+      <c r="V39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" ht="17.7">
       <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1954,8 +2423,17 @@
       <c r="N40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="2:16" ht="17.7">
+      <c r="V40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" ht="17.7">
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
@@ -1985,8 +2463,25 @@
         <f>AVERAGE(M41:M50)</f>
         <v>9.93728637695309E-5</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" ht="17.7">
+      <c r="Q41" s="3"/>
+      <c r="V41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z41">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AA41">
+        <v>100</v>
+      </c>
+      <c r="AB41">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
+        <f>AVERAGE(Z41:Z50)</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" ht="17.7">
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2002,8 +2497,17 @@
       <c r="N42">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" ht="17.7">
+      <c r="V42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z42">
+        <v>0.109375</v>
+      </c>
+      <c r="AA42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" ht="17.7">
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
@@ -2019,8 +2523,17 @@
       <c r="N43">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" ht="17.7">
+      <c r="V43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z43">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AA43">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" ht="17.7">
       <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2036,8 +2549,17 @@
       <c r="N44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" ht="17.7">
+      <c r="V44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z44">
+        <v>0.125</v>
+      </c>
+      <c r="AA44">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" ht="17.7">
       <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2053,8 +2575,17 @@
       <c r="N45">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" ht="17.7">
+      <c r="V45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z45">
+        <v>0.125</v>
+      </c>
+      <c r="AA45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" ht="17.7">
       <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2070,8 +2601,17 @@
       <c r="N46">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" ht="17.7">
+      <c r="V46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z46">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AA46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" ht="17.7">
       <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2087,8 +2627,17 @@
       <c r="N47">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" ht="17.7">
+      <c r="V47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z47">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AA47">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" ht="17.7">
       <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2104,8 +2653,17 @@
       <c r="N48">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="2:16" ht="17.7">
+      <c r="V48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z48">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AA48">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" ht="17.7">
       <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2121,8 +2679,17 @@
       <c r="N49">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="2:16" ht="17.7">
+      <c r="V49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z49">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AA49">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29" ht="17.7">
       <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2138,8 +2705,17 @@
       <c r="N50">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="2:16" ht="17.7">
+      <c r="V50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z50">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AA50">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29" ht="17.7">
       <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2169,8 +2745,24 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="52" spans="2:16" ht="17.7">
+      <c r="V51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z51">
+        <v>11.59375</v>
+      </c>
+      <c r="AA51">
+        <v>939</v>
+      </c>
+      <c r="AB51">
+        <v>1000</v>
+      </c>
+      <c r="AC51">
+        <f>AVERAGE(Z1:Z10)</f>
+        <v>878.21406249999995</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29" ht="17.7">
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2186,8 +2778,17 @@
       <c r="N52">
         <v>658</v>
       </c>
-    </row>
-    <row r="53" spans="2:16" ht="17.7">
+      <c r="V52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z52">
+        <v>10.515625</v>
+      </c>
+      <c r="AA52">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29" ht="17.7">
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2203,8 +2804,17 @@
       <c r="N53">
         <v>450</v>
       </c>
-    </row>
-    <row r="54" spans="2:16" ht="17.7">
+      <c r="V53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z53">
+        <v>17.34375</v>
+      </c>
+      <c r="AA53">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29" ht="17.7">
       <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2220,8 +2830,17 @@
       <c r="N54">
         <v>783</v>
       </c>
-    </row>
-    <row r="55" spans="2:16" ht="17.7">
+      <c r="V54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z54">
+        <v>12.796875</v>
+      </c>
+      <c r="AA54">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29" ht="17.7">
       <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
@@ -2237,8 +2856,17 @@
       <c r="N55">
         <v>580</v>
       </c>
-    </row>
-    <row r="56" spans="2:16" ht="17.7">
+      <c r="V55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z55">
+        <v>13.109375</v>
+      </c>
+      <c r="AA55">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29" ht="17.7">
       <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2254,8 +2882,17 @@
       <c r="N56">
         <v>914</v>
       </c>
-    </row>
-    <row r="57" spans="2:16" ht="17.7">
+      <c r="V56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z56">
+        <v>12.796875</v>
+      </c>
+      <c r="AA56">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="57" spans="2:29" ht="17.7">
       <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
@@ -2271,8 +2908,17 @@
       <c r="N57">
         <v>182</v>
       </c>
-    </row>
-    <row r="58" spans="2:16" ht="17.7">
+      <c r="V57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z57">
+        <v>11.59375</v>
+      </c>
+      <c r="AA57">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" ht="17.7">
       <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
@@ -2288,8 +2934,17 @@
       <c r="N58">
         <v>963</v>
       </c>
-    </row>
-    <row r="59" spans="2:16" ht="17.7">
+      <c r="V58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z58">
+        <v>18.90625</v>
+      </c>
+      <c r="AA58">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29" ht="17.7">
       <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
@@ -2305,8 +2960,17 @@
       <c r="N59">
         <v>889</v>
       </c>
-    </row>
-    <row r="60" spans="2:16" ht="17.7">
+      <c r="V59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z59">
+        <v>14.859375</v>
+      </c>
+      <c r="AA59">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29" ht="17.7">
       <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
@@ -2322,8 +2986,17 @@
       <c r="N60">
         <v>814</v>
       </c>
-    </row>
-    <row r="61" spans="2:16" ht="17.7">
+      <c r="V60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z60">
+        <v>20.046875</v>
+      </c>
+      <c r="AA60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29" ht="17.7">
       <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
@@ -2353,8 +3026,24 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="62" spans="2:16" ht="17.7">
+      <c r="V61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>11</v>
+      </c>
+      <c r="AB61">
+        <v>10</v>
+      </c>
+      <c r="AC61">
+        <f>AVERAGE(Z1:Z10)</f>
+        <v>878.21406249999995</v>
+      </c>
+    </row>
+    <row r="62" spans="2:29" ht="17.7">
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2370,8 +3059,17 @@
       <c r="N62">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="2:16" ht="17.7">
+      <c r="V62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" ht="17.7">
       <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
@@ -2387,8 +3085,17 @@
       <c r="N63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="2:16" ht="17.7">
+      <c r="V63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" ht="17.7">
       <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
@@ -2404,8 +3111,17 @@
       <c r="N64">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" ht="17.7">
+      <c r="V64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" ht="17.7">
       <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
@@ -2421,8 +3137,17 @@
       <c r="N65">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" ht="17.7">
+      <c r="V65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" ht="17.7">
       <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
@@ -2438,8 +3163,17 @@
       <c r="N66">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" ht="17.7">
+      <c r="V66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z66">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AA66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" ht="17.7">
       <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
@@ -2455,8 +3189,17 @@
       <c r="N67">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="2:16" ht="17.7">
+      <c r="V67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" ht="17.7">
       <c r="B68" s="2" t="s">
         <v>68</v>
       </c>
@@ -2472,8 +3215,17 @@
       <c r="N68">
         <v>43</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" ht="17.7">
+      <c r="V68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z68">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AA68">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" ht="17.7">
       <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
@@ -2489,8 +3241,17 @@
       <c r="N69">
         <v>48</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" ht="17.7">
+      <c r="V69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" ht="17.7">
       <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
@@ -2506,8 +3267,17 @@
       <c r="N70">
         <v>54</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" ht="17.7">
+      <c r="V70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z70">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AA70">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" ht="17.7">
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
@@ -2521,7 +3291,7 @@
         <v>100</v>
       </c>
       <c r="H71">
-        <f t="shared" ref="H66:H129" si="1">AVERAGE(E71:E80)</f>
+        <f t="shared" ref="H71:H121" si="1">AVERAGE(E71:E80)</f>
         <v>1.2631416320800745E-4</v>
       </c>
       <c r="M71">
@@ -2537,8 +3307,24 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" ht="17.7">
+      <c r="V71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z71">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AA71">
+        <v>107</v>
+      </c>
+      <c r="AB71">
+        <v>100</v>
+      </c>
+      <c r="AC71">
+        <f>AVERAGE(Z1:Z10)</f>
+        <v>878.21406249999995</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" ht="17.7">
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
@@ -2554,8 +3340,17 @@
       <c r="N72">
         <v>54</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" ht="17.7">
+      <c r="V72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z72">
+        <v>3.125E-2</v>
+      </c>
+      <c r="AA72">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" ht="17.7">
       <c r="B73" s="2" t="s">
         <v>73</v>
       </c>
@@ -2571,8 +3366,17 @@
       <c r="N73">
         <v>97</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" ht="17.7">
+      <c r="V73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z73">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AA73">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" ht="17.7">
       <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
@@ -2588,8 +3392,17 @@
       <c r="N74">
         <v>142</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" ht="17.7">
+      <c r="V74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z74">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AA74">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" ht="17.7">
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
@@ -2605,8 +3418,17 @@
       <c r="N75">
         <v>262</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" ht="17.7">
+      <c r="V75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z75">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AA75">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" ht="17.7">
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
@@ -2622,8 +3444,17 @@
       <c r="N76">
         <v>279</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" ht="17.7">
+      <c r="V76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z76">
+        <v>0.609375</v>
+      </c>
+      <c r="AA76">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" ht="17.7">
       <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
@@ -2639,8 +3470,17 @@
       <c r="N77">
         <v>301</v>
       </c>
-    </row>
-    <row r="78" spans="2:16" ht="17.7">
+      <c r="V77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z77">
+        <v>0.171875</v>
+      </c>
+      <c r="AA77">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" ht="17.7">
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
@@ -2656,8 +3496,17 @@
       <c r="N78">
         <v>410</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" ht="17.7">
+      <c r="V78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z78">
+        <v>0.671875</v>
+      </c>
+      <c r="AA78">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" ht="17.7">
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
@@ -2673,8 +3522,17 @@
       <c r="N79">
         <v>418</v>
       </c>
-    </row>
-    <row r="80" spans="2:16" ht="17.7">
+      <c r="V79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z79">
+        <v>1.796875</v>
+      </c>
+      <c r="AA79">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29" ht="17.7">
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
@@ -2690,8 +3548,17 @@
       <c r="N80">
         <v>515</v>
       </c>
-    </row>
-    <row r="81" spans="2:16" ht="17.7">
+      <c r="V80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z80">
+        <v>3.484375</v>
+      </c>
+      <c r="AA80">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29" ht="17.7">
       <c r="B81" s="2" t="s">
         <v>81</v>
       </c>
@@ -2721,8 +3588,24 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="82" spans="2:16" ht="17.7">
+      <c r="V81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z81">
+        <v>165.609375</v>
+      </c>
+      <c r="AA81">
+        <v>1001</v>
+      </c>
+      <c r="AB81">
+        <v>1000</v>
+      </c>
+      <c r="AC81">
+        <f>AVERAGE(Z1:Z10)</f>
+        <v>878.21406249999995</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29" ht="17.7">
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
@@ -2738,8 +3621,17 @@
       <c r="N82">
         <v>722</v>
       </c>
-    </row>
-    <row r="83" spans="2:16" ht="17.7">
+      <c r="V82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z82">
+        <v>124.640625</v>
+      </c>
+      <c r="AA82">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29" ht="17.7">
       <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
@@ -2755,8 +3647,17 @@
       <c r="N83">
         <v>1518</v>
       </c>
-    </row>
-    <row r="84" spans="2:16" ht="17.7">
+      <c r="V83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z83">
+        <v>417.4375</v>
+      </c>
+      <c r="AA83">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29" ht="17.7">
       <c r="B84" s="2" t="s">
         <v>84</v>
       </c>
@@ -2772,8 +3673,17 @@
       <c r="N84">
         <v>1764</v>
       </c>
-    </row>
-    <row r="85" spans="2:16" ht="17.7">
+      <c r="V84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z84">
+        <v>1274.609375</v>
+      </c>
+      <c r="AA84">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="85" spans="2:29" ht="17.7">
       <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
@@ -2789,8 +3699,17 @@
       <c r="N85">
         <v>1699</v>
       </c>
-    </row>
-    <row r="86" spans="2:16" ht="17.7">
+      <c r="V85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z85">
+        <v>1296.890625</v>
+      </c>
+      <c r="AA85">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="86" spans="2:29" ht="17.7">
       <c r="B86" s="2" t="s">
         <v>86</v>
       </c>
@@ -2806,8 +3725,11 @@
       <c r="N86">
         <v>2922</v>
       </c>
-    </row>
-    <row r="87" spans="2:16" ht="17.7">
+      <c r="V86" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="2:29" ht="17.7">
       <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
@@ -2823,8 +3745,11 @@
       <c r="N87">
         <v>2990</v>
       </c>
-    </row>
-    <row r="88" spans="2:16" ht="17.7">
+      <c r="V87" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="2:29" ht="17.7">
       <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
@@ -2840,8 +3765,11 @@
       <c r="N88">
         <v>2987</v>
       </c>
-    </row>
-    <row r="89" spans="2:16" ht="17.7">
+      <c r="V88" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:29" ht="17.7">
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
@@ -2857,8 +3785,11 @@
       <c r="N89">
         <v>4143</v>
       </c>
-    </row>
-    <row r="90" spans="2:16" ht="17.7">
+      <c r="V89" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="2:29" ht="17.7">
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
@@ -2874,8 +3805,11 @@
       <c r="N90">
         <v>4794</v>
       </c>
-    </row>
-    <row r="91" spans="2:16" ht="17.7">
+      <c r="V90" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="2:29" ht="17.7">
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
@@ -2905,8 +3839,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="92" spans="2:16" ht="17.7">
+      <c r="V91" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="2:29" ht="17.7">
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
@@ -2922,8 +3859,11 @@
       <c r="N92">
         <v>106</v>
       </c>
-    </row>
-    <row r="93" spans="2:16" ht="17.7">
+      <c r="V92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="2:29" ht="17.7">
       <c r="B93" s="1" t="s">
         <v>93</v>
       </c>
@@ -2939,8 +3879,11 @@
       <c r="N93">
         <v>160</v>
       </c>
-    </row>
-    <row r="94" spans="2:16" ht="17.7">
+      <c r="V93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="2:29" ht="17.7">
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
@@ -2956,8 +3899,11 @@
       <c r="N94">
         <v>212</v>
       </c>
-    </row>
-    <row r="95" spans="2:16" ht="17.7">
+      <c r="V94" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="2:29" ht="17.7">
       <c r="B95" s="1" t="s">
         <v>95</v>
       </c>
@@ -2973,8 +3919,11 @@
       <c r="N95">
         <v>273</v>
       </c>
-    </row>
-    <row r="96" spans="2:16" ht="17.7">
+      <c r="V95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="2:29" ht="17.7">
       <c r="B96" s="1" t="s">
         <v>96</v>
       </c>
@@ -2990,8 +3939,11 @@
       <c r="N96">
         <v>324</v>
       </c>
-    </row>
-    <row r="97" spans="2:16" ht="17.7">
+      <c r="V96" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" ht="17.7">
       <c r="B97" s="1" t="s">
         <v>97</v>
       </c>
@@ -3007,8 +3959,11 @@
       <c r="N97">
         <v>378</v>
       </c>
-    </row>
-    <row r="98" spans="2:16" ht="17.7">
+      <c r="V97" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22" ht="17.7">
       <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
@@ -3024,8 +3979,11 @@
       <c r="N98">
         <v>440</v>
       </c>
-    </row>
-    <row r="99" spans="2:16" ht="17.7">
+      <c r="V98" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" ht="17.7">
       <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
@@ -3041,8 +3999,11 @@
       <c r="N99">
         <v>491</v>
       </c>
-    </row>
-    <row r="100" spans="2:16" ht="17.7">
+      <c r="V99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="2:22" ht="17.7">
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
@@ -3058,8 +4019,11 @@
       <c r="N100">
         <v>548</v>
       </c>
-    </row>
-    <row r="101" spans="2:16" ht="17.7">
+      <c r="V100" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" ht="17.7">
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
@@ -3089,8 +4053,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="102" spans="2:16" ht="17.7">
+      <c r="V101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="2:22" ht="17.7">
       <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
@@ -3106,8 +4073,11 @@
       <c r="N102">
         <v>966</v>
       </c>
-    </row>
-    <row r="103" spans="2:16" ht="17.7">
+      <c r="V102" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" ht="17.7">
       <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
@@ -3123,8 +4093,11 @@
       <c r="N103">
         <v>1473</v>
       </c>
-    </row>
-    <row r="104" spans="2:16" ht="17.7">
+      <c r="V103" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" ht="17.7">
       <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
@@ -3140,8 +4113,11 @@
       <c r="N104">
         <v>1938</v>
       </c>
-    </row>
-    <row r="105" spans="2:16" ht="17.7">
+      <c r="V104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="2:22" ht="17.7">
       <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
@@ -3157,8 +4133,11 @@
       <c r="N105">
         <v>2537</v>
       </c>
-    </row>
-    <row r="106" spans="2:16" ht="17.7">
+      <c r="V105" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22" ht="17.7">
       <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
@@ -3174,8 +4153,11 @@
       <c r="N106">
         <v>2996</v>
       </c>
-    </row>
-    <row r="107" spans="2:16" ht="17.7">
+      <c r="V106" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22" ht="17.7">
       <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
@@ -3191,8 +4173,11 @@
       <c r="N107">
         <v>3366</v>
       </c>
-    </row>
-    <row r="108" spans="2:16" ht="17.7">
+      <c r="V107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22" ht="17.7">
       <c r="B108" s="1" t="s">
         <v>108</v>
       </c>
@@ -3208,8 +4193,11 @@
       <c r="N108">
         <v>4039</v>
       </c>
-    </row>
-    <row r="109" spans="2:16" ht="17.7">
+      <c r="V108" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22" ht="17.7">
       <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
@@ -3225,8 +4213,11 @@
       <c r="N109">
         <v>4442</v>
       </c>
-    </row>
-    <row r="110" spans="2:16" ht="17.7">
+      <c r="V109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22" ht="17.7">
       <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
@@ -3242,8 +4233,11 @@
       <c r="N110">
         <v>5041</v>
       </c>
-    </row>
-    <row r="111" spans="2:16" ht="17.7">
+      <c r="V110" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" ht="17.7">
       <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
@@ -3273,8 +4267,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="112" spans="2:16" ht="17.7">
+      <c r="V111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="2:22" ht="17.7">
       <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
@@ -3290,8 +4287,11 @@
       <c r="N112">
         <v>9577</v>
       </c>
-    </row>
-    <row r="113" spans="2:16" ht="17.7">
+      <c r="V112" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="2:22" ht="17.7">
       <c r="B113" s="1" t="s">
         <v>113</v>
       </c>
@@ -3307,8 +4307,11 @@
       <c r="N113">
         <v>14048</v>
       </c>
-    </row>
-    <row r="114" spans="2:16" ht="17.7">
+      <c r="V113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22" ht="17.7">
       <c r="B114" s="1" t="s">
         <v>114</v>
       </c>
@@ -3324,8 +4327,11 @@
       <c r="N114">
         <v>19625</v>
       </c>
-    </row>
-    <row r="115" spans="2:16" ht="17.7">
+      <c r="V114" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="2:22" ht="17.7">
       <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
@@ -3341,8 +4347,11 @@
       <c r="N115">
         <v>24620</v>
       </c>
-    </row>
-    <row r="116" spans="2:16" ht="17.7">
+      <c r="V115" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="2:22" ht="17.7">
       <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
@@ -3358,8 +4367,11 @@
       <c r="N116">
         <v>28998</v>
       </c>
-    </row>
-    <row r="117" spans="2:16" ht="17.7">
+      <c r="V116" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="2:22" ht="17.7">
       <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
@@ -3375,8 +4387,11 @@
       <c r="N117">
         <v>33174</v>
       </c>
-    </row>
-    <row r="118" spans="2:16" ht="17.7">
+      <c r="V117" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="2:22" ht="17.7">
       <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
@@ -3392,8 +4407,11 @@
       <c r="N118">
         <v>37858</v>
       </c>
-    </row>
-    <row r="119" spans="2:16" ht="17.7">
+      <c r="V118" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="2:22" ht="17.7">
       <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
@@ -3409,8 +4427,11 @@
       <c r="N119">
         <v>44497</v>
       </c>
-    </row>
-    <row r="120" spans="2:16" ht="17.7">
+      <c r="V119" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="2:22" ht="17.7">
       <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
@@ -3426,8 +4447,11 @@
       <c r="N120">
         <v>48294</v>
       </c>
-    </row>
-    <row r="121" spans="2:16" ht="17.7">
+      <c r="V120" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="2:22" ht="17.7">
       <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
@@ -3457,8 +4481,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="122" spans="2:16" ht="17.7">
+      <c r="V121" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="2:22" ht="17.7">
       <c r="B122" s="2" t="s">
         <v>122</v>
       </c>
@@ -3474,8 +4501,11 @@
       <c r="N122">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="2:16" ht="17.7">
+      <c r="V122" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="2:22" ht="17.7">
       <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
@@ -3491,8 +4521,11 @@
       <c r="N123">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="2:16" ht="17.7">
+      <c r="V123" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="2:22" ht="17.7">
       <c r="B124" s="2" t="s">
         <v>124</v>
       </c>
@@ -3508,8 +4541,11 @@
       <c r="N124">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="2:16" ht="17.7">
+      <c r="V124" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="2:22" ht="17.7">
       <c r="B125" s="2" t="s">
         <v>125</v>
       </c>
@@ -3525,8 +4561,11 @@
       <c r="N125">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="2:16" ht="17.7">
+      <c r="V125" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="2:22" ht="17.7">
       <c r="B126" s="2" t="s">
         <v>126</v>
       </c>
@@ -3542,8 +4581,11 @@
       <c r="N126">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="2:16" ht="17.7">
+      <c r="V126" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="2:22" ht="17.7">
       <c r="B127" s="2" t="s">
         <v>127</v>
       </c>
@@ -3559,8 +4601,11 @@
       <c r="N127">
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="2:16" ht="17.7">
+      <c r="V127" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="2:22" ht="17.7">
       <c r="B128" s="2" t="s">
         <v>128</v>
       </c>
@@ -3576,8 +4621,11 @@
       <c r="N128">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="2:16" ht="17.7">
+      <c r="V128" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="2:22" ht="17.7">
       <c r="B129" s="2" t="s">
         <v>129</v>
       </c>
@@ -3593,8 +4641,11 @@
       <c r="N129">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="2:16" ht="17.7">
+      <c r="V129" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="2:22" ht="17.7">
       <c r="B130" s="2" t="s">
         <v>130</v>
       </c>
@@ -3610,8 +4661,11 @@
       <c r="N130">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="2:16" ht="17.7">
+      <c r="V130" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="2:22" ht="17.7">
       <c r="B131" s="2" t="s">
         <v>131</v>
       </c>
@@ -3625,7 +4679,7 @@
         <v>100</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H130:H193" si="2">AVERAGE(E131:E140)</f>
+        <f t="shared" ref="H131:H191" si="2">AVERAGE(E131:E140)</f>
         <v>4.9018859863281194E-5</v>
       </c>
       <c r="M131">
@@ -3641,8 +4695,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="132" spans="2:16" ht="17.7">
+      <c r="V131" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="2:22" ht="17.7">
       <c r="B132" s="2" t="s">
         <v>132</v>
       </c>
@@ -3658,8 +4715,11 @@
       <c r="N132">
         <v>66</v>
       </c>
-    </row>
-    <row r="133" spans="2:16" ht="17.7">
+      <c r="V132" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="2:22" ht="17.7">
       <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
@@ -3675,8 +4735,11 @@
       <c r="N133">
         <v>34</v>
       </c>
-    </row>
-    <row r="134" spans="2:16" ht="17.7">
+      <c r="V133" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="2:22" ht="17.7">
       <c r="B134" s="2" t="s">
         <v>134</v>
       </c>
@@ -3692,8 +4755,11 @@
       <c r="N134">
         <v>44</v>
       </c>
-    </row>
-    <row r="135" spans="2:16" ht="17.7">
+      <c r="V134" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="2:22" ht="17.7">
       <c r="B135" s="2" t="s">
         <v>135</v>
       </c>
@@ -3709,8 +4775,11 @@
       <c r="N135">
         <v>28</v>
       </c>
-    </row>
-    <row r="136" spans="2:16" ht="17.7">
+      <c r="V135" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="2:22" ht="17.7">
       <c r="B136" s="2" t="s">
         <v>136</v>
       </c>
@@ -3726,8 +4795,11 @@
       <c r="N136">
         <v>95</v>
       </c>
-    </row>
-    <row r="137" spans="2:16" ht="17.7">
+      <c r="V136" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="2:22" ht="17.7">
       <c r="B137" s="2" t="s">
         <v>137</v>
       </c>
@@ -3743,8 +4815,11 @@
       <c r="N137">
         <v>72</v>
       </c>
-    </row>
-    <row r="138" spans="2:16" ht="17.7">
+      <c r="V137" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="2:22" ht="17.7">
       <c r="B138" s="2" t="s">
         <v>138</v>
       </c>
@@ -3760,8 +4835,11 @@
       <c r="N138">
         <v>40</v>
       </c>
-    </row>
-    <row r="139" spans="2:16" ht="17.7">
+      <c r="V138" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="2:22" ht="17.7">
       <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
@@ -3777,8 +4855,11 @@
       <c r="N139">
         <v>28</v>
       </c>
-    </row>
-    <row r="140" spans="2:16" ht="17.7">
+      <c r="V139" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="2:22" ht="17.7">
       <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
@@ -3794,8 +4875,11 @@
       <c r="N140">
         <v>35</v>
       </c>
-    </row>
-    <row r="141" spans="2:16" ht="17.7">
+      <c r="V140" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="2:22" ht="17.7">
       <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
@@ -3825,8 +4909,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="142" spans="2:16" ht="17.7">
+      <c r="V141" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="2:22" ht="17.7">
       <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
@@ -3842,8 +4929,11 @@
       <c r="N142">
         <v>897</v>
       </c>
-    </row>
-    <row r="143" spans="2:16" ht="17.7">
+      <c r="V142" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="2:22" ht="17.7">
       <c r="B143" s="2" t="s">
         <v>143</v>
       </c>
@@ -3859,8 +4949,11 @@
       <c r="N143">
         <v>676</v>
       </c>
-    </row>
-    <row r="144" spans="2:16" ht="17.7">
+      <c r="V143" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="2:22" ht="17.7">
       <c r="B144" s="2" t="s">
         <v>144</v>
       </c>
@@ -3876,8 +4969,11 @@
       <c r="N144">
         <v>437</v>
       </c>
-    </row>
-    <row r="145" spans="2:16" ht="17.7">
+      <c r="V144" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="2:22" ht="17.7">
       <c r="B145" s="2" t="s">
         <v>145</v>
       </c>
@@ -3893,8 +4989,11 @@
       <c r="N145">
         <v>940</v>
       </c>
-    </row>
-    <row r="146" spans="2:16" ht="17.7">
+      <c r="V145" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="2:22" ht="17.7">
       <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
@@ -3910,8 +5009,11 @@
       <c r="N146">
         <v>730</v>
       </c>
-    </row>
-    <row r="147" spans="2:16" ht="17.7">
+      <c r="V146" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="2:22" ht="17.7">
       <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
@@ -3927,8 +5029,11 @@
       <c r="N147">
         <v>307</v>
       </c>
-    </row>
-    <row r="148" spans="2:16" ht="17.7">
+      <c r="V147" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="2:22" ht="17.7">
       <c r="B148" s="2" t="s">
         <v>148</v>
       </c>
@@ -3944,8 +5049,11 @@
       <c r="N148">
         <v>907</v>
       </c>
-    </row>
-    <row r="149" spans="2:16" ht="17.7">
+      <c r="V148" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="2:22" ht="17.7">
       <c r="B149" s="2" t="s">
         <v>149</v>
       </c>
@@ -3961,8 +5069,11 @@
       <c r="N149">
         <v>869</v>
       </c>
-    </row>
-    <row r="150" spans="2:16" ht="17.7">
+      <c r="V149" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="2:22" ht="17.7">
       <c r="B150" s="2" t="s">
         <v>150</v>
       </c>
@@ -3978,8 +5089,11 @@
       <c r="N150">
         <v>845</v>
       </c>
-    </row>
-    <row r="151" spans="2:16" ht="17.7">
+      <c r="V150" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="2:22" ht="17.7">
       <c r="B151" s="1" t="s">
         <v>151</v>
       </c>
@@ -4009,8 +5123,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="152" spans="2:16" ht="17.7">
+      <c r="V151" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="2:22" ht="17.7">
       <c r="B152" s="1" t="s">
         <v>152</v>
       </c>
@@ -4026,8 +5143,11 @@
       <c r="N152">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" spans="2:16" ht="17.7">
+      <c r="V152" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="2:22" ht="17.7">
       <c r="B153" s="1" t="s">
         <v>153</v>
       </c>
@@ -4043,8 +5163,11 @@
       <c r="N153">
         <v>32</v>
       </c>
-    </row>
-    <row r="154" spans="2:16" ht="17.7">
+      <c r="V153" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="2:22" ht="17.7">
       <c r="B154" s="1" t="s">
         <v>154</v>
       </c>
@@ -4060,8 +5183,11 @@
       <c r="N154">
         <v>43</v>
       </c>
-    </row>
-    <row r="155" spans="2:16" ht="17.7">
+      <c r="V154" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="2:22" ht="17.7">
       <c r="B155" s="1" t="s">
         <v>155</v>
       </c>
@@ -4077,8 +5203,11 @@
       <c r="N155">
         <v>48</v>
       </c>
-    </row>
-    <row r="156" spans="2:16" ht="17.7">
+      <c r="V155" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="2:22" ht="17.7">
       <c r="B156" s="1" t="s">
         <v>156</v>
       </c>
@@ -4094,8 +5223,11 @@
       <c r="N156">
         <v>58</v>
       </c>
-    </row>
-    <row r="157" spans="2:16" ht="17.7">
+      <c r="V156" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="2:22" ht="17.7">
       <c r="B157" s="1" t="s">
         <v>157</v>
       </c>
@@ -4111,8 +5243,11 @@
       <c r="N157">
         <v>72</v>
       </c>
-    </row>
-    <row r="158" spans="2:16" ht="17.7">
+      <c r="V157" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="2:22" ht="17.7">
       <c r="B158" s="1" t="s">
         <v>158</v>
       </c>
@@ -4128,8 +5263,11 @@
       <c r="N158">
         <v>86</v>
       </c>
-    </row>
-    <row r="159" spans="2:16" ht="17.7">
+      <c r="V158" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="2:22" ht="17.7">
       <c r="B159" s="1" t="s">
         <v>159</v>
       </c>
@@ -4145,8 +5283,11 @@
       <c r="N159">
         <v>99</v>
       </c>
-    </row>
-    <row r="160" spans="2:16" ht="17.7">
+      <c r="V159" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="2:22" ht="17.7">
       <c r="B160" s="1" t="s">
         <v>160</v>
       </c>
@@ -4162,8 +5303,11 @@
       <c r="N160">
         <v>107</v>
       </c>
-    </row>
-    <row r="161" spans="2:16" ht="17.7">
+      <c r="V160" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="2:22" ht="17.7">
       <c r="B161" s="1" t="s">
         <v>161</v>
       </c>
@@ -4193,8 +5337,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="162" spans="2:16" ht="17.7">
+      <c r="V161" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="2:22" ht="17.7">
       <c r="B162" s="1" t="s">
         <v>162</v>
       </c>
@@ -4210,8 +5357,11 @@
       <c r="N162">
         <v>153</v>
       </c>
-    </row>
-    <row r="163" spans="2:16" ht="17.7">
+      <c r="V162" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="2:22" ht="17.7">
       <c r="B163" s="1" t="s">
         <v>163</v>
       </c>
@@ -4227,8 +5377,11 @@
       <c r="N163">
         <v>266</v>
       </c>
-    </row>
-    <row r="164" spans="2:16" ht="17.7">
+      <c r="V163" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="2:22" ht="17.7">
       <c r="B164" s="1" t="s">
         <v>164</v>
       </c>
@@ -4244,8 +5397,11 @@
       <c r="N164">
         <v>371</v>
       </c>
-    </row>
-    <row r="165" spans="2:16" ht="17.7">
+      <c r="V164" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="2:22" ht="17.7">
       <c r="B165" s="1" t="s">
         <v>165</v>
       </c>
@@ -4261,8 +5417,11 @@
       <c r="N165">
         <v>498</v>
       </c>
-    </row>
-    <row r="166" spans="2:16" ht="17.7">
+      <c r="V165" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="2:22" ht="17.7">
       <c r="B166" s="1" t="s">
         <v>166</v>
       </c>
@@ -4278,8 +5437,11 @@
       <c r="N166">
         <v>537</v>
       </c>
-    </row>
-    <row r="167" spans="2:16" ht="17.7">
+      <c r="V166" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="2:22" ht="17.7">
       <c r="B167" s="1" t="s">
         <v>167</v>
       </c>
@@ -4295,8 +5457,11 @@
       <c r="N167">
         <v>690</v>
       </c>
-    </row>
-    <row r="168" spans="2:16" ht="17.7">
+      <c r="V167" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="2:22" ht="17.7">
       <c r="B168" s="1" t="s">
         <v>168</v>
       </c>
@@ -4312,8 +5477,11 @@
       <c r="N168">
         <v>784</v>
       </c>
-    </row>
-    <row r="169" spans="2:16" ht="17.7">
+      <c r="V168" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="2:22" ht="17.7">
       <c r="B169" s="1" t="s">
         <v>169</v>
       </c>
@@ -4329,8 +5497,11 @@
       <c r="N169">
         <v>858</v>
       </c>
-    </row>
-    <row r="170" spans="2:16" ht="17.7">
+      <c r="V169" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="2:22" ht="17.7">
       <c r="B170" s="1" t="s">
         <v>170</v>
       </c>
@@ -4346,8 +5517,11 @@
       <c r="N170">
         <v>1053</v>
       </c>
-    </row>
-    <row r="171" spans="2:16" ht="17.7">
+      <c r="V170" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="2:22" ht="17.7">
       <c r="B171" s="1" t="s">
         <v>171</v>
       </c>
@@ -4377,8 +5551,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="172" spans="2:16" ht="17.7">
+      <c r="V171" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="2:22" ht="17.7">
       <c r="B172" s="1" t="s">
         <v>172</v>
       </c>
@@ -4394,8 +5571,11 @@
       <c r="N172">
         <v>1403</v>
       </c>
-    </row>
-    <row r="173" spans="2:16" ht="17.7">
+      <c r="V172" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="2:22" ht="17.7">
       <c r="B173" s="1" t="s">
         <v>173</v>
       </c>
@@ -4411,8 +5591,11 @@
       <c r="N173">
         <v>4011</v>
       </c>
-    </row>
-    <row r="174" spans="2:16" ht="17.7">
+      <c r="V173" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="2:22" ht="17.7">
       <c r="B174" s="1" t="s">
         <v>174</v>
       </c>
@@ -4428,8 +5611,11 @@
       <c r="N174">
         <v>3319</v>
       </c>
-    </row>
-    <row r="175" spans="2:16" ht="17.7">
+      <c r="V174" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="2:22" ht="17.7">
       <c r="B175" s="1" t="s">
         <v>175</v>
       </c>
@@ -4445,8 +5631,11 @@
       <c r="N175">
         <v>4773</v>
       </c>
-    </row>
-    <row r="176" spans="2:16" ht="17.7">
+      <c r="V175" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="2:22" ht="17.7">
       <c r="B176" s="1" t="s">
         <v>176</v>
       </c>
@@ -4462,8 +5651,11 @@
       <c r="N176">
         <v>5399</v>
       </c>
-    </row>
-    <row r="177" spans="2:16" ht="17.7">
+      <c r="V176" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="2:22" ht="17.7">
       <c r="B177" s="1" t="s">
         <v>177</v>
       </c>
@@ -4479,8 +5671,11 @@
       <c r="N177">
         <v>6089</v>
       </c>
-    </row>
-    <row r="178" spans="2:16" ht="17.7">
+      <c r="V177" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="2:22" ht="17.7">
       <c r="B178" s="1" t="s">
         <v>178</v>
       </c>
@@ -4496,8 +5691,11 @@
       <c r="N178">
         <v>6958</v>
       </c>
-    </row>
-    <row r="179" spans="2:16" ht="17.7">
+      <c r="V178" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="2:22" ht="17.7">
       <c r="B179" s="1" t="s">
         <v>179</v>
       </c>
@@ -4513,8 +5711,11 @@
       <c r="N179">
         <v>9233</v>
       </c>
-    </row>
-    <row r="180" spans="2:16" ht="17.7">
+      <c r="V179" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="2:22" ht="17.7">
       <c r="B180" s="1" t="s">
         <v>180</v>
       </c>
@@ -4530,8 +5731,11 @@
       <c r="N180">
         <v>9071</v>
       </c>
-    </row>
-    <row r="181" spans="2:16" ht="17.7">
+      <c r="V180" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="2:22" ht="17.7">
       <c r="B181" s="1" t="s">
         <v>181</v>
       </c>
@@ -4561,8 +5765,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="182" spans="2:16" ht="17.7">
+      <c r="V181" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="2:22" ht="17.7">
       <c r="B182" s="1" t="s">
         <v>182</v>
       </c>
@@ -4578,8 +5785,11 @@
       <c r="N182">
         <v>218</v>
       </c>
-    </row>
-    <row r="183" spans="2:16" ht="17.7">
+      <c r="V182" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="2:22" ht="17.7">
       <c r="B183" s="1" t="s">
         <v>183</v>
       </c>
@@ -4595,8 +5805,11 @@
       <c r="N183">
         <v>325</v>
       </c>
-    </row>
-    <row r="184" spans="2:16" ht="17.7">
+      <c r="V183" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="2:22" ht="17.7">
       <c r="B184" s="1" t="s">
         <v>184</v>
       </c>
@@ -4612,8 +5825,11 @@
       <c r="N184">
         <v>439</v>
       </c>
-    </row>
-    <row r="185" spans="2:16" ht="17.7">
+      <c r="V184" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="2:22" ht="17.7">
       <c r="B185" s="1" t="s">
         <v>185</v>
       </c>
@@ -4629,8 +5845,11 @@
       <c r="N185">
         <v>543</v>
       </c>
-    </row>
-    <row r="186" spans="2:16" ht="17.7">
+      <c r="V185" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="2:22" ht="17.7">
       <c r="B186" s="1" t="s">
         <v>186</v>
       </c>
@@ -4646,8 +5865,11 @@
       <c r="N186">
         <v>646</v>
       </c>
-    </row>
-    <row r="187" spans="2:16" ht="17.7">
+      <c r="V186" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="2:22" ht="17.7">
       <c r="B187" s="1" t="s">
         <v>187</v>
       </c>
@@ -4663,8 +5885,11 @@
       <c r="N187">
         <v>882</v>
       </c>
-    </row>
-    <row r="188" spans="2:16" ht="17.7">
+      <c r="V187" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="2:22" ht="17.7">
       <c r="B188" s="1" t="s">
         <v>188</v>
       </c>
@@ -4680,8 +5905,11 @@
       <c r="N188">
         <v>871</v>
       </c>
-    </row>
-    <row r="189" spans="2:16" ht="17.7">
+      <c r="V188" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="2:22" ht="17.7">
       <c r="B189" s="1" t="s">
         <v>189</v>
       </c>
@@ -4697,8 +5925,11 @@
       <c r="N189">
         <v>967</v>
       </c>
-    </row>
-    <row r="190" spans="2:16" ht="17.7">
+      <c r="V189" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="2:22" ht="17.7">
       <c r="B190" s="1" t="s">
         <v>190</v>
       </c>
@@ -4714,8 +5945,11 @@
       <c r="N190">
         <v>1104</v>
       </c>
-    </row>
-    <row r="191" spans="2:16" ht="17.7">
+      <c r="V190" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="2:22" ht="17.7">
       <c r="B191" s="1" t="s">
         <v>191</v>
       </c>
@@ -4745,8 +5979,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="192" spans="2:16" ht="17.7">
+      <c r="V191" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="2:22" ht="17.7">
       <c r="B192" s="1" t="s">
         <v>192</v>
       </c>
@@ -4762,8 +5999,11 @@
       <c r="N192">
         <v>1976</v>
       </c>
-    </row>
-    <row r="193" spans="2:16" ht="17.7">
+      <c r="V192" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="2:22" ht="17.7">
       <c r="B193" s="1" t="s">
         <v>193</v>
       </c>
@@ -4779,8 +6019,11 @@
       <c r="N193">
         <v>2888</v>
       </c>
-    </row>
-    <row r="194" spans="2:16" ht="17.7">
+      <c r="V193" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="2:22" ht="17.7">
       <c r="B194" s="1" t="s">
         <v>194</v>
       </c>
@@ -4796,8 +6039,11 @@
       <c r="N194">
         <v>3984</v>
       </c>
-    </row>
-    <row r="195" spans="2:16" ht="17.7">
+      <c r="V194" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="2:22" ht="17.7">
       <c r="B195" s="1" t="s">
         <v>195</v>
       </c>
@@ -4813,8 +6059,11 @@
       <c r="N195">
         <v>4997</v>
       </c>
-    </row>
-    <row r="196" spans="2:16" ht="17.7">
+      <c r="V195" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="2:22" ht="17.7">
       <c r="B196" s="1" t="s">
         <v>196</v>
       </c>
@@ -4830,8 +6079,11 @@
       <c r="N196">
         <v>5998</v>
       </c>
-    </row>
-    <row r="197" spans="2:16" ht="17.7">
+      <c r="V196" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="2:22" ht="17.7">
       <c r="B197" s="1" t="s">
         <v>197</v>
       </c>
@@ -4847,8 +6099,11 @@
       <c r="N197">
         <v>6805</v>
       </c>
-    </row>
-    <row r="198" spans="2:16" ht="17.7">
+      <c r="V197" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="2:22" ht="17.7">
       <c r="B198" s="1" t="s">
         <v>198</v>
       </c>
@@ -4864,8 +6119,11 @@
       <c r="N198">
         <v>8134</v>
       </c>
-    </row>
-    <row r="199" spans="2:16" ht="17.7">
+      <c r="V198" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="2:22" ht="17.7">
       <c r="B199" s="1" t="s">
         <v>199</v>
       </c>
@@ -4881,8 +6139,11 @@
       <c r="N199">
         <v>9202</v>
       </c>
-    </row>
-    <row r="200" spans="2:16" ht="17.7">
+      <c r="V199" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="2:22" ht="17.7">
       <c r="B200" s="1" t="s">
         <v>200</v>
       </c>
@@ -4898,8 +6159,11 @@
       <c r="N200">
         <v>10202</v>
       </c>
-    </row>
-    <row r="201" spans="2:16" ht="17.7">
+      <c r="V200" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="2:22" ht="17.7">
       <c r="B201" s="1" t="s">
         <v>201</v>
       </c>
@@ -4913,7 +6177,7 @@
         <v>1000</v>
       </c>
       <c r="H201">
-        <f t="shared" ref="H194:H211" si="3">AVERAGE(E201:E210)</f>
+        <f t="shared" ref="H201" si="3">AVERAGE(E201:E210)</f>
         <v>2.1454572677612259E-3</v>
       </c>
       <c r="M201">
@@ -4929,8 +6193,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="202" spans="2:16" ht="17.7">
+      <c r="V201" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="2:22" ht="17.7">
       <c r="B202" s="1" t="s">
         <v>202</v>
       </c>
@@ -4946,8 +6213,11 @@
       <c r="N202">
         <v>19291</v>
       </c>
-    </row>
-    <row r="203" spans="2:16" ht="17.7">
+      <c r="V202" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="2:22" ht="17.7">
       <c r="B203" s="1" t="s">
         <v>203</v>
       </c>
@@ -4963,8 +6233,11 @@
       <c r="N203">
         <v>28788</v>
       </c>
-    </row>
-    <row r="204" spans="2:16" ht="17.7">
+      <c r="V203" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="2:22" ht="17.7">
       <c r="B204" s="1" t="s">
         <v>204</v>
       </c>
@@ -4980,8 +6253,11 @@
       <c r="N204">
         <v>38854</v>
       </c>
-    </row>
-    <row r="205" spans="2:16" ht="17.7">
+      <c r="V204" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="2:22" ht="17.7">
       <c r="B205" s="1" t="s">
         <v>205</v>
       </c>
@@ -4997,8 +6273,11 @@
       <c r="N205">
         <v>49957</v>
       </c>
-    </row>
-    <row r="206" spans="2:16" ht="17.7">
+      <c r="V205" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="2:22" ht="17.7">
       <c r="B206" s="1" t="s">
         <v>206</v>
       </c>
@@ -5014,8 +6293,11 @@
       <c r="N206">
         <v>59308</v>
       </c>
-    </row>
-    <row r="207" spans="2:16" ht="17.7">
+      <c r="V206" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="2:22" ht="17.7">
       <c r="B207" s="1" t="s">
         <v>207</v>
       </c>
@@ -5031,8 +6313,11 @@
       <c r="N207">
         <v>69155</v>
       </c>
-    </row>
-    <row r="208" spans="2:16" ht="17.7">
+      <c r="V207" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="2:22" ht="17.7">
       <c r="B208" s="1" t="s">
         <v>208</v>
       </c>
@@ -5048,8 +6333,11 @@
       <c r="N208">
         <v>77716</v>
       </c>
-    </row>
-    <row r="209" spans="2:16" ht="17.7">
+      <c r="V208" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="2:22" ht="17.7">
       <c r="B209" s="1" t="s">
         <v>209</v>
       </c>
@@ -5065,8 +6353,11 @@
       <c r="N209">
         <v>89704</v>
       </c>
-    </row>
-    <row r="210" spans="2:16" ht="17.7">
+      <c r="V209" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="2:22" ht="17.7">
       <c r="B210" s="1" t="s">
         <v>210</v>
       </c>
@@ -5082,8 +6373,11 @@
       <c r="N210">
         <v>99220</v>
       </c>
-    </row>
-    <row r="211" spans="2:16" ht="17.7">
+      <c r="V210" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="2:22" ht="17.7">
       <c r="B211" s="2" t="s">
         <v>211</v>
       </c>
@@ -5113,8 +6407,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="212" spans="2:16" ht="17.7">
+      <c r="V211" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="2:22" ht="17.7">
       <c r="B212" s="2" t="s">
         <v>212</v>
       </c>
@@ -5131,8 +6428,11 @@
       <c r="N212">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="2:16" ht="17.7">
+      <c r="V212" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="2:22" ht="17.7">
       <c r="B213" s="2" t="s">
         <v>213</v>
       </c>
@@ -5149,8 +6449,11 @@
       <c r="N213">
         <v>6</v>
       </c>
-    </row>
-    <row r="214" spans="2:16" ht="17.7">
+      <c r="V213" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="2:22" ht="17.7">
       <c r="B214" s="2" t="s">
         <v>214</v>
       </c>
@@ -5167,8 +6470,11 @@
       <c r="N214">
         <v>7</v>
       </c>
-    </row>
-    <row r="215" spans="2:16" ht="17.7">
+      <c r="V214" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="2:22" ht="17.7">
       <c r="B215" s="2" t="s">
         <v>215</v>
       </c>
@@ -5185,8 +6491,11 @@
       <c r="N215">
         <v>14</v>
       </c>
-    </row>
-    <row r="216" spans="2:16" ht="17.7">
+      <c r="V215" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="2:22" ht="17.7">
       <c r="B216" s="2" t="s">
         <v>216</v>
       </c>
@@ -5203,8 +6512,11 @@
       <c r="N216">
         <v>11</v>
       </c>
-    </row>
-    <row r="217" spans="2:16" ht="17.7">
+      <c r="V216" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="2:22" ht="17.7">
       <c r="B217" s="2" t="s">
         <v>217</v>
       </c>
@@ -5221,8 +6533,11 @@
       <c r="N217">
         <v>13</v>
       </c>
-    </row>
-    <row r="218" spans="2:16" ht="17.7">
+      <c r="V217" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="2:22" ht="17.7">
       <c r="B218" s="2" t="s">
         <v>218</v>
       </c>
@@ -5239,8 +6554,11 @@
       <c r="N218">
         <v>20</v>
       </c>
-    </row>
-    <row r="219" spans="2:16" ht="17.7">
+      <c r="V218" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="2:22" ht="17.7">
       <c r="B219" s="1" t="s">
         <v>219</v>
       </c>
@@ -5257,8 +6575,11 @@
       <c r="N219">
         <v>27</v>
       </c>
-    </row>
-    <row r="220" spans="2:16" ht="17.7">
+      <c r="V219" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="2:22" ht="17.7">
       <c r="B220" s="2" t="s">
         <v>220</v>
       </c>
@@ -5275,8 +6596,11 @@
       <c r="N220">
         <v>23</v>
       </c>
-    </row>
-    <row r="221" spans="2:16" ht="17.7">
+      <c r="V220" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="2:22" ht="17.7">
       <c r="B221" s="2" t="s">
         <v>221</v>
       </c>
@@ -5290,7 +6614,7 @@
         <v>100</v>
       </c>
       <c r="H221" s="3">
-        <f t="shared" ref="H212:H270" si="4">AVERAGE(E221:E230)</f>
+        <f t="shared" ref="H221:H261" si="4">AVERAGE(E221:E230)</f>
         <v>6.480216979980465E-5</v>
       </c>
       <c r="M221" s="3">
@@ -5306,8 +6630,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="222" spans="2:16" ht="17.7">
+      <c r="V221" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="2:22" ht="17.7">
       <c r="B222" s="2" t="s">
         <v>222</v>
       </c>
@@ -5324,8 +6651,11 @@
       <c r="N222">
         <v>94</v>
       </c>
-    </row>
-    <row r="223" spans="2:16" ht="17.7">
+      <c r="V222" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="2:22" ht="17.7">
       <c r="B223" s="2" t="s">
         <v>223</v>
       </c>
@@ -5342,8 +6672,11 @@
       <c r="N223">
         <v>82</v>
       </c>
-    </row>
-    <row r="224" spans="2:16" ht="17.7">
+      <c r="V223" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="2:22" ht="17.7">
       <c r="B224" s="2" t="s">
         <v>224</v>
       </c>
@@ -5360,8 +6693,11 @@
       <c r="N224">
         <v>83</v>
       </c>
-    </row>
-    <row r="225" spans="2:16" ht="17.7">
+      <c r="V224" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="2:22" ht="17.7">
       <c r="B225" s="2" t="s">
         <v>225</v>
       </c>
@@ -5378,8 +6714,11 @@
       <c r="N225">
         <v>64</v>
       </c>
-    </row>
-    <row r="226" spans="2:16" ht="17.7">
+      <c r="V225" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="2:22" ht="17.7">
       <c r="B226" s="2" t="s">
         <v>226</v>
       </c>
@@ -5396,8 +6735,11 @@
       <c r="N226">
         <v>111</v>
       </c>
-    </row>
-    <row r="227" spans="2:16" ht="17.7">
+      <c r="V226" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="2:22" ht="17.7">
       <c r="B227" s="2" t="s">
         <v>227</v>
       </c>
@@ -5414,8 +6756,11 @@
       <c r="N227">
         <v>81</v>
       </c>
-    </row>
-    <row r="228" spans="2:16" ht="17.7">
+      <c r="V227" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="2:22" ht="17.7">
       <c r="B228" s="2" t="s">
         <v>228</v>
       </c>
@@ -5432,8 +6777,11 @@
       <c r="N228">
         <v>185</v>
       </c>
-    </row>
-    <row r="229" spans="2:16" ht="17.7">
+      <c r="V228" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="2:22" ht="17.7">
       <c r="B229" s="2" t="s">
         <v>229</v>
       </c>
@@ -5450,8 +6798,11 @@
       <c r="N229">
         <v>263</v>
       </c>
-    </row>
-    <row r="230" spans="2:16" ht="17.7">
+      <c r="V229" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="2:22" ht="17.7">
       <c r="B230" s="2" t="s">
         <v>230</v>
       </c>
@@ -5468,8 +6819,11 @@
       <c r="N230">
         <v>213</v>
       </c>
-    </row>
-    <row r="231" spans="2:16" ht="17.7">
+      <c r="V230" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="2:22" ht="17.7">
       <c r="B231" s="2" t="s">
         <v>231</v>
       </c>
@@ -5499,8 +6853,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="232" spans="2:16" ht="17.7">
+      <c r="V231" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="2:22" ht="17.7">
       <c r="B232" s="2" t="s">
         <v>232</v>
       </c>
@@ -5517,8 +6874,11 @@
       <c r="N232">
         <v>749</v>
       </c>
-    </row>
-    <row r="233" spans="2:16" ht="17.7">
+      <c r="V232" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="2:22" ht="17.7">
       <c r="B233" s="2" t="s">
         <v>233</v>
       </c>
@@ -5535,8 +6895,11 @@
       <c r="N233">
         <v>673</v>
       </c>
-    </row>
-    <row r="234" spans="2:16" ht="17.7">
+      <c r="V233" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="2:22" ht="17.7">
       <c r="B234" s="2" t="s">
         <v>234</v>
       </c>
@@ -5553,8 +6916,11 @@
       <c r="N234">
         <v>422</v>
       </c>
-    </row>
-    <row r="235" spans="2:16" ht="17.7">
+      <c r="V234" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="2:22" ht="17.7">
       <c r="B235" s="2" t="s">
         <v>235</v>
       </c>
@@ -5571,8 +6937,11 @@
       <c r="N235">
         <v>238</v>
       </c>
-    </row>
-    <row r="236" spans="2:16" ht="17.7">
+      <c r="V235" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="2:22" ht="17.7">
       <c r="B236" s="2" t="s">
         <v>236</v>
       </c>
@@ -5589,8 +6958,11 @@
       <c r="N236">
         <v>1306</v>
       </c>
-    </row>
-    <row r="237" spans="2:16" ht="17.7">
+      <c r="V236" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="2:22" ht="17.7">
       <c r="B237" s="2" t="s">
         <v>237</v>
       </c>
@@ -5607,8 +6979,11 @@
       <c r="N237">
         <v>1717</v>
       </c>
-    </row>
-    <row r="238" spans="2:16" ht="17.7">
+      <c r="V237" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="2:22" ht="17.7">
       <c r="B238" s="2" t="s">
         <v>238</v>
       </c>
@@ -5625,8 +7000,11 @@
       <c r="N238">
         <v>1602</v>
       </c>
-    </row>
-    <row r="239" spans="2:16" ht="17.7">
+      <c r="V238" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="2:22" ht="17.7">
       <c r="B239" s="2" t="s">
         <v>239</v>
       </c>
@@ -5643,8 +7021,11 @@
       <c r="N239">
         <v>2253</v>
       </c>
-    </row>
-    <row r="240" spans="2:16" ht="17.7">
+      <c r="V239" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="2:22" ht="17.7">
       <c r="B240" s="2" t="s">
         <v>240</v>
       </c>
@@ -5661,8 +7042,11 @@
       <c r="N240">
         <v>1856</v>
       </c>
-    </row>
-    <row r="241" spans="2:16" ht="17.7">
+      <c r="V240" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="2:22" ht="17.7">
       <c r="B241" s="1" t="s">
         <v>241</v>
       </c>
@@ -5692,8 +7076,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="242" spans="2:16" ht="17.7">
+      <c r="V241" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="2:22" ht="17.7">
       <c r="B242" s="1" t="s">
         <v>242</v>
       </c>
@@ -5710,8 +7097,11 @@
       <c r="N242">
         <v>55</v>
       </c>
-    </row>
-    <row r="243" spans="2:16" ht="17.7">
+      <c r="V242" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="2:22" ht="17.7">
       <c r="B243" s="1" t="s">
         <v>243</v>
       </c>
@@ -5728,8 +7118,11 @@
       <c r="N243">
         <v>81</v>
       </c>
-    </row>
-    <row r="244" spans="2:16" ht="17.7">
+      <c r="V243" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="2:22" ht="17.7">
       <c r="B244" s="1" t="s">
         <v>244</v>
       </c>
@@ -5746,8 +7139,11 @@
       <c r="N244">
         <v>107</v>
       </c>
-    </row>
-    <row r="245" spans="2:16" ht="17.7">
+      <c r="V244" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="2:22" ht="17.7">
       <c r="B245" s="1" t="s">
         <v>245</v>
       </c>
@@ -5764,8 +7160,11 @@
       <c r="N245">
         <v>133</v>
       </c>
-    </row>
-    <row r="246" spans="2:16" ht="17.7">
+      <c r="V245" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="2:22" ht="17.7">
       <c r="B246" s="1" t="s">
         <v>246</v>
       </c>
@@ -5782,8 +7181,11 @@
       <c r="N246">
         <v>162</v>
       </c>
-    </row>
-    <row r="247" spans="2:16" ht="17.7">
+      <c r="V246" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="2:22" ht="17.7">
       <c r="B247" s="1" t="s">
         <v>247</v>
       </c>
@@ -5800,8 +7202,11 @@
       <c r="N247">
         <v>175</v>
       </c>
-    </row>
-    <row r="248" spans="2:16" ht="17.7">
+      <c r="V247" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="2:22" ht="17.7">
       <c r="B248" s="1" t="s">
         <v>248</v>
       </c>
@@ -5818,8 +7223,11 @@
       <c r="N248">
         <v>213</v>
       </c>
-    </row>
-    <row r="249" spans="2:16" ht="17.7">
+      <c r="V248" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="2:22" ht="17.7">
       <c r="B249" s="1" t="s">
         <v>249</v>
       </c>
@@ -5836,8 +7244,11 @@
       <c r="N249">
         <v>244</v>
       </c>
-    </row>
-    <row r="250" spans="2:16" ht="17.7">
+      <c r="V249" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="2:22" ht="17.7">
       <c r="B250" s="1" t="s">
         <v>250</v>
       </c>
@@ -5854,8 +7265,11 @@
       <c r="N250">
         <v>272</v>
       </c>
-    </row>
-    <row r="251" spans="2:16" ht="17.7">
+      <c r="V250" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="2:22" ht="17.7">
       <c r="B251" s="1" t="s">
         <v>251</v>
       </c>
@@ -5885,8 +7299,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="252" spans="2:16" ht="17.7">
+      <c r="V251" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="2:22" ht="17.7">
       <c r="B252" s="1" t="s">
         <v>252</v>
       </c>
@@ -5903,8 +7320,11 @@
       <c r="N252">
         <v>484</v>
       </c>
-    </row>
-    <row r="253" spans="2:16" ht="17.7">
+      <c r="V252" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="2:22" ht="17.7">
       <c r="B253" s="1" t="s">
         <v>253</v>
       </c>
@@ -5921,8 +7341,11 @@
       <c r="N253">
         <v>673</v>
       </c>
-    </row>
-    <row r="254" spans="2:16" ht="17.7">
+      <c r="V253" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="2:22" ht="17.7">
       <c r="B254" s="1" t="s">
         <v>254</v>
       </c>
@@ -5939,8 +7362,11 @@
       <c r="N254">
         <v>928</v>
       </c>
-    </row>
-    <row r="255" spans="2:16" ht="17.7">
+      <c r="V254" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="2:22" ht="17.7">
       <c r="B255" s="1" t="s">
         <v>255</v>
       </c>
@@ -5957,8 +7383,11 @@
       <c r="N255">
         <v>1197</v>
       </c>
-    </row>
-    <row r="256" spans="2:16" ht="17.7">
+      <c r="V255" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="2:22" ht="17.7">
       <c r="B256" s="1" t="s">
         <v>256</v>
       </c>
@@ -5975,8 +7404,11 @@
       <c r="N256">
         <v>1492</v>
       </c>
-    </row>
-    <row r="257" spans="2:16" ht="17.7">
+      <c r="V256" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="2:22" ht="17.7">
       <c r="B257" s="1" t="s">
         <v>257</v>
       </c>
@@ -5993,8 +7425,11 @@
       <c r="N257">
         <v>1664</v>
       </c>
-    </row>
-    <row r="258" spans="2:16" ht="17.7">
+      <c r="V257" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="2:22" ht="17.7">
       <c r="B258" s="1" t="s">
         <v>258</v>
       </c>
@@ -6011,8 +7446,11 @@
       <c r="N258">
         <v>2104</v>
       </c>
-    </row>
-    <row r="259" spans="2:16" ht="17.7">
+      <c r="V258" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="2:22" ht="17.7">
       <c r="B259" s="1" t="s">
         <v>259</v>
       </c>
@@ -6029,8 +7467,11 @@
       <c r="N259">
         <v>2163</v>
       </c>
-    </row>
-    <row r="260" spans="2:16" ht="17.7">
+      <c r="V259" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="2:22" ht="17.7">
       <c r="B260" s="1" t="s">
         <v>260</v>
       </c>
@@ -6047,8 +7488,11 @@
       <c r="N260">
         <v>2550</v>
       </c>
-    </row>
-    <row r="261" spans="2:16" ht="17.7">
+      <c r="V260" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="2:22" ht="17.7">
       <c r="B261" s="1" t="s">
         <v>261</v>
       </c>
@@ -6078,8 +7522,11 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-    </row>
-    <row r="262" spans="2:16" ht="17.7">
+      <c r="V261" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="2:22" ht="17.7">
       <c r="B262" s="1" t="s">
         <v>262</v>
       </c>
@@ -6096,8 +7543,11 @@
       <c r="N262">
         <v>4410</v>
       </c>
-    </row>
-    <row r="263" spans="2:16" ht="17.7">
+      <c r="V262" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="2:22" ht="17.7">
       <c r="B263" s="1" t="s">
         <v>263</v>
       </c>
@@ -6114,8 +7564,11 @@
       <c r="N263">
         <v>6830</v>
       </c>
-    </row>
-    <row r="264" spans="2:16" ht="17.7">
+      <c r="V263" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="2:22" ht="17.7">
       <c r="B264" s="1" t="s">
         <v>264</v>
       </c>
@@ -6132,8 +7585,11 @@
       <c r="N264">
         <v>9147</v>
       </c>
-    </row>
-    <row r="265" spans="2:16" ht="17.7">
+      <c r="V264" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="2:22" ht="17.7">
       <c r="B265" s="1" t="s">
         <v>265</v>
       </c>
@@ -6150,8 +7606,11 @@
       <c r="N265">
         <v>11469</v>
       </c>
-    </row>
-    <row r="266" spans="2:16" ht="17.7">
+      <c r="V265" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="2:22" ht="17.7">
       <c r="B266" s="1" t="s">
         <v>266</v>
       </c>
@@ -6168,8 +7627,11 @@
       <c r="N266">
         <v>14334</v>
       </c>
-    </row>
-    <row r="267" spans="2:16" ht="17.7">
+      <c r="V266" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="2:22" ht="17.7">
       <c r="B267" s="1" t="s">
         <v>267</v>
       </c>
@@ -6186,8 +7648,11 @@
       <c r="N267">
         <v>16053</v>
       </c>
-    </row>
-    <row r="268" spans="2:16" ht="17.7">
+      <c r="V267" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="2:22" ht="17.7">
       <c r="B268" s="1" t="s">
         <v>268</v>
       </c>
@@ -6204,8 +7669,11 @@
       <c r="N268">
         <v>18055</v>
       </c>
-    </row>
-    <row r="269" spans="2:16" ht="17.7">
+      <c r="V268" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="2:22" ht="17.7">
       <c r="B269" s="1" t="s">
         <v>269</v>
       </c>
@@ -6222,8 +7690,11 @@
       <c r="N269">
         <v>21815</v>
       </c>
-    </row>
-    <row r="270" spans="2:16" ht="17.7">
+      <c r="V269" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="2:22" ht="17.7">
       <c r="B270" s="1" t="s">
         <v>270</v>
       </c>
@@ -6239,6 +7710,9 @@
       </c>
       <c r="N270">
         <v>24176</v>
+      </c>
+      <c r="V270" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/tp2/exemple/src/result.xlsx
+++ b/tp2/exemple/src/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\01.Travaux.Poly\09.A2018\INF4705.algo\swagnalyse\tp2\exemple\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A9C5CD35-20B5-409B-9B0D-ECB82215439E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76E7F7E6-4012-4CC7-94B8-A5A8A7A1F9EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="78" yWindow="462" windowWidth="25440" windowHeight="14502" xr2:uid="{5E1C5933-FED9-854C-841B-467E1B961C4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="300">
   <si>
     <t>glouton</t>
   </si>
@@ -849,6 +849,12 @@
     <t>progdyn2</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.015625</t>
+  </si>
+  <si>
     <t>0.953125</t>
   </si>
   <si>
@@ -859,6 +865,66 @@
   </si>
   <si>
     <t>1.359375</t>
+  </si>
+  <si>
+    <t>202.59375</t>
+  </si>
+  <si>
+    <t>217.296875</t>
+  </si>
+  <si>
+    <t>214.03125</t>
+  </si>
+  <si>
+    <t>0.390625</t>
+  </si>
+  <si>
+    <t>1.03125</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>5.65625</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>11.53125</t>
+  </si>
+  <si>
+    <t>13.46875</t>
+  </si>
+  <si>
+    <t>19.109375</t>
+  </si>
+  <si>
+    <t>24.375</t>
+  </si>
+  <si>
+    <t>31.71875</t>
+  </si>
+  <si>
+    <t>0.28125</t>
+  </si>
+  <si>
+    <t>0.6875</t>
+  </si>
+  <si>
+    <t>fini</t>
+  </si>
+  <si>
+    <t>133.59375</t>
+  </si>
+  <si>
+    <t>326.453125</t>
+  </si>
+  <si>
+    <t>reste1</t>
+  </si>
+  <si>
+    <t>246.6875</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D3A866-B3F1-5D4F-A126-3B73E31B27BE}">
-  <dimension ref="A1:AC270"/>
+  <dimension ref="A1:AE270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="R91" workbookViewId="0">
+      <selection activeCell="S101" sqref="S101:T101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1231,7 +1297,7 @@
     <col min="5" max="5" width="11.6484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17.7">
+    <row r="1" spans="1:31" ht="17.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,27 +1342,34 @@
       <c r="T1">
         <v>4059</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="U1">
+        <v>4000</v>
+      </c>
+      <c r="V1">
+        <f>AVERAGE(S1:S10)</f>
+        <v>2163.0104166666665</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>273</v>
       </c>
-      <c r="Z1">
+      <c r="AB1">
         <v>475.75</v>
       </c>
-      <c r="AA1">
+      <c r="AC1">
         <v>4059</v>
       </c>
-      <c r="AB1">
+      <c r="AD1">
         <v>4000</v>
       </c>
-      <c r="AC1">
-        <f>AVERAGE(Z1:Z10)</f>
+      <c r="AE1">
+        <f>AVERAGE(AB1:AB10)</f>
         <v>878.21406249999995</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17.7">
+    <row r="2" spans="1:31" ht="17.7">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1318,17 +1391,17 @@
       <c r="T2">
         <v>4004</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>968.71875</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>4004</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="17.7">
+    <row r="3" spans="1:31" ht="17.7">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1350,17 +1423,17 @@
       <c r="T3">
         <v>4017</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>760.421875</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>4017</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17.7">
+    <row r="4" spans="1:31" ht="17.7">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1382,17 +1455,17 @@
       <c r="T4">
         <v>4064</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>2098.5625</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>4064</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="17.7">
+    <row r="5" spans="1:31" ht="17.7">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1414,17 +1487,17 @@
       <c r="T5">
         <v>4022</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>716.734375</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>4022</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="17.7">
+    <row r="6" spans="1:31" ht="17.7">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1446,17 +1519,17 @@
       <c r="T6">
         <v>4190</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>773.609375</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>4190</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="17.7">
+    <row r="7" spans="1:31" ht="17.7">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1472,17 +1545,17 @@
       <c r="N7">
         <v>4050</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>842.25</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>4188</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="17.7">
+    <row r="8" spans="1:31" ht="17.7">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1498,17 +1571,17 @@
       <c r="N8">
         <v>3878</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>358.640625</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>4093</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="17.7">
+    <row r="9" spans="1:31" ht="17.7">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1524,17 +1597,17 @@
       <c r="N9">
         <v>3948</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>718.5</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>4028</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="17.7">
+    <row r="10" spans="1:31" ht="17.7">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1550,17 +1623,17 @@
       <c r="N10">
         <v>3879</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>1068.953125</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>4005</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="17.7">
+    <row r="11" spans="1:31" ht="17.7">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1591,29 +1664,36 @@
         <v>1.6970634460449169E-4</v>
       </c>
       <c r="S11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T11">
         <v>403</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="U11">
+        <v>400</v>
+      </c>
+      <c r="V11" t="e">
+        <f t="shared" ref="V11" si="1">AVERAGE(S11:S20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>2.40625</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>402</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>400</v>
       </c>
-      <c r="AC11">
-        <f>AVERAGE(Z11:Z20)</f>
+      <c r="AE11">
+        <f>AVERAGE(AB11:AB20)</f>
         <v>3.0328124999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="17.7">
+    <row r="12" spans="1:31" ht="17.7">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1630,22 +1710,22 @@
         <v>391</v>
       </c>
       <c r="S12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="T12">
         <v>438</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>3.125</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="17.7">
+    <row r="13" spans="1:31" ht="17.7">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1662,22 +1742,22 @@
         <v>382</v>
       </c>
       <c r="S13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T13">
         <v>423</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>2.734375</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="17.7">
+    <row r="14" spans="1:31" ht="17.7">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1694,22 +1774,22 @@
         <v>404</v>
       </c>
       <c r="S14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T14">
         <v>417</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>3.515625</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="17.7">
+    <row r="15" spans="1:31" ht="17.7">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1726,22 +1806,22 @@
         <v>397</v>
       </c>
       <c r="S15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="T15">
         <v>458</v>
       </c>
-      <c r="V15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>2.53125</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="17.7">
+    <row r="16" spans="1:31" ht="17.7">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1757,17 +1837,17 @@
       <c r="N16">
         <v>452</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>4.109375</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="2:29" ht="17.7">
+    <row r="17" spans="2:31" ht="17.7">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1783,17 +1863,17 @@
       <c r="N17">
         <v>399</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="X17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>2.71875</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>411</v>
       </c>
     </row>
-    <row r="18" spans="2:29" ht="17.7">
+    <row r="18" spans="2:31" ht="17.7">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1809,17 +1889,17 @@
       <c r="N18">
         <v>425</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="X18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>2.484375</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="2:29" ht="17.7">
+    <row r="19" spans="2:31" ht="17.7">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1835,17 +1915,17 @@
       <c r="N19">
         <v>401</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="X19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>3.078125</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="2:29" ht="17.7">
+    <row r="20" spans="2:31" ht="17.7">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1861,17 +1941,17 @@
       <c r="N20">
         <v>369</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="X20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>3.625</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>409</v>
       </c>
     </row>
-    <row r="21" spans="2:29" ht="17.7">
+    <row r="21" spans="2:31" ht="17.7">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1901,24 +1981,37 @@
         <f>AVERAGE(M21:M30)</f>
         <v>2.3531913757324181E-4</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="S21" t="s">
+        <v>280</v>
+      </c>
+      <c r="T21">
+        <v>2050</v>
+      </c>
+      <c r="U21">
+        <v>2000</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" ref="V21" si="2">AVERAGE(S21:S30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>95.796875</v>
       </c>
-      <c r="AA21">
+      <c r="AC21">
         <v>2050</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>2000</v>
       </c>
-      <c r="AC21">
-        <f>AVERAGE(Z21:Z30)</f>
+      <c r="AE21">
+        <f>AVERAGE(AB21:AB30)</f>
         <v>145.95156249999999</v>
       </c>
     </row>
-    <row r="22" spans="2:29" ht="17.7">
+    <row r="22" spans="2:31" ht="17.7">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,17 +2027,23 @@
       <c r="N22">
         <v>2029</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="S22" t="s">
+        <v>281</v>
+      </c>
+      <c r="T22">
+        <v>2044</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>298.5625</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>2031</v>
       </c>
     </row>
-    <row r="23" spans="2:29" ht="17.7">
+    <row r="23" spans="2:31" ht="17.7">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1960,17 +2059,23 @@
       <c r="N23">
         <v>1927</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="S23" t="s">
+        <v>282</v>
+      </c>
+      <c r="T23">
+        <v>2016</v>
+      </c>
+      <c r="X23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>94.234375</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>2044</v>
       </c>
     </row>
-    <row r="24" spans="2:29" ht="17.7">
+    <row r="24" spans="2:31" ht="17.7">
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1986,17 +2091,20 @@
       <c r="N24">
         <v>1991</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="S24" t="s">
+        <v>295</v>
+      </c>
+      <c r="X24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <v>125.953125</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>2016</v>
       </c>
     </row>
-    <row r="25" spans="2:29" ht="17.7">
+    <row r="25" spans="2:31" ht="17.7">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2012,17 +2120,17 @@
       <c r="N25">
         <v>1951</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>275.203125</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="17.7">
+    <row r="26" spans="2:31" ht="17.7">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2038,17 +2146,17 @@
       <c r="N26">
         <v>1988</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>156.59375</v>
       </c>
-      <c r="AA26">
+      <c r="AC26">
         <v>2091</v>
       </c>
     </row>
-    <row r="27" spans="2:29" ht="17.7">
+    <row r="27" spans="2:31" ht="17.7">
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,17 +2172,17 @@
       <c r="N27">
         <v>2056</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>70.265625</v>
       </c>
-      <c r="AA27">
+      <c r="AC27">
         <v>2067</v>
       </c>
     </row>
-    <row r="28" spans="2:29" ht="17.7">
+    <row r="28" spans="2:31" ht="17.7">
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
@@ -2090,17 +2198,17 @@
       <c r="N28">
         <v>1961</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>128.453125</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <v>2049</v>
       </c>
     </row>
-    <row r="29" spans="2:29" ht="17.7">
+    <row r="29" spans="2:31" ht="17.7">
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
@@ -2116,17 +2224,17 @@
       <c r="N29">
         <v>2010</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z29">
+      <c r="AB29">
         <v>69.328125</v>
       </c>
-      <c r="AA29">
+      <c r="AC29">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="2:29" ht="17.7">
+    <row r="30" spans="2:31" ht="17.7">
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
@@ -2142,17 +2250,17 @@
       <c r="N30">
         <v>1989</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <v>145.125</v>
       </c>
-      <c r="AA30">
+      <c r="AC30">
         <v>2069</v>
       </c>
     </row>
-    <row r="31" spans="2:29" ht="17.7">
+    <row r="31" spans="2:31" ht="17.7">
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2182,24 +2290,31 @@
         <f>AVERAGE(M31:M40)</f>
         <v>1.0411739349365206E-4</v>
       </c>
-      <c r="V31" s="2" t="s">
+      <c r="U31">
+        <v>10</v>
+      </c>
+      <c r="V31" s="3" t="e">
+        <f>AVERAGE(S31:S40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Z31">
+      <c r="AB31">
         <v>0</v>
       </c>
-      <c r="AA31">
+      <c r="AC31">
         <v>11</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>10</v>
       </c>
-      <c r="AC31">
-        <f>AVERAGE(Z31:Z40)</f>
+      <c r="AE31">
+        <f>AVERAGE(AB31:AB40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:29" ht="17.7">
+    <row r="32" spans="2:31" ht="17.7">
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -2215,17 +2330,17 @@
       <c r="N32">
         <v>11</v>
       </c>
-      <c r="V32" s="2" t="s">
+      <c r="X32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z32">
+      <c r="AB32">
         <v>0</v>
       </c>
-      <c r="AA32">
+      <c r="AC32">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:29" ht="17.7">
+    <row r="33" spans="2:31" ht="17.7">
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
@@ -2241,17 +2356,17 @@
       <c r="N33">
         <v>11</v>
       </c>
-      <c r="V33" s="2" t="s">
+      <c r="X33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z33">
+      <c r="AB33">
         <v>0</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:29" ht="17.7">
+    <row r="34" spans="2:31" ht="17.7">
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
@@ -2267,17 +2382,17 @@
       <c r="N34">
         <v>9</v>
       </c>
-      <c r="V34" s="2" t="s">
+      <c r="X34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z34">
+      <c r="AB34">
         <v>0</v>
       </c>
-      <c r="AA34">
+      <c r="AC34">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:29" ht="17.7">
+    <row r="35" spans="2:31" ht="17.7">
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
@@ -2293,17 +2408,17 @@
       <c r="N35">
         <v>10</v>
       </c>
-      <c r="V35" s="2" t="s">
+      <c r="X35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <v>0</v>
       </c>
-      <c r="AA35">
+      <c r="AC35">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:29" ht="17.7">
+    <row r="36" spans="2:31" ht="17.7">
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
@@ -2319,17 +2434,17 @@
       <c r="N36">
         <v>9</v>
       </c>
-      <c r="V36" s="2" t="s">
+      <c r="X36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z36">
+      <c r="AB36">
         <v>0</v>
       </c>
-      <c r="AA36">
+      <c r="AC36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:29" ht="17.7">
+    <row r="37" spans="2:31" ht="17.7">
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
@@ -2345,17 +2460,17 @@
       <c r="N37">
         <v>11</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="X37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z37">
+      <c r="AB37">
         <v>0</v>
       </c>
-      <c r="AA37">
+      <c r="AC37">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:29" ht="17.7">
+    <row r="38" spans="2:31" ht="17.7">
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2371,17 +2486,17 @@
       <c r="N38">
         <v>10</v>
       </c>
-      <c r="V38" s="2" t="s">
+      <c r="X38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <v>0</v>
       </c>
-      <c r="AA38">
+      <c r="AC38">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:29" ht="17.7">
+    <row r="39" spans="2:31" ht="17.7">
       <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2397,17 +2512,17 @@
       <c r="N39">
         <v>8</v>
       </c>
-      <c r="V39" s="2" t="s">
+      <c r="X39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z39">
+      <c r="AB39">
         <v>0</v>
       </c>
-      <c r="AA39">
+      <c r="AC39">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:29" ht="17.7">
+    <row r="40" spans="2:31" ht="17.7">
       <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2423,17 +2538,17 @@
       <c r="N40">
         <v>7</v>
       </c>
-      <c r="V40" s="2" t="s">
+      <c r="X40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Z40">
+      <c r="AB40">
         <v>0</v>
       </c>
-      <c r="AA40">
+      <c r="AC40">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:29" ht="17.7">
+    <row r="41" spans="2:31" ht="17.7">
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2464,24 +2579,31 @@
         <v>9.93728637695309E-5</v>
       </c>
       <c r="Q41" s="3"/>
-      <c r="V41" s="2" t="s">
+      <c r="U41">
+        <v>100</v>
+      </c>
+      <c r="V41" t="e">
+        <f t="shared" ref="V41" si="3">AVERAGE(S41:S50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z41">
+      <c r="AB41">
         <v>9.375E-2</v>
       </c>
-      <c r="AA41">
+      <c r="AC41">
         <v>100</v>
       </c>
-      <c r="AB41">
+      <c r="AD41">
         <v>100</v>
       </c>
-      <c r="AC41" s="3">
-        <f>AVERAGE(Z41:Z50)</f>
+      <c r="AE41" s="3">
+        <f>AVERAGE(AB41:AB50)</f>
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:29" ht="17.7">
+    <row r="42" spans="2:31" ht="17.7">
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2497,17 +2619,17 @@
       <c r="N42">
         <v>96</v>
       </c>
-      <c r="V42" s="2" t="s">
+      <c r="X42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z42">
+      <c r="AB42">
         <v>0.109375</v>
       </c>
-      <c r="AA42">
+      <c r="AC42">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:29" ht="17.7">
+    <row r="43" spans="2:31" ht="17.7">
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
@@ -2523,17 +2645,17 @@
       <c r="N43">
         <v>44</v>
       </c>
-      <c r="V43" s="2" t="s">
+      <c r="X43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z43">
+      <c r="AB43">
         <v>7.8125E-2</v>
       </c>
-      <c r="AA43">
+      <c r="AC43">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="2:29" ht="17.7">
+    <row r="44" spans="2:31" ht="17.7">
       <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2549,17 +2671,17 @@
       <c r="N44">
         <v>15</v>
       </c>
-      <c r="V44" s="2" t="s">
+      <c r="X44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z44">
+      <c r="AB44">
         <v>0.125</v>
       </c>
-      <c r="AA44">
+      <c r="AC44">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="2:29" ht="17.7">
+    <row r="45" spans="2:31" ht="17.7">
       <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2575,17 +2697,17 @@
       <c r="N45">
         <v>76</v>
       </c>
-      <c r="V45" s="2" t="s">
+      <c r="X45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z45">
+      <c r="AB45">
         <v>0.125</v>
       </c>
-      <c r="AA45">
+      <c r="AC45">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="2:29" ht="17.7">
+    <row r="46" spans="2:31" ht="17.7">
       <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2601,17 +2723,17 @@
       <c r="N46">
         <v>85</v>
       </c>
-      <c r="V46" s="2" t="s">
+      <c r="X46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z46">
+      <c r="AB46">
         <v>6.25E-2</v>
       </c>
-      <c r="AA46">
+      <c r="AC46">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" ht="17.7">
+    <row r="47" spans="2:31" ht="17.7">
       <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2627,17 +2749,17 @@
       <c r="N47">
         <v>98</v>
       </c>
-      <c r="V47" s="2" t="s">
+      <c r="X47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z47">
+      <c r="AB47">
         <v>9.375E-2</v>
       </c>
-      <c r="AA47">
+      <c r="AC47">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="2:29" ht="17.7">
+    <row r="48" spans="2:31" ht="17.7">
       <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2653,17 +2775,17 @@
       <c r="N48">
         <v>60</v>
       </c>
-      <c r="V48" s="2" t="s">
+      <c r="X48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Z48">
+      <c r="AB48">
         <v>7.8125E-2</v>
       </c>
-      <c r="AA48">
+      <c r="AC48">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="2:29" ht="17.7">
+    <row r="49" spans="2:31" ht="17.7">
       <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2679,17 +2801,17 @@
       <c r="N49">
         <v>60</v>
       </c>
-      <c r="V49" s="2" t="s">
+      <c r="X49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Z49">
+      <c r="AB49">
         <v>7.8125E-2</v>
       </c>
-      <c r="AA49">
+      <c r="AC49">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="2:29" ht="17.7">
+    <row r="50" spans="2:31" ht="17.7">
       <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2705,17 +2827,17 @@
       <c r="N50">
         <v>98</v>
       </c>
-      <c r="V50" s="2" t="s">
+      <c r="X50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z50">
+      <c r="AB50">
         <v>9.375E-2</v>
       </c>
-      <c r="AA50">
+      <c r="AC50">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="2:29" ht="17.7">
+    <row r="51" spans="2:31" ht="17.7">
       <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2745,24 +2867,31 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V51" s="2" t="s">
+      <c r="U51">
+        <v>1000</v>
+      </c>
+      <c r="V51" t="e">
+        <f t="shared" ref="V51" si="4">AVERAGE(S51:S60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z51">
+      <c r="AB51">
         <v>11.59375</v>
       </c>
-      <c r="AA51">
+      <c r="AC51">
         <v>939</v>
       </c>
-      <c r="AB51">
+      <c r="AD51">
         <v>1000</v>
       </c>
-      <c r="AC51">
-        <f>AVERAGE(Z1:Z10)</f>
+      <c r="AE51">
+        <f>AVERAGE(AB1:AB10)</f>
         <v>878.21406249999995</v>
       </c>
     </row>
-    <row r="52" spans="2:29" ht="17.7">
+    <row r="52" spans="2:31" ht="17.7">
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2778,17 +2907,17 @@
       <c r="N52">
         <v>658</v>
       </c>
-      <c r="V52" s="2" t="s">
+      <c r="X52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z52">
+      <c r="AB52">
         <v>10.515625</v>
       </c>
-      <c r="AA52">
+      <c r="AC52">
         <v>996</v>
       </c>
     </row>
-    <row r="53" spans="2:29" ht="17.7">
+    <row r="53" spans="2:31" ht="17.7">
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2804,17 +2933,17 @@
       <c r="N53">
         <v>450</v>
       </c>
-      <c r="V53" s="2" t="s">
+      <c r="X53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Z53">
+      <c r="AB53">
         <v>17.34375</v>
       </c>
-      <c r="AA53">
+      <c r="AC53">
         <v>993</v>
       </c>
     </row>
-    <row r="54" spans="2:29" ht="17.7">
+    <row r="54" spans="2:31" ht="17.7">
       <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2830,17 +2959,17 @@
       <c r="N54">
         <v>783</v>
       </c>
-      <c r="V54" s="2" t="s">
+      <c r="X54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Z54">
+      <c r="AB54">
         <v>12.796875</v>
       </c>
-      <c r="AA54">
+      <c r="AC54">
         <v>991</v>
       </c>
     </row>
-    <row r="55" spans="2:29" ht="17.7">
+    <row r="55" spans="2:31" ht="17.7">
       <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
@@ -2856,17 +2985,17 @@
       <c r="N55">
         <v>580</v>
       </c>
-      <c r="V55" s="2" t="s">
+      <c r="X55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z55">
+      <c r="AB55">
         <v>13.109375</v>
       </c>
-      <c r="AA55">
+      <c r="AC55">
         <v>1001</v>
       </c>
     </row>
-    <row r="56" spans="2:29" ht="17.7">
+    <row r="56" spans="2:31" ht="17.7">
       <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2882,17 +3011,17 @@
       <c r="N56">
         <v>914</v>
       </c>
-      <c r="V56" s="2" t="s">
+      <c r="X56" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z56">
+      <c r="AB56">
         <v>12.796875</v>
       </c>
-      <c r="AA56">
+      <c r="AC56">
         <v>985</v>
       </c>
     </row>
-    <row r="57" spans="2:29" ht="17.7">
+    <row r="57" spans="2:31" ht="17.7">
       <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
@@ -2908,17 +3037,17 @@
       <c r="N57">
         <v>182</v>
       </c>
-      <c r="V57" s="2" t="s">
+      <c r="X57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z57">
+      <c r="AB57">
         <v>11.59375</v>
       </c>
-      <c r="AA57">
+      <c r="AC57">
         <v>1001</v>
       </c>
     </row>
-    <row r="58" spans="2:29" ht="17.7">
+    <row r="58" spans="2:31" ht="17.7">
       <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
@@ -2934,17 +3063,17 @@
       <c r="N58">
         <v>963</v>
       </c>
-      <c r="V58" s="2" t="s">
+      <c r="X58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Z58">
+      <c r="AB58">
         <v>18.90625</v>
       </c>
-      <c r="AA58">
+      <c r="AC58">
         <v>997</v>
       </c>
     </row>
-    <row r="59" spans="2:29" ht="17.7">
+    <row r="59" spans="2:31" ht="17.7">
       <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
@@ -2960,17 +3089,17 @@
       <c r="N59">
         <v>889</v>
       </c>
-      <c r="V59" s="2" t="s">
+      <c r="X59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z59">
+      <c r="AB59">
         <v>14.859375</v>
       </c>
-      <c r="AA59">
+      <c r="AC59">
         <v>1001</v>
       </c>
     </row>
-    <row r="60" spans="2:29" ht="17.7">
+    <row r="60" spans="2:31" ht="17.7">
       <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
@@ -2986,17 +3115,17 @@
       <c r="N60">
         <v>814</v>
       </c>
-      <c r="V60" s="2" t="s">
+      <c r="X60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Z60">
+      <c r="AB60">
         <v>20.046875</v>
       </c>
-      <c r="AA60">
+      <c r="AC60">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="2:29" ht="17.7">
+    <row r="61" spans="2:31" ht="17.7">
       <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
@@ -3026,24 +3155,31 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V61" s="2" t="s">
+      <c r="U61">
+        <v>10</v>
+      </c>
+      <c r="V61" t="e">
+        <f t="shared" ref="V61" si="5">AVERAGE(S61:S70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z61">
+      <c r="AB61">
         <v>0</v>
       </c>
-      <c r="AA61">
+      <c r="AC61">
         <v>11</v>
       </c>
-      <c r="AB61">
+      <c r="AD61">
         <v>10</v>
       </c>
-      <c r="AC61">
-        <f>AVERAGE(Z1:Z10)</f>
+      <c r="AE61">
+        <f>AVERAGE(AB1:AB10)</f>
         <v>878.21406249999995</v>
       </c>
     </row>
-    <row r="62" spans="2:29" ht="17.7">
+    <row r="62" spans="2:31" ht="17.7">
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
@@ -3059,17 +3195,17 @@
       <c r="N62">
         <v>10</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="X62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z62">
+      <c r="AB62">
         <v>0</v>
       </c>
-      <c r="AA62">
+      <c r="AC62">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="2:29" ht="17.7">
+    <row r="63" spans="2:31" ht="17.7">
       <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
@@ -3085,17 +3221,17 @@
       <c r="N63">
         <v>10</v>
       </c>
-      <c r="V63" s="2" t="s">
+      <c r="X63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Z63">
+      <c r="AB63">
         <v>0</v>
       </c>
-      <c r="AA63">
+      <c r="AC63">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:29" ht="17.7">
+    <row r="64" spans="2:31" ht="17.7">
       <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
@@ -3111,17 +3247,17 @@
       <c r="N64">
         <v>21</v>
       </c>
-      <c r="V64" s="2" t="s">
+      <c r="X64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z64">
+      <c r="AB64">
         <v>0</v>
       </c>
-      <c r="AA64">
+      <c r="AC64">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="2:29" ht="17.7">
+    <row r="65" spans="2:31" ht="17.7">
       <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
@@ -3137,17 +3273,17 @@
       <c r="N65">
         <v>24</v>
       </c>
-      <c r="V65" s="2" t="s">
+      <c r="X65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Z65">
+      <c r="AB65">
         <v>0</v>
       </c>
-      <c r="AA65">
+      <c r="AC65">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:29" ht="17.7">
+    <row r="66" spans="2:31" ht="17.7">
       <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
@@ -3163,17 +3299,17 @@
       <c r="N66">
         <v>31</v>
       </c>
-      <c r="V66" s="2" t="s">
+      <c r="X66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z66">
+      <c r="AB66">
         <v>1.5625E-2</v>
       </c>
-      <c r="AA66">
+      <c r="AC66">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:29" ht="17.7">
+    <row r="67" spans="2:31" ht="17.7">
       <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
@@ -3189,17 +3325,17 @@
       <c r="N67">
         <v>35</v>
       </c>
-      <c r="V67" s="2" t="s">
+      <c r="X67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z67">
+      <c r="AB67">
         <v>0</v>
       </c>
-      <c r="AA67">
+      <c r="AC67">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="2:29" ht="17.7">
+    <row r="68" spans="2:31" ht="17.7">
       <c r="B68" s="2" t="s">
         <v>68</v>
       </c>
@@ -3215,17 +3351,17 @@
       <c r="N68">
         <v>43</v>
       </c>
-      <c r="V68" s="2" t="s">
+      <c r="X68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Z68">
+      <c r="AB68">
         <v>1.5625E-2</v>
       </c>
-      <c r="AA68">
+      <c r="AC68">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="2:29" ht="17.7">
+    <row r="69" spans="2:31" ht="17.7">
       <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
@@ -3241,17 +3377,17 @@
       <c r="N69">
         <v>48</v>
       </c>
-      <c r="V69" s="2" t="s">
+      <c r="X69" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z69">
+      <c r="AB69">
         <v>0</v>
       </c>
-      <c r="AA69">
+      <c r="AC69">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="2:29" ht="17.7">
+    <row r="70" spans="2:31" ht="17.7">
       <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
@@ -3267,17 +3403,17 @@
       <c r="N70">
         <v>54</v>
       </c>
-      <c r="V70" s="2" t="s">
+      <c r="X70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z70">
+      <c r="AB70">
         <v>1.5625E-2</v>
       </c>
-      <c r="AA70">
+      <c r="AC70">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="2:29" ht="17.7">
+    <row r="71" spans="2:31" ht="17.7">
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
@@ -3291,7 +3427,7 @@
         <v>100</v>
       </c>
       <c r="H71">
-        <f t="shared" ref="H71:H121" si="1">AVERAGE(E71:E80)</f>
+        <f t="shared" ref="H71:H121" si="6">AVERAGE(E71:E80)</f>
         <v>1.2631416320800745E-4</v>
       </c>
       <c r="M71">
@@ -3307,24 +3443,31 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V71" s="1" t="s">
+      <c r="U71">
+        <v>100</v>
+      </c>
+      <c r="V71" t="e">
+        <f t="shared" ref="V71" si="7">AVERAGE(S71:S80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z71">
+      <c r="AB71">
         <v>1.5625E-2</v>
       </c>
-      <c r="AA71">
+      <c r="AC71">
         <v>107</v>
       </c>
-      <c r="AB71">
+      <c r="AD71">
         <v>100</v>
       </c>
-      <c r="AC71">
-        <f>AVERAGE(Z1:Z10)</f>
+      <c r="AE71">
+        <f>AVERAGE(AB1:AB10)</f>
         <v>878.21406249999995</v>
       </c>
     </row>
-    <row r="72" spans="2:29" ht="17.7">
+    <row r="72" spans="2:31" ht="17.7">
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
@@ -3340,17 +3483,17 @@
       <c r="N72">
         <v>54</v>
       </c>
-      <c r="V72" s="1" t="s">
+      <c r="X72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Z72">
+      <c r="AB72">
         <v>3.125E-2</v>
       </c>
-      <c r="AA72">
+      <c r="AC72">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="2:29" ht="17.7">
+    <row r="73" spans="2:31" ht="17.7">
       <c r="B73" s="2" t="s">
         <v>73</v>
       </c>
@@ -3366,17 +3509,17 @@
       <c r="N73">
         <v>97</v>
       </c>
-      <c r="V73" s="2" t="s">
+      <c r="X73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z73">
+      <c r="AB73">
         <v>1.5625E-2</v>
       </c>
-      <c r="AA73">
+      <c r="AC73">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="2:29" ht="17.7">
+    <row r="74" spans="2:31" ht="17.7">
       <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
@@ -3392,17 +3535,17 @@
       <c r="N74">
         <v>142</v>
       </c>
-      <c r="V74" s="2" t="s">
+      <c r="X74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z74">
+      <c r="AB74">
         <v>4.6875E-2</v>
       </c>
-      <c r="AA74">
+      <c r="AC74">
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="2:29" ht="17.7">
+    <row r="75" spans="2:31" ht="17.7">
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
@@ -3418,17 +3561,17 @@
       <c r="N75">
         <v>262</v>
       </c>
-      <c r="V75" s="1" t="s">
+      <c r="X75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Z75">
+      <c r="AB75">
         <v>4.6875E-2</v>
       </c>
-      <c r="AA75">
+      <c r="AC75">
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="2:29" ht="17.7">
+    <row r="76" spans="2:31" ht="17.7">
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
@@ -3444,17 +3587,17 @@
       <c r="N76">
         <v>279</v>
       </c>
-      <c r="V76" s="1" t="s">
+      <c r="X76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z76">
+      <c r="AB76">
         <v>0.609375</v>
       </c>
-      <c r="AA76">
+      <c r="AC76">
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="2:29" ht="17.7">
+    <row r="77" spans="2:31" ht="17.7">
       <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
@@ -3470,17 +3613,17 @@
       <c r="N77">
         <v>301</v>
       </c>
-      <c r="V77" s="2" t="s">
+      <c r="X77" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Z77">
+      <c r="AB77">
         <v>0.171875</v>
       </c>
-      <c r="AA77">
+      <c r="AC77">
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="2:29" ht="17.7">
+    <row r="78" spans="2:31" ht="17.7">
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
@@ -3496,17 +3639,17 @@
       <c r="N78">
         <v>410</v>
       </c>
-      <c r="V78" s="2" t="s">
+      <c r="X78" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Z78">
+      <c r="AB78">
         <v>0.671875</v>
       </c>
-      <c r="AA78">
+      <c r="AC78">
         <v>443</v>
       </c>
     </row>
-    <row r="79" spans="2:29" ht="17.7">
+    <row r="79" spans="2:31" ht="17.7">
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
@@ -3522,17 +3665,17 @@
       <c r="N79">
         <v>418</v>
       </c>
-      <c r="V79" s="1" t="s">
+      <c r="X79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z79">
+      <c r="AB79">
         <v>1.796875</v>
       </c>
-      <c r="AA79">
+      <c r="AC79">
         <v>455</v>
       </c>
     </row>
-    <row r="80" spans="2:29" ht="17.7">
+    <row r="80" spans="2:31" ht="17.7">
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
@@ -3548,17 +3691,17 @@
       <c r="N80">
         <v>515</v>
       </c>
-      <c r="V80" s="1" t="s">
+      <c r="X80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z80">
+      <c r="AB80">
         <v>3.484375</v>
       </c>
-      <c r="AA80">
+      <c r="AC80">
         <v>525</v>
       </c>
     </row>
-    <row r="81" spans="2:29" ht="17.7">
+    <row r="81" spans="2:31" ht="17.7">
       <c r="B81" s="2" t="s">
         <v>81</v>
       </c>
@@ -3572,7 +3715,7 @@
         <v>1000</v>
       </c>
       <c r="H81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.209259033203122E-4</v>
       </c>
       <c r="M81" s="3">
@@ -3588,24 +3731,31 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V81" s="2" t="s">
+      <c r="U81">
+        <v>1000</v>
+      </c>
+      <c r="V81" t="e">
+        <f t="shared" ref="V81" si="8">AVERAGE(S81:S90)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Z81">
+      <c r="AB81">
         <v>165.609375</v>
       </c>
-      <c r="AA81">
+      <c r="AC81">
         <v>1001</v>
       </c>
-      <c r="AB81">
+      <c r="AD81">
         <v>1000</v>
       </c>
-      <c r="AC81">
-        <f>AVERAGE(Z1:Z10)</f>
+      <c r="AE81">
+        <f>AVERAGE(AB1:AB10)</f>
         <v>878.21406249999995</v>
       </c>
     </row>
-    <row r="82" spans="2:29" ht="17.7">
+    <row r="82" spans="2:31" ht="17.7">
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
@@ -3621,17 +3771,17 @@
       <c r="N82">
         <v>722</v>
       </c>
-      <c r="V82" s="1" t="s">
+      <c r="X82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Z82">
+      <c r="AB82">
         <v>124.640625</v>
       </c>
-      <c r="AA82">
+      <c r="AC82">
         <v>1117</v>
       </c>
     </row>
-    <row r="83" spans="2:29" ht="17.7">
+    <row r="83" spans="2:31" ht="17.7">
       <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
@@ -3647,17 +3797,17 @@
       <c r="N83">
         <v>1518</v>
       </c>
-      <c r="V83" s="2" t="s">
+      <c r="X83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Z83">
+      <c r="AB83">
         <v>417.4375</v>
       </c>
-      <c r="AA83">
+      <c r="AC83">
         <v>1553</v>
       </c>
     </row>
-    <row r="84" spans="2:29" ht="17.7">
+    <row r="84" spans="2:31" ht="17.7">
       <c r="B84" s="2" t="s">
         <v>84</v>
       </c>
@@ -3673,17 +3823,17 @@
       <c r="N84">
         <v>1764</v>
       </c>
-      <c r="V84" s="2" t="s">
+      <c r="X84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Z84">
+      <c r="AB84">
         <v>1274.609375</v>
       </c>
-      <c r="AA84">
+      <c r="AC84">
         <v>2086</v>
       </c>
     </row>
-    <row r="85" spans="2:29" ht="17.7">
+    <row r="85" spans="2:31" ht="17.7">
       <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
@@ -3699,17 +3849,17 @@
       <c r="N85">
         <v>1699</v>
       </c>
-      <c r="V85" s="2" t="s">
+      <c r="X85" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Z85">
+      <c r="AB85">
         <v>1296.890625</v>
       </c>
-      <c r="AA85">
+      <c r="AC85">
         <v>2220</v>
       </c>
     </row>
-    <row r="86" spans="2:29" ht="17.7">
+    <row r="86" spans="2:31" ht="17.7">
       <c r="B86" s="2" t="s">
         <v>86</v>
       </c>
@@ -3725,11 +3875,14 @@
       <c r="N86">
         <v>2922</v>
       </c>
-      <c r="V86" s="2" t="s">
+      <c r="X86" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="2:29" ht="17.7">
+      <c r="AB86" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="2:31" ht="17.7">
       <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
@@ -3745,11 +3898,11 @@
       <c r="N87">
         <v>2990</v>
       </c>
-      <c r="V87" s="2" t="s">
+      <c r="X87" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="2:29" ht="17.7">
+    <row r="88" spans="2:31" ht="17.7">
       <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
@@ -3765,11 +3918,11 @@
       <c r="N88">
         <v>2987</v>
       </c>
-      <c r="V88" s="2" t="s">
+      <c r="X88" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="2:29" ht="17.7">
+    <row r="89" spans="2:31" ht="17.7">
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
@@ -3785,11 +3938,11 @@
       <c r="N89">
         <v>4143</v>
       </c>
-      <c r="V89" s="1" t="s">
+      <c r="X89" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="2:29" ht="17.7">
+    <row r="90" spans="2:31" ht="17.7">
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
@@ -3805,11 +3958,11 @@
       <c r="N90">
         <v>4794</v>
       </c>
-      <c r="V90" s="1" t="s">
+      <c r="X90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="2:29" ht="17.7">
+    <row r="91" spans="2:31" ht="17.7">
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
@@ -3823,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="H91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.6641311645507726E-4</v>
       </c>
       <c r="M91">
@@ -3839,11 +3992,37 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V91" s="1" t="s">
+      <c r="S91" t="s">
+        <v>283</v>
+      </c>
+      <c r="T91">
+        <v>54</v>
+      </c>
+      <c r="U91">
+        <v>10</v>
+      </c>
+      <c r="V91" t="e">
+        <f t="shared" ref="V91" si="9">AVERAGE(S91:S100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X91" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="2:29" ht="17.7">
+      <c r="AB91" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC91">
+        <v>54</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91" t="e">
+        <f t="shared" ref="AE91" si="10">AVERAGE(AB91:AB100)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="2:31" ht="17.7">
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
@@ -3859,11 +4038,23 @@
       <c r="N92">
         <v>106</v>
       </c>
-      <c r="V92" s="1" t="s">
+      <c r="S92" t="s">
+        <v>284</v>
+      </c>
+      <c r="T92">
+        <v>111</v>
+      </c>
+      <c r="X92" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="2:29" ht="17.7">
+      <c r="AB92" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC92">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="2:31" ht="17.7">
       <c r="B93" s="1" t="s">
         <v>93</v>
       </c>
@@ -3879,11 +4070,23 @@
       <c r="N93">
         <v>160</v>
       </c>
-      <c r="V93" s="1" t="s">
+      <c r="S93" t="s">
+        <v>285</v>
+      </c>
+      <c r="T93">
+        <v>163</v>
+      </c>
+      <c r="X93" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="2:29" ht="17.7">
+      <c r="AB93" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC93">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="2:31" ht="17.7">
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
@@ -3899,11 +4102,23 @@
       <c r="N94">
         <v>212</v>
       </c>
-      <c r="V94" s="1" t="s">
+      <c r="S94" t="s">
+        <v>286</v>
+      </c>
+      <c r="T94">
+        <v>218</v>
+      </c>
+      <c r="X94" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="2:29" ht="17.7">
+      <c r="AB94" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC94">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="2:31" ht="17.7">
       <c r="B95" s="1" t="s">
         <v>95</v>
       </c>
@@ -3919,11 +4134,23 @@
       <c r="N95">
         <v>273</v>
       </c>
-      <c r="V95" s="1" t="s">
+      <c r="S95" t="s">
+        <v>287</v>
+      </c>
+      <c r="T95">
+        <v>275</v>
+      </c>
+      <c r="X95" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="2:29" ht="17.7">
+      <c r="AB95" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC95">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="2:31" ht="17.7">
       <c r="B96" s="1" t="s">
         <v>96</v>
       </c>
@@ -3939,11 +4166,23 @@
       <c r="N96">
         <v>324</v>
       </c>
-      <c r="V96" s="1" t="s">
+      <c r="S96" t="s">
+        <v>288</v>
+      </c>
+      <c r="T96">
+        <v>324</v>
+      </c>
+      <c r="X96" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="2:22" ht="17.7">
+      <c r="AB96" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC96">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="2:31" ht="17.7">
       <c r="B97" s="1" t="s">
         <v>97</v>
       </c>
@@ -3959,11 +4198,23 @@
       <c r="N97">
         <v>378</v>
       </c>
-      <c r="V97" s="1" t="s">
+      <c r="S97" t="s">
+        <v>289</v>
+      </c>
+      <c r="T97">
+        <v>379</v>
+      </c>
+      <c r="X97" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="2:22" ht="17.7">
+      <c r="AB97" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC97">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98" spans="2:31" ht="17.7">
       <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
@@ -3979,11 +4230,23 @@
       <c r="N98">
         <v>440</v>
       </c>
-      <c r="V98" s="1" t="s">
+      <c r="S98" t="s">
+        <v>290</v>
+      </c>
+      <c r="T98">
+        <v>445</v>
+      </c>
+      <c r="X98" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="2:22" ht="17.7">
+      <c r="AB98" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC98">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="99" spans="2:31" ht="17.7">
       <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
@@ -3999,11 +4262,23 @@
       <c r="N99">
         <v>491</v>
       </c>
-      <c r="V99" s="1" t="s">
+      <c r="S99" t="s">
+        <v>291</v>
+      </c>
+      <c r="T99">
+        <v>494</v>
+      </c>
+      <c r="X99" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="2:22" ht="17.7">
+      <c r="AB99" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC99">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="100" spans="2:31" ht="17.7">
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
@@ -4019,11 +4294,23 @@
       <c r="N100">
         <v>548</v>
       </c>
-      <c r="V100" s="1" t="s">
+      <c r="S100" t="s">
+        <v>292</v>
+      </c>
+      <c r="T100">
+        <v>557</v>
+      </c>
+      <c r="X100" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="2:22" ht="17.7">
+      <c r="AB100" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC100">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="101" spans="2:31" ht="17.7">
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
@@ -4037,7 +4324,7 @@
         <v>100</v>
       </c>
       <c r="H101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0592937469482392E-3</v>
       </c>
       <c r="M101">
@@ -4053,11 +4340,37 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V101" s="1" t="s">
+      <c r="S101" t="s">
+        <v>299</v>
+      </c>
+      <c r="T101">
+        <v>1488</v>
+      </c>
+      <c r="U101">
+        <v>100</v>
+      </c>
+      <c r="V101" t="e">
+        <f t="shared" ref="V101" si="11">AVERAGE(S101:S110)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X101" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="2:22" ht="17.7">
+      <c r="AB101" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC101">
+        <v>1488</v>
+      </c>
+      <c r="AD101">
+        <v>100</v>
+      </c>
+      <c r="AE101" t="e">
+        <f t="shared" ref="AE101" si="12">AVERAGE(AB101:AB110)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="2:31" ht="17.7">
       <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
@@ -4073,11 +4386,17 @@
       <c r="N102">
         <v>966</v>
       </c>
-      <c r="V102" s="1" t="s">
+      <c r="X102" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="2:22" ht="17.7">
+      <c r="AB102" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC102">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="103" spans="2:31" ht="17.7">
       <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
@@ -4093,11 +4412,11 @@
       <c r="N103">
         <v>1473</v>
       </c>
-      <c r="V103" s="1" t="s">
+      <c r="X103" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="2:22" ht="17.7">
+    <row r="104" spans="2:31" ht="17.7">
       <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
@@ -4113,11 +4432,14 @@
       <c r="N104">
         <v>1938</v>
       </c>
-      <c r="V104" s="1" t="s">
+      <c r="X104" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="2:22" ht="17.7">
+      <c r="AB104" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="105" spans="2:31" ht="17.7">
       <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
@@ -4133,11 +4455,11 @@
       <c r="N105">
         <v>2537</v>
       </c>
-      <c r="V105" s="1" t="s">
+      <c r="X105" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="2:22" ht="17.7">
+    <row r="106" spans="2:31" ht="17.7">
       <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
@@ -4153,11 +4475,11 @@
       <c r="N106">
         <v>2996</v>
       </c>
-      <c r="V106" s="1" t="s">
+      <c r="X106" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="2:22" ht="17.7">
+    <row r="107" spans="2:31" ht="17.7">
       <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
@@ -4173,11 +4495,11 @@
       <c r="N107">
         <v>3366</v>
       </c>
-      <c r="V107" s="1" t="s">
+      <c r="X107" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="2:22" ht="17.7">
+    <row r="108" spans="2:31" ht="17.7">
       <c r="B108" s="1" t="s">
         <v>108</v>
       </c>
@@ -4193,11 +4515,11 @@
       <c r="N108">
         <v>4039</v>
       </c>
-      <c r="V108" s="1" t="s">
+      <c r="X108" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="2:22" ht="17.7">
+    <row r="109" spans="2:31" ht="17.7">
       <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
@@ -4213,11 +4535,11 @@
       <c r="N109">
         <v>4442</v>
       </c>
-      <c r="V109" s="1" t="s">
+      <c r="X109" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="2:22" ht="17.7">
+    <row r="110" spans="2:31" ht="17.7">
       <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
@@ -4233,11 +4555,11 @@
       <c r="N110">
         <v>5041</v>
       </c>
-      <c r="V110" s="1" t="s">
+      <c r="X110" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="2:22" ht="17.7">
+    <row r="111" spans="2:31" ht="17.7">
       <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
@@ -4251,7 +4573,7 @@
         <v>1000</v>
       </c>
       <c r="H111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.1073513031005753E-4</v>
       </c>
       <c r="M111">
@@ -4267,11 +4589,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V111" s="1" t="s">
+      <c r="U111">
+        <v>1000</v>
+      </c>
+      <c r="V111" t="e">
+        <f t="shared" ref="V111" si="13">AVERAGE(S111:S120)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X111" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="2:22" ht="17.7">
+      <c r="AD111">
+        <v>1000</v>
+      </c>
+      <c r="AE111" t="e">
+        <f t="shared" ref="AE111" si="14">AVERAGE(AB111:AB120)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="2:31" ht="17.7">
       <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
@@ -4287,11 +4623,11 @@
       <c r="N112">
         <v>9577</v>
       </c>
-      <c r="V112" s="1" t="s">
+      <c r="X112" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="2:22" ht="17.7">
+    <row r="113" spans="2:31" ht="17.7">
       <c r="B113" s="1" t="s">
         <v>113</v>
       </c>
@@ -4307,11 +4643,11 @@
       <c r="N113">
         <v>14048</v>
       </c>
-      <c r="V113" s="1" t="s">
+      <c r="X113" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="2:22" ht="17.7">
+    <row r="114" spans="2:31" ht="17.7">
       <c r="B114" s="1" t="s">
         <v>114</v>
       </c>
@@ -4327,11 +4663,11 @@
       <c r="N114">
         <v>19625</v>
       </c>
-      <c r="V114" s="1" t="s">
+      <c r="X114" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="2:22" ht="17.7">
+    <row r="115" spans="2:31" ht="17.7">
       <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
@@ -4347,11 +4683,11 @@
       <c r="N115">
         <v>24620</v>
       </c>
-      <c r="V115" s="1" t="s">
+      <c r="X115" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="2:22" ht="17.7">
+    <row r="116" spans="2:31" ht="17.7">
       <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
@@ -4367,11 +4703,11 @@
       <c r="N116">
         <v>28998</v>
       </c>
-      <c r="V116" s="1" t="s">
+      <c r="X116" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="2:22" ht="17.7">
+    <row r="117" spans="2:31" ht="17.7">
       <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
@@ -4387,11 +4723,11 @@
       <c r="N117">
         <v>33174</v>
       </c>
-      <c r="V117" s="1" t="s">
+      <c r="X117" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="2:22" ht="17.7">
+    <row r="118" spans="2:31" ht="17.7">
       <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
@@ -4407,11 +4743,11 @@
       <c r="N118">
         <v>37858</v>
       </c>
-      <c r="V118" s="1" t="s">
+      <c r="X118" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="2:22" ht="17.7">
+    <row r="119" spans="2:31" ht="17.7">
       <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
@@ -4427,11 +4763,11 @@
       <c r="N119">
         <v>44497</v>
       </c>
-      <c r="V119" s="1" t="s">
+      <c r="X119" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="2:22" ht="17.7">
+    <row r="120" spans="2:31" ht="17.7">
       <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
@@ -4447,11 +4783,11 @@
       <c r="N120">
         <v>48294</v>
       </c>
-      <c r="V120" s="1" t="s">
+      <c r="X120" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="2:22" ht="17.7">
+    <row r="121" spans="2:31" ht="17.7">
       <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
@@ -4465,7 +4801,7 @@
         <v>10</v>
       </c>
       <c r="H121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.3354759216308548E-5</v>
       </c>
       <c r="M121" s="3">
@@ -4481,11 +4817,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V121" s="2" t="s">
+      <c r="U121">
+        <v>10</v>
+      </c>
+      <c r="V121" t="e">
+        <f t="shared" ref="V121" si="15">AVERAGE(S121:S130)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X121" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="2:22" ht="17.7">
+      <c r="AD121">
+        <v>10</v>
+      </c>
+      <c r="AE121" t="e">
+        <f t="shared" ref="AE121" si="16">AVERAGE(AB121:AB130)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="2:31" ht="17.7">
       <c r="B122" s="2" t="s">
         <v>122</v>
       </c>
@@ -4501,11 +4851,11 @@
       <c r="N122">
         <v>11</v>
       </c>
-      <c r="V122" s="2" t="s">
+      <c r="X122" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="2:22" ht="17.7">
+    <row r="123" spans="2:31" ht="17.7">
       <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
@@ -4521,11 +4871,11 @@
       <c r="N123">
         <v>11</v>
       </c>
-      <c r="V123" s="2" t="s">
+      <c r="X123" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="2:22" ht="17.7">
+    <row r="124" spans="2:31" ht="17.7">
       <c r="B124" s="2" t="s">
         <v>124</v>
       </c>
@@ -4541,11 +4891,11 @@
       <c r="N124">
         <v>11</v>
       </c>
-      <c r="V124" s="2" t="s">
+      <c r="X124" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="2:22" ht="17.7">
+    <row r="125" spans="2:31" ht="17.7">
       <c r="B125" s="2" t="s">
         <v>125</v>
       </c>
@@ -4561,11 +4911,11 @@
       <c r="N125">
         <v>10</v>
       </c>
-      <c r="V125" s="2" t="s">
+      <c r="X125" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="2:22" ht="17.7">
+    <row r="126" spans="2:31" ht="17.7">
       <c r="B126" s="2" t="s">
         <v>126</v>
       </c>
@@ -4581,11 +4931,11 @@
       <c r="N126">
         <v>11</v>
       </c>
-      <c r="V126" s="2" t="s">
+      <c r="X126" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="2:22" ht="17.7">
+    <row r="127" spans="2:31" ht="17.7">
       <c r="B127" s="2" t="s">
         <v>127</v>
       </c>
@@ -4601,11 +4951,11 @@
       <c r="N127">
         <v>11</v>
       </c>
-      <c r="V127" s="2" t="s">
+      <c r="X127" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="2:22" ht="17.7">
+    <row r="128" spans="2:31" ht="17.7">
       <c r="B128" s="2" t="s">
         <v>128</v>
       </c>
@@ -4621,11 +4971,11 @@
       <c r="N128">
         <v>10</v>
       </c>
-      <c r="V128" s="2" t="s">
+      <c r="X128" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="2:22" ht="17.7">
+    <row r="129" spans="2:31" ht="17.7">
       <c r="B129" s="2" t="s">
         <v>129</v>
       </c>
@@ -4641,11 +4991,11 @@
       <c r="N129">
         <v>11</v>
       </c>
-      <c r="V129" s="2" t="s">
+      <c r="X129" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="2:22" ht="17.7">
+    <row r="130" spans="2:31" ht="17.7">
       <c r="B130" s="2" t="s">
         <v>130</v>
       </c>
@@ -4661,11 +5011,11 @@
       <c r="N130">
         <v>8</v>
       </c>
-      <c r="V130" s="2" t="s">
+      <c r="X130" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="2:22" ht="17.7">
+    <row r="131" spans="2:31" ht="17.7">
       <c r="B131" s="2" t="s">
         <v>131</v>
       </c>
@@ -4679,7 +5029,7 @@
         <v>100</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H191" si="2">AVERAGE(E131:E140)</f>
+        <f t="shared" ref="H131:H191" si="17">AVERAGE(E131:E140)</f>
         <v>4.9018859863281194E-5</v>
       </c>
       <c r="M131">
@@ -4695,11 +5045,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V131" s="2" t="s">
+      <c r="U131">
+        <v>100</v>
+      </c>
+      <c r="V131" t="e">
+        <f t="shared" ref="V131" si="18">AVERAGE(S131:S140)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X131" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="132" spans="2:22" ht="17.7">
+      <c r="AD131">
+        <v>100</v>
+      </c>
+      <c r="AE131" t="e">
+        <f t="shared" ref="AE131" si="19">AVERAGE(AB131:AB140)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="2:31" ht="17.7">
       <c r="B132" s="2" t="s">
         <v>132</v>
       </c>
@@ -4715,11 +5079,11 @@
       <c r="N132">
         <v>66</v>
       </c>
-      <c r="V132" s="2" t="s">
+      <c r="X132" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="2:22" ht="17.7">
+    <row r="133" spans="2:31" ht="17.7">
       <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
@@ -4735,11 +5099,11 @@
       <c r="N133">
         <v>34</v>
       </c>
-      <c r="V133" s="2" t="s">
+      <c r="X133" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="2:22" ht="17.7">
+    <row r="134" spans="2:31" ht="17.7">
       <c r="B134" s="2" t="s">
         <v>134</v>
       </c>
@@ -4755,11 +5119,11 @@
       <c r="N134">
         <v>44</v>
       </c>
-      <c r="V134" s="2" t="s">
+      <c r="X134" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="2:22" ht="17.7">
+    <row r="135" spans="2:31" ht="17.7">
       <c r="B135" s="2" t="s">
         <v>135</v>
       </c>
@@ -4775,11 +5139,11 @@
       <c r="N135">
         <v>28</v>
       </c>
-      <c r="V135" s="2" t="s">
+      <c r="X135" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="2:22" ht="17.7">
+    <row r="136" spans="2:31" ht="17.7">
       <c r="B136" s="2" t="s">
         <v>136</v>
       </c>
@@ -4795,11 +5159,11 @@
       <c r="N136">
         <v>95</v>
       </c>
-      <c r="V136" s="2" t="s">
+      <c r="X136" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="2:22" ht="17.7">
+    <row r="137" spans="2:31" ht="17.7">
       <c r="B137" s="2" t="s">
         <v>137</v>
       </c>
@@ -4815,11 +5179,11 @@
       <c r="N137">
         <v>72</v>
       </c>
-      <c r="V137" s="2" t="s">
+      <c r="X137" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="2:22" ht="17.7">
+    <row r="138" spans="2:31" ht="17.7">
       <c r="B138" s="2" t="s">
         <v>138</v>
       </c>
@@ -4835,11 +5199,11 @@
       <c r="N138">
         <v>40</v>
       </c>
-      <c r="V138" s="2" t="s">
+      <c r="X138" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="2:22" ht="17.7">
+    <row r="139" spans="2:31" ht="17.7">
       <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
@@ -4855,11 +5219,11 @@
       <c r="N139">
         <v>28</v>
       </c>
-      <c r="V139" s="2" t="s">
+      <c r="X139" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="2:22" ht="17.7">
+    <row r="140" spans="2:31" ht="17.7">
       <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
@@ -4875,11 +5239,11 @@
       <c r="N140">
         <v>35</v>
       </c>
-      <c r="V140" s="2" t="s">
+      <c r="X140" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="2:22" ht="17.7">
+    <row r="141" spans="2:31" ht="17.7">
       <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
@@ -4893,7 +5257,7 @@
         <v>1000</v>
       </c>
       <c r="H141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>3.7264823913574154E-5</v>
       </c>
       <c r="M141">
@@ -4909,11 +5273,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V141" s="2" t="s">
+      <c r="U141">
+        <v>1000</v>
+      </c>
+      <c r="V141" t="e">
+        <f t="shared" ref="V141" si="20">AVERAGE(S141:S150)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X141" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="2:22" ht="17.7">
+      <c r="AD141">
+        <v>1000</v>
+      </c>
+      <c r="AE141" t="e">
+        <f t="shared" ref="AE141" si="21">AVERAGE(AB141:AB150)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="2:31" ht="17.7">
       <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
@@ -4929,11 +5307,11 @@
       <c r="N142">
         <v>897</v>
       </c>
-      <c r="V142" s="2" t="s">
+      <c r="X142" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="2:22" ht="17.7">
+    <row r="143" spans="2:31" ht="17.7">
       <c r="B143" s="2" t="s">
         <v>143</v>
       </c>
@@ -4949,11 +5327,11 @@
       <c r="N143">
         <v>676</v>
       </c>
-      <c r="V143" s="2" t="s">
+      <c r="X143" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="2:22" ht="17.7">
+    <row r="144" spans="2:31" ht="17.7">
       <c r="B144" s="2" t="s">
         <v>144</v>
       </c>
@@ -4969,11 +5347,11 @@
       <c r="N144">
         <v>437</v>
       </c>
-      <c r="V144" s="2" t="s">
+      <c r="X144" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="2:22" ht="17.7">
+    <row r="145" spans="2:31" ht="17.7">
       <c r="B145" s="2" t="s">
         <v>145</v>
       </c>
@@ -4989,11 +5367,11 @@
       <c r="N145">
         <v>940</v>
       </c>
-      <c r="V145" s="2" t="s">
+      <c r="X145" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="2:22" ht="17.7">
+    <row r="146" spans="2:31" ht="17.7">
       <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
@@ -5009,11 +5387,11 @@
       <c r="N146">
         <v>730</v>
       </c>
-      <c r="V146" s="2" t="s">
+      <c r="X146" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="2:22" ht="17.7">
+    <row r="147" spans="2:31" ht="17.7">
       <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
@@ -5029,11 +5407,11 @@
       <c r="N147">
         <v>307</v>
       </c>
-      <c r="V147" s="2" t="s">
+      <c r="X147" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="2:22" ht="17.7">
+    <row r="148" spans="2:31" ht="17.7">
       <c r="B148" s="2" t="s">
         <v>148</v>
       </c>
@@ -5049,11 +5427,11 @@
       <c r="N148">
         <v>907</v>
       </c>
-      <c r="V148" s="2" t="s">
+      <c r="X148" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="2:22" ht="17.7">
+    <row r="149" spans="2:31" ht="17.7">
       <c r="B149" s="2" t="s">
         <v>149</v>
       </c>
@@ -5069,11 +5447,11 @@
       <c r="N149">
         <v>869</v>
       </c>
-      <c r="V149" s="2" t="s">
+      <c r="X149" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="2:22" ht="17.7">
+    <row r="150" spans="2:31" ht="17.7">
       <c r="B150" s="2" t="s">
         <v>150</v>
       </c>
@@ -5089,11 +5467,11 @@
       <c r="N150">
         <v>845</v>
       </c>
-      <c r="V150" s="2" t="s">
+      <c r="X150" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="2:22" ht="17.7">
+    <row r="151" spans="2:31" ht="17.7">
       <c r="B151" s="1" t="s">
         <v>151</v>
       </c>
@@ -5107,7 +5485,7 @@
         <v>10</v>
       </c>
       <c r="H151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>1.811504364013668E-4</v>
       </c>
       <c r="M151" s="3">
@@ -5123,11 +5501,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V151" s="1" t="s">
+      <c r="U151">
+        <v>10</v>
+      </c>
+      <c r="V151" t="e">
+        <f t="shared" ref="V151" si="22">AVERAGE(S151:S160)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X151" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="152" spans="2:22" ht="17.7">
+      <c r="AD151">
+        <v>10</v>
+      </c>
+      <c r="AE151" t="e">
+        <f t="shared" ref="AE151" si="23">AVERAGE(AB151:AB160)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="2:31" ht="17.7">
       <c r="B152" s="1" t="s">
         <v>152</v>
       </c>
@@ -5143,11 +5535,11 @@
       <c r="N152">
         <v>12</v>
       </c>
-      <c r="V152" s="1" t="s">
+      <c r="X152" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="2:22" ht="17.7">
+    <row r="153" spans="2:31" ht="17.7">
       <c r="B153" s="1" t="s">
         <v>153</v>
       </c>
@@ -5163,11 +5555,11 @@
       <c r="N153">
         <v>32</v>
       </c>
-      <c r="V153" s="1" t="s">
+      <c r="X153" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="2:22" ht="17.7">
+    <row r="154" spans="2:31" ht="17.7">
       <c r="B154" s="1" t="s">
         <v>154</v>
       </c>
@@ -5183,11 +5575,11 @@
       <c r="N154">
         <v>43</v>
       </c>
-      <c r="V154" s="1" t="s">
+      <c r="X154" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="2:22" ht="17.7">
+    <row r="155" spans="2:31" ht="17.7">
       <c r="B155" s="1" t="s">
         <v>155</v>
       </c>
@@ -5203,11 +5595,11 @@
       <c r="N155">
         <v>48</v>
       </c>
-      <c r="V155" s="1" t="s">
+      <c r="X155" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="2:22" ht="17.7">
+    <row r="156" spans="2:31" ht="17.7">
       <c r="B156" s="1" t="s">
         <v>156</v>
       </c>
@@ -5223,11 +5615,11 @@
       <c r="N156">
         <v>58</v>
       </c>
-      <c r="V156" s="1" t="s">
+      <c r="X156" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="2:22" ht="17.7">
+    <row r="157" spans="2:31" ht="17.7">
       <c r="B157" s="1" t="s">
         <v>157</v>
       </c>
@@ -5243,11 +5635,11 @@
       <c r="N157">
         <v>72</v>
       </c>
-      <c r="V157" s="1" t="s">
+      <c r="X157" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="2:22" ht="17.7">
+    <row r="158" spans="2:31" ht="17.7">
       <c r="B158" s="1" t="s">
         <v>158</v>
       </c>
@@ -5263,11 +5655,11 @@
       <c r="N158">
         <v>86</v>
       </c>
-      <c r="V158" s="1" t="s">
+      <c r="X158" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="2:22" ht="17.7">
+    <row r="159" spans="2:31" ht="17.7">
       <c r="B159" s="1" t="s">
         <v>159</v>
       </c>
@@ -5283,11 +5675,11 @@
       <c r="N159">
         <v>99</v>
       </c>
-      <c r="V159" s="1" t="s">
+      <c r="X159" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="2:22" ht="17.7">
+    <row r="160" spans="2:31" ht="17.7">
       <c r="B160" s="1" t="s">
         <v>160</v>
       </c>
@@ -5303,11 +5695,11 @@
       <c r="N160">
         <v>107</v>
       </c>
-      <c r="V160" s="1" t="s">
+      <c r="X160" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="2:22" ht="17.7">
+    <row r="161" spans="2:31" ht="17.7">
       <c r="B161" s="1" t="s">
         <v>161</v>
       </c>
@@ -5337,11 +5729,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V161" s="1" t="s">
+      <c r="U161">
+        <v>100</v>
+      </c>
+      <c r="V161" t="e">
+        <f>AVERAGE(S161:S170)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X161" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="162" spans="2:22" ht="17.7">
+      <c r="AD161">
+        <v>100</v>
+      </c>
+      <c r="AE161" t="e">
+        <f>AVERAGE(AB161:AB170)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="2:31" ht="17.7">
       <c r="B162" s="1" t="s">
         <v>162</v>
       </c>
@@ -5357,11 +5763,11 @@
       <c r="N162">
         <v>153</v>
       </c>
-      <c r="V162" s="1" t="s">
+      <c r="X162" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="2:22" ht="17.7">
+    <row r="163" spans="2:31" ht="17.7">
       <c r="B163" s="1" t="s">
         <v>163</v>
       </c>
@@ -5377,11 +5783,11 @@
       <c r="N163">
         <v>266</v>
       </c>
-      <c r="V163" s="1" t="s">
+      <c r="X163" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="2:22" ht="17.7">
+    <row r="164" spans="2:31" ht="17.7">
       <c r="B164" s="1" t="s">
         <v>164</v>
       </c>
@@ -5397,11 +5803,11 @@
       <c r="N164">
         <v>371</v>
       </c>
-      <c r="V164" s="1" t="s">
+      <c r="X164" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="2:22" ht="17.7">
+    <row r="165" spans="2:31" ht="17.7">
       <c r="B165" s="1" t="s">
         <v>165</v>
       </c>
@@ -5417,11 +5823,11 @@
       <c r="N165">
         <v>498</v>
       </c>
-      <c r="V165" s="1" t="s">
+      <c r="X165" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="2:22" ht="17.7">
+    <row r="166" spans="2:31" ht="17.7">
       <c r="B166" s="1" t="s">
         <v>166</v>
       </c>
@@ -5437,11 +5843,11 @@
       <c r="N166">
         <v>537</v>
       </c>
-      <c r="V166" s="1" t="s">
+      <c r="X166" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="2:22" ht="17.7">
+    <row r="167" spans="2:31" ht="17.7">
       <c r="B167" s="1" t="s">
         <v>167</v>
       </c>
@@ -5457,11 +5863,11 @@
       <c r="N167">
         <v>690</v>
       </c>
-      <c r="V167" s="1" t="s">
+      <c r="X167" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="2:22" ht="17.7">
+    <row r="168" spans="2:31" ht="17.7">
       <c r="B168" s="1" t="s">
         <v>168</v>
       </c>
@@ -5477,11 +5883,11 @@
       <c r="N168">
         <v>784</v>
       </c>
-      <c r="V168" s="1" t="s">
+      <c r="X168" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="2:22" ht="17.7">
+    <row r="169" spans="2:31" ht="17.7">
       <c r="B169" s="1" t="s">
         <v>169</v>
       </c>
@@ -5497,11 +5903,11 @@
       <c r="N169">
         <v>858</v>
       </c>
-      <c r="V169" s="1" t="s">
+      <c r="X169" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="2:22" ht="17.7">
+    <row r="170" spans="2:31" ht="17.7">
       <c r="B170" s="1" t="s">
         <v>170</v>
       </c>
@@ -5517,11 +5923,11 @@
       <c r="N170">
         <v>1053</v>
       </c>
-      <c r="V170" s="1" t="s">
+      <c r="X170" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="2:22" ht="17.7">
+    <row r="171" spans="2:31" ht="17.7">
       <c r="B171" s="1" t="s">
         <v>171</v>
       </c>
@@ -5535,7 +5941,7 @@
         <v>1000</v>
       </c>
       <c r="H171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>2.1052360534667917E-4</v>
       </c>
       <c r="M171">
@@ -5551,11 +5957,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V171" s="1" t="s">
+      <c r="U171">
+        <v>1000</v>
+      </c>
+      <c r="V171" t="e">
+        <f t="shared" ref="V171" si="24">AVERAGE(S171:S180)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X171" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="172" spans="2:22" ht="17.7">
+      <c r="AD171">
+        <v>1000</v>
+      </c>
+      <c r="AE171" t="e">
+        <f t="shared" ref="AE171" si="25">AVERAGE(AB171:AB180)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="2:31" ht="17.7">
       <c r="B172" s="1" t="s">
         <v>172</v>
       </c>
@@ -5571,11 +5991,11 @@
       <c r="N172">
         <v>1403</v>
       </c>
-      <c r="V172" s="1" t="s">
+      <c r="X172" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="2:22" ht="17.7">
+    <row r="173" spans="2:31" ht="17.7">
       <c r="B173" s="1" t="s">
         <v>173</v>
       </c>
@@ -5591,11 +6011,11 @@
       <c r="N173">
         <v>4011</v>
       </c>
-      <c r="V173" s="1" t="s">
+      <c r="X173" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="2:22" ht="17.7">
+    <row r="174" spans="2:31" ht="17.7">
       <c r="B174" s="1" t="s">
         <v>174</v>
       </c>
@@ -5611,11 +6031,11 @@
       <c r="N174">
         <v>3319</v>
       </c>
-      <c r="V174" s="1" t="s">
+      <c r="X174" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="2:22" ht="17.7">
+    <row r="175" spans="2:31" ht="17.7">
       <c r="B175" s="1" t="s">
         <v>175</v>
       </c>
@@ -5631,11 +6051,11 @@
       <c r="N175">
         <v>4773</v>
       </c>
-      <c r="V175" s="1" t="s">
+      <c r="X175" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="2:22" ht="17.7">
+    <row r="176" spans="2:31" ht="17.7">
       <c r="B176" s="1" t="s">
         <v>176</v>
       </c>
@@ -5651,11 +6071,11 @@
       <c r="N176">
         <v>5399</v>
       </c>
-      <c r="V176" s="1" t="s">
+      <c r="X176" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="2:22" ht="17.7">
+    <row r="177" spans="2:31" ht="17.7">
       <c r="B177" s="1" t="s">
         <v>177</v>
       </c>
@@ -5671,11 +6091,11 @@
       <c r="N177">
         <v>6089</v>
       </c>
-      <c r="V177" s="1" t="s">
+      <c r="X177" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="2:22" ht="17.7">
+    <row r="178" spans="2:31" ht="17.7">
       <c r="B178" s="1" t="s">
         <v>178</v>
       </c>
@@ -5691,11 +6111,11 @@
       <c r="N178">
         <v>6958</v>
       </c>
-      <c r="V178" s="1" t="s">
+      <c r="X178" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="2:22" ht="17.7">
+    <row r="179" spans="2:31" ht="17.7">
       <c r="B179" s="1" t="s">
         <v>179</v>
       </c>
@@ -5711,11 +6131,11 @@
       <c r="N179">
         <v>9233</v>
       </c>
-      <c r="V179" s="1" t="s">
+      <c r="X179" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="2:22" ht="17.7">
+    <row r="180" spans="2:31" ht="17.7">
       <c r="B180" s="1" t="s">
         <v>180</v>
       </c>
@@ -5731,11 +6151,11 @@
       <c r="N180">
         <v>9071</v>
       </c>
-      <c r="V180" s="1" t="s">
+      <c r="X180" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="2:22" ht="17.7">
+    <row r="181" spans="2:31" ht="17.7">
       <c r="B181" s="1" t="s">
         <v>181</v>
       </c>
@@ -5749,7 +6169,7 @@
         <v>10</v>
       </c>
       <c r="H181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>1.7978429794311477E-3</v>
       </c>
       <c r="M181">
@@ -5765,11 +6185,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V181" s="1" t="s">
+      <c r="U181">
+        <v>10</v>
+      </c>
+      <c r="V181" t="e">
+        <f t="shared" ref="V181" si="26">AVERAGE(S181:S190)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X181" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="182" spans="2:22" ht="17.7">
+      <c r="AD181">
+        <v>10</v>
+      </c>
+      <c r="AE181" t="e">
+        <f t="shared" ref="AE181" si="27">AVERAGE(AB181:AB190)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="2:31" ht="17.7">
       <c r="B182" s="1" t="s">
         <v>182</v>
       </c>
@@ -5785,11 +6219,11 @@
       <c r="N182">
         <v>218</v>
       </c>
-      <c r="V182" s="1" t="s">
+      <c r="X182" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="2:22" ht="17.7">
+    <row r="183" spans="2:31" ht="17.7">
       <c r="B183" s="1" t="s">
         <v>183</v>
       </c>
@@ -5805,11 +6239,11 @@
       <c r="N183">
         <v>325</v>
       </c>
-      <c r="V183" s="1" t="s">
+      <c r="X183" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="2:22" ht="17.7">
+    <row r="184" spans="2:31" ht="17.7">
       <c r="B184" s="1" t="s">
         <v>184</v>
       </c>
@@ -5825,11 +6259,11 @@
       <c r="N184">
         <v>439</v>
       </c>
-      <c r="V184" s="1" t="s">
+      <c r="X184" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="2:22" ht="17.7">
+    <row r="185" spans="2:31" ht="17.7">
       <c r="B185" s="1" t="s">
         <v>185</v>
       </c>
@@ -5845,11 +6279,11 @@
       <c r="N185">
         <v>543</v>
       </c>
-      <c r="V185" s="1" t="s">
+      <c r="X185" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="2:22" ht="17.7">
+    <row r="186" spans="2:31" ht="17.7">
       <c r="B186" s="1" t="s">
         <v>186</v>
       </c>
@@ -5865,11 +6299,11 @@
       <c r="N186">
         <v>646</v>
       </c>
-      <c r="V186" s="1" t="s">
+      <c r="X186" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="2:22" ht="17.7">
+    <row r="187" spans="2:31" ht="17.7">
       <c r="B187" s="1" t="s">
         <v>187</v>
       </c>
@@ -5885,11 +6319,11 @@
       <c r="N187">
         <v>882</v>
       </c>
-      <c r="V187" s="1" t="s">
+      <c r="X187" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="2:22" ht="17.7">
+    <row r="188" spans="2:31" ht="17.7">
       <c r="B188" s="1" t="s">
         <v>188</v>
       </c>
@@ -5905,11 +6339,11 @@
       <c r="N188">
         <v>871</v>
       </c>
-      <c r="V188" s="1" t="s">
+      <c r="X188" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="2:22" ht="17.7">
+    <row r="189" spans="2:31" ht="17.7">
       <c r="B189" s="1" t="s">
         <v>189</v>
       </c>
@@ -5925,11 +6359,11 @@
       <c r="N189">
         <v>967</v>
       </c>
-      <c r="V189" s="1" t="s">
+      <c r="X189" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="2:22" ht="17.7">
+    <row r="190" spans="2:31" ht="17.7">
       <c r="B190" s="1" t="s">
         <v>190</v>
       </c>
@@ -5945,11 +6379,11 @@
       <c r="N190">
         <v>1104</v>
       </c>
-      <c r="V190" s="1" t="s">
+      <c r="X190" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="2:22" ht="17.7">
+    <row r="191" spans="2:31" ht="17.7">
       <c r="B191" s="1" t="s">
         <v>191</v>
       </c>
@@ -5963,7 +6397,7 @@
         <v>100</v>
       </c>
       <c r="H191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>1.863837242126459E-3</v>
       </c>
       <c r="M191">
@@ -5979,11 +6413,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V191" s="1" t="s">
+      <c r="U191">
+        <v>100</v>
+      </c>
+      <c r="V191" t="e">
+        <f t="shared" ref="V191" si="28">AVERAGE(S191:S200)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X191" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="192" spans="2:22" ht="17.7">
+      <c r="AD191">
+        <v>100</v>
+      </c>
+      <c r="AE191" t="e">
+        <f t="shared" ref="AE191" si="29">AVERAGE(AB191:AB200)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="2:31" ht="17.7">
       <c r="B192" s="1" t="s">
         <v>192</v>
       </c>
@@ -5999,11 +6447,11 @@
       <c r="N192">
         <v>1976</v>
       </c>
-      <c r="V192" s="1" t="s">
+      <c r="X192" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="2:22" ht="17.7">
+    <row r="193" spans="2:31" ht="17.7">
       <c r="B193" s="1" t="s">
         <v>193</v>
       </c>
@@ -6019,11 +6467,11 @@
       <c r="N193">
         <v>2888</v>
       </c>
-      <c r="V193" s="1" t="s">
+      <c r="X193" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="2:22" ht="17.7">
+    <row r="194" spans="2:31" ht="17.7">
       <c r="B194" s="1" t="s">
         <v>194</v>
       </c>
@@ -6039,11 +6487,11 @@
       <c r="N194">
         <v>3984</v>
       </c>
-      <c r="V194" s="1" t="s">
+      <c r="X194" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="2:22" ht="17.7">
+    <row r="195" spans="2:31" ht="17.7">
       <c r="B195" s="1" t="s">
         <v>195</v>
       </c>
@@ -6059,11 +6507,11 @@
       <c r="N195">
         <v>4997</v>
       </c>
-      <c r="V195" s="1" t="s">
+      <c r="X195" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="2:22" ht="17.7">
+    <row r="196" spans="2:31" ht="17.7">
       <c r="B196" s="1" t="s">
         <v>196</v>
       </c>
@@ -6079,11 +6527,11 @@
       <c r="N196">
         <v>5998</v>
       </c>
-      <c r="V196" s="1" t="s">
+      <c r="X196" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="2:22" ht="17.7">
+    <row r="197" spans="2:31" ht="17.7">
       <c r="B197" s="1" t="s">
         <v>197</v>
       </c>
@@ -6099,11 +6547,11 @@
       <c r="N197">
         <v>6805</v>
       </c>
-      <c r="V197" s="1" t="s">
+      <c r="X197" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="2:22" ht="17.7">
+    <row r="198" spans="2:31" ht="17.7">
       <c r="B198" s="1" t="s">
         <v>198</v>
       </c>
@@ -6119,11 +6567,11 @@
       <c r="N198">
         <v>8134</v>
       </c>
-      <c r="V198" s="1" t="s">
+      <c r="X198" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="2:22" ht="17.7">
+    <row r="199" spans="2:31" ht="17.7">
       <c r="B199" s="1" t="s">
         <v>199</v>
       </c>
@@ -6139,11 +6587,11 @@
       <c r="N199">
         <v>9202</v>
       </c>
-      <c r="V199" s="1" t="s">
+      <c r="X199" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="2:22" ht="17.7">
+    <row r="200" spans="2:31" ht="17.7">
       <c r="B200" s="1" t="s">
         <v>200</v>
       </c>
@@ -6159,11 +6607,11 @@
       <c r="N200">
         <v>10202</v>
       </c>
-      <c r="V200" s="1" t="s">
+      <c r="X200" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="2:22" ht="17.7">
+    <row r="201" spans="2:31" ht="17.7">
       <c r="B201" s="1" t="s">
         <v>201</v>
       </c>
@@ -6177,7 +6625,7 @@
         <v>1000</v>
       </c>
       <c r="H201">
-        <f t="shared" ref="H201" si="3">AVERAGE(E201:E210)</f>
+        <f t="shared" ref="H201" si="30">AVERAGE(E201:E210)</f>
         <v>2.1454572677612259E-3</v>
       </c>
       <c r="M201">
@@ -6193,11 +6641,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V201" s="1" t="s">
+      <c r="U201">
+        <v>1000</v>
+      </c>
+      <c r="V201" t="e">
+        <f t="shared" ref="V201" si="31">AVERAGE(S201:S210)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X201" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="202" spans="2:22" ht="17.7">
+      <c r="AD201">
+        <v>1000</v>
+      </c>
+      <c r="AE201" t="e">
+        <f t="shared" ref="AE201" si="32">AVERAGE(AB201:AB210)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="2:31" ht="17.7">
       <c r="B202" s="1" t="s">
         <v>202</v>
       </c>
@@ -6213,11 +6675,11 @@
       <c r="N202">
         <v>19291</v>
       </c>
-      <c r="V202" s="1" t="s">
+      <c r="X202" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="2:22" ht="17.7">
+    <row r="203" spans="2:31" ht="17.7">
       <c r="B203" s="1" t="s">
         <v>203</v>
       </c>
@@ -6233,11 +6695,11 @@
       <c r="N203">
         <v>28788</v>
       </c>
-      <c r="V203" s="1" t="s">
+      <c r="X203" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="2:22" ht="17.7">
+    <row r="204" spans="2:31" ht="17.7">
       <c r="B204" s="1" t="s">
         <v>204</v>
       </c>
@@ -6253,11 +6715,11 @@
       <c r="N204">
         <v>38854</v>
       </c>
-      <c r="V204" s="1" t="s">
+      <c r="X204" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="2:22" ht="17.7">
+    <row r="205" spans="2:31" ht="17.7">
       <c r="B205" s="1" t="s">
         <v>205</v>
       </c>
@@ -6273,11 +6735,11 @@
       <c r="N205">
         <v>49957</v>
       </c>
-      <c r="V205" s="1" t="s">
+      <c r="X205" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="2:22" ht="17.7">
+    <row r="206" spans="2:31" ht="17.7">
       <c r="B206" s="1" t="s">
         <v>206</v>
       </c>
@@ -6293,11 +6755,11 @@
       <c r="N206">
         <v>59308</v>
       </c>
-      <c r="V206" s="1" t="s">
+      <c r="X206" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="2:22" ht="17.7">
+    <row r="207" spans="2:31" ht="17.7">
       <c r="B207" s="1" t="s">
         <v>207</v>
       </c>
@@ -6313,11 +6775,11 @@
       <c r="N207">
         <v>69155</v>
       </c>
-      <c r="V207" s="1" t="s">
+      <c r="X207" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="2:22" ht="17.7">
+    <row r="208" spans="2:31" ht="17.7">
       <c r="B208" s="1" t="s">
         <v>208</v>
       </c>
@@ -6333,11 +6795,11 @@
       <c r="N208">
         <v>77716</v>
       </c>
-      <c r="V208" s="1" t="s">
+      <c r="X208" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="2:22" ht="17.7">
+    <row r="209" spans="2:31" ht="17.7">
       <c r="B209" s="1" t="s">
         <v>209</v>
       </c>
@@ -6353,11 +6815,11 @@
       <c r="N209">
         <v>89704</v>
       </c>
-      <c r="V209" s="1" t="s">
+      <c r="X209" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="2:22" ht="17.7">
+    <row r="210" spans="2:31" ht="17.7">
       <c r="B210" s="1" t="s">
         <v>210</v>
       </c>
@@ -6373,11 +6835,11 @@
       <c r="N210">
         <v>99220</v>
       </c>
-      <c r="V210" s="1" t="s">
+      <c r="X210" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="2:22" ht="17.7">
+    <row r="211" spans="2:31" ht="17.7">
       <c r="B211" s="2" t="s">
         <v>211</v>
       </c>
@@ -6407,11 +6869,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V211" s="2" t="s">
+      <c r="U211">
+        <v>10</v>
+      </c>
+      <c r="V211" s="3" t="e">
+        <f>AVERAGE(S211:S220)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X211" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="212" spans="2:22" ht="17.7">
+      <c r="AD211">
+        <v>10</v>
+      </c>
+      <c r="AE211" s="3" t="e">
+        <f>AVERAGE(AB211:AB220)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="212" spans="2:31" ht="17.7">
       <c r="B212" s="2" t="s">
         <v>212</v>
       </c>
@@ -6428,11 +6904,13 @@
       <c r="N212">
         <v>3</v>
       </c>
-      <c r="V212" s="2" t="s">
+      <c r="V212" s="3"/>
+      <c r="X212" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="213" spans="2:22" ht="17.7">
+      <c r="AE212" s="3"/>
+    </row>
+    <row r="213" spans="2:31" ht="17.7">
       <c r="B213" s="2" t="s">
         <v>213</v>
       </c>
@@ -6449,11 +6927,13 @@
       <c r="N213">
         <v>6</v>
       </c>
-      <c r="V213" s="2" t="s">
+      <c r="V213" s="3"/>
+      <c r="X213" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="214" spans="2:22" ht="17.7">
+      <c r="AE213" s="3"/>
+    </row>
+    <row r="214" spans="2:31" ht="17.7">
       <c r="B214" s="2" t="s">
         <v>214</v>
       </c>
@@ -6470,11 +6950,13 @@
       <c r="N214">
         <v>7</v>
       </c>
-      <c r="V214" s="2" t="s">
+      <c r="V214" s="3"/>
+      <c r="X214" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="215" spans="2:22" ht="17.7">
+      <c r="AE214" s="3"/>
+    </row>
+    <row r="215" spans="2:31" ht="17.7">
       <c r="B215" s="2" t="s">
         <v>215</v>
       </c>
@@ -6491,11 +6973,13 @@
       <c r="N215">
         <v>14</v>
       </c>
-      <c r="V215" s="2" t="s">
+      <c r="V215" s="3"/>
+      <c r="X215" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="216" spans="2:22" ht="17.7">
+      <c r="AE215" s="3"/>
+    </row>
+    <row r="216" spans="2:31" ht="17.7">
       <c r="B216" s="2" t="s">
         <v>216</v>
       </c>
@@ -6512,11 +6996,13 @@
       <c r="N216">
         <v>11</v>
       </c>
-      <c r="V216" s="2" t="s">
+      <c r="V216" s="3"/>
+      <c r="X216" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="217" spans="2:22" ht="17.7">
+      <c r="AE216" s="3"/>
+    </row>
+    <row r="217" spans="2:31" ht="17.7">
       <c r="B217" s="2" t="s">
         <v>217</v>
       </c>
@@ -6533,11 +7019,13 @@
       <c r="N217">
         <v>13</v>
       </c>
-      <c r="V217" s="2" t="s">
+      <c r="V217" s="3"/>
+      <c r="X217" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="218" spans="2:22" ht="17.7">
+      <c r="AE217" s="3"/>
+    </row>
+    <row r="218" spans="2:31" ht="17.7">
       <c r="B218" s="2" t="s">
         <v>218</v>
       </c>
@@ -6554,11 +7042,13 @@
       <c r="N218">
         <v>20</v>
       </c>
-      <c r="V218" s="2" t="s">
+      <c r="V218" s="3"/>
+      <c r="X218" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="219" spans="2:22" ht="17.7">
+      <c r="AE218" s="3"/>
+    </row>
+    <row r="219" spans="2:31" ht="17.7">
       <c r="B219" s="1" t="s">
         <v>219</v>
       </c>
@@ -6575,11 +7065,13 @@
       <c r="N219">
         <v>27</v>
       </c>
-      <c r="V219" s="1" t="s">
+      <c r="V219" s="3"/>
+      <c r="X219" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="220" spans="2:22" ht="17.7">
+      <c r="AE219" s="3"/>
+    </row>
+    <row r="220" spans="2:31" ht="17.7">
       <c r="B220" s="2" t="s">
         <v>220</v>
       </c>
@@ -6596,11 +7088,13 @@
       <c r="N220">
         <v>23</v>
       </c>
-      <c r="V220" s="2" t="s">
+      <c r="V220" s="3"/>
+      <c r="X220" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="221" spans="2:22" ht="17.7">
+      <c r="AE220" s="3"/>
+    </row>
+    <row r="221" spans="2:31" ht="17.7">
       <c r="B221" s="2" t="s">
         <v>221</v>
       </c>
@@ -6614,7 +7108,7 @@
         <v>100</v>
       </c>
       <c r="H221" s="3">
-        <f t="shared" ref="H221:H261" si="4">AVERAGE(E221:E230)</f>
+        <f t="shared" ref="H221:H261" si="33">AVERAGE(E221:E230)</f>
         <v>6.480216979980465E-5</v>
       </c>
       <c r="M221" s="3">
@@ -6630,11 +7124,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V221" s="2" t="s">
+      <c r="U221">
+        <v>100</v>
+      </c>
+      <c r="V221" s="3" t="e">
+        <f t="shared" ref="V221" si="34">AVERAGE(S221:S230)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X221" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="222" spans="2:22" ht="17.7">
+      <c r="AD221">
+        <v>100</v>
+      </c>
+      <c r="AE221" s="3" t="e">
+        <f t="shared" ref="AE221" si="35">AVERAGE(AB221:AB230)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="222" spans="2:31" ht="17.7">
       <c r="B222" s="2" t="s">
         <v>222</v>
       </c>
@@ -6651,11 +7159,13 @@
       <c r="N222">
         <v>94</v>
       </c>
-      <c r="V222" s="2" t="s">
+      <c r="V222" s="3"/>
+      <c r="X222" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="223" spans="2:22" ht="17.7">
+      <c r="AE222" s="3"/>
+    </row>
+    <row r="223" spans="2:31" ht="17.7">
       <c r="B223" s="2" t="s">
         <v>223</v>
       </c>
@@ -6672,11 +7182,13 @@
       <c r="N223">
         <v>82</v>
       </c>
-      <c r="V223" s="2" t="s">
+      <c r="V223" s="3"/>
+      <c r="X223" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="224" spans="2:22" ht="17.7">
+      <c r="AE223" s="3"/>
+    </row>
+    <row r="224" spans="2:31" ht="17.7">
       <c r="B224" s="2" t="s">
         <v>224</v>
       </c>
@@ -6693,11 +7205,13 @@
       <c r="N224">
         <v>83</v>
       </c>
-      <c r="V224" s="2" t="s">
+      <c r="V224" s="3"/>
+      <c r="X224" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="225" spans="2:22" ht="17.7">
+      <c r="AE224" s="3"/>
+    </row>
+    <row r="225" spans="2:31" ht="17.7">
       <c r="B225" s="2" t="s">
         <v>225</v>
       </c>
@@ -6714,11 +7228,13 @@
       <c r="N225">
         <v>64</v>
       </c>
-      <c r="V225" s="2" t="s">
+      <c r="V225" s="3"/>
+      <c r="X225" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="226" spans="2:22" ht="17.7">
+      <c r="AE225" s="3"/>
+    </row>
+    <row r="226" spans="2:31" ht="17.7">
       <c r="B226" s="2" t="s">
         <v>226</v>
       </c>
@@ -6735,11 +7251,13 @@
       <c r="N226">
         <v>111</v>
       </c>
-      <c r="V226" s="2" t="s">
+      <c r="V226" s="3"/>
+      <c r="X226" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="227" spans="2:22" ht="17.7">
+      <c r="AE226" s="3"/>
+    </row>
+    <row r="227" spans="2:31" ht="17.7">
       <c r="B227" s="2" t="s">
         <v>227</v>
       </c>
@@ -6756,11 +7274,13 @@
       <c r="N227">
         <v>81</v>
       </c>
-      <c r="V227" s="2" t="s">
+      <c r="V227" s="3"/>
+      <c r="X227" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="228" spans="2:22" ht="17.7">
+      <c r="AE227" s="3"/>
+    </row>
+    <row r="228" spans="2:31" ht="17.7">
       <c r="B228" s="2" t="s">
         <v>228</v>
       </c>
@@ -6777,11 +7297,13 @@
       <c r="N228">
         <v>185</v>
       </c>
-      <c r="V228" s="2" t="s">
+      <c r="V228" s="3"/>
+      <c r="X228" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="229" spans="2:22" ht="17.7">
+      <c r="AE228" s="3"/>
+    </row>
+    <row r="229" spans="2:31" ht="17.7">
       <c r="B229" s="2" t="s">
         <v>229</v>
       </c>
@@ -6798,11 +7320,13 @@
       <c r="N229">
         <v>263</v>
       </c>
-      <c r="V229" s="2" t="s">
+      <c r="V229" s="3"/>
+      <c r="X229" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="230" spans="2:22" ht="17.7">
+      <c r="AE229" s="3"/>
+    </row>
+    <row r="230" spans="2:31" ht="17.7">
       <c r="B230" s="2" t="s">
         <v>230</v>
       </c>
@@ -6819,11 +7343,13 @@
       <c r="N230">
         <v>213</v>
       </c>
-      <c r="V230" s="2" t="s">
+      <c r="V230" s="3"/>
+      <c r="X230" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="231" spans="2:22" ht="17.7">
+      <c r="AE230" s="3"/>
+    </row>
+    <row r="231" spans="2:31" ht="17.7">
       <c r="B231" s="2" t="s">
         <v>231</v>
       </c>
@@ -6837,7 +7363,7 @@
         <v>1000</v>
       </c>
       <c r="H231" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>6.0510635375976518E-5</v>
       </c>
       <c r="M231" s="3">
@@ -6853,11 +7379,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V231" s="2" t="s">
+      <c r="U231">
+        <v>1000</v>
+      </c>
+      <c r="V231" s="3" t="e">
+        <f t="shared" ref="V231" si="36">AVERAGE(S231:S240)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X231" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="232" spans="2:22" ht="17.7">
+      <c r="AD231">
+        <v>1000</v>
+      </c>
+      <c r="AE231" s="3" t="e">
+        <f t="shared" ref="AE231" si="37">AVERAGE(AB231:AB240)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="232" spans="2:31" ht="17.7">
       <c r="B232" s="2" t="s">
         <v>232</v>
       </c>
@@ -6874,11 +7414,13 @@
       <c r="N232">
         <v>749</v>
       </c>
-      <c r="V232" s="2" t="s">
+      <c r="V232" s="3"/>
+      <c r="X232" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="233" spans="2:22" ht="17.7">
+      <c r="AE232" s="3"/>
+    </row>
+    <row r="233" spans="2:31" ht="17.7">
       <c r="B233" s="2" t="s">
         <v>233</v>
       </c>
@@ -6895,11 +7437,13 @@
       <c r="N233">
         <v>673</v>
       </c>
-      <c r="V233" s="2" t="s">
+      <c r="V233" s="3"/>
+      <c r="X233" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="234" spans="2:22" ht="17.7">
+      <c r="AE233" s="3"/>
+    </row>
+    <row r="234" spans="2:31" ht="17.7">
       <c r="B234" s="2" t="s">
         <v>234</v>
       </c>
@@ -6916,11 +7460,13 @@
       <c r="N234">
         <v>422</v>
       </c>
-      <c r="V234" s="2" t="s">
+      <c r="V234" s="3"/>
+      <c r="X234" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="235" spans="2:22" ht="17.7">
+      <c r="AE234" s="3"/>
+    </row>
+    <row r="235" spans="2:31" ht="17.7">
       <c r="B235" s="2" t="s">
         <v>235</v>
       </c>
@@ -6937,11 +7483,13 @@
       <c r="N235">
         <v>238</v>
       </c>
-      <c r="V235" s="2" t="s">
+      <c r="V235" s="3"/>
+      <c r="X235" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="236" spans="2:22" ht="17.7">
+      <c r="AE235" s="3"/>
+    </row>
+    <row r="236" spans="2:31" ht="17.7">
       <c r="B236" s="2" t="s">
         <v>236</v>
       </c>
@@ -6958,11 +7506,13 @@
       <c r="N236">
         <v>1306</v>
       </c>
-      <c r="V236" s="2" t="s">
+      <c r="V236" s="3"/>
+      <c r="X236" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="237" spans="2:22" ht="17.7">
+      <c r="AE236" s="3"/>
+    </row>
+    <row r="237" spans="2:31" ht="17.7">
       <c r="B237" s="2" t="s">
         <v>237</v>
       </c>
@@ -6979,11 +7529,13 @@
       <c r="N237">
         <v>1717</v>
       </c>
-      <c r="V237" s="2" t="s">
+      <c r="V237" s="3"/>
+      <c r="X237" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="238" spans="2:22" ht="17.7">
+      <c r="AE237" s="3"/>
+    </row>
+    <row r="238" spans="2:31" ht="17.7">
       <c r="B238" s="2" t="s">
         <v>238</v>
       </c>
@@ -7000,11 +7552,13 @@
       <c r="N238">
         <v>1602</v>
       </c>
-      <c r="V238" s="2" t="s">
+      <c r="V238" s="3"/>
+      <c r="X238" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="239" spans="2:22" ht="17.7">
+      <c r="AE238" s="3"/>
+    </row>
+    <row r="239" spans="2:31" ht="17.7">
       <c r="B239" s="2" t="s">
         <v>239</v>
       </c>
@@ -7021,11 +7575,13 @@
       <c r="N239">
         <v>2253</v>
       </c>
-      <c r="V239" s="2" t="s">
+      <c r="V239" s="3"/>
+      <c r="X239" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="240" spans="2:22" ht="17.7">
+      <c r="AE239" s="3"/>
+    </row>
+    <row r="240" spans="2:31" ht="17.7">
       <c r="B240" s="2" t="s">
         <v>240</v>
       </c>
@@ -7042,11 +7598,13 @@
       <c r="N240">
         <v>1856</v>
       </c>
-      <c r="V240" s="2" t="s">
+      <c r="V240" s="3"/>
+      <c r="X240" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="241" spans="2:22" ht="17.7">
+      <c r="AE240" s="3"/>
+    </row>
+    <row r="241" spans="2:31" ht="17.7">
       <c r="B241" s="1" t="s">
         <v>241</v>
       </c>
@@ -7060,7 +7618,7 @@
         <v>10</v>
       </c>
       <c r="H241" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>5.1259994506835905E-4</v>
       </c>
       <c r="M241">
@@ -7076,11 +7634,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V241" s="1" t="s">
+      <c r="U241">
+        <v>10</v>
+      </c>
+      <c r="V241" s="3" t="e">
+        <f t="shared" ref="V241" si="38">AVERAGE(S241:S250)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X241" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="242" spans="2:22" ht="17.7">
+      <c r="AD241">
+        <v>10</v>
+      </c>
+      <c r="AE241" s="3" t="e">
+        <f t="shared" ref="AE241" si="39">AVERAGE(AB241:AB250)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="242" spans="2:31" ht="17.7">
       <c r="B242" s="1" t="s">
         <v>242</v>
       </c>
@@ -7097,11 +7669,13 @@
       <c r="N242">
         <v>55</v>
       </c>
-      <c r="V242" s="1" t="s">
+      <c r="V242" s="3"/>
+      <c r="X242" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="243" spans="2:22" ht="17.7">
+      <c r="AE242" s="3"/>
+    </row>
+    <row r="243" spans="2:31" ht="17.7">
       <c r="B243" s="1" t="s">
         <v>243</v>
       </c>
@@ -7118,11 +7692,13 @@
       <c r="N243">
         <v>81</v>
       </c>
-      <c r="V243" s="1" t="s">
+      <c r="V243" s="3"/>
+      <c r="X243" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="244" spans="2:22" ht="17.7">
+      <c r="AE243" s="3"/>
+    </row>
+    <row r="244" spans="2:31" ht="17.7">
       <c r="B244" s="1" t="s">
         <v>244</v>
       </c>
@@ -7139,11 +7715,13 @@
       <c r="N244">
         <v>107</v>
       </c>
-      <c r="V244" s="1" t="s">
+      <c r="V244" s="3"/>
+      <c r="X244" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="245" spans="2:22" ht="17.7">
+      <c r="AE244" s="3"/>
+    </row>
+    <row r="245" spans="2:31" ht="17.7">
       <c r="B245" s="1" t="s">
         <v>245</v>
       </c>
@@ -7160,11 +7738,13 @@
       <c r="N245">
         <v>133</v>
       </c>
-      <c r="V245" s="1" t="s">
+      <c r="V245" s="3"/>
+      <c r="X245" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="246" spans="2:22" ht="17.7">
+      <c r="AE245" s="3"/>
+    </row>
+    <row r="246" spans="2:31" ht="17.7">
       <c r="B246" s="1" t="s">
         <v>246</v>
       </c>
@@ -7181,11 +7761,13 @@
       <c r="N246">
         <v>162</v>
       </c>
-      <c r="V246" s="1" t="s">
+      <c r="V246" s="3"/>
+      <c r="X246" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="247" spans="2:22" ht="17.7">
+      <c r="AE246" s="3"/>
+    </row>
+    <row r="247" spans="2:31" ht="17.7">
       <c r="B247" s="1" t="s">
         <v>247</v>
       </c>
@@ -7202,11 +7784,13 @@
       <c r="N247">
         <v>175</v>
       </c>
-      <c r="V247" s="1" t="s">
+      <c r="V247" s="3"/>
+      <c r="X247" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="248" spans="2:22" ht="17.7">
+      <c r="AE247" s="3"/>
+    </row>
+    <row r="248" spans="2:31" ht="17.7">
       <c r="B248" s="1" t="s">
         <v>248</v>
       </c>
@@ -7223,11 +7807,13 @@
       <c r="N248">
         <v>213</v>
       </c>
-      <c r="V248" s="1" t="s">
+      <c r="V248" s="3"/>
+      <c r="X248" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="249" spans="2:22" ht="17.7">
+      <c r="AE248" s="3"/>
+    </row>
+    <row r="249" spans="2:31" ht="17.7">
       <c r="B249" s="1" t="s">
         <v>249</v>
       </c>
@@ -7244,11 +7830,13 @@
       <c r="N249">
         <v>244</v>
       </c>
-      <c r="V249" s="1" t="s">
+      <c r="V249" s="3"/>
+      <c r="X249" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="250" spans="2:22" ht="17.7">
+      <c r="AE249" s="3"/>
+    </row>
+    <row r="250" spans="2:31" ht="17.7">
       <c r="B250" s="1" t="s">
         <v>250</v>
       </c>
@@ -7265,11 +7853,13 @@
       <c r="N250">
         <v>272</v>
       </c>
-      <c r="V250" s="1" t="s">
+      <c r="V250" s="3"/>
+      <c r="X250" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="251" spans="2:22" ht="17.7">
+      <c r="AE250" s="3"/>
+    </row>
+    <row r="251" spans="2:31" ht="17.7">
       <c r="B251" s="1" t="s">
         <v>251</v>
       </c>
@@ -7283,7 +7873,7 @@
         <v>100</v>
       </c>
       <c r="H251" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>4.7664642333984338E-4</v>
       </c>
       <c r="M251">
@@ -7299,11 +7889,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V251" s="1" t="s">
+      <c r="U251">
+        <v>100</v>
+      </c>
+      <c r="V251" s="3" t="e">
+        <f t="shared" ref="V251" si="40">AVERAGE(S251:S260)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X251" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="252" spans="2:22" ht="17.7">
+      <c r="AD251">
+        <v>100</v>
+      </c>
+      <c r="AE251" s="3" t="e">
+        <f t="shared" ref="AE251" si="41">AVERAGE(AB251:AB260)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="252" spans="2:31" ht="17.7">
       <c r="B252" s="1" t="s">
         <v>252</v>
       </c>
@@ -7320,11 +7924,13 @@
       <c r="N252">
         <v>484</v>
       </c>
-      <c r="V252" s="1" t="s">
+      <c r="V252" s="3"/>
+      <c r="X252" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="253" spans="2:22" ht="17.7">
+      <c r="AE252" s="3"/>
+    </row>
+    <row r="253" spans="2:31" ht="17.7">
       <c r="B253" s="1" t="s">
         <v>253</v>
       </c>
@@ -7341,11 +7947,13 @@
       <c r="N253">
         <v>673</v>
       </c>
-      <c r="V253" s="1" t="s">
+      <c r="V253" s="3"/>
+      <c r="X253" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="254" spans="2:22" ht="17.7">
+      <c r="AE253" s="3"/>
+    </row>
+    <row r="254" spans="2:31" ht="17.7">
       <c r="B254" s="1" t="s">
         <v>254</v>
       </c>
@@ -7362,11 +7970,13 @@
       <c r="N254">
         <v>928</v>
       </c>
-      <c r="V254" s="1" t="s">
+      <c r="V254" s="3"/>
+      <c r="X254" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="255" spans="2:22" ht="17.7">
+      <c r="AE254" s="3"/>
+    </row>
+    <row r="255" spans="2:31" ht="17.7">
       <c r="B255" s="1" t="s">
         <v>255</v>
       </c>
@@ -7383,11 +7993,13 @@
       <c r="N255">
         <v>1197</v>
       </c>
-      <c r="V255" s="1" t="s">
+      <c r="V255" s="3"/>
+      <c r="X255" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="256" spans="2:22" ht="17.7">
+      <c r="AE255" s="3"/>
+    </row>
+    <row r="256" spans="2:31" ht="17.7">
       <c r="B256" s="1" t="s">
         <v>256</v>
       </c>
@@ -7404,11 +8016,13 @@
       <c r="N256">
         <v>1492</v>
       </c>
-      <c r="V256" s="1" t="s">
+      <c r="V256" s="3"/>
+      <c r="X256" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="257" spans="2:22" ht="17.7">
+      <c r="AE256" s="3"/>
+    </row>
+    <row r="257" spans="2:31" ht="17.7">
       <c r="B257" s="1" t="s">
         <v>257</v>
       </c>
@@ -7425,11 +8039,13 @@
       <c r="N257">
         <v>1664</v>
       </c>
-      <c r="V257" s="1" t="s">
+      <c r="V257" s="3"/>
+      <c r="X257" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="258" spans="2:22" ht="17.7">
+      <c r="AE257" s="3"/>
+    </row>
+    <row r="258" spans="2:31" ht="17.7">
       <c r="B258" s="1" t="s">
         <v>258</v>
       </c>
@@ -7446,11 +8062,13 @@
       <c r="N258">
         <v>2104</v>
       </c>
-      <c r="V258" s="1" t="s">
+      <c r="V258" s="3"/>
+      <c r="X258" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="259" spans="2:22" ht="17.7">
+      <c r="AE258" s="3"/>
+    </row>
+    <row r="259" spans="2:31" ht="17.7">
       <c r="B259" s="1" t="s">
         <v>259</v>
       </c>
@@ -7467,11 +8085,13 @@
       <c r="N259">
         <v>2163</v>
       </c>
-      <c r="V259" s="1" t="s">
+      <c r="V259" s="3"/>
+      <c r="X259" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="260" spans="2:22" ht="17.7">
+      <c r="AE259" s="3"/>
+    </row>
+    <row r="260" spans="2:31" ht="17.7">
       <c r="B260" s="1" t="s">
         <v>260</v>
       </c>
@@ -7488,11 +8108,13 @@
       <c r="N260">
         <v>2550</v>
       </c>
-      <c r="V260" s="1" t="s">
+      <c r="V260" s="3"/>
+      <c r="X260" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="261" spans="2:22" ht="17.7">
+      <c r="AE260" s="3"/>
+    </row>
+    <row r="261" spans="2:31" ht="17.7">
       <c r="B261" s="1" t="s">
         <v>261</v>
       </c>
@@ -7506,7 +8128,7 @@
         <v>1000</v>
       </c>
       <c r="H261" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>4.4062137603759731E-4</v>
       </c>
       <c r="M261">
@@ -7522,11 +8144,25 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="V261" s="1" t="s">
+      <c r="U261">
+        <v>1000</v>
+      </c>
+      <c r="V261" s="3" t="e">
+        <f t="shared" ref="V261" si="42">AVERAGE(S261:S270)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X261" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="262" spans="2:22" ht="17.7">
+      <c r="AD261">
+        <v>1000</v>
+      </c>
+      <c r="AE261" s="3" t="e">
+        <f t="shared" ref="AE261" si="43">AVERAGE(AB261:AB270)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="262" spans="2:31" ht="17.7">
       <c r="B262" s="1" t="s">
         <v>262</v>
       </c>
@@ -7543,11 +8179,11 @@
       <c r="N262">
         <v>4410</v>
       </c>
-      <c r="V262" s="1" t="s">
+      <c r="X262" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="2:22" ht="17.7">
+    <row r="263" spans="2:31" ht="17.7">
       <c r="B263" s="1" t="s">
         <v>263</v>
       </c>
@@ -7564,11 +8200,11 @@
       <c r="N263">
         <v>6830</v>
       </c>
-      <c r="V263" s="1" t="s">
+      <c r="X263" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="2:22" ht="17.7">
+    <row r="264" spans="2:31" ht="17.7">
       <c r="B264" s="1" t="s">
         <v>264</v>
       </c>
@@ -7585,11 +8221,11 @@
       <c r="N264">
         <v>9147</v>
       </c>
-      <c r="V264" s="1" t="s">
+      <c r="X264" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="2:22" ht="17.7">
+    <row r="265" spans="2:31" ht="17.7">
       <c r="B265" s="1" t="s">
         <v>265</v>
       </c>
@@ -7606,11 +8242,11 @@
       <c r="N265">
         <v>11469</v>
       </c>
-      <c r="V265" s="1" t="s">
+      <c r="X265" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="2:22" ht="17.7">
+    <row r="266" spans="2:31" ht="17.7">
       <c r="B266" s="1" t="s">
         <v>266</v>
       </c>
@@ -7627,11 +8263,11 @@
       <c r="N266">
         <v>14334</v>
       </c>
-      <c r="V266" s="1" t="s">
+      <c r="X266" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="2:22" ht="17.7">
+    <row r="267" spans="2:31" ht="17.7">
       <c r="B267" s="1" t="s">
         <v>267</v>
       </c>
@@ -7648,11 +8284,11 @@
       <c r="N267">
         <v>16053</v>
       </c>
-      <c r="V267" s="1" t="s">
+      <c r="X267" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="2:22" ht="17.7">
+    <row r="268" spans="2:31" ht="17.7">
       <c r="B268" s="1" t="s">
         <v>268</v>
       </c>
@@ -7669,11 +8305,11 @@
       <c r="N268">
         <v>18055</v>
       </c>
-      <c r="V268" s="1" t="s">
+      <c r="X268" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="2:22" ht="17.7">
+    <row r="269" spans="2:31" ht="17.7">
       <c r="B269" s="1" t="s">
         <v>269</v>
       </c>
@@ -7690,11 +8326,11 @@
       <c r="N269">
         <v>21815</v>
       </c>
-      <c r="V269" s="1" t="s">
+      <c r="X269" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="2:22" ht="17.7">
+    <row r="270" spans="2:31" ht="17.7">
       <c r="B270" s="1" t="s">
         <v>270</v>
       </c>
@@ -7711,7 +8347,7 @@
       <c r="N270">
         <v>24176</v>
       </c>
-      <c r="V270" s="1" t="s">
+      <c r="X270" s="1" t="s">
         <v>270</v>
       </c>
     </row>

--- a/tp2/exemple/src/result.xlsx
+++ b/tp2/exemple/src/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\01.Travaux.Poly\09.A2018\INF4705.algo\swagnalyse\tp2\exemple\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76E7F7E6-4012-4CC7-94B8-A5A8A7A1F9EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C75E6E45-3811-44D5-BD12-561211AFBE2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="78" yWindow="462" windowWidth="25440" windowHeight="14502" xr2:uid="{5E1C5933-FED9-854C-841B-467E1B961C4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="323">
   <si>
     <t>glouton</t>
   </si>
@@ -849,12 +849,30 @@
     <t>progdyn2</t>
   </si>
   <si>
+    <t>2.484375</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
+    <t>0.09375</t>
+  </si>
+  <si>
+    <t>0.109375</t>
+  </si>
+  <si>
+    <t>0.078125</t>
+  </si>
+  <si>
+    <t>0.0625</t>
+  </si>
+  <si>
     <t>0.015625</t>
   </si>
   <si>
+    <t>0.03125</t>
+  </si>
+  <si>
     <t>0.953125</t>
   </si>
   <si>
@@ -925,6 +943,57 @@
   </si>
   <si>
     <t>246.6875</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.78125</t>
+  </si>
+  <si>
+    <t>3.109375</t>
+  </si>
+  <si>
+    <t>0.453125</t>
+  </si>
+  <si>
+    <t>0.796875</t>
+  </si>
+  <si>
+    <t>2.03125</t>
+  </si>
+  <si>
+    <t>0.203125</t>
+  </si>
+  <si>
+    <t>0.296875</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.96875</t>
+  </si>
+  <si>
+    <t>2.609375</t>
+  </si>
+  <si>
+    <t>3.90625</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>9.125</t>
+  </si>
+  <si>
+    <t>16.125</t>
+  </si>
+  <si>
+    <t>15.046875</t>
+  </si>
+  <si>
+    <t>19.53125</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D3A866-B3F1-5D4F-A126-3B73E31B27BE}">
   <dimension ref="A1:AE270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R91" workbookViewId="0">
-      <selection activeCell="S101" sqref="S101:T101"/>
+    <sheetView tabSelected="1" topLeftCell="R157" workbookViewId="0">
+      <selection activeCell="S170" sqref="S170:T170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1664,7 +1733,7 @@
         <v>1.6970634460449169E-4</v>
       </c>
       <c r="S11" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="T11">
         <v>403</v>
@@ -1710,7 +1779,7 @@
         <v>391</v>
       </c>
       <c r="S12" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="T12">
         <v>438</v>
@@ -1742,7 +1811,7 @@
         <v>382</v>
       </c>
       <c r="S13" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="T13">
         <v>423</v>
@@ -1774,7 +1843,7 @@
         <v>404</v>
       </c>
       <c r="S14" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="T14">
         <v>417</v>
@@ -1806,7 +1875,7 @@
         <v>397</v>
       </c>
       <c r="S15" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="T15">
         <v>458</v>
@@ -1982,7 +2051,7 @@
         <v>2.3531913757324181E-4</v>
       </c>
       <c r="S21" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="T21">
         <v>2050</v>
@@ -2028,7 +2097,7 @@
         <v>2029</v>
       </c>
       <c r="S22" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="T22">
         <v>2044</v>
@@ -2060,7 +2129,7 @@
         <v>1927</v>
       </c>
       <c r="S23" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="T23">
         <v>2016</v>
@@ -2092,7 +2161,7 @@
         <v>1991</v>
       </c>
       <c r="S24" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>24</v>
@@ -3879,7 +3948,7 @@
         <v>86</v>
       </c>
       <c r="AB86" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="2:31" ht="17.7">
@@ -3993,7 +4062,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S91" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="T91">
         <v>54</v>
@@ -4009,7 +4078,7 @@
         <v>91</v>
       </c>
       <c r="AB91" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC91">
         <v>54</v>
@@ -4039,7 +4108,7 @@
         <v>106</v>
       </c>
       <c r="S92" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="T92">
         <v>111</v>
@@ -4048,7 +4117,7 @@
         <v>92</v>
       </c>
       <c r="AB92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC92">
         <v>111</v>
@@ -4071,7 +4140,7 @@
         <v>160</v>
       </c>
       <c r="S93" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="T93">
         <v>163</v>
@@ -4080,7 +4149,7 @@
         <v>93</v>
       </c>
       <c r="AB93" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC93">
         <v>163</v>
@@ -4103,7 +4172,7 @@
         <v>212</v>
       </c>
       <c r="S94" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="T94">
         <v>218</v>
@@ -4112,7 +4181,7 @@
         <v>94</v>
       </c>
       <c r="AB94" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AC94">
         <v>218</v>
@@ -4135,7 +4204,7 @@
         <v>273</v>
       </c>
       <c r="S95" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="T95">
         <v>275</v>
@@ -4144,7 +4213,7 @@
         <v>95</v>
       </c>
       <c r="AB95" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC95">
         <v>275</v>
@@ -4167,7 +4236,7 @@
         <v>324</v>
       </c>
       <c r="S96" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="T96">
         <v>324</v>
@@ -4176,7 +4245,7 @@
         <v>96</v>
       </c>
       <c r="AB96" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AC96">
         <v>324</v>
@@ -4199,7 +4268,7 @@
         <v>378</v>
       </c>
       <c r="S97" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="T97">
         <v>379</v>
@@ -4208,7 +4277,7 @@
         <v>97</v>
       </c>
       <c r="AB97" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AC97">
         <v>379</v>
@@ -4231,7 +4300,7 @@
         <v>440</v>
       </c>
       <c r="S98" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="T98">
         <v>445</v>
@@ -4240,7 +4309,7 @@
         <v>98</v>
       </c>
       <c r="AB98" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AC98">
         <v>445</v>
@@ -4263,7 +4332,7 @@
         <v>491</v>
       </c>
       <c r="S99" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="T99">
         <v>494</v>
@@ -4272,7 +4341,7 @@
         <v>99</v>
       </c>
       <c r="AB99" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AC99">
         <v>494</v>
@@ -4295,7 +4364,7 @@
         <v>548</v>
       </c>
       <c r="S100" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="T100">
         <v>557</v>
@@ -4304,7 +4373,7 @@
         <v>100</v>
       </c>
       <c r="AB100" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AC100">
         <v>557</v>
@@ -4341,7 +4410,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S101" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="T101">
         <v>1488</v>
@@ -4357,7 +4426,7 @@
         <v>101</v>
       </c>
       <c r="AB101" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AC101">
         <v>1488</v>
@@ -4390,7 +4459,7 @@
         <v>102</v>
       </c>
       <c r="AB102" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AC102">
         <v>3431</v>
@@ -4436,7 +4505,7 @@
         <v>104</v>
       </c>
       <c r="AB104" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="2:31" ht="17.7">
@@ -4817,6 +4886,12 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S121" t="s">
+        <v>275</v>
+      </c>
+      <c r="T121">
+        <v>11</v>
+      </c>
       <c r="U121">
         <v>10</v>
       </c>
@@ -4851,6 +4926,12 @@
       <c r="N122">
         <v>11</v>
       </c>
+      <c r="S122" t="s">
+        <v>275</v>
+      </c>
+      <c r="T122">
+        <v>11</v>
+      </c>
       <c r="X122" s="2" t="s">
         <v>122</v>
       </c>
@@ -4871,6 +4952,12 @@
       <c r="N123">
         <v>11</v>
       </c>
+      <c r="S123" t="s">
+        <v>275</v>
+      </c>
+      <c r="T123">
+        <v>11</v>
+      </c>
       <c r="X123" s="2" t="s">
         <v>123</v>
       </c>
@@ -4891,6 +4978,12 @@
       <c r="N124">
         <v>11</v>
       </c>
+      <c r="S124" t="s">
+        <v>275</v>
+      </c>
+      <c r="T124">
+        <v>11</v>
+      </c>
       <c r="X124" s="2" t="s">
         <v>124</v>
       </c>
@@ -4911,6 +5004,12 @@
       <c r="N125">
         <v>10</v>
       </c>
+      <c r="S125" t="s">
+        <v>275</v>
+      </c>
+      <c r="T125">
+        <v>11</v>
+      </c>
       <c r="X125" s="2" t="s">
         <v>125</v>
       </c>
@@ -4931,6 +5030,12 @@
       <c r="N126">
         <v>11</v>
       </c>
+      <c r="S126" t="s">
+        <v>275</v>
+      </c>
+      <c r="T126">
+        <v>11</v>
+      </c>
       <c r="X126" s="2" t="s">
         <v>126</v>
       </c>
@@ -4951,6 +5056,12 @@
       <c r="N127">
         <v>11</v>
       </c>
+      <c r="S127" t="s">
+        <v>275</v>
+      </c>
+      <c r="T127">
+        <v>11</v>
+      </c>
       <c r="X127" s="2" t="s">
         <v>127</v>
       </c>
@@ -4971,6 +5082,12 @@
       <c r="N128">
         <v>10</v>
       </c>
+      <c r="S128" t="s">
+        <v>275</v>
+      </c>
+      <c r="T128">
+        <v>11</v>
+      </c>
       <c r="X128" s="2" t="s">
         <v>128</v>
       </c>
@@ -4991,6 +5108,12 @@
       <c r="N129">
         <v>11</v>
       </c>
+      <c r="S129" t="s">
+        <v>275</v>
+      </c>
+      <c r="T129">
+        <v>11</v>
+      </c>
       <c r="X129" s="2" t="s">
         <v>129</v>
       </c>
@@ -5011,6 +5134,12 @@
       <c r="N130">
         <v>8</v>
       </c>
+      <c r="S130" t="s">
+        <v>275</v>
+      </c>
+      <c r="T130">
+        <v>11</v>
+      </c>
       <c r="X130" s="2" t="s">
         <v>130</v>
       </c>
@@ -5045,6 +5174,12 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S131" t="s">
+        <v>275</v>
+      </c>
+      <c r="T131">
+        <v>101</v>
+      </c>
       <c r="U131">
         <v>100</v>
       </c>
@@ -5079,6 +5214,12 @@
       <c r="N132">
         <v>66</v>
       </c>
+      <c r="S132" t="s">
+        <v>280</v>
+      </c>
+      <c r="T132">
+        <v>101</v>
+      </c>
       <c r="X132" s="2" t="s">
         <v>132</v>
       </c>
@@ -5099,6 +5240,12 @@
       <c r="N133">
         <v>34</v>
       </c>
+      <c r="S133" t="s">
+        <v>275</v>
+      </c>
+      <c r="T133">
+        <v>101</v>
+      </c>
       <c r="X133" s="2" t="s">
         <v>133</v>
       </c>
@@ -5119,6 +5266,12 @@
       <c r="N134">
         <v>44</v>
       </c>
+      <c r="S134" t="s">
+        <v>275</v>
+      </c>
+      <c r="T134">
+        <v>101</v>
+      </c>
       <c r="X134" s="2" t="s">
         <v>134</v>
       </c>
@@ -5139,6 +5292,12 @@
       <c r="N135">
         <v>28</v>
       </c>
+      <c r="S135" t="s">
+        <v>275</v>
+      </c>
+      <c r="T135">
+        <v>101</v>
+      </c>
       <c r="X135" s="2" t="s">
         <v>135</v>
       </c>
@@ -5159,6 +5318,12 @@
       <c r="N136">
         <v>95</v>
       </c>
+      <c r="S136" t="s">
+        <v>280</v>
+      </c>
+      <c r="T136">
+        <v>101</v>
+      </c>
       <c r="X136" s="2" t="s">
         <v>136</v>
       </c>
@@ -5179,6 +5344,12 @@
       <c r="N137">
         <v>72</v>
       </c>
+      <c r="S137" t="s">
+        <v>280</v>
+      </c>
+      <c r="T137">
+        <v>101</v>
+      </c>
       <c r="X137" s="2" t="s">
         <v>137</v>
       </c>
@@ -5199,6 +5370,12 @@
       <c r="N138">
         <v>40</v>
       </c>
+      <c r="S138" t="s">
+        <v>275</v>
+      </c>
+      <c r="T138">
+        <v>101</v>
+      </c>
       <c r="X138" s="2" t="s">
         <v>138</v>
       </c>
@@ -5219,6 +5396,12 @@
       <c r="N139">
         <v>28</v>
       </c>
+      <c r="S139" t="s">
+        <v>280</v>
+      </c>
+      <c r="T139">
+        <v>116</v>
+      </c>
       <c r="X139" s="2" t="s">
         <v>139</v>
       </c>
@@ -5239,6 +5422,12 @@
       <c r="N140">
         <v>35</v>
       </c>
+      <c r="S140" t="s">
+        <v>275</v>
+      </c>
+      <c r="T140">
+        <v>106</v>
+      </c>
       <c r="X140" s="2" t="s">
         <v>140</v>
       </c>
@@ -5273,6 +5462,12 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S141" t="s">
+        <v>306</v>
+      </c>
+      <c r="T141">
+        <v>1001</v>
+      </c>
       <c r="U141">
         <v>1000</v>
       </c>
@@ -5307,6 +5502,12 @@
       <c r="N142">
         <v>897</v>
       </c>
+      <c r="S142" t="s">
+        <v>307</v>
+      </c>
+      <c r="T142">
+        <v>1001</v>
+      </c>
       <c r="X142" s="2" t="s">
         <v>142</v>
       </c>
@@ -5327,6 +5528,12 @@
       <c r="N143">
         <v>676</v>
       </c>
+      <c r="S143" t="s">
+        <v>308</v>
+      </c>
+      <c r="T143">
+        <v>1001</v>
+      </c>
       <c r="X143" s="2" t="s">
         <v>143</v>
       </c>
@@ -5347,6 +5554,12 @@
       <c r="N144">
         <v>437</v>
       </c>
+      <c r="S144" t="s">
+        <v>309</v>
+      </c>
+      <c r="T144">
+        <v>1001</v>
+      </c>
       <c r="X144" s="2" t="s">
         <v>144</v>
       </c>
@@ -5501,6 +5714,12 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S151" t="s">
+        <v>275</v>
+      </c>
+      <c r="T151">
+        <v>11</v>
+      </c>
       <c r="U151">
         <v>10</v>
       </c>
@@ -5535,6 +5754,12 @@
       <c r="N152">
         <v>12</v>
       </c>
+      <c r="S152" t="s">
+        <v>275</v>
+      </c>
+      <c r="T152">
+        <v>21</v>
+      </c>
       <c r="X152" s="1" t="s">
         <v>152</v>
       </c>
@@ -5555,6 +5780,12 @@
       <c r="N153">
         <v>32</v>
       </c>
+      <c r="S153" t="s">
+        <v>275</v>
+      </c>
+      <c r="T153">
+        <v>32</v>
+      </c>
       <c r="X153" s="1" t="s">
         <v>153</v>
       </c>
@@ -5575,6 +5806,12 @@
       <c r="N154">
         <v>43</v>
       </c>
+      <c r="S154" t="s">
+        <v>281</v>
+      </c>
+      <c r="T154">
+        <v>46</v>
+      </c>
       <c r="X154" s="1" t="s">
         <v>154</v>
       </c>
@@ -5595,6 +5832,12 @@
       <c r="N155">
         <v>48</v>
       </c>
+      <c r="S155" t="s">
+        <v>278</v>
+      </c>
+      <c r="T155">
+        <v>54</v>
+      </c>
       <c r="X155" s="1" t="s">
         <v>155</v>
       </c>
@@ -5615,6 +5858,12 @@
       <c r="N156">
         <v>58</v>
       </c>
+      <c r="S156" t="s">
+        <v>279</v>
+      </c>
+      <c r="T156">
+        <v>64</v>
+      </c>
       <c r="X156" s="1" t="s">
         <v>156</v>
       </c>
@@ -5635,6 +5884,12 @@
       <c r="N157">
         <v>72</v>
       </c>
+      <c r="S157" t="s">
+        <v>277</v>
+      </c>
+      <c r="T157">
+        <v>73</v>
+      </c>
       <c r="X157" s="1" t="s">
         <v>157</v>
       </c>
@@ -5655,6 +5910,12 @@
       <c r="N158">
         <v>86</v>
       </c>
+      <c r="S158" t="s">
+        <v>277</v>
+      </c>
+      <c r="T158">
+        <v>86</v>
+      </c>
       <c r="X158" s="1" t="s">
         <v>158</v>
       </c>
@@ -5675,6 +5936,12 @@
       <c r="N159">
         <v>99</v>
       </c>
+      <c r="S159" t="s">
+        <v>312</v>
+      </c>
+      <c r="T159">
+        <v>104</v>
+      </c>
       <c r="X159" s="1" t="s">
         <v>159</v>
       </c>
@@ -5695,6 +5962,12 @@
       <c r="N160">
         <v>107</v>
       </c>
+      <c r="S160" t="s">
+        <v>313</v>
+      </c>
+      <c r="T160">
+        <v>112</v>
+      </c>
       <c r="X160" s="1" t="s">
         <v>160</v>
       </c>
@@ -5729,6 +6002,12 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S161" t="s">
+        <v>275</v>
+      </c>
+      <c r="T161">
+        <v>101</v>
+      </c>
       <c r="U161">
         <v>100</v>
       </c>
@@ -5763,6 +6042,12 @@
       <c r="N162">
         <v>153</v>
       </c>
+      <c r="S162" t="s">
+        <v>314</v>
+      </c>
+      <c r="T162">
+        <v>203</v>
+      </c>
       <c r="X162" s="1" t="s">
         <v>162</v>
       </c>
@@ -5783,6 +6068,12 @@
       <c r="N163">
         <v>266</v>
       </c>
+      <c r="S163" t="s">
+        <v>315</v>
+      </c>
+      <c r="T163">
+        <v>298</v>
+      </c>
       <c r="X163" s="1" t="s">
         <v>163</v>
       </c>
@@ -5803,6 +6094,12 @@
       <c r="N164">
         <v>371</v>
       </c>
+      <c r="S164" t="s">
+        <v>316</v>
+      </c>
+      <c r="T164">
+        <v>425</v>
+      </c>
       <c r="X164" s="1" t="s">
         <v>164</v>
       </c>
@@ -5823,6 +6120,12 @@
       <c r="N165">
         <v>498</v>
       </c>
+      <c r="S165" t="s">
+        <v>317</v>
+      </c>
+      <c r="T165">
+        <v>524</v>
+      </c>
       <c r="X165" s="1" t="s">
         <v>165</v>
       </c>
@@ -5843,6 +6146,12 @@
       <c r="N166">
         <v>537</v>
       </c>
+      <c r="S166" t="s">
+        <v>318</v>
+      </c>
+      <c r="T166">
+        <v>599</v>
+      </c>
       <c r="X166" s="1" t="s">
         <v>166</v>
       </c>
@@ -5863,6 +6172,12 @@
       <c r="N167">
         <v>690</v>
       </c>
+      <c r="S167" t="s">
+        <v>319</v>
+      </c>
+      <c r="T167">
+        <v>696</v>
+      </c>
       <c r="X167" s="1" t="s">
         <v>167</v>
       </c>
@@ -5883,6 +6198,12 @@
       <c r="N168">
         <v>784</v>
       </c>
+      <c r="S168" t="s">
+        <v>320</v>
+      </c>
+      <c r="T168">
+        <v>850</v>
+      </c>
       <c r="X168" s="1" t="s">
         <v>168</v>
       </c>
@@ -5903,6 +6224,12 @@
       <c r="N169">
         <v>858</v>
       </c>
+      <c r="S169" t="s">
+        <v>321</v>
+      </c>
+      <c r="T169">
+        <v>869</v>
+      </c>
       <c r="X169" s="1" t="s">
         <v>169</v>
       </c>
@@ -5923,6 +6250,12 @@
       <c r="N170">
         <v>1053</v>
       </c>
+      <c r="S170" t="s">
+        <v>322</v>
+      </c>
+      <c r="T170">
+        <v>1054</v>
+      </c>
       <c r="X170" s="1" t="s">
         <v>170</v>
       </c>
@@ -6869,6 +7202,12 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S211" t="s">
+        <v>275</v>
+      </c>
+      <c r="T211">
+        <v>11</v>
+      </c>
       <c r="U211">
         <v>10</v>
       </c>
@@ -6904,6 +7243,12 @@
       <c r="N212">
         <v>3</v>
       </c>
+      <c r="S212" t="s">
+        <v>275</v>
+      </c>
+      <c r="T212">
+        <v>11</v>
+      </c>
       <c r="V212" s="3"/>
       <c r="X212" s="2" t="s">
         <v>212</v>
@@ -6927,6 +7272,12 @@
       <c r="N213">
         <v>6</v>
       </c>
+      <c r="S213" t="s">
+        <v>275</v>
+      </c>
+      <c r="T213">
+        <v>11</v>
+      </c>
       <c r="V213" s="3"/>
       <c r="X213" s="2" t="s">
         <v>213</v>
@@ -6950,6 +7301,12 @@
       <c r="N214">
         <v>7</v>
       </c>
+      <c r="S214" t="s">
+        <v>275</v>
+      </c>
+      <c r="T214">
+        <v>11</v>
+      </c>
       <c r="V214" s="3"/>
       <c r="X214" s="2" t="s">
         <v>214</v>
@@ -6973,6 +7330,12 @@
       <c r="N215">
         <v>14</v>
       </c>
+      <c r="S215" t="s">
+        <v>275</v>
+      </c>
+      <c r="T215">
+        <v>14</v>
+      </c>
       <c r="V215" s="3"/>
       <c r="X215" s="2" t="s">
         <v>215</v>
@@ -6996,6 +7359,12 @@
       <c r="N216">
         <v>11</v>
       </c>
+      <c r="S216" t="s">
+        <v>275</v>
+      </c>
+      <c r="T216">
+        <v>15</v>
+      </c>
       <c r="V216" s="3"/>
       <c r="X216" s="2" t="s">
         <v>216</v>
@@ -7019,6 +7388,12 @@
       <c r="N217">
         <v>13</v>
       </c>
+      <c r="S217" t="s">
+        <v>275</v>
+      </c>
+      <c r="T217">
+        <v>16</v>
+      </c>
       <c r="V217" s="3"/>
       <c r="X217" s="2" t="s">
         <v>217</v>
@@ -7042,6 +7417,12 @@
       <c r="N218">
         <v>20</v>
       </c>
+      <c r="S218" t="s">
+        <v>275</v>
+      </c>
+      <c r="T218">
+        <v>22</v>
+      </c>
       <c r="V218" s="3"/>
       <c r="X218" s="2" t="s">
         <v>218</v>
@@ -7065,6 +7446,12 @@
       <c r="N219">
         <v>27</v>
       </c>
+      <c r="S219" t="s">
+        <v>275</v>
+      </c>
+      <c r="T219">
+        <v>29</v>
+      </c>
       <c r="V219" s="3"/>
       <c r="X219" s="1" t="s">
         <v>219</v>
@@ -7088,6 +7475,12 @@
       <c r="N220">
         <v>23</v>
       </c>
+      <c r="S220" t="s">
+        <v>275</v>
+      </c>
+      <c r="T220">
+        <v>27</v>
+      </c>
       <c r="V220" s="3"/>
       <c r="X220" s="2" t="s">
         <v>220</v>
@@ -7124,6 +7517,12 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S221" t="s">
+        <v>275</v>
+      </c>
+      <c r="T221">
+        <v>101</v>
+      </c>
       <c r="U221">
         <v>100</v>
       </c>
@@ -7159,6 +7558,12 @@
       <c r="N222">
         <v>94</v>
       </c>
+      <c r="S222" t="s">
+        <v>280</v>
+      </c>
+      <c r="T222">
+        <v>101</v>
+      </c>
       <c r="V222" s="3"/>
       <c r="X222" s="2" t="s">
         <v>222</v>
@@ -7182,6 +7587,12 @@
       <c r="N223">
         <v>82</v>
       </c>
+      <c r="S223" t="s">
+        <v>275</v>
+      </c>
+      <c r="T223">
+        <v>101</v>
+      </c>
       <c r="V223" s="3"/>
       <c r="X223" s="2" t="s">
         <v>223</v>
@@ -7205,6 +7616,12 @@
       <c r="N224">
         <v>83</v>
       </c>
+      <c r="S224" t="s">
+        <v>275</v>
+      </c>
+      <c r="T224">
+        <v>101</v>
+      </c>
       <c r="V224" s="3"/>
       <c r="X224" s="2" t="s">
         <v>224</v>
@@ -7228,6 +7645,12 @@
       <c r="N225">
         <v>64</v>
       </c>
+      <c r="S225" t="s">
+        <v>280</v>
+      </c>
+      <c r="T225">
+        <v>131</v>
+      </c>
       <c r="V225" s="3"/>
       <c r="X225" s="2" t="s">
         <v>225</v>
@@ -7251,6 +7674,12 @@
       <c r="N226">
         <v>111</v>
       </c>
+      <c r="S226" t="s">
+        <v>280</v>
+      </c>
+      <c r="T226">
+        <v>162</v>
+      </c>
       <c r="V226" s="3"/>
       <c r="X226" s="2" t="s">
         <v>226</v>
@@ -7274,6 +7703,12 @@
       <c r="N227">
         <v>81</v>
       </c>
+      <c r="S227" t="s">
+        <v>281</v>
+      </c>
+      <c r="T227">
+        <v>180</v>
+      </c>
       <c r="V227" s="3"/>
       <c r="X227" s="2" t="s">
         <v>227</v>
@@ -7297,6 +7732,12 @@
       <c r="N228">
         <v>185</v>
       </c>
+      <c r="S228" t="s">
+        <v>276</v>
+      </c>
+      <c r="T228">
+        <v>216</v>
+      </c>
       <c r="V228" s="3"/>
       <c r="X228" s="2" t="s">
         <v>228</v>
@@ -7320,6 +7761,12 @@
       <c r="N229">
         <v>263</v>
       </c>
+      <c r="S229" t="s">
+        <v>281</v>
+      </c>
+      <c r="T229">
+        <v>263</v>
+      </c>
       <c r="V229" s="3"/>
       <c r="X229" s="2" t="s">
         <v>229</v>
@@ -7343,6 +7790,12 @@
       <c r="N230">
         <v>213</v>
       </c>
+      <c r="S230" t="s">
+        <v>281</v>
+      </c>
+      <c r="T230">
+        <v>245</v>
+      </c>
       <c r="V230" s="3"/>
       <c r="X230" s="2" t="s">
         <v>230</v>
@@ -7379,6 +7832,12 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S231" t="s">
+        <v>310</v>
+      </c>
+      <c r="T231">
+        <v>1001</v>
+      </c>
       <c r="U231">
         <v>1000</v>
       </c>
@@ -7414,6 +7873,12 @@
       <c r="N232">
         <v>749</v>
       </c>
+      <c r="S232" t="s">
+        <v>311</v>
+      </c>
+      <c r="T232">
+        <v>1001</v>
+      </c>
       <c r="V232" s="3"/>
       <c r="X232" s="2" t="s">
         <v>232</v>
@@ -7436,6 +7901,12 @@
       </c>
       <c r="N233">
         <v>673</v>
+      </c>
+      <c r="S233" t="s">
+        <v>274</v>
+      </c>
+      <c r="T233">
+        <v>1433</v>
       </c>
       <c r="V233" s="3"/>
       <c r="X233" s="2" t="s">

--- a/tp2/exemple/src/result.xlsx
+++ b/tp2/exemple/src/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\01.Travaux.Poly\09.A2018\INF4705.algo\swagnalyse\tp2\exemple\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C75E6E45-3811-44D5-BD12-561211AFBE2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{939EEAC4-BCF4-4C72-84A6-1882D6A06608}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="78" yWindow="462" windowWidth="25440" windowHeight="14502" xr2:uid="{5E1C5933-FED9-854C-841B-467E1B961C4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="355">
   <si>
     <t>glouton</t>
   </si>
@@ -994,6 +994,102 @@
   </si>
   <si>
     <t>19.53125</t>
+  </si>
+  <si>
+    <t>2.59375;108</t>
+  </si>
+  <si>
+    <t>14.109375;221</t>
+  </si>
+  <si>
+    <t>32.78125;329</t>
+  </si>
+  <si>
+    <t>60.03125;440</t>
+  </si>
+  <si>
+    <t>94.0;548</t>
+  </si>
+  <si>
+    <t>133.390625;655</t>
+  </si>
+  <si>
+    <t>371.390625;885</t>
+  </si>
+  <si>
+    <t>15.734375;510</t>
+  </si>
+  <si>
+    <t>87.171875;1005</t>
+  </si>
+  <si>
+    <t>217.984375;1533</t>
+  </si>
+  <si>
+    <t>629.40625;2225</t>
+  </si>
+  <si>
+    <t>0.046875;27</t>
+  </si>
+  <si>
+    <t>0.171875;56</t>
+  </si>
+  <si>
+    <t>0.53125;82</t>
+  </si>
+  <si>
+    <t>0.875;113</t>
+  </si>
+  <si>
+    <t>1.375;135</t>
+  </si>
+  <si>
+    <t>2.40625;163</t>
+  </si>
+  <si>
+    <t>2.671875;182</t>
+  </si>
+  <si>
+    <t>3.84375;222</t>
+  </si>
+  <si>
+    <t>4.828125;247</t>
+  </si>
+  <si>
+    <t>6.109375;275</t>
+  </si>
+  <si>
+    <t>254.140625;2523</t>
+  </si>
+  <si>
+    <t>332.0;994</t>
+  </si>
+  <si>
+    <t>3491.234375;4960</t>
+  </si>
+  <si>
+    <t>1.453125;1001</t>
+  </si>
+  <si>
+    <t>108.453125;2523</t>
+  </si>
+  <si>
+    <t>128.203125;1001</t>
+  </si>
+  <si>
+    <t>5415.203125;9911</t>
+  </si>
+  <si>
+    <t>5.109375;994</t>
+  </si>
+  <si>
+    <t>92.4375;1001</t>
+  </si>
+  <si>
+    <t>45.828125;1000</t>
+  </si>
+  <si>
+    <t>641.28125;4960</t>
   </si>
 </sst>
 </file>
@@ -1046,6 +1142,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1062,10 +1226,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1356,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D3A866-B3F1-5D4F-A126-3B73E31B27BE}">
   <dimension ref="A1:AE270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R157" workbookViewId="0">
-      <selection activeCell="S170" sqref="S170:T170"/>
+    <sheetView tabSelected="1" topLeftCell="T97" workbookViewId="0">
+      <selection activeCell="W102" sqref="W102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -4658,6 +4822,9 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S111" t="s">
+        <v>346</v>
+      </c>
       <c r="U111">
         <v>1000</v>
       </c>
@@ -4668,6 +4835,9 @@
       <c r="X111" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="AB111" t="s">
+        <v>354</v>
+      </c>
       <c r="AD111">
         <v>1000</v>
       </c>
@@ -5478,6 +5648,9 @@
       <c r="X141" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="AB141" t="s">
+        <v>353</v>
+      </c>
       <c r="AD141">
         <v>1000</v>
       </c>
@@ -6290,6 +6463,9 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S171" t="s">
+        <v>347</v>
+      </c>
       <c r="U171">
         <v>1000</v>
       </c>
@@ -6300,6 +6476,9 @@
       <c r="X171" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="AB171" t="s">
+        <v>352</v>
+      </c>
       <c r="AD171">
         <v>1000</v>
       </c>
@@ -6518,6 +6697,9 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S181" t="s">
+        <v>323</v>
+      </c>
       <c r="U181">
         <v>10</v>
       </c>
@@ -6552,6 +6734,9 @@
       <c r="N182">
         <v>218</v>
       </c>
+      <c r="S182" t="s">
+        <v>324</v>
+      </c>
       <c r="X182" s="1" t="s">
         <v>182</v>
       </c>
@@ -6572,6 +6757,9 @@
       <c r="N183">
         <v>325</v>
       </c>
+      <c r="S183" t="s">
+        <v>325</v>
+      </c>
       <c r="X183" s="1" t="s">
         <v>183</v>
       </c>
@@ -6592,6 +6780,9 @@
       <c r="N184">
         <v>439</v>
       </c>
+      <c r="S184" t="s">
+        <v>326</v>
+      </c>
       <c r="X184" s="1" t="s">
         <v>184</v>
       </c>
@@ -6612,6 +6803,9 @@
       <c r="N185">
         <v>543</v>
       </c>
+      <c r="S185" t="s">
+        <v>327</v>
+      </c>
       <c r="X185" s="1" t="s">
         <v>185</v>
       </c>
@@ -6632,6 +6826,9 @@
       <c r="N186">
         <v>646</v>
       </c>
+      <c r="S186" t="s">
+        <v>328</v>
+      </c>
       <c r="X186" s="1" t="s">
         <v>186</v>
       </c>
@@ -6652,6 +6849,9 @@
       <c r="N187">
         <v>882</v>
       </c>
+      <c r="S187" t="s">
+        <v>329</v>
+      </c>
       <c r="X187" s="1" t="s">
         <v>187</v>
       </c>
@@ -6746,6 +6946,9 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S191" t="s">
+        <v>345</v>
+      </c>
       <c r="U191">
         <v>100</v>
       </c>
@@ -6756,6 +6959,9 @@
       <c r="X191" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="AB191" t="s">
+        <v>351</v>
+      </c>
       <c r="AD191">
         <v>100</v>
       </c>
@@ -6984,6 +7190,9 @@
       <c r="X201" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="AB201" t="s">
+        <v>350</v>
+      </c>
       <c r="AD201">
         <v>1000</v>
       </c>
@@ -7848,6 +8057,9 @@
       <c r="X231" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="AB231" t="s">
+        <v>349</v>
+      </c>
       <c r="AD231">
         <v>1000</v>
       </c>
@@ -8105,6 +8317,9 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S241" t="s">
+        <v>334</v>
+      </c>
       <c r="U241">
         <v>10</v>
       </c>
@@ -8140,6 +8355,9 @@
       <c r="N242">
         <v>55</v>
       </c>
+      <c r="S242" t="s">
+        <v>335</v>
+      </c>
       <c r="V242" s="3"/>
       <c r="X242" s="1" t="s">
         <v>242</v>
@@ -8163,6 +8381,9 @@
       <c r="N243">
         <v>81</v>
       </c>
+      <c r="S243" t="s">
+        <v>336</v>
+      </c>
       <c r="V243" s="3"/>
       <c r="X243" s="1" t="s">
         <v>243</v>
@@ -8186,6 +8407,9 @@
       <c r="N244">
         <v>107</v>
       </c>
+      <c r="S244" t="s">
+        <v>337</v>
+      </c>
       <c r="V244" s="3"/>
       <c r="X244" s="1" t="s">
         <v>244</v>
@@ -8209,6 +8433,9 @@
       <c r="N245">
         <v>133</v>
       </c>
+      <c r="S245" t="s">
+        <v>338</v>
+      </c>
       <c r="V245" s="3"/>
       <c r="X245" s="1" t="s">
         <v>245</v>
@@ -8232,6 +8459,9 @@
       <c r="N246">
         <v>162</v>
       </c>
+      <c r="S246" t="s">
+        <v>339</v>
+      </c>
       <c r="V246" s="3"/>
       <c r="X246" s="1" t="s">
         <v>246</v>
@@ -8255,6 +8485,9 @@
       <c r="N247">
         <v>175</v>
       </c>
+      <c r="S247" t="s">
+        <v>340</v>
+      </c>
       <c r="V247" s="3"/>
       <c r="X247" s="1" t="s">
         <v>247</v>
@@ -8278,6 +8511,9 @@
       <c r="N248">
         <v>213</v>
       </c>
+      <c r="S248" t="s">
+        <v>341</v>
+      </c>
       <c r="V248" s="3"/>
       <c r="X248" s="1" t="s">
         <v>248</v>
@@ -8301,6 +8537,9 @@
       <c r="N249">
         <v>244</v>
       </c>
+      <c r="S249" t="s">
+        <v>342</v>
+      </c>
       <c r="V249" s="3"/>
       <c r="X249" s="1" t="s">
         <v>249</v>
@@ -8324,6 +8563,9 @@
       <c r="N250">
         <v>272</v>
       </c>
+      <c r="S250" t="s">
+        <v>343</v>
+      </c>
       <c r="V250" s="3"/>
       <c r="X250" s="1" t="s">
         <v>250</v>
@@ -8360,6 +8602,9 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S251" t="s">
+        <v>330</v>
+      </c>
       <c r="U251">
         <v>100</v>
       </c>
@@ -8395,6 +8640,9 @@
       <c r="N252">
         <v>484</v>
       </c>
+      <c r="S252" t="s">
+        <v>331</v>
+      </c>
       <c r="V252" s="3"/>
       <c r="X252" s="1" t="s">
         <v>252</v>
@@ -8418,6 +8666,9 @@
       <c r="N253">
         <v>673</v>
       </c>
+      <c r="S253" t="s">
+        <v>332</v>
+      </c>
       <c r="V253" s="3"/>
       <c r="X253" s="1" t="s">
         <v>253</v>
@@ -8441,6 +8692,9 @@
       <c r="N254">
         <v>928</v>
       </c>
+      <c r="S254" t="s">
+        <v>333</v>
+      </c>
       <c r="V254" s="3"/>
       <c r="X254" s="1" t="s">
         <v>254</v>
@@ -8615,6 +8869,9 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S261" t="s">
+        <v>344</v>
+      </c>
       <c r="U261">
         <v>1000</v>
       </c>
@@ -8624,6 +8881,9 @@
       </c>
       <c r="X261" s="1" t="s">
         <v>261</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>348</v>
       </c>
       <c r="AD261">
         <v>1000</v>

--- a/tp2/exemple/src/result.xlsx
+++ b/tp2/exemple/src/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\01.Travaux.Poly\09.A2018\INF4705.algo\swagnalyse\tp2\exemple\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{939EEAC4-BCF4-4C72-84A6-1882D6A06608}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2695E737-41F8-4DD3-90C7-E7EE8EDF2835}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="78" yWindow="462" windowWidth="25440" windowHeight="14502" xr2:uid="{5E1C5933-FED9-854C-841B-467E1B961C4A}"/>
   </bookViews>
@@ -939,9 +939,6 @@
     <t>326.453125</t>
   </si>
   <si>
-    <t>reste1</t>
-  </si>
-  <si>
     <t>246.6875</t>
   </si>
   <si>
@@ -1090,6 +1087,9 @@
   </si>
   <si>
     <t>641.28125;4960</t>
+  </si>
+  <si>
+    <t>1.0625;496</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D3A866-B3F1-5D4F-A126-3B73E31B27BE}">
   <dimension ref="A1:AE270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T97" workbookViewId="0">
-      <selection activeCell="W102" sqref="W102"/>
+    <sheetView tabSelected="1" topLeftCell="T100" workbookViewId="0">
+      <selection activeCell="AB107" sqref="AB107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -4574,7 +4574,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T101">
         <v>1488</v>
@@ -4648,6 +4648,9 @@
       <c r="X103" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="AB103" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="104" spans="2:31" ht="17.7">
       <c r="B104" s="1" t="s">
@@ -4668,9 +4671,6 @@
       <c r="X104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AB104" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="105" spans="2:31" ht="17.7">
       <c r="B105" s="1" t="s">
@@ -4823,7 +4823,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S111" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U111">
         <v>1000</v>
@@ -4836,7 +4836,7 @@
         <v>111</v>
       </c>
       <c r="AB111" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AD111">
         <v>1000</v>
@@ -5633,7 +5633,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S141" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T141">
         <v>1001</v>
@@ -5649,7 +5649,7 @@
         <v>141</v>
       </c>
       <c r="AB141" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AD141">
         <v>1000</v>
@@ -5676,7 +5676,7 @@
         <v>897</v>
       </c>
       <c r="S142" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T142">
         <v>1001</v>
@@ -5702,7 +5702,7 @@
         <v>676</v>
       </c>
       <c r="S143" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T143">
         <v>1001</v>
@@ -5728,7 +5728,7 @@
         <v>437</v>
       </c>
       <c r="S144" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T144">
         <v>1001</v>
@@ -6110,7 +6110,7 @@
         <v>99</v>
       </c>
       <c r="S159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T159">
         <v>104</v>
@@ -6136,7 +6136,7 @@
         <v>107</v>
       </c>
       <c r="S160" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T160">
         <v>112</v>
@@ -6216,7 +6216,7 @@
         <v>153</v>
       </c>
       <c r="S162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T162">
         <v>203</v>
@@ -6242,7 +6242,7 @@
         <v>266</v>
       </c>
       <c r="S163" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T163">
         <v>298</v>
@@ -6268,7 +6268,7 @@
         <v>371</v>
       </c>
       <c r="S164" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T164">
         <v>425</v>
@@ -6294,7 +6294,7 @@
         <v>498</v>
       </c>
       <c r="S165" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T165">
         <v>524</v>
@@ -6320,7 +6320,7 @@
         <v>537</v>
       </c>
       <c r="S166" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T166">
         <v>599</v>
@@ -6346,7 +6346,7 @@
         <v>690</v>
       </c>
       <c r="S167" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T167">
         <v>696</v>
@@ -6372,7 +6372,7 @@
         <v>784</v>
       </c>
       <c r="S168" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T168">
         <v>850</v>
@@ -6398,7 +6398,7 @@
         <v>858</v>
       </c>
       <c r="S169" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T169">
         <v>869</v>
@@ -6424,7 +6424,7 @@
         <v>1053</v>
       </c>
       <c r="S170" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T170">
         <v>1054</v>
@@ -6464,7 +6464,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S171" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U171">
         <v>1000</v>
@@ -6477,7 +6477,7 @@
         <v>171</v>
       </c>
       <c r="AB171" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AD171">
         <v>1000</v>
@@ -6698,7 +6698,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S181" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U181">
         <v>10</v>
@@ -6735,7 +6735,7 @@
         <v>218</v>
       </c>
       <c r="S182" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X182" s="1" t="s">
         <v>182</v>
@@ -6758,7 +6758,7 @@
         <v>325</v>
       </c>
       <c r="S183" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X183" s="1" t="s">
         <v>183</v>
@@ -6781,7 +6781,7 @@
         <v>439</v>
       </c>
       <c r="S184" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X184" s="1" t="s">
         <v>184</v>
@@ -6804,7 +6804,7 @@
         <v>543</v>
       </c>
       <c r="S185" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X185" s="1" t="s">
         <v>185</v>
@@ -6827,7 +6827,7 @@
         <v>646</v>
       </c>
       <c r="S186" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X186" s="1" t="s">
         <v>186</v>
@@ -6850,7 +6850,7 @@
         <v>882</v>
       </c>
       <c r="S187" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X187" s="1" t="s">
         <v>187</v>
@@ -6947,7 +6947,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S191" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U191">
         <v>100</v>
@@ -6960,7 +6960,7 @@
         <v>191</v>
       </c>
       <c r="AB191" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AD191">
         <v>100</v>
@@ -7191,7 +7191,7 @@
         <v>201</v>
       </c>
       <c r="AB201" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AD201">
         <v>1000</v>
@@ -8042,7 +8042,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S231" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T231">
         <v>1001</v>
@@ -8058,7 +8058,7 @@
         <v>231</v>
       </c>
       <c r="AB231" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AD231">
         <v>1000</v>
@@ -8086,7 +8086,7 @@
         <v>749</v>
       </c>
       <c r="S232" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T232">
         <v>1001</v>
@@ -8318,7 +8318,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S241" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U241">
         <v>10</v>
@@ -8356,7 +8356,7 @@
         <v>55</v>
       </c>
       <c r="S242" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V242" s="3"/>
       <c r="X242" s="1" t="s">
@@ -8382,7 +8382,7 @@
         <v>81</v>
       </c>
       <c r="S243" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V243" s="3"/>
       <c r="X243" s="1" t="s">
@@ -8408,7 +8408,7 @@
         <v>107</v>
       </c>
       <c r="S244" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V244" s="3"/>
       <c r="X244" s="1" t="s">
@@ -8434,7 +8434,7 @@
         <v>133</v>
       </c>
       <c r="S245" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V245" s="3"/>
       <c r="X245" s="1" t="s">
@@ -8460,7 +8460,7 @@
         <v>162</v>
       </c>
       <c r="S246" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V246" s="3"/>
       <c r="X246" s="1" t="s">
@@ -8486,7 +8486,7 @@
         <v>175</v>
       </c>
       <c r="S247" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V247" s="3"/>
       <c r="X247" s="1" t="s">
@@ -8512,7 +8512,7 @@
         <v>213</v>
       </c>
       <c r="S248" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V248" s="3"/>
       <c r="X248" s="1" t="s">
@@ -8538,7 +8538,7 @@
         <v>244</v>
       </c>
       <c r="S249" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V249" s="3"/>
       <c r="X249" s="1" t="s">
@@ -8564,7 +8564,7 @@
         <v>272</v>
       </c>
       <c r="S250" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V250" s="3"/>
       <c r="X250" s="1" t="s">
@@ -8603,7 +8603,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S251" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U251">
         <v>100</v>
@@ -8641,7 +8641,7 @@
         <v>484</v>
       </c>
       <c r="S252" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V252" s="3"/>
       <c r="X252" s="1" t="s">
@@ -8667,7 +8667,7 @@
         <v>673</v>
       </c>
       <c r="S253" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V253" s="3"/>
       <c r="X253" s="1" t="s">
@@ -8693,7 +8693,7 @@
         <v>928</v>
       </c>
       <c r="S254" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V254" s="3"/>
       <c r="X254" s="1" t="s">
@@ -8870,7 +8870,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S261" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U261">
         <v>1000</v>
@@ -8883,7 +8883,7 @@
         <v>261</v>
       </c>
       <c r="AB261" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD261">
         <v>1000</v>

--- a/tp2/exemple/src/result.xlsx
+++ b/tp2/exemple/src/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\01.Travaux.Poly\09.A2018\INF4705.algo\swagnalyse\tp2\exemple\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2695E737-41F8-4DD3-90C7-E7EE8EDF2835}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DAE16858-469C-4F39-90D1-74C185C5D382}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="78" yWindow="462" windowWidth="25440" windowHeight="14502" xr2:uid="{5E1C5933-FED9-854C-841B-467E1B961C4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="556">
   <si>
     <t>glouton</t>
   </si>
@@ -849,247 +849,850 @@
     <t>progdyn2</t>
   </si>
   <si>
-    <t>2.484375</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.09375</t>
-  </si>
-  <si>
-    <t>0.109375</t>
-  </si>
-  <si>
-    <t>0.078125</t>
-  </si>
-  <si>
-    <t>0.0625</t>
-  </si>
-  <si>
-    <t>0.015625</t>
-  </si>
-  <si>
-    <t>0.03125</t>
-  </si>
-  <si>
-    <t>0.953125</t>
-  </si>
-  <si>
-    <t>1.1875</t>
-  </si>
-  <si>
-    <t>1.046875</t>
-  </si>
-  <si>
-    <t>1.359375</t>
-  </si>
-  <si>
-    <t>202.59375</t>
-  </si>
-  <si>
-    <t>217.296875</t>
-  </si>
-  <si>
-    <t>214.03125</t>
-  </si>
-  <si>
-    <t>0.390625</t>
-  </si>
-  <si>
-    <t>1.03125</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>5.65625</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>11.53125</t>
-  </si>
-  <si>
-    <t>13.46875</t>
-  </si>
-  <si>
-    <t>19.109375</t>
-  </si>
-  <si>
-    <t>24.375</t>
-  </si>
-  <si>
-    <t>31.71875</t>
-  </si>
-  <si>
-    <t>0.28125</t>
-  </si>
-  <si>
-    <t>0.6875</t>
-  </si>
-  <si>
     <t>fini</t>
   </si>
   <si>
-    <t>133.59375</t>
-  </si>
-  <si>
-    <t>326.453125</t>
-  </si>
-  <si>
-    <t>246.6875</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2.78125</t>
-  </si>
-  <si>
-    <t>3.109375</t>
-  </si>
-  <si>
-    <t>0.453125</t>
-  </si>
-  <si>
-    <t>0.796875</t>
-  </si>
-  <si>
-    <t>2.03125</t>
-  </si>
-  <si>
-    <t>0.203125</t>
-  </si>
-  <si>
-    <t>0.296875</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.96875</t>
-  </si>
-  <si>
-    <t>2.609375</t>
-  </si>
-  <si>
-    <t>3.90625</t>
-  </si>
-  <si>
-    <t>6.75</t>
-  </si>
-  <si>
-    <t>9.125</t>
-  </si>
-  <si>
-    <t>16.125</t>
-  </si>
-  <si>
-    <t>15.046875</t>
-  </si>
-  <si>
-    <t>19.53125</t>
-  </si>
-  <si>
-    <t>2.59375;108</t>
-  </si>
-  <si>
-    <t>14.109375;221</t>
-  </si>
-  <si>
-    <t>32.78125;329</t>
-  </si>
-  <si>
-    <t>60.03125;440</t>
-  </si>
-  <si>
-    <t>94.0;548</t>
-  </si>
-  <si>
-    <t>133.390625;655</t>
-  </si>
-  <si>
-    <t>371.390625;885</t>
-  </si>
-  <si>
-    <t>15.734375;510</t>
-  </si>
-  <si>
-    <t>87.171875;1005</t>
-  </si>
-  <si>
-    <t>217.984375;1533</t>
-  </si>
-  <si>
-    <t>629.40625;2225</t>
-  </si>
-  <si>
-    <t>0.046875;27</t>
-  </si>
-  <si>
-    <t>0.171875;56</t>
-  </si>
-  <si>
-    <t>0.53125;82</t>
-  </si>
-  <si>
-    <t>0.875;113</t>
-  </si>
-  <si>
-    <t>1.375;135</t>
-  </si>
-  <si>
-    <t>2.40625;163</t>
-  </si>
-  <si>
-    <t>2.671875;182</t>
-  </si>
-  <si>
-    <t>3.84375;222</t>
-  </si>
-  <si>
-    <t>4.828125;247</t>
-  </si>
-  <si>
-    <t>6.109375;275</t>
-  </si>
-  <si>
-    <t>254.140625;2523</t>
-  </si>
-  <si>
-    <t>332.0;994</t>
-  </si>
-  <si>
-    <t>3491.234375;4960</t>
-  </si>
-  <si>
-    <t>1.453125;1001</t>
-  </si>
-  <si>
-    <t>108.453125;2523</t>
-  </si>
-  <si>
-    <t>128.203125;1001</t>
-  </si>
-  <si>
-    <t>5415.203125;9911</t>
-  </si>
-  <si>
-    <t>5.109375;994</t>
-  </si>
-  <si>
-    <t>92.4375;1001</t>
-  </si>
-  <si>
-    <t>45.828125;1000</t>
-  </si>
-  <si>
-    <t>641.28125;4960</t>
-  </si>
-  <si>
-    <t>1.0625;496</t>
+    <t>PR_1000_4000_1,txt</t>
+  </si>
+  <si>
+    <t>PR_1000_4000_10,txt</t>
+  </si>
+  <si>
+    <t>PR_1000_4000_2,txt</t>
+  </si>
+  <si>
+    <t>PR_1000_4000_3,txt</t>
+  </si>
+  <si>
+    <t>PR_1000_4000_4,txt</t>
+  </si>
+  <si>
+    <t>PR_1000_4000_5,txt</t>
+  </si>
+  <si>
+    <t>PR_1000_4000_6,txt</t>
+  </si>
+  <si>
+    <t>PR_1000_4000_7,txt</t>
+  </si>
+  <si>
+    <t>PR_1000_4000_8,txt</t>
+  </si>
+  <si>
+    <t>PR_1000_4000_9,txt</t>
+  </si>
+  <si>
+    <t>PR_100_400_1,txt</t>
+  </si>
+  <si>
+    <t>PR_100_400_10,txt</t>
+  </si>
+  <si>
+    <t>PR_100_400_2,txt</t>
+  </si>
+  <si>
+    <t>PR_100_400_3,txt</t>
+  </si>
+  <si>
+    <t>PR_100_400_4,txt</t>
+  </si>
+  <si>
+    <t>PR_100_400_5,txt</t>
+  </si>
+  <si>
+    <t>PR_100_400_6,txt</t>
+  </si>
+  <si>
+    <t>PR_100_400_7,txt</t>
+  </si>
+  <si>
+    <t>PR_100_400_8,txt</t>
+  </si>
+  <si>
+    <t>PR_100_400_9,txt</t>
+  </si>
+  <si>
+    <t>PR_500_2000_1,txt</t>
+  </si>
+  <si>
+    <t>PR_500_2000_10,txt</t>
+  </si>
+  <si>
+    <t>PR_500_2000_2,txt</t>
+  </si>
+  <si>
+    <t>PR_500_2000_3,txt</t>
+  </si>
+  <si>
+    <t>PR_500_2000_4,txt</t>
+  </si>
+  <si>
+    <t>PR_500_2000_5,txt</t>
+  </si>
+  <si>
+    <t>PR_500_2000_6,txt</t>
+  </si>
+  <si>
+    <t>PR_500_2000_7,txt</t>
+  </si>
+  <si>
+    <t>PR_500_2000_8,txt</t>
+  </si>
+  <si>
+    <t>PR_500_2000_9,txt</t>
+  </si>
+  <si>
+    <t>WC-10-10-01,txt</t>
+  </si>
+  <si>
+    <t>WC-10-10-02,txt</t>
+  </si>
+  <si>
+    <t>WC-10-10-03,txt</t>
+  </si>
+  <si>
+    <t>WC-10-10-04,txt</t>
+  </si>
+  <si>
+    <t>WC-10-10-05,txt</t>
+  </si>
+  <si>
+    <t>WC-10-10-06,txt</t>
+  </si>
+  <si>
+    <t>WC-10-10-07,txt</t>
+  </si>
+  <si>
+    <t>WC-10-10-08,txt</t>
+  </si>
+  <si>
+    <t>WC-10-10-09,txt</t>
+  </si>
+  <si>
+    <t>WC-10-10-10,txt</t>
+  </si>
+  <si>
+    <t>WC-10-100-01,txt</t>
+  </si>
+  <si>
+    <t>WC-10-100-02,txt</t>
+  </si>
+  <si>
+    <t>WC-10-100-03,txt</t>
+  </si>
+  <si>
+    <t>WC-10-100-04,txt</t>
+  </si>
+  <si>
+    <t>WC-10-100-05,txt</t>
+  </si>
+  <si>
+    <t>WC-10-100-06,txt</t>
+  </si>
+  <si>
+    <t>WC-10-100-07,txt</t>
+  </si>
+  <si>
+    <t>WC-10-100-08,txt</t>
+  </si>
+  <si>
+    <t>WC-10-100-09,txt</t>
+  </si>
+  <si>
+    <t>WC-10-100-10,txt</t>
+  </si>
+  <si>
+    <t>WC-10-1000-01,txt</t>
+  </si>
+  <si>
+    <t>WC-10-1000-02,txt</t>
+  </si>
+  <si>
+    <t>WC-10-1000-03,txt</t>
+  </si>
+  <si>
+    <t>WC-10-1000-04,txt</t>
+  </si>
+  <si>
+    <t>WC-10-1000-05,txt</t>
+  </si>
+  <si>
+    <t>WC-10-1000-06,txt</t>
+  </si>
+  <si>
+    <t>WC-10-1000-07,txt</t>
+  </si>
+  <si>
+    <t>WC-10-1000-08,txt</t>
+  </si>
+  <si>
+    <t>WC-10-1000-09,txt</t>
+  </si>
+  <si>
+    <t>WC-10-1000-10,txt</t>
+  </si>
+  <si>
+    <t>WC-100-10-01,txt</t>
+  </si>
+  <si>
+    <t>WC-100-10-02,txt</t>
+  </si>
+  <si>
+    <t>WC-100-10-03,txt</t>
+  </si>
+  <si>
+    <t>WC-100-10-04,txt</t>
+  </si>
+  <si>
+    <t>WC-100-10-05,txt</t>
+  </si>
+  <si>
+    <t>WC-100-10-06,txt</t>
+  </si>
+  <si>
+    <t>WC-100-10-07,txt</t>
+  </si>
+  <si>
+    <t>WC-100-10-08,txt</t>
+  </si>
+  <si>
+    <t>WC-100-10-09,txt</t>
+  </si>
+  <si>
+    <t>WC-100-10-10,txt</t>
+  </si>
+  <si>
+    <t>WC-100-100-01,txt</t>
+  </si>
+  <si>
+    <t>WC-100-100-02,txt</t>
+  </si>
+  <si>
+    <t>WC-100-100-03,txt</t>
+  </si>
+  <si>
+    <t>WC-100-100-04,txt</t>
+  </si>
+  <si>
+    <t>WC-100-100-05,txt</t>
+  </si>
+  <si>
+    <t>WC-100-100-06,txt</t>
+  </si>
+  <si>
+    <t>WC-100-100-07,txt</t>
+  </si>
+  <si>
+    <t>WC-100-100-08,txt</t>
+  </si>
+  <si>
+    <t>WC-100-100-09,txt</t>
+  </si>
+  <si>
+    <t>WC-100-100-10,txt</t>
+  </si>
+  <si>
+    <t>WC-100-1000-01,txt</t>
+  </si>
+  <si>
+    <t>WC-100-1000-02,txt</t>
+  </si>
+  <si>
+    <t>WC-100-1000-03,txt</t>
+  </si>
+  <si>
+    <t>WC-100-1000-04,txt</t>
+  </si>
+  <si>
+    <t>WC-100-1000-05,txt</t>
+  </si>
+  <si>
+    <t>WC-100-1000-06,txt</t>
+  </si>
+  <si>
+    <t>WC-100-1000-07,txt</t>
+  </si>
+  <si>
+    <t>WC-100-1000-08,txt</t>
+  </si>
+  <si>
+    <t>WC-100-1000-09,txt</t>
+  </si>
+  <si>
+    <t>WC-100-1000-10,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-10-01,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-10-02,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-10-03,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-10-04,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-10-05,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-10-06,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-10-07,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-10-08,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-10-09,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-10-10,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-100-01,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-100-02,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-100-03,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-100-04,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-100-05,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-100-06,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-100-07,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-100-08,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-100-09,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-100-10,txt</t>
+  </si>
+  <si>
+    <t>3491,234375;4960</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-01,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-02,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-03,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-04,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-05,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-06,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-07,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-08,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-09,txt</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-10,txt</t>
+  </si>
+  <si>
+    <t>WC-20-10-01,txt</t>
+  </si>
+  <si>
+    <t>WC-20-10-02,txt</t>
+  </si>
+  <si>
+    <t>WC-20-10-03,txt</t>
+  </si>
+  <si>
+    <t>WC-20-10-04,txt</t>
+  </si>
+  <si>
+    <t>WC-20-10-05,txt</t>
+  </si>
+  <si>
+    <t>WC-20-10-06,txt</t>
+  </si>
+  <si>
+    <t>WC-20-10-07,txt</t>
+  </si>
+  <si>
+    <t>WC-20-10-08,txt</t>
+  </si>
+  <si>
+    <t>WC-20-10-09,txt</t>
+  </si>
+  <si>
+    <t>WC-20-10-10,txt</t>
+  </si>
+  <si>
+    <t>WC-20-100-01,txt</t>
+  </si>
+  <si>
+    <t>WC-20-100-02,txt</t>
+  </si>
+  <si>
+    <t>WC-20-100-03,txt</t>
+  </si>
+  <si>
+    <t>WC-20-100-04,txt</t>
+  </si>
+  <si>
+    <t>WC-20-100-05,txt</t>
+  </si>
+  <si>
+    <t>WC-20-100-06,txt</t>
+  </si>
+  <si>
+    <t>WC-20-100-07,txt</t>
+  </si>
+  <si>
+    <t>WC-20-100-08,txt</t>
+  </si>
+  <si>
+    <t>WC-20-100-09,txt</t>
+  </si>
+  <si>
+    <t>WC-20-100-10,txt</t>
+  </si>
+  <si>
+    <t>WC-20-1000-01,txt</t>
+  </si>
+  <si>
+    <t>WC-20-1000-02,txt</t>
+  </si>
+  <si>
+    <t>WC-20-1000-03,txt</t>
+  </si>
+  <si>
+    <t>WC-20-1000-04,txt</t>
+  </si>
+  <si>
+    <t>WC-20-1000-05,txt</t>
+  </si>
+  <si>
+    <t>WC-20-1000-06,txt</t>
+  </si>
+  <si>
+    <t>WC-20-1000-07,txt</t>
+  </si>
+  <si>
+    <t>WC-20-1000-08,txt</t>
+  </si>
+  <si>
+    <t>WC-20-1000-09,txt</t>
+  </si>
+  <si>
+    <t>WC-20-1000-10,txt</t>
+  </si>
+  <si>
+    <t>WC-200-10-01,txt</t>
+  </si>
+  <si>
+    <t>WC-200-10-02,txt</t>
+  </si>
+  <si>
+    <t>WC-200-10-03,txt</t>
+  </si>
+  <si>
+    <t>WC-200-10-04,txt</t>
+  </si>
+  <si>
+    <t>WC-200-10-05,txt</t>
+  </si>
+  <si>
+    <t>WC-200-10-06,txt</t>
+  </si>
+  <si>
+    <t>WC-200-10-07,txt</t>
+  </si>
+  <si>
+    <t>WC-200-10-08,txt</t>
+  </si>
+  <si>
+    <t>WC-200-10-09,txt</t>
+  </si>
+  <si>
+    <t>WC-200-10-10,txt</t>
+  </si>
+  <si>
+    <t>WC-200-100-01,txt</t>
+  </si>
+  <si>
+    <t>WC-200-100-02,txt</t>
+  </si>
+  <si>
+    <t>WC-200-100-03,txt</t>
+  </si>
+  <si>
+    <t>WC-200-100-04,txt</t>
+  </si>
+  <si>
+    <t>WC-200-100-05,txt</t>
+  </si>
+  <si>
+    <t>WC-200-100-06,txt</t>
+  </si>
+  <si>
+    <t>WC-200-100-07,txt</t>
+  </si>
+  <si>
+    <t>WC-200-100-08,txt</t>
+  </si>
+  <si>
+    <t>WC-200-100-09,txt</t>
+  </si>
+  <si>
+    <t>WC-200-100-10,txt</t>
+  </si>
+  <si>
+    <t>1,453125;1001</t>
+  </si>
+  <si>
+    <t>WC-200-1000-01,txt</t>
+  </si>
+  <si>
+    <t>WC-200-1000-02,txt</t>
+  </si>
+  <si>
+    <t>WC-200-1000-03,txt</t>
+  </si>
+  <si>
+    <t>WC-200-1000-04,txt</t>
+  </si>
+  <si>
+    <t>WC-200-1000-05,txt</t>
+  </si>
+  <si>
+    <t>WC-200-1000-06,txt</t>
+  </si>
+  <si>
+    <t>WC-200-1000-07,txt</t>
+  </si>
+  <si>
+    <t>WC-200-1000-08,txt</t>
+  </si>
+  <si>
+    <t>WC-200-1000-09,txt</t>
+  </si>
+  <si>
+    <t>WC-200-1000-10,txt</t>
+  </si>
+  <si>
+    <t>2,59375;108</t>
+  </si>
+  <si>
+    <t>WC-2000-10-01,txt</t>
+  </si>
+  <si>
+    <t>14,109375;221</t>
+  </si>
+  <si>
+    <t>WC-2000-10-02,txt</t>
+  </si>
+  <si>
+    <t>32,78125;329</t>
+  </si>
+  <si>
+    <t>WC-2000-10-03,txt</t>
+  </si>
+  <si>
+    <t>60,03125;440</t>
+  </si>
+  <si>
+    <t>WC-2000-10-04,txt</t>
+  </si>
+  <si>
+    <t>94,0;548</t>
+  </si>
+  <si>
+    <t>WC-2000-10-05,txt</t>
+  </si>
+  <si>
+    <t>133,390625;655</t>
+  </si>
+  <si>
+    <t>WC-2000-10-06,txt</t>
+  </si>
+  <si>
+    <t>371,390625;885</t>
+  </si>
+  <si>
+    <t>WC-2000-10-07,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-10-08,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-10-09,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-10-10,txt</t>
+  </si>
+  <si>
+    <t>332,0;994</t>
+  </si>
+  <si>
+    <t>WC-2000-100-01,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-100-02,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-100-03,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-100-04,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-100-05,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-100-06,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-100-07,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-100-08,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-100-09,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-100-10,txt</t>
+  </si>
+  <si>
+    <t>18147,375;9911</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-01,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-02,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-03,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-04,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-05,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-06,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-07,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-08,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-09,txt</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-10,txt</t>
+  </si>
+  <si>
+    <t>WC-50-10-01,txt</t>
+  </si>
+  <si>
+    <t>WC-50-10-02,txt</t>
+  </si>
+  <si>
+    <t>WC-50-10-03,txt</t>
+  </si>
+  <si>
+    <t>WC-50-10-04,txt</t>
+  </si>
+  <si>
+    <t>WC-50-10-05,txt</t>
+  </si>
+  <si>
+    <t>WC-50-10-06,txt</t>
+  </si>
+  <si>
+    <t>WC-50-10-07,txt</t>
+  </si>
+  <si>
+    <t>WC-50-10-08,txt</t>
+  </si>
+  <si>
+    <t>WC-50-10-09,txt</t>
+  </si>
+  <si>
+    <t>WC-50-10-10,txt</t>
+  </si>
+  <si>
+    <t>WC-50-100-01,txt</t>
+  </si>
+  <si>
+    <t>WC-50-100-02,txt</t>
+  </si>
+  <si>
+    <t>WC-50-100-03,txt</t>
+  </si>
+  <si>
+    <t>WC-50-100-04,txt</t>
+  </si>
+  <si>
+    <t>WC-50-100-05,txt</t>
+  </si>
+  <si>
+    <t>WC-50-100-06,txt</t>
+  </si>
+  <si>
+    <t>WC-50-100-07,txt</t>
+  </si>
+  <si>
+    <t>WC-50-100-08,txt</t>
+  </si>
+  <si>
+    <t>WC-50-100-09,txt</t>
+  </si>
+  <si>
+    <t>WC-50-100-10,txt</t>
+  </si>
+  <si>
+    <t>WC-50-1000-01,txt</t>
+  </si>
+  <si>
+    <t>WC-50-1000-02,txt</t>
+  </si>
+  <si>
+    <t>WC-50-1000-03,txt</t>
+  </si>
+  <si>
+    <t>WC-50-1000-04,txt</t>
+  </si>
+  <si>
+    <t>WC-50-1000-05,txt</t>
+  </si>
+  <si>
+    <t>WC-50-1000-06,txt</t>
+  </si>
+  <si>
+    <t>WC-50-1000-07,txt</t>
+  </si>
+  <si>
+    <t>WC-50-1000-08,txt</t>
+  </si>
+  <si>
+    <t>WC-50-1000-09,txt</t>
+  </si>
+  <si>
+    <t>WC-50-1000-10,txt</t>
+  </si>
+  <si>
+    <t>WC-500-10-01,txt</t>
+  </si>
+  <si>
+    <t>WC-500-10-02,txt</t>
+  </si>
+  <si>
+    <t>WC-500-10-03,txt</t>
+  </si>
+  <si>
+    <t>WC-500-10-04,txt</t>
+  </si>
+  <si>
+    <t>WC-500-10-05,txt</t>
+  </si>
+  <si>
+    <t>WC-500-10-06,txt</t>
+  </si>
+  <si>
+    <t>WC-500-10-07,txt</t>
+  </si>
+  <si>
+    <t>WC-500-10-08,txt</t>
+  </si>
+  <si>
+    <t>WC-500-10-09,txt</t>
+  </si>
+  <si>
+    <t>WC-500-10-10,txt</t>
+  </si>
+  <si>
+    <t>WC-500-100-01,txt</t>
+  </si>
+  <si>
+    <t>WC-500-100-02,txt</t>
+  </si>
+  <si>
+    <t>WC-500-100-03,txt</t>
+  </si>
+  <si>
+    <t>WC-500-100-04,txt</t>
+  </si>
+  <si>
+    <t>WC-500-100-05,txt</t>
+  </si>
+  <si>
+    <t>WC-500-100-06,txt</t>
+  </si>
+  <si>
+    <t>WC-500-100-07,txt</t>
+  </si>
+  <si>
+    <t>WC-500-100-08,txt</t>
+  </si>
+  <si>
+    <t>WC-500-100-09,txt</t>
+  </si>
+  <si>
+    <t>WC-500-100-10,txt</t>
+  </si>
+  <si>
+    <t>WC-500-1000-01,txt</t>
+  </si>
+  <si>
+    <t>WC-500-1000-02,txt</t>
+  </si>
+  <si>
+    <t>WC-500-1000-03,txt</t>
+  </si>
+  <si>
+    <t>WC-500-1000-04,txt</t>
+  </si>
+  <si>
+    <t>WC-500-1000-05,txt</t>
+  </si>
+  <si>
+    <t>WC-500-1000-06,txt</t>
+  </si>
+  <si>
+    <t>WC-500-1000-07,txt</t>
+  </si>
+  <si>
+    <t>WC-500-1000-08,txt</t>
+  </si>
+  <si>
+    <t>WC-500-1000-09,txt</t>
+  </si>
+  <si>
+    <t>WC-500-1000-10,txt</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D3A866-B3F1-5D4F-A126-3B73E31B27BE}">
   <dimension ref="A1:AE270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T100" workbookViewId="0">
-      <selection activeCell="AB107" sqref="AB107"/>
+    <sheetView tabSelected="1" topLeftCell="R22" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1579,11 +2182,11 @@
         <v>4000</v>
       </c>
       <c r="V1">
-        <f>AVERAGE(S1:S10)</f>
+        <f>AVERAGE(S1:S6)</f>
         <v>2163.0104166666665</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="AA1" t="s">
         <v>273</v>
@@ -1625,7 +2228,7 @@
         <v>4004</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="AB2">
         <v>968.71875</v>
@@ -1657,7 +2260,7 @@
         <v>4017</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="AB3">
         <v>760.421875</v>
@@ -1689,7 +2292,7 @@
         <v>4064</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="AB4">
         <v>2098.5625</v>
@@ -1721,7 +2324,7 @@
         <v>4022</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="AB5">
         <v>716.734375</v>
@@ -1753,7 +2356,7 @@
         <v>4190</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="AB6">
         <v>773.609375</v>
@@ -1779,7 +2382,7 @@
         <v>4050</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>7</v>
+        <v>281</v>
       </c>
       <c r="AB7">
         <v>842.25</v>
@@ -1805,7 +2408,7 @@
         <v>3878</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="AB8">
         <v>358.640625</v>
@@ -1831,7 +2434,7 @@
         <v>3948</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>9</v>
+        <v>283</v>
       </c>
       <c r="AB9">
         <v>718.5</v>
@@ -1857,7 +2460,7 @@
         <v>3879</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="AB10">
         <v>1068.953125</v>
@@ -1896,8 +2499,8 @@
         <f>AVERAGE(M11:M20)</f>
         <v>1.6970634460449169E-4</v>
       </c>
-      <c r="S11" t="s">
-        <v>282</v>
+      <c r="S11">
+        <v>0.953125</v>
       </c>
       <c r="T11">
         <v>403</v>
@@ -1905,12 +2508,12 @@
       <c r="U11">
         <v>400</v>
       </c>
-      <c r="V11" t="e">
+      <c r="V11">
         <f t="shared" ref="V11" si="1">AVERAGE(S11:S20)</f>
-        <v>#DIV/0!</v>
+        <v>1.1187499999999999</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="AB11">
         <v>2.40625</v>
@@ -1942,14 +2545,14 @@
       <c r="N12">
         <v>391</v>
       </c>
-      <c r="S12" t="s">
-        <v>283</v>
+      <c r="S12">
+        <v>1.1875</v>
       </c>
       <c r="T12">
         <v>438</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="AB12">
         <v>3.125</v>
@@ -1974,14 +2577,14 @@
       <c r="N13">
         <v>382</v>
       </c>
-      <c r="S13" t="s">
-        <v>284</v>
+      <c r="S13">
+        <v>1.046875</v>
       </c>
       <c r="T13">
         <v>423</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="AB13">
         <v>2.734375</v>
@@ -2006,14 +2609,14 @@
       <c r="N14">
         <v>404</v>
       </c>
-      <c r="S14" t="s">
-        <v>284</v>
+      <c r="S14">
+        <v>1.046875</v>
       </c>
       <c r="T14">
         <v>417</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="AB14">
         <v>3.515625</v>
@@ -2038,14 +2641,14 @@
       <c r="N15">
         <v>397</v>
       </c>
-      <c r="S15" t="s">
-        <v>285</v>
+      <c r="S15">
+        <v>1.359375</v>
       </c>
       <c r="T15">
         <v>458</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="AB15">
         <v>2.53125</v>
@@ -2071,7 +2674,7 @@
         <v>452</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="AB16">
         <v>4.109375</v>
@@ -2097,7 +2700,7 @@
         <v>399</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="AB17">
         <v>2.71875</v>
@@ -2123,7 +2726,7 @@
         <v>425</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="AB18">
         <v>2.484375</v>
@@ -2149,7 +2752,7 @@
         <v>401</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="AB19">
         <v>3.078125</v>
@@ -2175,7 +2778,7 @@
         <v>369</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="AB20">
         <v>3.625</v>
@@ -2214,8 +2817,8 @@
         <f>AVERAGE(M21:M30)</f>
         <v>2.3531913757324181E-4</v>
       </c>
-      <c r="S21" t="s">
-        <v>286</v>
+      <c r="S21">
+        <v>202.59375</v>
       </c>
       <c r="T21">
         <v>2050</v>
@@ -2223,12 +2826,12 @@
       <c r="U21">
         <v>2000</v>
       </c>
-      <c r="V21" t="e">
+      <c r="V21">
         <f t="shared" ref="V21" si="2">AVERAGE(S21:S30)</f>
-        <v>#DIV/0!</v>
+        <v>211.30729166666666</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>21</v>
+        <v>295</v>
       </c>
       <c r="AB21">
         <v>95.796875</v>
@@ -2260,14 +2863,14 @@
       <c r="N22">
         <v>2029</v>
       </c>
-      <c r="S22" t="s">
-        <v>287</v>
+      <c r="S22">
+        <v>217.296875</v>
       </c>
       <c r="T22">
         <v>2044</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="AB22">
         <v>298.5625</v>
@@ -2292,14 +2895,14 @@
       <c r="N23">
         <v>1927</v>
       </c>
-      <c r="S23" t="s">
-        <v>288</v>
+      <c r="S23">
+        <v>214.03125</v>
       </c>
       <c r="T23">
         <v>2016</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="AB23">
         <v>94.234375</v>
@@ -2325,10 +2928,10 @@
         <v>1991</v>
       </c>
       <c r="S24" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="AB24">
         <v>125.953125</v>
@@ -2354,7 +2957,7 @@
         <v>1951</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="AB25">
         <v>275.203125</v>
@@ -2380,7 +2983,7 @@
         <v>1988</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="AB26">
         <v>156.59375</v>
@@ -2406,7 +3009,7 @@
         <v>2056</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="AB27">
         <v>70.265625</v>
@@ -2432,7 +3035,7 @@
         <v>1961</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>28</v>
+        <v>302</v>
       </c>
       <c r="AB28">
         <v>128.453125</v>
@@ -2458,7 +3061,7 @@
         <v>2010</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>29</v>
+        <v>303</v>
       </c>
       <c r="AB29">
         <v>69.328125</v>
@@ -2484,7 +3087,7 @@
         <v>1989</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="AB30">
         <v>145.125</v>
@@ -2523,15 +3126,21 @@
         <f>AVERAGE(M31:M40)</f>
         <v>1.0411739349365206E-4</v>
       </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>11</v>
+      </c>
       <c r="U31">
         <v>10</v>
       </c>
-      <c r="V31" s="3" t="e">
+      <c r="V31" s="3">
         <f>AVERAGE(S31:S40)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -2563,8 +3172,14 @@
       <c r="N32">
         <v>11</v>
       </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>11</v>
+      </c>
       <c r="X32" s="2" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -2589,8 +3204,14 @@
       <c r="N33">
         <v>11</v>
       </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>11</v>
+      </c>
       <c r="X33" s="2" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -2615,8 +3236,14 @@
       <c r="N34">
         <v>9</v>
       </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>11</v>
+      </c>
       <c r="X34" s="2" t="s">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -2641,8 +3268,14 @@
       <c r="N35">
         <v>10</v>
       </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>11</v>
+      </c>
       <c r="X35" s="2" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -2667,8 +3300,14 @@
       <c r="N36">
         <v>9</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>11</v>
+      </c>
       <c r="X36" s="2" t="s">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -2693,8 +3332,14 @@
       <c r="N37">
         <v>11</v>
       </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>11</v>
+      </c>
       <c r="X37" s="2" t="s">
-        <v>37</v>
+        <v>311</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -2719,8 +3364,14 @@
       <c r="N38">
         <v>10</v>
       </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>11</v>
+      </c>
       <c r="X38" s="2" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -2745,8 +3396,14 @@
       <c r="N39">
         <v>8</v>
       </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>11</v>
+      </c>
       <c r="X39" s="2" t="s">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -2771,8 +3428,14 @@
       <c r="N40">
         <v>7</v>
       </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>11</v>
+      </c>
       <c r="X40" s="2" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -2812,15 +3475,21 @@
         <v>9.93728637695309E-5</v>
       </c>
       <c r="Q41" s="3"/>
+      <c r="S41">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="T41">
+        <v>101</v>
+      </c>
       <c r="U41">
         <v>100</v>
       </c>
-      <c r="V41" t="e">
+      <c r="V41">
         <f t="shared" ref="V41" si="3">AVERAGE(S41:S50)</f>
-        <v>#DIV/0!</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="AB41">
         <v>9.375E-2</v>
@@ -2852,8 +3521,14 @@
       <c r="N42">
         <v>96</v>
       </c>
+      <c r="S42">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="T42">
+        <v>101</v>
+      </c>
       <c r="X42" s="2" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AB42">
         <v>0.109375</v>
@@ -2878,8 +3553,14 @@
       <c r="N43">
         <v>44</v>
       </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>101</v>
+      </c>
       <c r="X43" s="2" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AB43">
         <v>7.8125E-2</v>
@@ -2904,8 +3585,14 @@
       <c r="N44">
         <v>15</v>
       </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>101</v>
+      </c>
       <c r="X44" s="2" t="s">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="AB44">
         <v>0.125</v>
@@ -2930,8 +3617,14 @@
       <c r="N45">
         <v>76</v>
       </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>101</v>
+      </c>
       <c r="X45" s="2" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AB45">
         <v>0.125</v>
@@ -2956,8 +3649,14 @@
       <c r="N46">
         <v>85</v>
       </c>
+      <c r="S46">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="T46">
+        <v>101</v>
+      </c>
       <c r="X46" s="2" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="AB46">
         <v>6.25E-2</v>
@@ -2982,8 +3681,14 @@
       <c r="N47">
         <v>98</v>
       </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>101</v>
+      </c>
       <c r="X47" s="2" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="AB47">
         <v>9.375E-2</v>
@@ -3008,8 +3713,14 @@
       <c r="N48">
         <v>60</v>
       </c>
+      <c r="S48">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="T48">
+        <v>101</v>
+      </c>
       <c r="X48" s="2" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="AB48">
         <v>7.8125E-2</v>
@@ -3034,8 +3745,14 @@
       <c r="N49">
         <v>60</v>
       </c>
+      <c r="S49">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="T49">
+        <v>101</v>
+      </c>
       <c r="X49" s="2" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="AB49">
         <v>7.8125E-2</v>
@@ -3060,8 +3777,14 @@
       <c r="N50">
         <v>98</v>
       </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>101</v>
+      </c>
       <c r="X50" s="2" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="AB50">
         <v>9.375E-2</v>
@@ -3100,15 +3823,21 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S51">
+        <v>1.828125</v>
+      </c>
+      <c r="T51">
+        <v>945</v>
+      </c>
       <c r="U51">
         <v>1000</v>
       </c>
-      <c r="V51" t="e">
+      <c r="V51">
         <f t="shared" ref="V51" si="4">AVERAGE(S51:S60)</f>
-        <v>#DIV/0!</v>
+        <v>1.609375</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>51</v>
+        <v>325</v>
       </c>
       <c r="AB51">
         <v>11.59375</v>
@@ -3140,8 +3869,14 @@
       <c r="N52">
         <v>658</v>
       </c>
+      <c r="S52">
+        <v>2.21875</v>
+      </c>
+      <c r="T52">
+        <v>996</v>
+      </c>
       <c r="X52" s="2" t="s">
-        <v>52</v>
+        <v>326</v>
       </c>
       <c r="AB52">
         <v>10.515625</v>
@@ -3166,8 +3901,14 @@
       <c r="N53">
         <v>450</v>
       </c>
+      <c r="S53">
+        <v>0.921875</v>
+      </c>
+      <c r="T53">
+        <v>1001</v>
+      </c>
       <c r="X53" s="2" t="s">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="AB53">
         <v>17.34375</v>
@@ -3192,8 +3933,14 @@
       <c r="N54">
         <v>783</v>
       </c>
+      <c r="S54">
+        <v>1.984375</v>
+      </c>
+      <c r="T54">
+        <v>1001</v>
+      </c>
       <c r="X54" s="2" t="s">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="AB54">
         <v>12.796875</v>
@@ -3218,8 +3965,14 @@
       <c r="N55">
         <v>580</v>
       </c>
+      <c r="S55">
+        <v>1.90625</v>
+      </c>
+      <c r="T55">
+        <v>1001</v>
+      </c>
       <c r="X55" s="2" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="AB55">
         <v>13.109375</v>
@@ -3244,8 +3997,14 @@
       <c r="N56">
         <v>914</v>
       </c>
+      <c r="S56">
+        <v>2.125</v>
+      </c>
+      <c r="T56">
+        <v>985</v>
+      </c>
       <c r="X56" s="2" t="s">
-        <v>56</v>
+        <v>330</v>
       </c>
       <c r="AB56">
         <v>12.796875</v>
@@ -3270,8 +4029,14 @@
       <c r="N57">
         <v>182</v>
       </c>
+      <c r="S57">
+        <v>2.046875</v>
+      </c>
+      <c r="T57">
+        <v>1001</v>
+      </c>
       <c r="X57" s="2" t="s">
-        <v>57</v>
+        <v>331</v>
       </c>
       <c r="AB57">
         <v>11.59375</v>
@@ -3296,8 +4061,14 @@
       <c r="N58">
         <v>963</v>
       </c>
+      <c r="S58">
+        <v>0.75</v>
+      </c>
+      <c r="T58">
+        <v>1001</v>
+      </c>
       <c r="X58" s="2" t="s">
-        <v>58</v>
+        <v>332</v>
       </c>
       <c r="AB58">
         <v>18.90625</v>
@@ -3322,8 +4093,14 @@
       <c r="N59">
         <v>889</v>
       </c>
+      <c r="S59">
+        <v>1.703125</v>
+      </c>
+      <c r="T59">
+        <v>1001</v>
+      </c>
       <c r="X59" s="2" t="s">
-        <v>59</v>
+        <v>333</v>
       </c>
       <c r="AB59">
         <v>14.859375</v>
@@ -3348,8 +4125,14 @@
       <c r="N60">
         <v>814</v>
       </c>
+      <c r="S60">
+        <v>0.609375</v>
+      </c>
+      <c r="T60">
+        <v>1001</v>
+      </c>
       <c r="X60" s="2" t="s">
-        <v>60</v>
+        <v>334</v>
       </c>
       <c r="AB60">
         <v>20.046875</v>
@@ -3388,15 +4171,21 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>11</v>
+      </c>
       <c r="U61">
         <v>10</v>
       </c>
-      <c r="V61" t="e">
+      <c r="V61">
         <f t="shared" ref="V61" si="5">AVERAGE(S61:S70)</f>
-        <v>#DIV/0!</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -3428,8 +4217,14 @@
       <c r="N62">
         <v>10</v>
       </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>11</v>
+      </c>
       <c r="X62" s="1" t="s">
-        <v>62</v>
+        <v>336</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -3454,8 +4249,14 @@
       <c r="N63">
         <v>10</v>
       </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>15</v>
+      </c>
       <c r="X63" s="2" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -3480,8 +4281,14 @@
       <c r="N64">
         <v>21</v>
       </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>22</v>
+      </c>
       <c r="X64" s="2" t="s">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -3506,8 +4313,14 @@
       <c r="N65">
         <v>24</v>
       </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>32</v>
+      </c>
       <c r="X65" s="2" t="s">
-        <v>65</v>
+        <v>339</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -3532,8 +4345,14 @@
       <c r="N66">
         <v>31</v>
       </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>31</v>
+      </c>
       <c r="X66" s="2" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="AB66">
         <v>1.5625E-2</v>
@@ -3558,8 +4377,14 @@
       <c r="N67">
         <v>35</v>
       </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>38</v>
+      </c>
       <c r="X67" s="2" t="s">
-        <v>67</v>
+        <v>341</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -3584,8 +4409,14 @@
       <c r="N68">
         <v>43</v>
       </c>
+      <c r="S68">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="T68">
+        <v>43</v>
+      </c>
       <c r="X68" s="2" t="s">
-        <v>68</v>
+        <v>342</v>
       </c>
       <c r="AB68">
         <v>1.5625E-2</v>
@@ -3610,8 +4441,14 @@
       <c r="N69">
         <v>48</v>
       </c>
+      <c r="S69">
+        <v>3.125E-2</v>
+      </c>
+      <c r="T69">
+        <v>55</v>
+      </c>
       <c r="X69" s="2" t="s">
-        <v>69</v>
+        <v>343</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -3636,8 +4473,14 @@
       <c r="N70">
         <v>54</v>
       </c>
+      <c r="S70">
+        <v>3.125E-2</v>
+      </c>
+      <c r="T70">
+        <v>56</v>
+      </c>
       <c r="X70" s="2" t="s">
-        <v>70</v>
+        <v>344</v>
       </c>
       <c r="AB70">
         <v>1.5625E-2</v>
@@ -3676,15 +4519,21 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>107</v>
+      </c>
       <c r="U71">
         <v>100</v>
       </c>
-      <c r="V71" t="e">
+      <c r="V71">
         <f t="shared" ref="V71" si="7">AVERAGE(S71:S80)</f>
-        <v>#DIV/0!</v>
+        <v>0.67031249999999998</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="AB71">
         <v>1.5625E-2</v>
@@ -3716,8 +4565,14 @@
       <c r="N72">
         <v>54</v>
       </c>
+      <c r="S72">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="T72">
+        <v>107</v>
+      </c>
       <c r="X72" s="1" t="s">
-        <v>72</v>
+        <v>346</v>
       </c>
       <c r="AB72">
         <v>3.125E-2</v>
@@ -3742,8 +4597,14 @@
       <c r="N73">
         <v>97</v>
       </c>
+      <c r="S73">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="T73">
+        <v>147</v>
+      </c>
       <c r="X73" s="2" t="s">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="AB73">
         <v>1.5625E-2</v>
@@ -3768,8 +4629,14 @@
       <c r="N74">
         <v>142</v>
       </c>
+      <c r="S74">
+        <v>9.375E-2</v>
+      </c>
+      <c r="T74">
+        <v>184</v>
+      </c>
       <c r="X74" s="2" t="s">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="AB74">
         <v>4.6875E-2</v>
@@ -3794,8 +4661,14 @@
       <c r="N75">
         <v>262</v>
       </c>
+      <c r="S75">
+        <v>0.25</v>
+      </c>
+      <c r="T75">
+        <v>268</v>
+      </c>
       <c r="X75" s="1" t="s">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="AB75">
         <v>4.6875E-2</v>
@@ -3820,8 +4693,14 @@
       <c r="N76">
         <v>279</v>
       </c>
+      <c r="S76">
+        <v>0.484375</v>
+      </c>
+      <c r="T76">
+        <v>310</v>
+      </c>
       <c r="X76" s="1" t="s">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AB76">
         <v>0.609375</v>
@@ -3846,8 +4725,14 @@
       <c r="N77">
         <v>301</v>
       </c>
+      <c r="S77">
+        <v>0.65625</v>
+      </c>
+      <c r="T77">
+        <v>347</v>
+      </c>
       <c r="X77" s="2" t="s">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="AB77">
         <v>0.171875</v>
@@ -3872,8 +4757,14 @@
       <c r="N78">
         <v>410</v>
       </c>
+      <c r="S78">
+        <v>1.125</v>
+      </c>
+      <c r="T78">
+        <v>443</v>
+      </c>
       <c r="X78" s="2" t="s">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AB78">
         <v>0.671875</v>
@@ -3898,8 +4789,14 @@
       <c r="N79">
         <v>418</v>
       </c>
+      <c r="S79">
+        <v>1.328125</v>
+      </c>
+      <c r="T79">
+        <v>455</v>
+      </c>
       <c r="X79" s="1" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AB79">
         <v>1.796875</v>
@@ -3924,8 +4821,14 @@
       <c r="N80">
         <v>515</v>
       </c>
+      <c r="S80">
+        <v>2.734375</v>
+      </c>
+      <c r="T80">
+        <v>525</v>
+      </c>
       <c r="X80" s="1" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AB80">
         <v>3.484375</v>
@@ -3964,15 +4867,21 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S81">
+        <v>1.09375</v>
+      </c>
+      <c r="T81">
+        <v>1001</v>
+      </c>
       <c r="U81">
         <v>1000</v>
       </c>
-      <c r="V81" t="e">
+      <c r="V81">
         <f t="shared" ref="V81" si="8">AVERAGE(S81:S90)</f>
-        <v>#DIV/0!</v>
+        <v>27.138392857142858</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AB81">
         <v>165.609375</v>
@@ -4004,8 +4913,14 @@
       <c r="N82">
         <v>722</v>
       </c>
+      <c r="S82">
+        <v>1.328125</v>
+      </c>
+      <c r="T82">
+        <v>1118</v>
+      </c>
       <c r="X82" s="1" t="s">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AB82">
         <v>124.640625</v>
@@ -4030,8 +4945,14 @@
       <c r="N83">
         <v>1518</v>
       </c>
+      <c r="S83">
+        <v>5.734375</v>
+      </c>
+      <c r="T83">
+        <v>1553</v>
+      </c>
       <c r="X83" s="2" t="s">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="AB83">
         <v>417.4375</v>
@@ -4056,8 +4977,14 @@
       <c r="N84">
         <v>1764</v>
       </c>
+      <c r="S84">
+        <v>18.890625</v>
+      </c>
+      <c r="T84">
+        <v>2086</v>
+      </c>
       <c r="X84" s="2" t="s">
-        <v>84</v>
+        <v>358</v>
       </c>
       <c r="AB84">
         <v>1274.609375</v>
@@ -4082,8 +5009,14 @@
       <c r="N85">
         <v>1699</v>
       </c>
+      <c r="S85">
+        <v>24.5</v>
+      </c>
+      <c r="T85">
+        <v>2221</v>
+      </c>
       <c r="X85" s="2" t="s">
-        <v>85</v>
+        <v>359</v>
       </c>
       <c r="AB85">
         <v>1296.890625</v>
@@ -4108,11 +5041,17 @@
       <c r="N86">
         <v>2922</v>
       </c>
+      <c r="S86">
+        <v>60.671875</v>
+      </c>
+      <c r="T86">
+        <v>3055</v>
+      </c>
       <c r="X86" s="2" t="s">
-        <v>86</v>
+        <v>360</v>
       </c>
       <c r="AB86" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="2:31" ht="17.7">
@@ -4131,8 +5070,14 @@
       <c r="N87">
         <v>2990</v>
       </c>
+      <c r="S87">
+        <v>77.75</v>
+      </c>
+      <c r="T87">
+        <v>3270</v>
+      </c>
       <c r="X87" s="2" t="s">
-        <v>87</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="2:31" ht="17.7">
@@ -4152,7 +5097,7 @@
         <v>2987</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>88</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="2:31" ht="17.7">
@@ -4172,7 +5117,7 @@
         <v>4143</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>89</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="2:31" ht="17.7">
@@ -4192,7 +5137,7 @@
         <v>4794</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>90</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="2:31" ht="17.7">
@@ -4225,8 +5170,8 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S91" t="s">
-        <v>289</v>
+      <c r="S91">
+        <v>0.390625</v>
       </c>
       <c r="T91">
         <v>54</v>
@@ -4234,15 +5179,15 @@
       <c r="U91">
         <v>10</v>
       </c>
-      <c r="V91" t="e">
+      <c r="V91">
         <f t="shared" ref="V91" si="9">AVERAGE(S91:S100)</f>
-        <v>#DIV/0!</v>
+        <v>11.778124999999999</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>275</v>
+        <v>365</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
       </c>
       <c r="AC91">
         <v>54</v>
@@ -4250,9 +5195,9 @@
       <c r="AD91">
         <v>10</v>
       </c>
-      <c r="AE91" t="e">
+      <c r="AE91">
         <f t="shared" ref="AE91" si="10">AVERAGE(AB91:AB100)</f>
-        <v>#DIV/0!</v>
+        <v>0.10312499999999999</v>
       </c>
     </row>
     <row r="92" spans="2:31" ht="17.7">
@@ -4271,17 +5216,17 @@
       <c r="N92">
         <v>106</v>
       </c>
-      <c r="S92" t="s">
-        <v>290</v>
+      <c r="S92">
+        <v>1.03125</v>
       </c>
       <c r="T92">
         <v>111</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>275</v>
+        <v>366</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
       </c>
       <c r="AC92">
         <v>111</v>
@@ -4303,17 +5248,17 @@
       <c r="N93">
         <v>160</v>
       </c>
-      <c r="S93" t="s">
-        <v>291</v>
+      <c r="S93">
+        <v>3</v>
       </c>
       <c r="T93">
         <v>163</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>275</v>
+        <v>367</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
       </c>
       <c r="AC93">
         <v>163</v>
@@ -4335,17 +5280,17 @@
       <c r="N94">
         <v>212</v>
       </c>
-      <c r="S94" t="s">
-        <v>292</v>
+      <c r="S94">
+        <v>5.65625</v>
       </c>
       <c r="T94">
         <v>218</v>
       </c>
       <c r="X94" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB94" t="s">
-        <v>280</v>
+        <v>368</v>
+      </c>
+      <c r="AB94">
+        <v>1.5625E-2</v>
       </c>
       <c r="AC94">
         <v>218</v>
@@ -4367,17 +5312,17 @@
       <c r="N95">
         <v>273</v>
       </c>
-      <c r="S95" t="s">
-        <v>293</v>
+      <c r="S95">
+        <v>7.5</v>
       </c>
       <c r="T95">
         <v>275</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>275</v>
+        <v>369</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
       </c>
       <c r="AC95">
         <v>275</v>
@@ -4399,17 +5344,17 @@
       <c r="N96">
         <v>324</v>
       </c>
-      <c r="S96" t="s">
-        <v>294</v>
+      <c r="S96">
+        <v>11.53125</v>
       </c>
       <c r="T96">
         <v>324</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>280</v>
+        <v>370</v>
+      </c>
+      <c r="AB96">
+        <v>1.5625E-2</v>
       </c>
       <c r="AC96">
         <v>324</v>
@@ -4431,17 +5376,17 @@
       <c r="N97">
         <v>378</v>
       </c>
-      <c r="S97" t="s">
-        <v>295</v>
+      <c r="S97">
+        <v>13.46875</v>
       </c>
       <c r="T97">
         <v>379</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>299</v>
+        <v>371</v>
+      </c>
+      <c r="AB97">
+        <v>0.28125</v>
       </c>
       <c r="AC97">
         <v>379</v>
@@ -4463,17 +5408,17 @@
       <c r="N98">
         <v>440</v>
       </c>
-      <c r="S98" t="s">
-        <v>296</v>
+      <c r="S98">
+        <v>19.109375</v>
       </c>
       <c r="T98">
         <v>445</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>300</v>
+        <v>372</v>
+      </c>
+      <c r="AB98">
+        <v>0.6875</v>
       </c>
       <c r="AC98">
         <v>445</v>
@@ -4495,17 +5440,17 @@
       <c r="N99">
         <v>491</v>
       </c>
-      <c r="S99" t="s">
-        <v>297</v>
+      <c r="S99">
+        <v>24.375</v>
       </c>
       <c r="T99">
         <v>494</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB99" t="s">
-        <v>280</v>
+        <v>373</v>
+      </c>
+      <c r="AB99">
+        <v>1.5625E-2</v>
       </c>
       <c r="AC99">
         <v>494</v>
@@ -4527,17 +5472,17 @@
       <c r="N100">
         <v>548</v>
       </c>
-      <c r="S100" t="s">
-        <v>298</v>
+      <c r="S100">
+        <v>31.71875</v>
       </c>
       <c r="T100">
         <v>557</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB100" t="s">
-        <v>280</v>
+        <v>374</v>
+      </c>
+      <c r="AB100">
+        <v>1.5625E-2</v>
       </c>
       <c r="AC100">
         <v>557</v>
@@ -4573,8 +5518,8 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S101" t="s">
-        <v>304</v>
+      <c r="S101">
+        <v>246.6875</v>
       </c>
       <c r="T101">
         <v>1488</v>
@@ -4582,15 +5527,15 @@
       <c r="U101">
         <v>100</v>
       </c>
-      <c r="V101" t="e">
+      <c r="V101">
         <f t="shared" ref="V101" si="11">AVERAGE(S101:S110)</f>
-        <v>#DIV/0!</v>
+        <v>246.6875</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB101" t="s">
-        <v>302</v>
+        <v>375</v>
+      </c>
+      <c r="AB101">
+        <v>133.59375</v>
       </c>
       <c r="AC101">
         <v>1488</v>
@@ -4598,9 +5543,9 @@
       <c r="AD101">
         <v>100</v>
       </c>
-      <c r="AE101" t="e">
+      <c r="AE101">
         <f t="shared" ref="AE101" si="12">AVERAGE(AB101:AB110)</f>
-        <v>#DIV/0!</v>
+        <v>153.703125</v>
       </c>
     </row>
     <row r="102" spans="2:31" ht="17.7">
@@ -4620,10 +5565,10 @@
         <v>966</v>
       </c>
       <c r="X102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB102" t="s">
-        <v>303</v>
+        <v>376</v>
+      </c>
+      <c r="AB102">
+        <v>326.453125</v>
       </c>
       <c r="AC102">
         <v>3431</v>
@@ -4646,10 +5591,13 @@
         <v>1473</v>
       </c>
       <c r="X103" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB103" t="s">
-        <v>354</v>
+        <v>377</v>
+      </c>
+      <c r="AB103">
+        <v>1.0625</v>
+      </c>
+      <c r="AC103">
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="2:31" ht="17.7">
@@ -4669,7 +5617,7 @@
         <v>1938</v>
       </c>
       <c r="X104" s="1" t="s">
-        <v>104</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="2:31" ht="17.7">
@@ -4689,7 +5637,7 @@
         <v>2537</v>
       </c>
       <c r="X105" s="1" t="s">
-        <v>105</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="2:31" ht="17.7">
@@ -4709,7 +5657,7 @@
         <v>2996</v>
       </c>
       <c r="X106" s="1" t="s">
-        <v>106</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="2:31" ht="17.7">
@@ -4729,7 +5677,7 @@
         <v>3366</v>
       </c>
       <c r="X107" s="1" t="s">
-        <v>107</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="2:31" ht="17.7">
@@ -4749,7 +5697,7 @@
         <v>4039</v>
       </c>
       <c r="X108" s="1" t="s">
-        <v>108</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="2:31" ht="17.7">
@@ -4769,7 +5717,7 @@
         <v>4442</v>
       </c>
       <c r="X109" s="1" t="s">
-        <v>109</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="2:31" ht="17.7">
@@ -4789,7 +5737,7 @@
         <v>5041</v>
       </c>
       <c r="X110" s="1" t="s">
-        <v>110</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="2:31" ht="17.7">
@@ -4823,7 +5771,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S111" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="U111">
         <v>1000</v>
@@ -4833,17 +5781,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="X111" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB111" t="s">
-        <v>353</v>
+        <v>386</v>
+      </c>
+      <c r="AB111">
+        <v>641.28125</v>
+      </c>
+      <c r="AC111">
+        <v>4960</v>
       </c>
       <c r="AD111">
         <v>1000</v>
       </c>
-      <c r="AE111" t="e">
+      <c r="AE111">
         <f t="shared" ref="AE111" si="14">AVERAGE(AB111:AB120)</f>
-        <v>#DIV/0!</v>
+        <v>641.28125</v>
       </c>
     </row>
     <row r="112" spans="2:31" ht="17.7">
@@ -4863,7 +5814,7 @@
         <v>9577</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>112</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="2:31" ht="17.7">
@@ -4883,7 +5834,7 @@
         <v>14048</v>
       </c>
       <c r="X113" s="1" t="s">
-        <v>113</v>
+        <v>388</v>
       </c>
     </row>
     <row r="114" spans="2:31" ht="17.7">
@@ -4903,7 +5854,7 @@
         <v>19625</v>
       </c>
       <c r="X114" s="1" t="s">
-        <v>114</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="2:31" ht="17.7">
@@ -4923,7 +5874,7 @@
         <v>24620</v>
       </c>
       <c r="X115" s="1" t="s">
-        <v>115</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="2:31" ht="17.7">
@@ -4943,7 +5894,7 @@
         <v>28998</v>
       </c>
       <c r="X116" s="1" t="s">
-        <v>116</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="2:31" ht="17.7">
@@ -4963,7 +5914,7 @@
         <v>33174</v>
       </c>
       <c r="X117" s="1" t="s">
-        <v>117</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="2:31" ht="17.7">
@@ -4983,7 +5934,7 @@
         <v>37858</v>
       </c>
       <c r="X118" s="1" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="2:31" ht="17.7">
@@ -5003,7 +5954,7 @@
         <v>44497</v>
       </c>
       <c r="X119" s="1" t="s">
-        <v>119</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="2:31" ht="17.7">
@@ -5023,7 +5974,7 @@
         <v>48294</v>
       </c>
       <c r="X120" s="1" t="s">
-        <v>120</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="2:31" ht="17.7">
@@ -5056,8 +6007,8 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S121" t="s">
-        <v>275</v>
+      <c r="S121">
+        <v>0</v>
       </c>
       <c r="T121">
         <v>11</v>
@@ -5065,19 +6016,25 @@
       <c r="U121">
         <v>10</v>
       </c>
-      <c r="V121" t="e">
+      <c r="V121">
         <f t="shared" ref="V121" si="15">AVERAGE(S121:S130)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="X121" s="2" t="s">
-        <v>121</v>
+        <v>396</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>11</v>
       </c>
       <c r="AD121">
         <v>10</v>
       </c>
-      <c r="AE121" t="e">
+      <c r="AE121">
         <f t="shared" ref="AE121" si="16">AVERAGE(AB121:AB130)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:31" ht="17.7">
@@ -5096,14 +6053,20 @@
       <c r="N122">
         <v>11</v>
       </c>
-      <c r="S122" t="s">
-        <v>275</v>
+      <c r="S122">
+        <v>0</v>
       </c>
       <c r="T122">
         <v>11</v>
       </c>
       <c r="X122" s="2" t="s">
-        <v>122</v>
+        <v>397</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="2:31" ht="17.7">
@@ -5122,14 +6085,20 @@
       <c r="N123">
         <v>11</v>
       </c>
-      <c r="S123" t="s">
-        <v>275</v>
+      <c r="S123">
+        <v>0</v>
       </c>
       <c r="T123">
         <v>11</v>
       </c>
       <c r="X123" s="2" t="s">
-        <v>123</v>
+        <v>398</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="2:31" ht="17.7">
@@ -5148,14 +6117,20 @@
       <c r="N124">
         <v>11</v>
       </c>
-      <c r="S124" t="s">
-        <v>275</v>
+      <c r="S124">
+        <v>0</v>
       </c>
       <c r="T124">
         <v>11</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>124</v>
+        <v>399</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="2:31" ht="17.7">
@@ -5174,14 +6149,20 @@
       <c r="N125">
         <v>10</v>
       </c>
-      <c r="S125" t="s">
-        <v>275</v>
+      <c r="S125">
+        <v>0</v>
       </c>
       <c r="T125">
         <v>11</v>
       </c>
       <c r="X125" s="2" t="s">
-        <v>125</v>
+        <v>400</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="2:31" ht="17.7">
@@ -5200,14 +6181,20 @@
       <c r="N126">
         <v>11</v>
       </c>
-      <c r="S126" t="s">
-        <v>275</v>
+      <c r="S126">
+        <v>0</v>
       </c>
       <c r="T126">
         <v>11</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>126</v>
+        <v>401</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="2:31" ht="17.7">
@@ -5226,14 +6213,20 @@
       <c r="N127">
         <v>11</v>
       </c>
-      <c r="S127" t="s">
-        <v>275</v>
+      <c r="S127">
+        <v>0</v>
       </c>
       <c r="T127">
         <v>11</v>
       </c>
       <c r="X127" s="2" t="s">
-        <v>127</v>
+        <v>402</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="2:31" ht="17.7">
@@ -5252,14 +6245,20 @@
       <c r="N128">
         <v>10</v>
       </c>
-      <c r="S128" t="s">
-        <v>275</v>
+      <c r="S128">
+        <v>0</v>
       </c>
       <c r="T128">
         <v>11</v>
       </c>
       <c r="X128" s="2" t="s">
-        <v>128</v>
+        <v>403</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="2:31" ht="17.7">
@@ -5278,14 +6277,20 @@
       <c r="N129">
         <v>11</v>
       </c>
-      <c r="S129" t="s">
-        <v>275</v>
+      <c r="S129">
+        <v>0</v>
       </c>
       <c r="T129">
         <v>11</v>
       </c>
       <c r="X129" s="2" t="s">
-        <v>129</v>
+        <v>404</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="2:31" ht="17.7">
@@ -5304,14 +6309,20 @@
       <c r="N130">
         <v>8</v>
       </c>
-      <c r="S130" t="s">
-        <v>275</v>
+      <c r="S130">
+        <v>0</v>
       </c>
       <c r="T130">
         <v>11</v>
       </c>
       <c r="X130" s="2" t="s">
-        <v>130</v>
+        <v>405</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="2:31" ht="17.7">
@@ -5344,8 +6355,8 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S131" t="s">
-        <v>275</v>
+      <c r="S131">
+        <v>0</v>
       </c>
       <c r="T131">
         <v>101</v>
@@ -5353,19 +6364,25 @@
       <c r="U131">
         <v>100</v>
       </c>
-      <c r="V131" t="e">
+      <c r="V131">
         <f t="shared" ref="V131" si="18">AVERAGE(S131:S140)</f>
-        <v>#DIV/0!</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="X131" s="2" t="s">
-        <v>131</v>
+        <v>406</v>
+      </c>
+      <c r="AB131">
+        <v>0.15625</v>
+      </c>
+      <c r="AC131">
+        <v>101</v>
       </c>
       <c r="AD131">
         <v>100</v>
       </c>
-      <c r="AE131" t="e">
+      <c r="AE131">
         <f t="shared" ref="AE131" si="19">AVERAGE(AB131:AB140)</f>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="132" spans="2:31" ht="17.7">
@@ -5384,14 +6401,20 @@
       <c r="N132">
         <v>66</v>
       </c>
-      <c r="S132" t="s">
-        <v>280</v>
+      <c r="S132">
+        <v>1.5625E-2</v>
       </c>
       <c r="T132">
         <v>101</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>132</v>
+        <v>407</v>
+      </c>
+      <c r="AB132">
+        <v>0.234375</v>
+      </c>
+      <c r="AC132">
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="2:31" ht="17.7">
@@ -5410,14 +6433,20 @@
       <c r="N133">
         <v>34</v>
       </c>
-      <c r="S133" t="s">
-        <v>275</v>
+      <c r="S133">
+        <v>0</v>
       </c>
       <c r="T133">
         <v>101</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>133</v>
+        <v>408</v>
+      </c>
+      <c r="AB133">
+        <v>0.15625</v>
+      </c>
+      <c r="AC133">
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="2:31" ht="17.7">
@@ -5436,14 +6465,20 @@
       <c r="N134">
         <v>44</v>
       </c>
-      <c r="S134" t="s">
-        <v>275</v>
+      <c r="S134">
+        <v>0</v>
       </c>
       <c r="T134">
         <v>101</v>
       </c>
       <c r="X134" s="2" t="s">
-        <v>134</v>
+        <v>409</v>
+      </c>
+      <c r="AB134">
+        <v>0.21875</v>
+      </c>
+      <c r="AC134">
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="2:31" ht="17.7">
@@ -5462,14 +6497,20 @@
       <c r="N135">
         <v>28</v>
       </c>
-      <c r="S135" t="s">
-        <v>275</v>
+      <c r="S135">
+        <v>0</v>
       </c>
       <c r="T135">
         <v>101</v>
       </c>
       <c r="X135" s="2" t="s">
-        <v>135</v>
+        <v>410</v>
+      </c>
+      <c r="AB135">
+        <v>0.140625</v>
+      </c>
+      <c r="AC135">
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="2:31" ht="17.7">
@@ -5488,14 +6529,20 @@
       <c r="N136">
         <v>95</v>
       </c>
-      <c r="S136" t="s">
-        <v>280</v>
+      <c r="S136">
+        <v>1.5625E-2</v>
       </c>
       <c r="T136">
         <v>101</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>136</v>
+        <v>411</v>
+      </c>
+      <c r="AB136">
+        <v>0.21875</v>
+      </c>
+      <c r="AC136">
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="2:31" ht="17.7">
@@ -5514,14 +6561,20 @@
       <c r="N137">
         <v>72</v>
       </c>
-      <c r="S137" t="s">
-        <v>280</v>
+      <c r="S137">
+        <v>1.5625E-2</v>
       </c>
       <c r="T137">
         <v>101</v>
       </c>
       <c r="X137" s="2" t="s">
-        <v>137</v>
+        <v>412</v>
+      </c>
+      <c r="AB137">
+        <v>0.234375</v>
+      </c>
+      <c r="AC137">
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="2:31" ht="17.7">
@@ -5540,14 +6593,20 @@
       <c r="N138">
         <v>40</v>
       </c>
-      <c r="S138" t="s">
-        <v>275</v>
+      <c r="S138">
+        <v>0</v>
       </c>
       <c r="T138">
         <v>101</v>
       </c>
       <c r="X138" s="2" t="s">
-        <v>138</v>
+        <v>413</v>
+      </c>
+      <c r="AB138">
+        <v>0.203125</v>
+      </c>
+      <c r="AC138">
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="2:31" ht="17.7">
@@ -5566,14 +6625,20 @@
       <c r="N139">
         <v>28</v>
       </c>
-      <c r="S139" t="s">
-        <v>280</v>
+      <c r="S139">
+        <v>1.5625E-2</v>
       </c>
       <c r="T139">
         <v>116</v>
       </c>
       <c r="X139" s="2" t="s">
-        <v>139</v>
+        <v>414</v>
+      </c>
+      <c r="AB139">
+        <v>0.25</v>
+      </c>
+      <c r="AC139">
+        <v>116</v>
       </c>
     </row>
     <row r="140" spans="2:31" ht="17.7">
@@ -5592,14 +6657,20 @@
       <c r="N140">
         <v>35</v>
       </c>
-      <c r="S140" t="s">
-        <v>275</v>
+      <c r="S140">
+        <v>0</v>
       </c>
       <c r="T140">
         <v>106</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>140</v>
+        <v>415</v>
+      </c>
+      <c r="AB140">
+        <v>0.1875</v>
+      </c>
+      <c r="AC140">
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="2:31" ht="17.7">
@@ -5632,8 +6703,8 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S141" t="s">
-        <v>305</v>
+      <c r="S141">
+        <v>1</v>
       </c>
       <c r="T141">
         <v>1001</v>
@@ -5641,22 +6712,25 @@
       <c r="U141">
         <v>1000</v>
       </c>
-      <c r="V141" t="e">
+      <c r="V141">
         <f t="shared" ref="V141" si="20">AVERAGE(S141:S150)</f>
-        <v>#DIV/0!</v>
+        <v>1.8359375</v>
       </c>
       <c r="X141" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB141" t="s">
-        <v>352</v>
+        <v>416</v>
+      </c>
+      <c r="AB141">
+        <v>45.828125</v>
+      </c>
+      <c r="AC141">
+        <v>1000</v>
       </c>
       <c r="AD141">
         <v>1000</v>
       </c>
-      <c r="AE141" t="e">
+      <c r="AE141">
         <f t="shared" ref="AE141" si="21">AVERAGE(AB141:AB150)</f>
-        <v>#DIV/0!</v>
+        <v>45.828125</v>
       </c>
     </row>
     <row r="142" spans="2:31" ht="17.7">
@@ -5675,14 +6749,14 @@
       <c r="N142">
         <v>897</v>
       </c>
-      <c r="S142" t="s">
-        <v>306</v>
+      <c r="S142">
+        <v>2.78125</v>
       </c>
       <c r="T142">
         <v>1001</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>142</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="2:31" ht="17.7">
@@ -5701,14 +6775,14 @@
       <c r="N143">
         <v>676</v>
       </c>
-      <c r="S143" t="s">
-        <v>307</v>
+      <c r="S143">
+        <v>3.109375</v>
       </c>
       <c r="T143">
         <v>1001</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>143</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="2:31" ht="17.7">
@@ -5727,14 +6801,14 @@
       <c r="N144">
         <v>437</v>
       </c>
-      <c r="S144" t="s">
-        <v>308</v>
+      <c r="S144">
+        <v>0.453125</v>
       </c>
       <c r="T144">
         <v>1001</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>144</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="2:31" ht="17.7">
@@ -5754,7 +6828,7 @@
         <v>940</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>145</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="2:31" ht="17.7">
@@ -5774,7 +6848,7 @@
         <v>730</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>146</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="2:31" ht="17.7">
@@ -5794,7 +6868,7 @@
         <v>307</v>
       </c>
       <c r="X147" s="2" t="s">
-        <v>147</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="2:31" ht="17.7">
@@ -5814,7 +6888,7 @@
         <v>907</v>
       </c>
       <c r="X148" s="2" t="s">
-        <v>148</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="2:31" ht="17.7">
@@ -5834,7 +6908,7 @@
         <v>869</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>149</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="2:31" ht="17.7">
@@ -5854,7 +6928,7 @@
         <v>845</v>
       </c>
       <c r="X150" s="2" t="s">
-        <v>150</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="2:31" ht="17.7">
@@ -5887,8 +6961,8 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S151" t="s">
-        <v>275</v>
+      <c r="S151">
+        <v>0</v>
       </c>
       <c r="T151">
         <v>11</v>
@@ -5896,19 +6970,25 @@
       <c r="U151">
         <v>10</v>
       </c>
-      <c r="V151" t="e">
+      <c r="V151">
         <f t="shared" ref="V151" si="22">AVERAGE(S151:S160)</f>
-        <v>#DIV/0!</v>
+        <v>8.9062500000000003E-2</v>
       </c>
       <c r="X151" s="1" t="s">
-        <v>151</v>
+        <v>426</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+      <c r="AC151">
+        <v>11</v>
       </c>
       <c r="AD151">
         <v>10</v>
       </c>
-      <c r="AE151" t="e">
+      <c r="AE151">
         <f t="shared" ref="AE151" si="23">AVERAGE(AB151:AB160)</f>
-        <v>#DIV/0!</v>
+        <v>7.8125E-3</v>
       </c>
     </row>
     <row r="152" spans="2:31" ht="17.7">
@@ -5927,14 +7007,20 @@
       <c r="N152">
         <v>12</v>
       </c>
-      <c r="S152" t="s">
-        <v>275</v>
+      <c r="S152">
+        <v>0</v>
       </c>
       <c r="T152">
         <v>21</v>
       </c>
       <c r="X152" s="1" t="s">
-        <v>152</v>
+        <v>427</v>
+      </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
+      <c r="AC152">
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="2:31" ht="17.7">
@@ -5953,14 +7039,20 @@
       <c r="N153">
         <v>32</v>
       </c>
-      <c r="S153" t="s">
-        <v>275</v>
+      <c r="S153">
+        <v>0</v>
       </c>
       <c r="T153">
         <v>32</v>
       </c>
       <c r="X153" s="1" t="s">
-        <v>153</v>
+        <v>428</v>
+      </c>
+      <c r="AB153">
+        <v>0</v>
+      </c>
+      <c r="AC153">
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="2:31" ht="17.7">
@@ -5979,14 +7071,20 @@
       <c r="N154">
         <v>43</v>
       </c>
-      <c r="S154" t="s">
-        <v>281</v>
+      <c r="S154">
+        <v>3.125E-2</v>
       </c>
       <c r="T154">
         <v>46</v>
       </c>
       <c r="X154" s="1" t="s">
-        <v>154</v>
+        <v>429</v>
+      </c>
+      <c r="AB154">
+        <v>0</v>
+      </c>
+      <c r="AC154">
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="2:31" ht="17.7">
@@ -6005,14 +7103,20 @@
       <c r="N155">
         <v>48</v>
       </c>
-      <c r="S155" t="s">
-        <v>278</v>
+      <c r="S155">
+        <v>7.8125E-2</v>
       </c>
       <c r="T155">
         <v>54</v>
       </c>
       <c r="X155" s="1" t="s">
-        <v>155</v>
+        <v>430</v>
+      </c>
+      <c r="AB155">
+        <v>0</v>
+      </c>
+      <c r="AC155">
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="2:31" ht="17.7">
@@ -6031,14 +7135,20 @@
       <c r="N156">
         <v>58</v>
       </c>
-      <c r="S156" t="s">
-        <v>279</v>
+      <c r="S156">
+        <v>6.25E-2</v>
       </c>
       <c r="T156">
         <v>64</v>
       </c>
       <c r="X156" s="1" t="s">
-        <v>156</v>
+        <v>431</v>
+      </c>
+      <c r="AB156">
+        <v>0</v>
+      </c>
+      <c r="AC156">
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="2:31" ht="17.7">
@@ -6057,14 +7167,20 @@
       <c r="N157">
         <v>72</v>
       </c>
-      <c r="S157" t="s">
-        <v>277</v>
+      <c r="S157">
+        <v>0.109375</v>
       </c>
       <c r="T157">
         <v>73</v>
       </c>
       <c r="X157" s="1" t="s">
-        <v>157</v>
+        <v>432</v>
+      </c>
+      <c r="AB157">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AC157">
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="2:31" ht="17.7">
@@ -6083,14 +7199,20 @@
       <c r="N158">
         <v>86</v>
       </c>
-      <c r="S158" t="s">
-        <v>277</v>
+      <c r="S158">
+        <v>0.109375</v>
       </c>
       <c r="T158">
         <v>86</v>
       </c>
       <c r="X158" s="1" t="s">
-        <v>158</v>
+        <v>433</v>
+      </c>
+      <c r="AB158">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AC158">
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="2:31" ht="17.7">
@@ -6109,14 +7231,20 @@
       <c r="N159">
         <v>99</v>
       </c>
-      <c r="S159" t="s">
-        <v>311</v>
+      <c r="S159">
+        <v>0.203125</v>
       </c>
       <c r="T159">
         <v>104</v>
       </c>
       <c r="X159" s="1" t="s">
-        <v>159</v>
+        <v>434</v>
+      </c>
+      <c r="AB159">
+        <v>0</v>
+      </c>
+      <c r="AC159">
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="2:31" ht="17.7">
@@ -6135,14 +7263,20 @@
       <c r="N160">
         <v>107</v>
       </c>
-      <c r="S160" t="s">
-        <v>312</v>
+      <c r="S160">
+        <v>0.296875</v>
       </c>
       <c r="T160">
         <v>112</v>
       </c>
       <c r="X160" s="1" t="s">
-        <v>160</v>
+        <v>435</v>
+      </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
+      <c r="AC160">
+        <v>112</v>
       </c>
     </row>
     <row r="161" spans="2:31" ht="17.7">
@@ -6175,8 +7309,8 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S161" t="s">
-        <v>275</v>
+      <c r="S161">
+        <v>0</v>
       </c>
       <c r="T161">
         <v>101</v>
@@ -6184,19 +7318,25 @@
       <c r="U161">
         <v>100</v>
       </c>
-      <c r="V161" t="e">
+      <c r="V161">
         <f>AVERAGE(S161:S170)</f>
-        <v>#DIV/0!</v>
+        <v>7.4312500000000004</v>
       </c>
       <c r="X161" s="1" t="s">
-        <v>161</v>
+        <v>436</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+      <c r="AC161">
+        <v>101</v>
       </c>
       <c r="AD161">
         <v>100</v>
       </c>
-      <c r="AE161" t="e">
+      <c r="AE161">
         <f>AVERAGE(AB161:AB170)</f>
-        <v>#DIV/0!</v>
+        <v>27.120312500000001</v>
       </c>
     </row>
     <row r="162" spans="2:31" ht="17.7">
@@ -6215,14 +7355,20 @@
       <c r="N162">
         <v>153</v>
       </c>
-      <c r="S162" t="s">
-        <v>313</v>
+      <c r="S162">
+        <v>0.25</v>
       </c>
       <c r="T162">
         <v>203</v>
       </c>
       <c r="X162" s="1" t="s">
-        <v>162</v>
+        <v>437</v>
+      </c>
+      <c r="AB162">
+        <v>0.125</v>
+      </c>
+      <c r="AC162">
+        <v>203</v>
       </c>
     </row>
     <row r="163" spans="2:31" ht="17.7">
@@ -6241,14 +7387,20 @@
       <c r="N163">
         <v>266</v>
       </c>
-      <c r="S163" t="s">
-        <v>314</v>
+      <c r="S163">
+        <v>0.96875</v>
       </c>
       <c r="T163">
         <v>298</v>
       </c>
       <c r="X163" s="1" t="s">
-        <v>163</v>
+        <v>438</v>
+      </c>
+      <c r="AB163">
+        <v>0.703125</v>
+      </c>
+      <c r="AC163">
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="2:31" ht="17.7">
@@ -6267,14 +7419,20 @@
       <c r="N164">
         <v>371</v>
       </c>
-      <c r="S164" t="s">
-        <v>315</v>
+      <c r="S164">
+        <v>2.609375</v>
       </c>
       <c r="T164">
         <v>425</v>
       </c>
       <c r="X164" s="1" t="s">
-        <v>164</v>
+        <v>439</v>
+      </c>
+      <c r="AB164">
+        <v>0.671875</v>
+      </c>
+      <c r="AC164">
+        <v>425</v>
       </c>
     </row>
     <row r="165" spans="2:31" ht="17.7">
@@ -6293,14 +7451,20 @@
       <c r="N165">
         <v>498</v>
       </c>
-      <c r="S165" t="s">
-        <v>316</v>
+      <c r="S165">
+        <v>3.90625</v>
       </c>
       <c r="T165">
         <v>524</v>
       </c>
       <c r="X165" s="1" t="s">
-        <v>165</v>
+        <v>440</v>
+      </c>
+      <c r="AB165">
+        <v>0.9375</v>
+      </c>
+      <c r="AC165">
+        <v>524</v>
       </c>
     </row>
     <row r="166" spans="2:31" ht="17.7">
@@ -6319,14 +7483,20 @@
       <c r="N166">
         <v>537</v>
       </c>
-      <c r="S166" t="s">
-        <v>317</v>
+      <c r="S166">
+        <v>6.75</v>
       </c>
       <c r="T166">
         <v>599</v>
       </c>
       <c r="X166" s="1" t="s">
-        <v>166</v>
+        <v>441</v>
+      </c>
+      <c r="AB166">
+        <v>6.984375</v>
+      </c>
+      <c r="AC166">
+        <v>599</v>
       </c>
     </row>
     <row r="167" spans="2:31" ht="17.7">
@@ -6345,14 +7515,20 @@
       <c r="N167">
         <v>690</v>
       </c>
-      <c r="S167" t="s">
-        <v>318</v>
+      <c r="S167">
+        <v>9.125</v>
       </c>
       <c r="T167">
         <v>696</v>
       </c>
       <c r="X167" s="1" t="s">
-        <v>167</v>
+        <v>442</v>
+      </c>
+      <c r="AB167">
+        <v>2.375</v>
+      </c>
+      <c r="AC167">
+        <v>696</v>
       </c>
     </row>
     <row r="168" spans="2:31" ht="17.7">
@@ -6371,14 +7547,20 @@
       <c r="N168">
         <v>784</v>
       </c>
-      <c r="S168" t="s">
-        <v>319</v>
+      <c r="S168">
+        <v>16.125</v>
       </c>
       <c r="T168">
         <v>850</v>
       </c>
       <c r="X168" s="1" t="s">
-        <v>168</v>
+        <v>443</v>
+      </c>
+      <c r="AB168">
+        <v>77.109375</v>
+      </c>
+      <c r="AC168">
+        <v>850</v>
       </c>
     </row>
     <row r="169" spans="2:31" ht="17.7">
@@ -6397,14 +7579,20 @@
       <c r="N169">
         <v>858</v>
       </c>
-      <c r="S169" t="s">
-        <v>320</v>
+      <c r="S169">
+        <v>15.046875</v>
       </c>
       <c r="T169">
         <v>869</v>
       </c>
       <c r="X169" s="1" t="s">
-        <v>169</v>
+        <v>444</v>
+      </c>
+      <c r="AB169">
+        <v>34.03125</v>
+      </c>
+      <c r="AC169">
+        <v>869</v>
       </c>
     </row>
     <row r="170" spans="2:31" ht="17.7">
@@ -6423,14 +7611,20 @@
       <c r="N170">
         <v>1053</v>
       </c>
-      <c r="S170" t="s">
-        <v>321</v>
+      <c r="S170">
+        <v>19.53125</v>
       </c>
       <c r="T170">
         <v>1054</v>
       </c>
       <c r="X170" s="1" t="s">
-        <v>170</v>
+        <v>445</v>
+      </c>
+      <c r="AB170">
+        <v>148.265625</v>
+      </c>
+      <c r="AC170">
+        <v>1054</v>
       </c>
     </row>
     <row r="171" spans="2:31" ht="17.7">
@@ -6464,7 +7658,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S171" t="s">
-        <v>346</v>
+        <v>446</v>
       </c>
       <c r="U171">
         <v>1000</v>
@@ -6474,17 +7668,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="X171" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB171" t="s">
-        <v>351</v>
+        <v>447</v>
+      </c>
+      <c r="AB171">
+        <v>92.4375</v>
+      </c>
+      <c r="AC171">
+        <v>1001</v>
       </c>
       <c r="AD171">
         <v>1000</v>
       </c>
-      <c r="AE171" t="e">
+      <c r="AE171">
         <f t="shared" ref="AE171" si="25">AVERAGE(AB171:AB180)</f>
-        <v>#DIV/0!</v>
+        <v>92.4375</v>
       </c>
     </row>
     <row r="172" spans="2:31" ht="17.7">
@@ -6504,7 +7701,7 @@
         <v>1403</v>
       </c>
       <c r="X172" s="1" t="s">
-        <v>172</v>
+        <v>448</v>
       </c>
     </row>
     <row r="173" spans="2:31" ht="17.7">
@@ -6524,7 +7721,7 @@
         <v>4011</v>
       </c>
       <c r="X173" s="1" t="s">
-        <v>173</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="2:31" ht="17.7">
@@ -6544,7 +7741,7 @@
         <v>3319</v>
       </c>
       <c r="X174" s="1" t="s">
-        <v>174</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="2:31" ht="17.7">
@@ -6564,7 +7761,7 @@
         <v>4773</v>
       </c>
       <c r="X175" s="1" t="s">
-        <v>175</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="2:31" ht="17.7">
@@ -6584,7 +7781,7 @@
         <v>5399</v>
       </c>
       <c r="X176" s="1" t="s">
-        <v>176</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="2:31" ht="17.7">
@@ -6604,7 +7801,7 @@
         <v>6089</v>
       </c>
       <c r="X177" s="1" t="s">
-        <v>177</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="2:31" ht="17.7">
@@ -6624,7 +7821,7 @@
         <v>6958</v>
       </c>
       <c r="X178" s="1" t="s">
-        <v>178</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="2:31" ht="17.7">
@@ -6644,7 +7841,7 @@
         <v>9233</v>
       </c>
       <c r="X179" s="1" t="s">
-        <v>179</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="2:31" ht="17.7">
@@ -6664,7 +7861,7 @@
         <v>9071</v>
       </c>
       <c r="X180" s="1" t="s">
-        <v>180</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" spans="2:31" ht="17.7">
@@ -6698,7 +7895,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S181" t="s">
-        <v>322</v>
+        <v>457</v>
       </c>
       <c r="U181">
         <v>10</v>
@@ -6708,14 +7905,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="X181" s="1" t="s">
-        <v>181</v>
+        <v>458</v>
+      </c>
+      <c r="AB181">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AC181">
+        <v>108</v>
       </c>
       <c r="AD181">
         <v>10</v>
       </c>
-      <c r="AE181" t="e">
+      <c r="AE181">
         <f t="shared" ref="AE181" si="27">AVERAGE(AB181:AB190)</f>
-        <v>#DIV/0!</v>
+        <v>1.4109375</v>
       </c>
     </row>
     <row r="182" spans="2:31" ht="17.7">
@@ -6735,10 +7938,16 @@
         <v>218</v>
       </c>
       <c r="S182" t="s">
-        <v>323</v>
+        <v>459</v>
       </c>
       <c r="X182" s="1" t="s">
-        <v>182</v>
+        <v>460</v>
+      </c>
+      <c r="AB182">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AC182">
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="2:31" ht="17.7">
@@ -6758,10 +7967,16 @@
         <v>325</v>
       </c>
       <c r="S183" t="s">
-        <v>324</v>
+        <v>461</v>
       </c>
       <c r="X183" s="1" t="s">
-        <v>183</v>
+        <v>462</v>
+      </c>
+      <c r="AB183">
+        <v>3.125E-2</v>
+      </c>
+      <c r="AC183">
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="2:31" ht="17.7">
@@ -6781,10 +7996,16 @@
         <v>439</v>
       </c>
       <c r="S184" t="s">
-        <v>325</v>
+        <v>463</v>
       </c>
       <c r="X184" s="1" t="s">
-        <v>184</v>
+        <v>464</v>
+      </c>
+      <c r="AB184">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AC184">
+        <v>440</v>
       </c>
     </row>
     <row r="185" spans="2:31" ht="17.7">
@@ -6804,10 +8025,16 @@
         <v>543</v>
       </c>
       <c r="S185" t="s">
-        <v>326</v>
+        <v>465</v>
       </c>
       <c r="X185" s="1" t="s">
-        <v>185</v>
+        <v>466</v>
+      </c>
+      <c r="AB185">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AC185">
+        <v>548</v>
       </c>
     </row>
     <row r="186" spans="2:31" ht="17.7">
@@ -6827,10 +8054,16 @@
         <v>646</v>
       </c>
       <c r="S186" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
       <c r="X186" s="1" t="s">
-        <v>186</v>
+        <v>468</v>
+      </c>
+      <c r="AB186">
+        <v>0.109375</v>
+      </c>
+      <c r="AC186">
+        <v>655</v>
       </c>
     </row>
     <row r="187" spans="2:31" ht="17.7">
@@ -6850,10 +8083,16 @@
         <v>882</v>
       </c>
       <c r="S187" t="s">
-        <v>328</v>
+        <v>469</v>
       </c>
       <c r="X187" s="1" t="s">
-        <v>187</v>
+        <v>470</v>
+      </c>
+      <c r="AB187">
+        <v>6.390625</v>
+      </c>
+      <c r="AC187">
+        <v>885</v>
       </c>
     </row>
     <row r="188" spans="2:31" ht="17.7">
@@ -6873,7 +8112,13 @@
         <v>871</v>
       </c>
       <c r="X188" s="1" t="s">
-        <v>188</v>
+        <v>471</v>
+      </c>
+      <c r="AB188">
+        <v>7.09375</v>
+      </c>
+      <c r="AC188">
+        <v>875</v>
       </c>
     </row>
     <row r="189" spans="2:31" ht="17.7">
@@ -6893,7 +8138,13 @@
         <v>967</v>
       </c>
       <c r="X189" s="1" t="s">
-        <v>189</v>
+        <v>472</v>
+      </c>
+      <c r="AB189">
+        <v>0.140625</v>
+      </c>
+      <c r="AC189">
+        <v>970</v>
       </c>
     </row>
     <row r="190" spans="2:31" ht="17.7">
@@ -6913,7 +8164,13 @@
         <v>1104</v>
       </c>
       <c r="X190" s="1" t="s">
-        <v>190</v>
+        <v>473</v>
+      </c>
+      <c r="AB190">
+        <v>0.171875</v>
+      </c>
+      <c r="AC190">
+        <v>1107</v>
       </c>
     </row>
     <row r="191" spans="2:31" ht="17.7">
@@ -6947,7 +8204,7 @@
         <v>3.8821697235107367E-4</v>
       </c>
       <c r="S191" t="s">
-        <v>344</v>
+        <v>474</v>
       </c>
       <c r="U191">
         <v>100</v>
@@ -6957,17 +8214,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="X191" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB191" t="s">
-        <v>350</v>
+        <v>475</v>
+      </c>
+      <c r="AB191">
+        <v>5.109375</v>
+      </c>
+      <c r="AC191">
+        <v>994</v>
       </c>
       <c r="AD191">
         <v>100</v>
       </c>
-      <c r="AE191" t="e">
+      <c r="AE191">
         <f t="shared" ref="AE191" si="29">AVERAGE(AB191:AB200)</f>
-        <v>#DIV/0!</v>
+        <v>5.109375</v>
       </c>
     </row>
     <row r="192" spans="2:31" ht="17.7">
@@ -6987,7 +8247,7 @@
         <v>1976</v>
       </c>
       <c r="X192" s="1" t="s">
-        <v>192</v>
+        <v>476</v>
       </c>
     </row>
     <row r="193" spans="2:31" ht="17.7">
@@ -7007,7 +8267,7 @@
         <v>2888</v>
       </c>
       <c r="X193" s="1" t="s">
-        <v>193</v>
+        <v>477</v>
       </c>
     </row>
     <row r="194" spans="2:31" ht="17.7">
@@ -7027,7 +8287,7 @@
         <v>3984</v>
       </c>
       <c r="X194" s="1" t="s">
-        <v>194</v>
+        <v>478</v>
       </c>
     </row>
     <row r="195" spans="2:31" ht="17.7">
@@ -7047,7 +8307,7 @@
         <v>4997</v>
       </c>
       <c r="X195" s="1" t="s">
-        <v>195</v>
+        <v>479</v>
       </c>
     </row>
     <row r="196" spans="2:31" ht="17.7">
@@ -7067,7 +8327,7 @@
         <v>5998</v>
       </c>
       <c r="X196" s="1" t="s">
-        <v>196</v>
+        <v>480</v>
       </c>
     </row>
     <row r="197" spans="2:31" ht="17.7">
@@ -7087,7 +8347,7 @@
         <v>6805</v>
       </c>
       <c r="X197" s="1" t="s">
-        <v>197</v>
+        <v>481</v>
       </c>
     </row>
     <row r="198" spans="2:31" ht="17.7">
@@ -7107,7 +8367,7 @@
         <v>8134</v>
       </c>
       <c r="X198" s="1" t="s">
-        <v>198</v>
+        <v>482</v>
       </c>
     </row>
     <row r="199" spans="2:31" ht="17.7">
@@ -7127,7 +8387,7 @@
         <v>9202</v>
       </c>
       <c r="X199" s="1" t="s">
-        <v>199</v>
+        <v>483</v>
       </c>
     </row>
     <row r="200" spans="2:31" ht="17.7">
@@ -7147,7 +8407,7 @@
         <v>10202</v>
       </c>
       <c r="X200" s="1" t="s">
-        <v>200</v>
+        <v>484</v>
       </c>
     </row>
     <row r="201" spans="2:31" ht="17.7">
@@ -7180,6 +8440,9 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
+      <c r="S201" t="s">
+        <v>485</v>
+      </c>
       <c r="U201">
         <v>1000</v>
       </c>
@@ -7188,17 +8451,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="X201" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB201" t="s">
-        <v>349</v>
+        <v>486</v>
+      </c>
+      <c r="AB201">
+        <v>5415.203125</v>
+      </c>
+      <c r="AC201">
+        <v>9911</v>
       </c>
       <c r="AD201">
         <v>1000</v>
       </c>
-      <c r="AE201" t="e">
+      <c r="AE201">
         <f t="shared" ref="AE201" si="32">AVERAGE(AB201:AB210)</f>
-        <v>#DIV/0!</v>
+        <v>5415.203125</v>
       </c>
     </row>
     <row r="202" spans="2:31" ht="17.7">
@@ -7218,7 +8484,7 @@
         <v>19291</v>
       </c>
       <c r="X202" s="1" t="s">
-        <v>202</v>
+        <v>487</v>
       </c>
     </row>
     <row r="203" spans="2:31" ht="17.7">
@@ -7238,7 +8504,7 @@
         <v>28788</v>
       </c>
       <c r="X203" s="1" t="s">
-        <v>203</v>
+        <v>488</v>
       </c>
     </row>
     <row r="204" spans="2:31" ht="17.7">
@@ -7258,7 +8524,7 @@
         <v>38854</v>
       </c>
       <c r="X204" s="1" t="s">
-        <v>204</v>
+        <v>489</v>
       </c>
     </row>
     <row r="205" spans="2:31" ht="17.7">
@@ -7278,7 +8544,7 @@
         <v>49957</v>
       </c>
       <c r="X205" s="1" t="s">
-        <v>205</v>
+        <v>490</v>
       </c>
     </row>
     <row r="206" spans="2:31" ht="17.7">
@@ -7298,7 +8564,7 @@
         <v>59308</v>
       </c>
       <c r="X206" s="1" t="s">
-        <v>206</v>
+        <v>491</v>
       </c>
     </row>
     <row r="207" spans="2:31" ht="17.7">
@@ -7318,7 +8584,7 @@
         <v>69155</v>
       </c>
       <c r="X207" s="1" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="2:31" ht="17.7">
@@ -7338,7 +8604,7 @@
         <v>77716</v>
       </c>
       <c r="X208" s="1" t="s">
-        <v>208</v>
+        <v>493</v>
       </c>
     </row>
     <row r="209" spans="2:31" ht="17.7">
@@ -7358,7 +8624,7 @@
         <v>89704</v>
       </c>
       <c r="X209" s="1" t="s">
-        <v>209</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="2:31" ht="17.7">
@@ -7378,7 +8644,7 @@
         <v>99220</v>
       </c>
       <c r="X210" s="1" t="s">
-        <v>210</v>
+        <v>495</v>
       </c>
     </row>
     <row r="211" spans="2:31" ht="17.7">
@@ -7411,8 +8677,8 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S211" t="s">
-        <v>275</v>
+      <c r="S211">
+        <v>0</v>
       </c>
       <c r="T211">
         <v>11</v>
@@ -7420,19 +8686,25 @@
       <c r="U211">
         <v>10</v>
       </c>
-      <c r="V211" s="3" t="e">
+      <c r="V211" s="3">
         <f>AVERAGE(S211:S220)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="X211" s="2" t="s">
-        <v>211</v>
+        <v>496</v>
+      </c>
+      <c r="AB211">
+        <v>0</v>
+      </c>
+      <c r="AC211">
+        <v>11</v>
       </c>
       <c r="AD211">
         <v>10</v>
       </c>
-      <c r="AE211" s="3" t="e">
+      <c r="AE211" s="3">
         <f>AVERAGE(AB211:AB220)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="2:31" ht="17.7">
@@ -7452,15 +8724,21 @@
       <c r="N212">
         <v>3</v>
       </c>
-      <c r="S212" t="s">
-        <v>275</v>
+      <c r="S212">
+        <v>0</v>
       </c>
       <c r="T212">
         <v>11</v>
       </c>
       <c r="V212" s="3"/>
       <c r="X212" s="2" t="s">
-        <v>212</v>
+        <v>497</v>
+      </c>
+      <c r="AB212">
+        <v>0</v>
+      </c>
+      <c r="AC212">
+        <v>11</v>
       </c>
       <c r="AE212" s="3"/>
     </row>
@@ -7481,15 +8759,21 @@
       <c r="N213">
         <v>6</v>
       </c>
-      <c r="S213" t="s">
-        <v>275</v>
+      <c r="S213">
+        <v>0</v>
       </c>
       <c r="T213">
         <v>11</v>
       </c>
       <c r="V213" s="3"/>
       <c r="X213" s="2" t="s">
-        <v>213</v>
+        <v>498</v>
+      </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
+      <c r="AC213">
+        <v>11</v>
       </c>
       <c r="AE213" s="3"/>
     </row>
@@ -7510,15 +8794,21 @@
       <c r="N214">
         <v>7</v>
       </c>
-      <c r="S214" t="s">
-        <v>275</v>
+      <c r="S214">
+        <v>0</v>
       </c>
       <c r="T214">
         <v>11</v>
       </c>
       <c r="V214" s="3"/>
       <c r="X214" s="2" t="s">
-        <v>214</v>
+        <v>499</v>
+      </c>
+      <c r="AB214">
+        <v>0</v>
+      </c>
+      <c r="AC214">
+        <v>11</v>
       </c>
       <c r="AE214" s="3"/>
     </row>
@@ -7539,15 +8829,21 @@
       <c r="N215">
         <v>14</v>
       </c>
-      <c r="S215" t="s">
-        <v>275</v>
+      <c r="S215">
+        <v>0</v>
       </c>
       <c r="T215">
         <v>14</v>
       </c>
       <c r="V215" s="3"/>
       <c r="X215" s="2" t="s">
-        <v>215</v>
+        <v>500</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+      <c r="AC215">
+        <v>14</v>
       </c>
       <c r="AE215" s="3"/>
     </row>
@@ -7568,15 +8864,21 @@
       <c r="N216">
         <v>11</v>
       </c>
-      <c r="S216" t="s">
-        <v>275</v>
+      <c r="S216">
+        <v>0</v>
       </c>
       <c r="T216">
         <v>15</v>
       </c>
       <c r="V216" s="3"/>
       <c r="X216" s="2" t="s">
-        <v>216</v>
+        <v>501</v>
+      </c>
+      <c r="AB216">
+        <v>0</v>
+      </c>
+      <c r="AC216">
+        <v>15</v>
       </c>
       <c r="AE216" s="3"/>
     </row>
@@ -7597,15 +8899,21 @@
       <c r="N217">
         <v>13</v>
       </c>
-      <c r="S217" t="s">
-        <v>275</v>
+      <c r="S217">
+        <v>0</v>
       </c>
       <c r="T217">
         <v>16</v>
       </c>
       <c r="V217" s="3"/>
       <c r="X217" s="2" t="s">
-        <v>217</v>
+        <v>502</v>
+      </c>
+      <c r="AB217">
+        <v>0</v>
+      </c>
+      <c r="AC217">
+        <v>16</v>
       </c>
       <c r="AE217" s="3"/>
     </row>
@@ -7626,15 +8934,21 @@
       <c r="N218">
         <v>20</v>
       </c>
-      <c r="S218" t="s">
-        <v>275</v>
+      <c r="S218">
+        <v>0</v>
       </c>
       <c r="T218">
         <v>22</v>
       </c>
       <c r="V218" s="3"/>
       <c r="X218" s="2" t="s">
-        <v>218</v>
+        <v>503</v>
+      </c>
+      <c r="AB218">
+        <v>0</v>
+      </c>
+      <c r="AC218">
+        <v>22</v>
       </c>
       <c r="AE218" s="3"/>
     </row>
@@ -7655,15 +8969,21 @@
       <c r="N219">
         <v>27</v>
       </c>
-      <c r="S219" t="s">
-        <v>275</v>
+      <c r="S219">
+        <v>0</v>
       </c>
       <c r="T219">
         <v>29</v>
       </c>
       <c r="V219" s="3"/>
       <c r="X219" s="1" t="s">
-        <v>219</v>
+        <v>504</v>
+      </c>
+      <c r="AB219">
+        <v>0</v>
+      </c>
+      <c r="AC219">
+        <v>29</v>
       </c>
       <c r="AE219" s="3"/>
     </row>
@@ -7684,15 +9004,21 @@
       <c r="N220">
         <v>23</v>
       </c>
-      <c r="S220" t="s">
-        <v>275</v>
+      <c r="S220">
+        <v>0</v>
       </c>
       <c r="T220">
         <v>27</v>
       </c>
       <c r="V220" s="3"/>
       <c r="X220" s="2" t="s">
-        <v>220</v>
+        <v>505</v>
+      </c>
+      <c r="AB220">
+        <v>0</v>
+      </c>
+      <c r="AC220">
+        <v>27</v>
       </c>
       <c r="AE220" s="3"/>
     </row>
@@ -7726,8 +9052,8 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S221" t="s">
-        <v>275</v>
+      <c r="S221">
+        <v>0</v>
       </c>
       <c r="T221">
         <v>101</v>
@@ -7735,19 +9061,25 @@
       <c r="U221">
         <v>100</v>
       </c>
-      <c r="V221" s="3" t="e">
+      <c r="V221" s="3">
         <f t="shared" ref="V221" si="34">AVERAGE(S221:S230)</f>
-        <v>#DIV/0!</v>
+        <v>2.34375E-2</v>
       </c>
       <c r="X221" s="2" t="s">
-        <v>221</v>
+        <v>506</v>
+      </c>
+      <c r="AB221">
+        <v>3.125E-2</v>
+      </c>
+      <c r="AC221">
+        <v>101</v>
       </c>
       <c r="AD221">
         <v>100</v>
       </c>
-      <c r="AE221" s="3" t="e">
+      <c r="AE221" s="3">
         <f t="shared" ref="AE221" si="35">AVERAGE(AB221:AB230)</f>
-        <v>#DIV/0!</v>
+        <v>0.32968750000000002</v>
       </c>
     </row>
     <row r="222" spans="2:31" ht="17.7">
@@ -7767,15 +9099,21 @@
       <c r="N222">
         <v>94</v>
       </c>
-      <c r="S222" t="s">
-        <v>280</v>
+      <c r="S222">
+        <v>1.5625E-2</v>
       </c>
       <c r="T222">
         <v>101</v>
       </c>
       <c r="V222" s="3"/>
       <c r="X222" s="2" t="s">
-        <v>222</v>
+        <v>507</v>
+      </c>
+      <c r="AB222">
+        <v>0.171875</v>
+      </c>
+      <c r="AC222">
+        <v>101</v>
       </c>
       <c r="AE222" s="3"/>
     </row>
@@ -7796,15 +9134,21 @@
       <c r="N223">
         <v>82</v>
       </c>
-      <c r="S223" t="s">
-        <v>275</v>
+      <c r="S223">
+        <v>0</v>
       </c>
       <c r="T223">
         <v>101</v>
       </c>
       <c r="V223" s="3"/>
       <c r="X223" s="2" t="s">
-        <v>223</v>
+        <v>508</v>
+      </c>
+      <c r="AB223">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AC223">
+        <v>101</v>
       </c>
       <c r="AE223" s="3"/>
     </row>
@@ -7825,15 +9169,21 @@
       <c r="N224">
         <v>83</v>
       </c>
-      <c r="S224" t="s">
-        <v>275</v>
+      <c r="S224">
+        <v>0</v>
       </c>
       <c r="T224">
         <v>101</v>
       </c>
       <c r="V224" s="3"/>
       <c r="X224" s="2" t="s">
-        <v>224</v>
+        <v>509</v>
+      </c>
+      <c r="AB224">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AC224">
+        <v>101</v>
       </c>
       <c r="AE224" s="3"/>
     </row>
@@ -7854,15 +9204,21 @@
       <c r="N225">
         <v>64</v>
       </c>
-      <c r="S225" t="s">
-        <v>280</v>
+      <c r="S225">
+        <v>1.5625E-2</v>
       </c>
       <c r="T225">
         <v>131</v>
       </c>
       <c r="V225" s="3"/>
       <c r="X225" s="2" t="s">
-        <v>225</v>
+        <v>510</v>
+      </c>
+      <c r="AB225">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AC225">
+        <v>131</v>
       </c>
       <c r="AE225" s="3"/>
     </row>
@@ -7883,15 +9239,21 @@
       <c r="N226">
         <v>111</v>
       </c>
-      <c r="S226" t="s">
-        <v>280</v>
+      <c r="S226">
+        <v>1.5625E-2</v>
       </c>
       <c r="T226">
         <v>162</v>
       </c>
       <c r="V226" s="3"/>
       <c r="X226" s="2" t="s">
-        <v>226</v>
+        <v>511</v>
+      </c>
+      <c r="AB226">
+        <v>0.34375</v>
+      </c>
+      <c r="AC226">
+        <v>162</v>
       </c>
       <c r="AE226" s="3"/>
     </row>
@@ -7912,15 +9274,21 @@
       <c r="N227">
         <v>81</v>
       </c>
-      <c r="S227" t="s">
-        <v>281</v>
+      <c r="S227">
+        <v>3.125E-2</v>
       </c>
       <c r="T227">
         <v>180</v>
       </c>
       <c r="V227" s="3"/>
       <c r="X227" s="2" t="s">
-        <v>227</v>
+        <v>512</v>
+      </c>
+      <c r="AB227">
+        <v>0.296875</v>
+      </c>
+      <c r="AC227">
+        <v>180</v>
       </c>
       <c r="AE227" s="3"/>
     </row>
@@ -7941,15 +9309,21 @@
       <c r="N228">
         <v>185</v>
       </c>
-      <c r="S228" t="s">
-        <v>276</v>
+      <c r="S228">
+        <v>9.375E-2</v>
       </c>
       <c r="T228">
         <v>216</v>
       </c>
       <c r="V228" s="3"/>
       <c r="X228" s="2" t="s">
-        <v>228</v>
+        <v>513</v>
+      </c>
+      <c r="AB228">
+        <v>0.421875</v>
+      </c>
+      <c r="AC228">
+        <v>216</v>
       </c>
       <c r="AE228" s="3"/>
     </row>
@@ -7970,15 +9344,21 @@
       <c r="N229">
         <v>263</v>
       </c>
-      <c r="S229" t="s">
-        <v>281</v>
+      <c r="S229">
+        <v>3.125E-2</v>
       </c>
       <c r="T229">
         <v>263</v>
       </c>
       <c r="V229" s="3"/>
       <c r="X229" s="2" t="s">
-        <v>229</v>
+        <v>514</v>
+      </c>
+      <c r="AB229">
+        <v>1.046875</v>
+      </c>
+      <c r="AC229">
+        <v>263</v>
       </c>
       <c r="AE229" s="3"/>
     </row>
@@ -7999,15 +9379,21 @@
       <c r="N230">
         <v>213</v>
       </c>
-      <c r="S230" t="s">
-        <v>281</v>
+      <c r="S230">
+        <v>3.125E-2</v>
       </c>
       <c r="T230">
         <v>245</v>
       </c>
       <c r="V230" s="3"/>
       <c r="X230" s="2" t="s">
-        <v>230</v>
+        <v>515</v>
+      </c>
+      <c r="AB230">
+        <v>0.75</v>
+      </c>
+      <c r="AC230">
+        <v>245</v>
       </c>
       <c r="AE230" s="3"/>
     </row>
@@ -8041,8 +9427,8 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S231" t="s">
-        <v>309</v>
+      <c r="S231">
+        <v>0.796875</v>
       </c>
       <c r="T231">
         <v>1001</v>
@@ -8050,22 +9436,25 @@
       <c r="U231">
         <v>1000</v>
       </c>
-      <c r="V231" s="3" t="e">
+      <c r="V231" s="3">
         <f t="shared" ref="V231" si="36">AVERAGE(S231:S240)</f>
-        <v>#DIV/0!</v>
+        <v>1.7708333333333333</v>
       </c>
       <c r="X231" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB231" t="s">
-        <v>348</v>
+        <v>516</v>
+      </c>
+      <c r="AB231">
+        <v>128.203125</v>
+      </c>
+      <c r="AC231">
+        <v>1001</v>
       </c>
       <c r="AD231">
         <v>1000</v>
       </c>
-      <c r="AE231" s="3" t="e">
+      <c r="AE231" s="3">
         <f t="shared" ref="AE231" si="37">AVERAGE(AB231:AB240)</f>
-        <v>#DIV/0!</v>
+        <v>128.203125</v>
       </c>
     </row>
     <row r="232" spans="2:31" ht="17.7">
@@ -8085,15 +9474,15 @@
       <c r="N232">
         <v>749</v>
       </c>
-      <c r="S232" t="s">
-        <v>310</v>
+      <c r="S232">
+        <v>2.03125</v>
       </c>
       <c r="T232">
         <v>1001</v>
       </c>
       <c r="V232" s="3"/>
       <c r="X232" s="2" t="s">
-        <v>232</v>
+        <v>517</v>
       </c>
       <c r="AE232" s="3"/>
     </row>
@@ -8114,15 +9503,15 @@
       <c r="N233">
         <v>673</v>
       </c>
-      <c r="S233" t="s">
-        <v>274</v>
+      <c r="S233">
+        <v>2.484375</v>
       </c>
       <c r="T233">
         <v>1433</v>
       </c>
       <c r="V233" s="3"/>
       <c r="X233" s="2" t="s">
-        <v>233</v>
+        <v>518</v>
       </c>
       <c r="AE233" s="3"/>
     </row>
@@ -8145,7 +9534,7 @@
       </c>
       <c r="V234" s="3"/>
       <c r="X234" s="2" t="s">
-        <v>234</v>
+        <v>519</v>
       </c>
       <c r="AE234" s="3"/>
     </row>
@@ -8168,7 +9557,7 @@
       </c>
       <c r="V235" s="3"/>
       <c r="X235" s="2" t="s">
-        <v>235</v>
+        <v>520</v>
       </c>
       <c r="AE235" s="3"/>
     </row>
@@ -8191,7 +9580,7 @@
       </c>
       <c r="V236" s="3"/>
       <c r="X236" s="2" t="s">
-        <v>236</v>
+        <v>521</v>
       </c>
       <c r="AE236" s="3"/>
     </row>
@@ -8214,7 +9603,7 @@
       </c>
       <c r="V237" s="3"/>
       <c r="X237" s="2" t="s">
-        <v>237</v>
+        <v>522</v>
       </c>
       <c r="AE237" s="3"/>
     </row>
@@ -8237,7 +9626,7 @@
       </c>
       <c r="V238" s="3"/>
       <c r="X238" s="2" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
       <c r="AE238" s="3"/>
     </row>
@@ -8260,7 +9649,7 @@
       </c>
       <c r="V239" s="3"/>
       <c r="X239" s="2" t="s">
-        <v>239</v>
+        <v>524</v>
       </c>
       <c r="AE239" s="3"/>
     </row>
@@ -8283,7 +9672,7 @@
       </c>
       <c r="V240" s="3"/>
       <c r="X240" s="2" t="s">
-        <v>240</v>
+        <v>525</v>
       </c>
       <c r="AE240" s="3"/>
     </row>
@@ -8317,25 +9706,34 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S241" t="s">
-        <v>333</v>
+      <c r="S241">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="T241">
+        <v>27</v>
       </c>
       <c r="U241">
         <v>10</v>
       </c>
-      <c r="V241" s="3" t="e">
+      <c r="V241" s="3">
         <f t="shared" ref="V241" si="38">AVERAGE(S241:S250)</f>
-        <v>#DIV/0!</v>
+        <v>2.2859375000000002</v>
       </c>
       <c r="X241" s="1" t="s">
-        <v>241</v>
+        <v>526</v>
+      </c>
+      <c r="AB241">
+        <v>0</v>
+      </c>
+      <c r="AC241">
+        <v>27</v>
       </c>
       <c r="AD241">
         <v>10</v>
       </c>
-      <c r="AE241" s="3" t="e">
+      <c r="AE241" s="3">
         <f t="shared" ref="AE241" si="39">AVERAGE(AB241:AB250)</f>
-        <v>#DIV/0!</v>
+        <v>6.0937499999999999E-2</v>
       </c>
     </row>
     <row r="242" spans="2:31" ht="17.7">
@@ -8355,12 +9753,21 @@
       <c r="N242">
         <v>55</v>
       </c>
-      <c r="S242" t="s">
-        <v>334</v>
+      <c r="S242">
+        <v>0.171875</v>
+      </c>
+      <c r="T242">
+        <v>56</v>
       </c>
       <c r="V242" s="3"/>
       <c r="X242" s="1" t="s">
-        <v>242</v>
+        <v>527</v>
+      </c>
+      <c r="AB242">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AC242">
+        <v>56</v>
       </c>
       <c r="AE242" s="3"/>
     </row>
@@ -8381,12 +9788,21 @@
       <c r="N243">
         <v>81</v>
       </c>
-      <c r="S243" t="s">
-        <v>335</v>
+      <c r="S243">
+        <v>0.53125</v>
+      </c>
+      <c r="T243">
+        <v>82</v>
       </c>
       <c r="V243" s="3"/>
       <c r="X243" s="1" t="s">
-        <v>243</v>
+        <v>528</v>
+      </c>
+      <c r="AB243">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AC243">
+        <v>82</v>
       </c>
       <c r="AE243" s="3"/>
     </row>
@@ -8407,12 +9823,21 @@
       <c r="N244">
         <v>107</v>
       </c>
-      <c r="S244" t="s">
-        <v>336</v>
+      <c r="S244">
+        <v>0.875</v>
+      </c>
+      <c r="T244">
+        <v>113</v>
       </c>
       <c r="V244" s="3"/>
       <c r="X244" s="1" t="s">
-        <v>244</v>
+        <v>529</v>
+      </c>
+      <c r="AB244">
+        <v>0</v>
+      </c>
+      <c r="AC244">
+        <v>113</v>
       </c>
       <c r="AE244" s="3"/>
     </row>
@@ -8433,12 +9858,21 @@
       <c r="N245">
         <v>133</v>
       </c>
-      <c r="S245" t="s">
-        <v>337</v>
+      <c r="S245">
+        <v>1.375</v>
+      </c>
+      <c r="T245">
+        <v>135</v>
       </c>
       <c r="V245" s="3"/>
       <c r="X245" s="1" t="s">
-        <v>245</v>
+        <v>530</v>
+      </c>
+      <c r="AB245">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AC245">
+        <v>135</v>
       </c>
       <c r="AE245" s="3"/>
     </row>
@@ -8459,12 +9893,21 @@
       <c r="N246">
         <v>162</v>
       </c>
-      <c r="S246" t="s">
-        <v>338</v>
+      <c r="S246">
+        <v>2.40625</v>
+      </c>
+      <c r="T246">
+        <v>163</v>
       </c>
       <c r="V246" s="3"/>
       <c r="X246" s="1" t="s">
-        <v>246</v>
+        <v>531</v>
+      </c>
+      <c r="AB246">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AC246">
+        <v>163</v>
       </c>
       <c r="AE246" s="3"/>
     </row>
@@ -8485,12 +9928,21 @@
       <c r="N247">
         <v>175</v>
       </c>
-      <c r="S247" t="s">
-        <v>339</v>
+      <c r="S247">
+        <v>2.671875</v>
+      </c>
+      <c r="T247">
+        <v>182</v>
       </c>
       <c r="V247" s="3"/>
       <c r="X247" s="1" t="s">
-        <v>247</v>
+        <v>532</v>
+      </c>
+      <c r="AB247">
+        <v>0.140625</v>
+      </c>
+      <c r="AC247">
+        <v>182</v>
       </c>
       <c r="AE247" s="3"/>
     </row>
@@ -8511,12 +9963,21 @@
       <c r="N248">
         <v>213</v>
       </c>
-      <c r="S248" t="s">
-        <v>340</v>
+      <c r="S248">
+        <v>3.84375</v>
+      </c>
+      <c r="T248">
+        <v>222</v>
       </c>
       <c r="V248" s="3"/>
       <c r="X248" s="1" t="s">
-        <v>248</v>
+        <v>533</v>
+      </c>
+      <c r="AB248">
+        <v>0.390625</v>
+      </c>
+      <c r="AC248">
+        <v>222</v>
       </c>
       <c r="AE248" s="3"/>
     </row>
@@ -8537,12 +9998,21 @@
       <c r="N249">
         <v>244</v>
       </c>
-      <c r="S249" t="s">
-        <v>341</v>
+      <c r="S249">
+        <v>4.828125</v>
+      </c>
+      <c r="T249">
+        <v>247</v>
       </c>
       <c r="V249" s="3"/>
       <c r="X249" s="1" t="s">
-        <v>249</v>
+        <v>534</v>
+      </c>
+      <c r="AB249">
+        <v>0</v>
+      </c>
+      <c r="AC249">
+        <v>247</v>
       </c>
       <c r="AE249" s="3"/>
     </row>
@@ -8563,12 +10033,21 @@
       <c r="N250">
         <v>272</v>
       </c>
-      <c r="S250" t="s">
-        <v>342</v>
+      <c r="S250">
+        <v>6.109375</v>
+      </c>
+      <c r="T250">
+        <v>275</v>
       </c>
       <c r="V250" s="3"/>
       <c r="X250" s="1" t="s">
-        <v>250</v>
+        <v>535</v>
+      </c>
+      <c r="AB250">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AC250">
+        <v>275</v>
       </c>
       <c r="AE250" s="3"/>
     </row>
@@ -8602,25 +10081,34 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S251" t="s">
-        <v>329</v>
+      <c r="S251">
+        <v>15.734375</v>
+      </c>
+      <c r="T251">
+        <v>510</v>
       </c>
       <c r="U251">
         <v>100</v>
       </c>
-      <c r="V251" s="3" t="e">
+      <c r="V251" s="3">
         <f t="shared" ref="V251" si="40">AVERAGE(S251:S260)</f>
-        <v>#DIV/0!</v>
+        <v>237.57421875</v>
       </c>
       <c r="X251" s="1" t="s">
-        <v>251</v>
+        <v>536</v>
+      </c>
+      <c r="AB251">
+        <v>1.015625</v>
+      </c>
+      <c r="AC251">
+        <v>510</v>
       </c>
       <c r="AD251">
         <v>100</v>
       </c>
-      <c r="AE251" s="3" t="e">
+      <c r="AE251" s="3">
         <f t="shared" ref="AE251" si="41">AVERAGE(AB251:AB260)</f>
-        <v>#DIV/0!</v>
+        <v>194.31640625</v>
       </c>
     </row>
     <row r="252" spans="2:31" ht="17.7">
@@ -8640,12 +10128,21 @@
       <c r="N252">
         <v>484</v>
       </c>
-      <c r="S252" t="s">
-        <v>330</v>
+      <c r="S252">
+        <v>87.171875</v>
+      </c>
+      <c r="T252">
+        <v>1005</v>
       </c>
       <c r="V252" s="3"/>
       <c r="X252" s="1" t="s">
-        <v>252</v>
+        <v>537</v>
+      </c>
+      <c r="AB252">
+        <v>4.671875</v>
+      </c>
+      <c r="AC252">
+        <v>1005</v>
       </c>
       <c r="AE252" s="3"/>
     </row>
@@ -8666,12 +10163,21 @@
       <c r="N253">
         <v>673</v>
       </c>
-      <c r="S253" t="s">
-        <v>331</v>
+      <c r="S253">
+        <v>217.984375</v>
+      </c>
+      <c r="T253">
+        <v>1533</v>
       </c>
       <c r="V253" s="3"/>
       <c r="X253" s="1" t="s">
-        <v>253</v>
+        <v>538</v>
+      </c>
+      <c r="AB253">
+        <v>152.609375</v>
+      </c>
+      <c r="AC253">
+        <v>1533</v>
       </c>
       <c r="AE253" s="3"/>
     </row>
@@ -8692,12 +10198,21 @@
       <c r="N254">
         <v>928</v>
       </c>
-      <c r="S254" t="s">
-        <v>332</v>
+      <c r="S254">
+        <v>629.40625</v>
+      </c>
+      <c r="T254">
+        <v>2225</v>
       </c>
       <c r="V254" s="3"/>
       <c r="X254" s="1" t="s">
-        <v>254</v>
+        <v>539</v>
+      </c>
+      <c r="AB254">
+        <v>618.96875</v>
+      </c>
+      <c r="AC254">
+        <v>2225</v>
       </c>
       <c r="AE254" s="3"/>
     </row>
@@ -8720,7 +10235,7 @@
       </c>
       <c r="V255" s="3"/>
       <c r="X255" s="1" t="s">
-        <v>255</v>
+        <v>540</v>
       </c>
       <c r="AE255" s="3"/>
     </row>
@@ -8743,7 +10258,7 @@
       </c>
       <c r="V256" s="3"/>
       <c r="X256" s="1" t="s">
-        <v>256</v>
+        <v>541</v>
       </c>
       <c r="AE256" s="3"/>
     </row>
@@ -8766,7 +10281,7 @@
       </c>
       <c r="V257" s="3"/>
       <c r="X257" s="1" t="s">
-        <v>257</v>
+        <v>542</v>
       </c>
       <c r="AE257" s="3"/>
     </row>
@@ -8789,7 +10304,7 @@
       </c>
       <c r="V258" s="3"/>
       <c r="X258" s="1" t="s">
-        <v>258</v>
+        <v>543</v>
       </c>
       <c r="AE258" s="3"/>
     </row>
@@ -8812,7 +10327,7 @@
       </c>
       <c r="V259" s="3"/>
       <c r="X259" s="1" t="s">
-        <v>259</v>
+        <v>544</v>
       </c>
       <c r="AE259" s="3"/>
     </row>
@@ -8835,7 +10350,7 @@
       </c>
       <c r="V260" s="3"/>
       <c r="X260" s="1" t="s">
-        <v>260</v>
+        <v>545</v>
       </c>
       <c r="AE260" s="3"/>
     </row>
@@ -8869,28 +10384,34 @@
         <f>AVERAGE(M1:M10)</f>
         <v>3.8821697235107367E-4</v>
       </c>
-      <c r="S261" t="s">
-        <v>343</v>
+      <c r="S261">
+        <v>254.140625</v>
+      </c>
+      <c r="T261">
+        <v>2523</v>
       </c>
       <c r="U261">
         <v>1000</v>
       </c>
-      <c r="V261" s="3" t="e">
+      <c r="V261" s="3">
         <f t="shared" ref="V261" si="42">AVERAGE(S261:S270)</f>
-        <v>#DIV/0!</v>
+        <v>254.140625</v>
       </c>
       <c r="X261" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB261" t="s">
-        <v>347</v>
+        <v>546</v>
+      </c>
+      <c r="AB261">
+        <v>108.453125</v>
+      </c>
+      <c r="AC261">
+        <v>2523</v>
       </c>
       <c r="AD261">
         <v>1000</v>
       </c>
-      <c r="AE261" s="3" t="e">
+      <c r="AE261" s="3">
         <f t="shared" ref="AE261" si="43">AVERAGE(AB261:AB270)</f>
-        <v>#DIV/0!</v>
+        <v>108.453125</v>
       </c>
     </row>
     <row r="262" spans="2:31" ht="17.7">
@@ -8911,7 +10432,7 @@
         <v>4410</v>
       </c>
       <c r="X262" s="1" t="s">
-        <v>262</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="2:31" ht="17.7">
@@ -8932,7 +10453,7 @@
         <v>6830</v>
       </c>
       <c r="X263" s="1" t="s">
-        <v>263</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="2:31" ht="17.7">
@@ -8953,7 +10474,7 @@
         <v>9147</v>
       </c>
       <c r="X264" s="1" t="s">
-        <v>264</v>
+        <v>549</v>
       </c>
     </row>
     <row r="265" spans="2:31" ht="17.7">
@@ -8974,7 +10495,7 @@
         <v>11469</v>
       </c>
       <c r="X265" s="1" t="s">
-        <v>265</v>
+        <v>550</v>
       </c>
     </row>
     <row r="266" spans="2:31" ht="17.7">
@@ -8995,7 +10516,7 @@
         <v>14334</v>
       </c>
       <c r="X266" s="1" t="s">
-        <v>266</v>
+        <v>551</v>
       </c>
     </row>
     <row r="267" spans="2:31" ht="17.7">
@@ -9016,7 +10537,7 @@
         <v>16053</v>
       </c>
       <c r="X267" s="1" t="s">
-        <v>267</v>
+        <v>552</v>
       </c>
     </row>
     <row r="268" spans="2:31" ht="17.7">
@@ -9037,7 +10558,7 @@
         <v>18055</v>
       </c>
       <c r="X268" s="1" t="s">
-        <v>268</v>
+        <v>553</v>
       </c>
     </row>
     <row r="269" spans="2:31" ht="17.7">
@@ -9058,7 +10579,7 @@
         <v>21815</v>
       </c>
       <c r="X269" s="1" t="s">
-        <v>269</v>
+        <v>554</v>
       </c>
     </row>
     <row r="270" spans="2:31" ht="17.7">
@@ -9079,7 +10600,7 @@
         <v>24176</v>
       </c>
       <c r="X270" s="1" t="s">
-        <v>270</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
